--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Romania Liga I_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Romania Liga I_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1832" uniqueCount="384">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1844" uniqueCount="386">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -820,6 +820,9 @@
     <t>['6', '90+6']</t>
   </si>
   <si>
+    <t>['77']</t>
+  </si>
+  <si>
     <t>['45+5']</t>
   </si>
   <si>
@@ -1069,9 +1072,6 @@
     <t>['29', '48']</t>
   </si>
   <si>
-    <t>['77']</t>
-  </si>
-  <si>
     <t>['13', '45+3', '90+1']</t>
   </si>
   <si>
@@ -1166,6 +1166,12 @@
   </si>
   <si>
     <t>['62', '84']</t>
+  </si>
+  <si>
+    <t>['5', '87']</t>
+  </si>
+  <si>
+    <t>['30', '90+6']</t>
   </si>
 </sst>
 </file>
@@ -1527,7 +1533,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP295"/>
+  <dimension ref="A1:BP297"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1786,7 +1792,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q2">
         <v>4</v>
@@ -2070,7 +2076,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>1.78</v>
+        <v>1.68</v>
       </c>
       <c r="AQ3">
         <v>1.11</v>
@@ -2198,7 +2204,7 @@
         <v>87</v>
       </c>
       <c r="P4" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q4">
         <v>3.75</v>
@@ -2610,7 +2616,7 @@
         <v>89</v>
       </c>
       <c r="P6" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q6">
         <v>3.5</v>
@@ -2688,7 +2694,7 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>1.39</v>
+        <v>1.32</v>
       </c>
       <c r="AQ6">
         <v>1.33</v>
@@ -2816,7 +2822,7 @@
         <v>90</v>
       </c>
       <c r="P7" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q7">
         <v>5</v>
@@ -3103,7 +3109,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ8">
-        <v>0.44</v>
+        <v>0.58</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -3228,7 +3234,7 @@
         <v>87</v>
       </c>
       <c r="P9" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q9">
         <v>5.5</v>
@@ -3309,7 +3315,7 @@
         <v>1.28</v>
       </c>
       <c r="AQ9">
-        <v>1.61</v>
+        <v>1.68</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -3640,7 +3646,7 @@
         <v>93</v>
       </c>
       <c r="P11" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q11">
         <v>4.33</v>
@@ -4052,7 +4058,7 @@
         <v>95</v>
       </c>
       <c r="P13" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q13">
         <v>1.95</v>
@@ -4258,7 +4264,7 @@
         <v>96</v>
       </c>
       <c r="P14" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q14">
         <v>3.6</v>
@@ -4464,7 +4470,7 @@
         <v>87</v>
       </c>
       <c r="P15" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q15">
         <v>3.2</v>
@@ -4670,7 +4676,7 @@
         <v>97</v>
       </c>
       <c r="P16" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q16">
         <v>2.88</v>
@@ -5082,7 +5088,7 @@
         <v>98</v>
       </c>
       <c r="P18" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q18">
         <v>3</v>
@@ -5288,7 +5294,7 @@
         <v>99</v>
       </c>
       <c r="P19" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q19">
         <v>2</v>
@@ -5366,10 +5372,10 @@
         <v>0</v>
       </c>
       <c r="AP19">
-        <v>1.78</v>
+        <v>1.68</v>
       </c>
       <c r="AQ19">
-        <v>0.44</v>
+        <v>0.58</v>
       </c>
       <c r="AR19">
         <v>1.95</v>
@@ -5700,7 +5706,7 @@
         <v>87</v>
       </c>
       <c r="P21" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q21">
         <v>4.75</v>
@@ -5906,7 +5912,7 @@
         <v>101</v>
       </c>
       <c r="P22" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q22">
         <v>2.15</v>
@@ -6193,7 +6199,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ23">
-        <v>1.61</v>
+        <v>1.68</v>
       </c>
       <c r="AR23">
         <v>1.15</v>
@@ -6318,7 +6324,7 @@
         <v>87</v>
       </c>
       <c r="P24" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q24">
         <v>3.25</v>
@@ -6396,7 +6402,7 @@
         <v>0</v>
       </c>
       <c r="AP24">
-        <v>1.39</v>
+        <v>1.32</v>
       </c>
       <c r="AQ24">
         <v>0.95</v>
@@ -6524,7 +6530,7 @@
         <v>87</v>
       </c>
       <c r="P25" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q25">
         <v>4.33</v>
@@ -7142,7 +7148,7 @@
         <v>87</v>
       </c>
       <c r="P28" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q28">
         <v>3</v>
@@ -7348,7 +7354,7 @@
         <v>105</v>
       </c>
       <c r="P29" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q29">
         <v>2.55</v>
@@ -7554,7 +7560,7 @@
         <v>106</v>
       </c>
       <c r="P30" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q30">
         <v>3.5</v>
@@ -7632,7 +7638,7 @@
         <v>3</v>
       </c>
       <c r="AP30">
-        <v>1.39</v>
+        <v>1.32</v>
       </c>
       <c r="AQ30">
         <v>1.47</v>
@@ -8790,7 +8796,7 @@
         <v>112</v>
       </c>
       <c r="P36" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q36">
         <v>4.9</v>
@@ -8871,7 +8877,7 @@
         <v>1.28</v>
       </c>
       <c r="AQ36">
-        <v>1.61</v>
+        <v>1.68</v>
       </c>
       <c r="AR36">
         <v>1.63</v>
@@ -8996,7 +9002,7 @@
         <v>87</v>
       </c>
       <c r="P37" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q37">
         <v>2.3</v>
@@ -9074,7 +9080,7 @@
         <v>1</v>
       </c>
       <c r="AP37">
-        <v>1.78</v>
+        <v>1.68</v>
       </c>
       <c r="AQ37">
         <v>1</v>
@@ -9283,7 +9289,7 @@
         <v>1.28</v>
       </c>
       <c r="AQ38">
-        <v>0.44</v>
+        <v>0.58</v>
       </c>
       <c r="AR38">
         <v>1.58</v>
@@ -9408,7 +9414,7 @@
         <v>114</v>
       </c>
       <c r="P39" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q39">
         <v>3.05</v>
@@ -9486,7 +9492,7 @@
         <v>1.5</v>
       </c>
       <c r="AP39">
-        <v>1.39</v>
+        <v>1.32</v>
       </c>
       <c r="AQ39">
         <v>0.68</v>
@@ -10026,7 +10032,7 @@
         <v>116</v>
       </c>
       <c r="P42" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q42">
         <v>2.6</v>
@@ -10232,7 +10238,7 @@
         <v>117</v>
       </c>
       <c r="P43" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q43">
         <v>2.55</v>
@@ -10310,7 +10316,7 @@
         <v>1.5</v>
       </c>
       <c r="AP43">
-        <v>1.78</v>
+        <v>1.68</v>
       </c>
       <c r="AQ43">
         <v>1.47</v>
@@ -10438,7 +10444,7 @@
         <v>118</v>
       </c>
       <c r="P44" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q44">
         <v>1.83</v>
@@ -10850,7 +10856,7 @@
         <v>119</v>
       </c>
       <c r="P46" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q46">
         <v>4.85</v>
@@ -11056,7 +11062,7 @@
         <v>120</v>
       </c>
       <c r="P47" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q47">
         <v>3.66</v>
@@ -11262,7 +11268,7 @@
         <v>121</v>
       </c>
       <c r="P48" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q48">
         <v>3.4</v>
@@ -11549,7 +11555,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ49">
-        <v>0.44</v>
+        <v>0.58</v>
       </c>
       <c r="AR49">
         <v>1.63</v>
@@ -11961,7 +11967,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ51">
-        <v>1.61</v>
+        <v>1.68</v>
       </c>
       <c r="AR51">
         <v>2.11</v>
@@ -12086,7 +12092,7 @@
         <v>125</v>
       </c>
       <c r="P52" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q52">
         <v>3.1</v>
@@ -12498,7 +12504,7 @@
         <v>127</v>
       </c>
       <c r="P54" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Q54">
         <v>2.75</v>
@@ -12576,7 +12582,7 @@
         <v>1</v>
       </c>
       <c r="AP54">
-        <v>1.39</v>
+        <v>1.32</v>
       </c>
       <c r="AQ54">
         <v>1.33</v>
@@ -12782,7 +12788,7 @@
         <v>1.33</v>
       </c>
       <c r="AP55">
-        <v>1.78</v>
+        <v>1.68</v>
       </c>
       <c r="AQ55">
         <v>0.63</v>
@@ -12910,7 +12916,7 @@
         <v>93</v>
       </c>
       <c r="P56" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Q56">
         <v>4.7</v>
@@ -13197,7 +13203,7 @@
         <v>2.26</v>
       </c>
       <c r="AQ57">
-        <v>1.61</v>
+        <v>1.68</v>
       </c>
       <c r="AR57">
         <v>1.71</v>
@@ -13528,7 +13534,7 @@
         <v>87</v>
       </c>
       <c r="P59" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Q59">
         <v>2.6</v>
@@ -13734,7 +13740,7 @@
         <v>131</v>
       </c>
       <c r="P60" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q60">
         <v>3.5</v>
@@ -14558,7 +14564,7 @@
         <v>133</v>
       </c>
       <c r="P64" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Q64">
         <v>2.5</v>
@@ -15176,7 +15182,7 @@
         <v>87</v>
       </c>
       <c r="P67" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Q67">
         <v>3</v>
@@ -15382,7 +15388,7 @@
         <v>135</v>
       </c>
       <c r="P68" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Q68">
         <v>2.9</v>
@@ -15463,7 +15469,7 @@
         <v>1.28</v>
       </c>
       <c r="AQ68">
-        <v>0.44</v>
+        <v>0.58</v>
       </c>
       <c r="AR68">
         <v>1.37</v>
@@ -15794,7 +15800,7 @@
         <v>137</v>
       </c>
       <c r="P70" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Q70">
         <v>4.33</v>
@@ -16000,7 +16006,7 @@
         <v>87</v>
       </c>
       <c r="P71" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Q71">
         <v>2.57</v>
@@ -16206,7 +16212,7 @@
         <v>87</v>
       </c>
       <c r="P72" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Q72">
         <v>4.1</v>
@@ -16412,7 +16418,7 @@
         <v>138</v>
       </c>
       <c r="P73" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="Q73">
         <v>2.7</v>
@@ -16618,7 +16624,7 @@
         <v>139</v>
       </c>
       <c r="P74" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Q74">
         <v>3.4</v>
@@ -16905,7 +16911,7 @@
         <v>1.37</v>
       </c>
       <c r="AQ75">
-        <v>1.61</v>
+        <v>1.68</v>
       </c>
       <c r="AR75">
         <v>1.8</v>
@@ -17108,7 +17114,7 @@
         <v>1.25</v>
       </c>
       <c r="AP76">
-        <v>1.39</v>
+        <v>1.32</v>
       </c>
       <c r="AQ76">
         <v>0.72</v>
@@ -17236,7 +17242,7 @@
         <v>141</v>
       </c>
       <c r="P77" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Q77">
         <v>3.4</v>
@@ -17520,7 +17526,7 @@
         <v>2.25</v>
       </c>
       <c r="AP78">
-        <v>1.78</v>
+        <v>1.68</v>
       </c>
       <c r="AQ78">
         <v>1.37</v>
@@ -18060,7 +18066,7 @@
         <v>144</v>
       </c>
       <c r="P81" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Q81">
         <v>2.86</v>
@@ -18347,7 +18353,7 @@
         <v>1.61</v>
       </c>
       <c r="AQ82">
-        <v>0.44</v>
+        <v>0.58</v>
       </c>
       <c r="AR82">
         <v>1.77</v>
@@ -19090,7 +19096,7 @@
         <v>148</v>
       </c>
       <c r="P86" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="Q86">
         <v>2.05</v>
@@ -19708,7 +19714,7 @@
         <v>150</v>
       </c>
       <c r="P89" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Q89">
         <v>2</v>
@@ -19786,7 +19792,7 @@
         <v>1.5</v>
       </c>
       <c r="AP89">
-        <v>1.78</v>
+        <v>1.68</v>
       </c>
       <c r="AQ89">
         <v>0.74</v>
@@ -19992,7 +19998,7 @@
         <v>0.4</v>
       </c>
       <c r="AP90">
-        <v>1.39</v>
+        <v>1.32</v>
       </c>
       <c r="AQ90">
         <v>1.06</v>
@@ -20201,7 +20207,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ91">
-        <v>1.61</v>
+        <v>1.68</v>
       </c>
       <c r="AR91">
         <v>1.33</v>
@@ -20532,7 +20538,7 @@
         <v>87</v>
       </c>
       <c r="P93" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q93">
         <v>3.5</v>
@@ -20738,7 +20744,7 @@
         <v>151</v>
       </c>
       <c r="P94" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Q94">
         <v>4.4</v>
@@ -21356,7 +21362,7 @@
         <v>154</v>
       </c>
       <c r="P97" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Q97">
         <v>3.7</v>
@@ -22180,7 +22186,7 @@
         <v>90</v>
       </c>
       <c r="P101" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="Q101">
         <v>1.98</v>
@@ -22592,7 +22598,7 @@
         <v>157</v>
       </c>
       <c r="P103" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="Q103">
         <v>2.15</v>
@@ -22673,7 +22679,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ103">
-        <v>0.44</v>
+        <v>0.58</v>
       </c>
       <c r="AR103">
         <v>1.45</v>
@@ -23004,7 +23010,7 @@
         <v>158</v>
       </c>
       <c r="P105" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="Q105">
         <v>2.15</v>
@@ -23210,7 +23216,7 @@
         <v>87</v>
       </c>
       <c r="P106" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="Q106">
         <v>3.85</v>
@@ -23828,7 +23834,7 @@
         <v>160</v>
       </c>
       <c r="P109" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="Q109">
         <v>4.1</v>
@@ -23906,7 +23912,7 @@
         <v>2.29</v>
       </c>
       <c r="AP109">
-        <v>1.39</v>
+        <v>1.32</v>
       </c>
       <c r="AQ109">
         <v>2.11</v>
@@ -24034,7 +24040,7 @@
         <v>161</v>
       </c>
       <c r="P110" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="Q110">
         <v>2.6</v>
@@ -24318,10 +24324,10 @@
         <v>1.29</v>
       </c>
       <c r="AP111">
-        <v>1.78</v>
+        <v>1.68</v>
       </c>
       <c r="AQ111">
-        <v>1.61</v>
+        <v>1.68</v>
       </c>
       <c r="AR111">
         <v>1.93</v>
@@ -24446,7 +24452,7 @@
         <v>87</v>
       </c>
       <c r="P112" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="Q112">
         <v>3.6</v>
@@ -24652,7 +24658,7 @@
         <v>163</v>
       </c>
       <c r="P113" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="Q113">
         <v>2.5</v>
@@ -24858,7 +24864,7 @@
         <v>164</v>
       </c>
       <c r="P114" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q114">
         <v>3.25</v>
@@ -25476,7 +25482,7 @@
         <v>136</v>
       </c>
       <c r="P117" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="Q117">
         <v>2.68</v>
@@ -25763,7 +25769,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ118">
-        <v>0.44</v>
+        <v>0.58</v>
       </c>
       <c r="AR118">
         <v>1.89</v>
@@ -25888,7 +25894,7 @@
         <v>156</v>
       </c>
       <c r="P119" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="Q119">
         <v>5</v>
@@ -26918,7 +26924,7 @@
         <v>168</v>
       </c>
       <c r="P124" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="Q124">
         <v>5.15</v>
@@ -27330,7 +27336,7 @@
         <v>169</v>
       </c>
       <c r="P126" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="Q126">
         <v>3.25</v>
@@ -27948,7 +27954,7 @@
         <v>172</v>
       </c>
       <c r="P129" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="Q129">
         <v>3.1</v>
@@ -28438,10 +28444,10 @@
         <v>0.38</v>
       </c>
       <c r="AP131">
-        <v>1.39</v>
+        <v>1.32</v>
       </c>
       <c r="AQ131">
-        <v>0.44</v>
+        <v>0.58</v>
       </c>
       <c r="AR131">
         <v>1.51</v>
@@ -28566,7 +28572,7 @@
         <v>174</v>
       </c>
       <c r="P132" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="Q132">
         <v>3.98</v>
@@ -28978,7 +28984,7 @@
         <v>175</v>
       </c>
       <c r="P134" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="Q134">
         <v>4</v>
@@ -29059,7 +29065,7 @@
         <v>1.37</v>
       </c>
       <c r="AQ134">
-        <v>1.61</v>
+        <v>1.68</v>
       </c>
       <c r="AR134">
         <v>1.45</v>
@@ -29184,7 +29190,7 @@
         <v>87</v>
       </c>
       <c r="P135" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="Q135">
         <v>7</v>
@@ -29596,7 +29602,7 @@
         <v>177</v>
       </c>
       <c r="P137" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="Q137">
         <v>2.39</v>
@@ -29674,7 +29680,7 @@
         <v>1.75</v>
       </c>
       <c r="AP137">
-        <v>1.78</v>
+        <v>1.68</v>
       </c>
       <c r="AQ137">
         <v>1.33</v>
@@ -30008,7 +30014,7 @@
         <v>178</v>
       </c>
       <c r="P139" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="Q139">
         <v>3.94</v>
@@ -31038,7 +31044,7 @@
         <v>87</v>
       </c>
       <c r="P144" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="Q144">
         <v>1.98</v>
@@ -31656,7 +31662,7 @@
         <v>152</v>
       </c>
       <c r="P147" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="Q147">
         <v>2.27</v>
@@ -31734,7 +31740,7 @@
         <v>1.11</v>
       </c>
       <c r="AP147">
-        <v>1.78</v>
+        <v>1.68</v>
       </c>
       <c r="AQ147">
         <v>0.95</v>
@@ -31862,7 +31868,7 @@
         <v>184</v>
       </c>
       <c r="P148" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="Q148">
         <v>3.5</v>
@@ -31943,7 +31949,7 @@
         <v>2</v>
       </c>
       <c r="AQ148">
-        <v>1.61</v>
+        <v>1.68</v>
       </c>
       <c r="AR148">
         <v>1.65</v>
@@ -32561,7 +32567,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ151">
-        <v>0.44</v>
+        <v>0.58</v>
       </c>
       <c r="AR151">
         <v>1.71</v>
@@ -32892,7 +32898,7 @@
         <v>188</v>
       </c>
       <c r="P153" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="Q153">
         <v>3.25</v>
@@ -33382,7 +33388,7 @@
         <v>1.56</v>
       </c>
       <c r="AP155">
-        <v>1.39</v>
+        <v>1.32</v>
       </c>
       <c r="AQ155">
         <v>1.33</v>
@@ -33716,7 +33722,7 @@
         <v>189</v>
       </c>
       <c r="P157" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="Q157">
         <v>1.95</v>
@@ -34540,7 +34546,7 @@
         <v>87</v>
       </c>
       <c r="P161" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="Q161">
         <v>3.25</v>
@@ -34952,7 +34958,7 @@
         <v>138</v>
       </c>
       <c r="P163" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="Q163">
         <v>4.7</v>
@@ -35158,7 +35164,7 @@
         <v>193</v>
       </c>
       <c r="P164" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="Q164">
         <v>3.75</v>
@@ -35239,7 +35245,7 @@
         <v>1.84</v>
       </c>
       <c r="AQ164">
-        <v>1.61</v>
+        <v>1.68</v>
       </c>
       <c r="AR164">
         <v>1.38</v>
@@ -35982,7 +35988,7 @@
         <v>87</v>
       </c>
       <c r="P168" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="Q168">
         <v>2.55</v>
@@ -36063,7 +36069,7 @@
         <v>1.37</v>
       </c>
       <c r="AQ168">
-        <v>0.44</v>
+        <v>0.58</v>
       </c>
       <c r="AR168">
         <v>1.49</v>
@@ -36600,7 +36606,7 @@
         <v>197</v>
       </c>
       <c r="P171" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="Q171">
         <v>2.4</v>
@@ -36678,7 +36684,7 @@
         <v>1.1</v>
       </c>
       <c r="AP171">
-        <v>1.78</v>
+        <v>1.68</v>
       </c>
       <c r="AQ171">
         <v>0.68</v>
@@ -37090,7 +37096,7 @@
         <v>0.7</v>
       </c>
       <c r="AP173">
-        <v>1.39</v>
+        <v>1.32</v>
       </c>
       <c r="AQ173">
         <v>0.63</v>
@@ -37424,7 +37430,7 @@
         <v>201</v>
       </c>
       <c r="P175" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="Q175">
         <v>2.48</v>
@@ -38248,7 +38254,7 @@
         <v>204</v>
       </c>
       <c r="P179" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="Q179">
         <v>3.6</v>
@@ -38660,7 +38666,7 @@
         <v>205</v>
       </c>
       <c r="P181" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="Q181">
         <v>4</v>
@@ -38947,7 +38953,7 @@
         <v>2</v>
       </c>
       <c r="AQ182">
-        <v>0.44</v>
+        <v>0.58</v>
       </c>
       <c r="AR182">
         <v>1.59</v>
@@ -39278,7 +39284,7 @@
         <v>87</v>
       </c>
       <c r="P184" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="Q184">
         <v>3.2</v>
@@ -39484,7 +39490,7 @@
         <v>208</v>
       </c>
       <c r="P185" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="Q185">
         <v>1.95</v>
@@ -39690,7 +39696,7 @@
         <v>209</v>
       </c>
       <c r="P186" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="Q186">
         <v>3.15</v>
@@ -40102,7 +40108,7 @@
         <v>211</v>
       </c>
       <c r="P188" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="Q188">
         <v>3.8</v>
@@ -40180,7 +40186,7 @@
         <v>1</v>
       </c>
       <c r="AP188">
-        <v>1.39</v>
+        <v>1.32</v>
       </c>
       <c r="AQ188">
         <v>1.37</v>
@@ -40386,7 +40392,7 @@
         <v>1.73</v>
       </c>
       <c r="AP189">
-        <v>1.78</v>
+        <v>1.68</v>
       </c>
       <c r="AQ189">
         <v>1.33</v>
@@ -40514,7 +40520,7 @@
         <v>213</v>
       </c>
       <c r="P190" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="Q190">
         <v>2.5</v>
@@ -40720,7 +40726,7 @@
         <v>214</v>
       </c>
       <c r="P191" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="Q191">
         <v>3.2</v>
@@ -40801,7 +40807,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ191">
-        <v>1.61</v>
+        <v>1.68</v>
       </c>
       <c r="AR191">
         <v>1.59</v>
@@ -41544,7 +41550,7 @@
         <v>216</v>
       </c>
       <c r="P195" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="Q195">
         <v>2.4</v>
@@ -42574,7 +42580,7 @@
         <v>217</v>
       </c>
       <c r="P200" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="Q200">
         <v>2.7</v>
@@ -42655,7 +42661,7 @@
         <v>1.84</v>
       </c>
       <c r="AQ200">
-        <v>0.44</v>
+        <v>0.58</v>
       </c>
       <c r="AR200">
         <v>1.45</v>
@@ -42780,7 +42786,7 @@
         <v>87</v>
       </c>
       <c r="P201" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="Q201">
         <v>2.09</v>
@@ -43064,7 +43070,7 @@
         <v>1</v>
       </c>
       <c r="AP202">
-        <v>1.39</v>
+        <v>1.32</v>
       </c>
       <c r="AQ202">
         <v>0.74</v>
@@ -43270,7 +43276,7 @@
         <v>0.83</v>
       </c>
       <c r="AP203">
-        <v>1.78</v>
+        <v>1.68</v>
       </c>
       <c r="AQ203">
         <v>0.72</v>
@@ -43398,7 +43404,7 @@
         <v>87</v>
       </c>
       <c r="P204" t="s">
-        <v>351</v>
+        <v>268</v>
       </c>
       <c r="Q204">
         <v>3.1</v>
@@ -43891,7 +43897,7 @@
         <v>1.28</v>
       </c>
       <c r="AQ206">
-        <v>1.61</v>
+        <v>1.68</v>
       </c>
       <c r="AR206">
         <v>1.42</v>
@@ -45458,7 +45464,7 @@
         <v>224</v>
       </c>
       <c r="P214" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="Q214">
         <v>4.55</v>
@@ -45951,7 +45957,7 @@
         <v>2.26</v>
       </c>
       <c r="AQ216">
-        <v>0.44</v>
+        <v>0.58</v>
       </c>
       <c r="AR216">
         <v>1.77</v>
@@ -47184,7 +47190,7 @@
         <v>1.08</v>
       </c>
       <c r="AP222">
-        <v>1.78</v>
+        <v>1.68</v>
       </c>
       <c r="AQ222">
         <v>1.06</v>
@@ -47596,10 +47602,10 @@
         <v>1.31</v>
       </c>
       <c r="AP224">
-        <v>1.39</v>
+        <v>1.32</v>
       </c>
       <c r="AQ224">
-        <v>1.61</v>
+        <v>1.68</v>
       </c>
       <c r="AR224">
         <v>1.55</v>
@@ -48835,7 +48841,7 @@
         <v>1.37</v>
       </c>
       <c r="AQ230">
-        <v>0.44</v>
+        <v>0.58</v>
       </c>
       <c r="AR230">
         <v>1.61</v>
@@ -50480,7 +50486,7 @@
         <v>1</v>
       </c>
       <c r="AP238">
-        <v>1.39</v>
+        <v>1.32</v>
       </c>
       <c r="AQ238">
         <v>1.11</v>
@@ -50686,7 +50692,7 @@
         <v>2.21</v>
       </c>
       <c r="AP239">
-        <v>1.78</v>
+        <v>1.68</v>
       </c>
       <c r="AQ239">
         <v>2.11</v>
@@ -50895,7 +50901,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ240">
-        <v>1.61</v>
+        <v>1.68</v>
       </c>
       <c r="AR240">
         <v>1.64</v>
@@ -51307,7 +51313,7 @@
         <v>1.37</v>
       </c>
       <c r="AQ242">
-        <v>0.44</v>
+        <v>0.58</v>
       </c>
       <c r="AR242">
         <v>1.56</v>
@@ -51510,7 +51516,7 @@
         <v>1.4</v>
       </c>
       <c r="AP243">
-        <v>1.78</v>
+        <v>1.68</v>
       </c>
       <c r="AQ243">
         <v>1.47</v>
@@ -51925,7 +51931,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ245">
-        <v>1.61</v>
+        <v>1.68</v>
       </c>
       <c r="AR245">
         <v>1.83</v>
@@ -52746,7 +52752,7 @@
         <v>0.73</v>
       </c>
       <c r="AP249">
-        <v>1.39</v>
+        <v>1.32</v>
       </c>
       <c r="AQ249">
         <v>0.68</v>
@@ -54603,7 +54609,7 @@
         <v>1.84</v>
       </c>
       <c r="AQ258">
-        <v>0.44</v>
+        <v>0.58</v>
       </c>
       <c r="AR258">
         <v>1.48</v>
@@ -55012,7 +55018,7 @@
         <v>0.88</v>
       </c>
       <c r="AP260">
-        <v>1.39</v>
+        <v>1.32</v>
       </c>
       <c r="AQ260">
         <v>0.95</v>
@@ -55218,7 +55224,7 @@
         <v>1.25</v>
       </c>
       <c r="AP261">
-        <v>1.78</v>
+        <v>1.68</v>
       </c>
       <c r="AQ261">
         <v>1.37</v>
@@ -55633,7 +55639,7 @@
         <v>2.26</v>
       </c>
       <c r="AQ263">
-        <v>1.61</v>
+        <v>1.68</v>
       </c>
       <c r="AR263">
         <v>1.77</v>
@@ -57690,7 +57696,7 @@
         <v>1.06</v>
       </c>
       <c r="AP273">
-        <v>1.78</v>
+        <v>1.68</v>
       </c>
       <c r="AQ273">
         <v>1.11</v>
@@ -57899,7 +57905,7 @@
         <v>2</v>
       </c>
       <c r="AQ274">
-        <v>0.44</v>
+        <v>0.58</v>
       </c>
       <c r="AR274">
         <v>1.54</v>
@@ -58436,7 +58442,7 @@
         <v>180</v>
       </c>
       <c r="P277" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="Q277">
         <v>2.85</v>
@@ -59135,7 +59141,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ280">
-        <v>1.61</v>
+        <v>1.68</v>
       </c>
       <c r="AR280">
         <v>1.64</v>
@@ -59260,7 +59266,7 @@
         <v>256</v>
       </c>
       <c r="P281" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q281">
         <v>3</v>
@@ -59338,7 +59344,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AP281">
-        <v>1.39</v>
+        <v>1.32</v>
       </c>
       <c r="AQ281">
         <v>1.06</v>
@@ -59672,7 +59678,7 @@
         <v>257</v>
       </c>
       <c r="P283" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Q283">
         <v>3.35</v>
@@ -61526,7 +61532,7 @@
         <v>265</v>
       </c>
       <c r="P292" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q292">
         <v>2.55</v>
@@ -61825,7 +61831,7 @@
         <v>2.73</v>
       </c>
       <c r="AU293">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AV293">
         <v>5</v>
@@ -61837,7 +61843,7 @@
         <v>3</v>
       </c>
       <c r="AY293">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AZ293">
         <v>8</v>
@@ -62301,6 +62307,418 @@
       </c>
       <c r="BP295">
         <v>1.24</v>
+      </c>
+    </row>
+    <row r="296" spans="1:68">
+      <c r="A296" s="1">
+        <v>295</v>
+      </c>
+      <c r="B296">
+        <v>7383783</v>
+      </c>
+      <c r="C296" t="s">
+        <v>68</v>
+      </c>
+      <c r="D296" t="s">
+        <v>69</v>
+      </c>
+      <c r="E296" s="2">
+        <v>45411.47916666666</v>
+      </c>
+      <c r="F296">
+        <v>7</v>
+      </c>
+      <c r="G296" t="s">
+        <v>74</v>
+      </c>
+      <c r="H296" t="s">
+        <v>84</v>
+      </c>
+      <c r="I296">
+        <v>1</v>
+      </c>
+      <c r="J296">
+        <v>1</v>
+      </c>
+      <c r="K296">
+        <v>2</v>
+      </c>
+      <c r="L296">
+        <v>1</v>
+      </c>
+      <c r="M296">
+        <v>2</v>
+      </c>
+      <c r="N296">
+        <v>3</v>
+      </c>
+      <c r="O296" t="s">
+        <v>136</v>
+      </c>
+      <c r="P296" t="s">
+        <v>384</v>
+      </c>
+      <c r="Q296">
+        <v>2.58</v>
+      </c>
+      <c r="R296">
+        <v>2.03</v>
+      </c>
+      <c r="S296">
+        <v>4.45</v>
+      </c>
+      <c r="T296">
+        <v>1.46</v>
+      </c>
+      <c r="U296">
+        <v>2.6</v>
+      </c>
+      <c r="V296">
+        <v>3.15</v>
+      </c>
+      <c r="W296">
+        <v>1.33</v>
+      </c>
+      <c r="X296">
+        <v>8.4</v>
+      </c>
+      <c r="Y296">
+        <v>1.05</v>
+      </c>
+      <c r="Z296">
+        <v>2.3</v>
+      </c>
+      <c r="AA296">
+        <v>3.2</v>
+      </c>
+      <c r="AB296">
+        <v>2.95</v>
+      </c>
+      <c r="AC296">
+        <v>1.04</v>
+      </c>
+      <c r="AD296">
+        <v>7.7</v>
+      </c>
+      <c r="AE296">
+        <v>1.36</v>
+      </c>
+      <c r="AF296">
+        <v>2.79</v>
+      </c>
+      <c r="AG296">
+        <v>2.29</v>
+      </c>
+      <c r="AH296">
+        <v>1.55</v>
+      </c>
+      <c r="AI296">
+        <v>1.93</v>
+      </c>
+      <c r="AJ296">
+        <v>1.78</v>
+      </c>
+      <c r="AK296">
+        <v>1.25</v>
+      </c>
+      <c r="AL296">
+        <v>1.3</v>
+      </c>
+      <c r="AM296">
+        <v>1.79</v>
+      </c>
+      <c r="AN296">
+        <v>1.39</v>
+      </c>
+      <c r="AO296">
+        <v>0.44</v>
+      </c>
+      <c r="AP296">
+        <v>1.32</v>
+      </c>
+      <c r="AQ296">
+        <v>0.58</v>
+      </c>
+      <c r="AR296">
+        <v>1.52</v>
+      </c>
+      <c r="AS296">
+        <v>1.22</v>
+      </c>
+      <c r="AT296">
+        <v>2.74</v>
+      </c>
+      <c r="AU296">
+        <v>6</v>
+      </c>
+      <c r="AV296">
+        <v>4</v>
+      </c>
+      <c r="AW296">
+        <v>3</v>
+      </c>
+      <c r="AX296">
+        <v>2</v>
+      </c>
+      <c r="AY296">
+        <v>9</v>
+      </c>
+      <c r="AZ296">
+        <v>6</v>
+      </c>
+      <c r="BA296">
+        <v>3</v>
+      </c>
+      <c r="BB296">
+        <v>3</v>
+      </c>
+      <c r="BC296">
+        <v>6</v>
+      </c>
+      <c r="BD296">
+        <v>1.68</v>
+      </c>
+      <c r="BE296">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="BF296">
+        <v>2.74</v>
+      </c>
+      <c r="BG296">
+        <v>1.35</v>
+      </c>
+      <c r="BH296">
+        <v>2.85</v>
+      </c>
+      <c r="BI296">
+        <v>1.7</v>
+      </c>
+      <c r="BJ296">
+        <v>2.05</v>
+      </c>
+      <c r="BK296">
+        <v>2.07</v>
+      </c>
+      <c r="BL296">
+        <v>1.64</v>
+      </c>
+      <c r="BM296">
+        <v>2.75</v>
+      </c>
+      <c r="BN296">
+        <v>1.37</v>
+      </c>
+      <c r="BO296">
+        <v>3.8</v>
+      </c>
+      <c r="BP296">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="297" spans="1:68">
+      <c r="A297" s="1">
+        <v>296</v>
+      </c>
+      <c r="B297">
+        <v>7383658</v>
+      </c>
+      <c r="C297" t="s">
+        <v>68</v>
+      </c>
+      <c r="D297" t="s">
+        <v>69</v>
+      </c>
+      <c r="E297" s="2">
+        <v>45411.60416666666</v>
+      </c>
+      <c r="F297">
+        <v>7</v>
+      </c>
+      <c r="G297" t="s">
+        <v>71</v>
+      </c>
+      <c r="H297" t="s">
+        <v>85</v>
+      </c>
+      <c r="I297">
+        <v>0</v>
+      </c>
+      <c r="J297">
+        <v>1</v>
+      </c>
+      <c r="K297">
+        <v>1</v>
+      </c>
+      <c r="L297">
+        <v>1</v>
+      </c>
+      <c r="M297">
+        <v>2</v>
+      </c>
+      <c r="N297">
+        <v>3</v>
+      </c>
+      <c r="O297" t="s">
+        <v>268</v>
+      </c>
+      <c r="P297" t="s">
+        <v>385</v>
+      </c>
+      <c r="Q297">
+        <v>2.75</v>
+      </c>
+      <c r="R297">
+        <v>2.1</v>
+      </c>
+      <c r="S297">
+        <v>3.7</v>
+      </c>
+      <c r="T297">
+        <v>1.4</v>
+      </c>
+      <c r="U297">
+        <v>2.75</v>
+      </c>
+      <c r="V297">
+        <v>2.8</v>
+      </c>
+      <c r="W297">
+        <v>1.38</v>
+      </c>
+      <c r="X297">
+        <v>7.5</v>
+      </c>
+      <c r="Y297">
+        <v>1.08</v>
+      </c>
+      <c r="Z297">
+        <v>2.49</v>
+      </c>
+      <c r="AA297">
+        <v>3.51</v>
+      </c>
+      <c r="AB297">
+        <v>2.37</v>
+      </c>
+      <c r="AC297">
+        <v>1.05</v>
+      </c>
+      <c r="AD297">
+        <v>11.5</v>
+      </c>
+      <c r="AE297">
+        <v>1.28</v>
+      </c>
+      <c r="AF297">
+        <v>3.3</v>
+      </c>
+      <c r="AG297">
+        <v>1.85</v>
+      </c>
+      <c r="AH297">
+        <v>1.88</v>
+      </c>
+      <c r="AI297">
+        <v>1.72</v>
+      </c>
+      <c r="AJ297">
+        <v>2</v>
+      </c>
+      <c r="AK297">
+        <v>1.32</v>
+      </c>
+      <c r="AL297">
+        <v>1.28</v>
+      </c>
+      <c r="AM297">
+        <v>1.62</v>
+      </c>
+      <c r="AN297">
+        <v>1.78</v>
+      </c>
+      <c r="AO297">
+        <v>1.61</v>
+      </c>
+      <c r="AP297">
+        <v>1.68</v>
+      </c>
+      <c r="AQ297">
+        <v>1.68</v>
+      </c>
+      <c r="AR297">
+        <v>1.8</v>
+      </c>
+      <c r="AS297">
+        <v>1.55</v>
+      </c>
+      <c r="AT297">
+        <v>3.35</v>
+      </c>
+      <c r="AU297">
+        <v>5</v>
+      </c>
+      <c r="AV297">
+        <v>3</v>
+      </c>
+      <c r="AW297">
+        <v>6</v>
+      </c>
+      <c r="AX297">
+        <v>8</v>
+      </c>
+      <c r="AY297">
+        <v>11</v>
+      </c>
+      <c r="AZ297">
+        <v>11</v>
+      </c>
+      <c r="BA297">
+        <v>6</v>
+      </c>
+      <c r="BB297">
+        <v>3</v>
+      </c>
+      <c r="BC297">
+        <v>9</v>
+      </c>
+      <c r="BD297">
+        <v>2.07</v>
+      </c>
+      <c r="BE297">
+        <v>7.75</v>
+      </c>
+      <c r="BF297">
+        <v>2.13</v>
+      </c>
+      <c r="BG297">
+        <v>1.4</v>
+      </c>
+      <c r="BH297">
+        <v>2.65</v>
+      </c>
+      <c r="BI297">
+        <v>1.73</v>
+      </c>
+      <c r="BJ297">
+        <v>2</v>
+      </c>
+      <c r="BK297">
+        <v>2.2</v>
+      </c>
+      <c r="BL297">
+        <v>1.57</v>
+      </c>
+      <c r="BM297">
+        <v>2.95</v>
+      </c>
+      <c r="BN297">
+        <v>1.32</v>
+      </c>
+      <c r="BO297">
+        <v>4.2</v>
+      </c>
+      <c r="BP297">
+        <v>1.17</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Romania Liga I_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Romania Liga I_20232024.xlsx
@@ -62449,13 +62449,13 @@
         <v>2.74</v>
       </c>
       <c r="AU296">
+        <v>5</v>
+      </c>
+      <c r="AV296">
         <v>6</v>
       </c>
-      <c r="AV296">
+      <c r="AW296">
         <v>4</v>
-      </c>
-      <c r="AW296">
-        <v>3</v>
       </c>
       <c r="AX296">
         <v>2</v>
@@ -62464,7 +62464,7 @@
         <v>9</v>
       </c>
       <c r="AZ296">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BA296">
         <v>3</v>
@@ -62655,22 +62655,22 @@
         <v>3.35</v>
       </c>
       <c r="AU297">
+        <v>4</v>
+      </c>
+      <c r="AV297">
         <v>5</v>
       </c>
-      <c r="AV297">
-        <v>3</v>
-      </c>
       <c r="AW297">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AX297">
         <v>8</v>
       </c>
       <c r="AY297">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AZ297">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="BA297">
         <v>6</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Romania Liga I_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Romania Liga I_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1844" uniqueCount="386">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1862" uniqueCount="389">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -823,6 +823,9 @@
     <t>['77']</t>
   </si>
   <si>
+    <t>['5', '61', '90+1']</t>
+  </si>
+  <si>
     <t>['45+5']</t>
   </si>
   <si>
@@ -1172,6 +1175,12 @@
   </si>
   <si>
     <t>['30', '90+6']</t>
+  </si>
+  <si>
+    <t>['2', '23', '33', '69']</t>
+  </si>
+  <si>
+    <t>['37', '48', '87']</t>
   </si>
 </sst>
 </file>
@@ -1533,7 +1542,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP297"/>
+  <dimension ref="A1:BP300"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1792,7 +1801,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q2">
         <v>4</v>
@@ -2079,7 +2088,7 @@
         <v>1.68</v>
       </c>
       <c r="AQ3">
-        <v>1.11</v>
+        <v>1.21</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -2204,7 +2213,7 @@
         <v>87</v>
       </c>
       <c r="P4" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q4">
         <v>3.75</v>
@@ -2616,7 +2625,7 @@
         <v>89</v>
       </c>
       <c r="P6" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q6">
         <v>3.5</v>
@@ -2822,7 +2831,7 @@
         <v>90</v>
       </c>
       <c r="P7" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q7">
         <v>5</v>
@@ -3234,7 +3243,7 @@
         <v>87</v>
       </c>
       <c r="P9" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q9">
         <v>5.5</v>
@@ -3646,7 +3655,7 @@
         <v>93</v>
       </c>
       <c r="P11" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q11">
         <v>4.33</v>
@@ -3930,7 +3939,7 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AQ12">
         <v>0.95</v>
@@ -4058,7 +4067,7 @@
         <v>95</v>
       </c>
       <c r="P13" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q13">
         <v>1.95</v>
@@ -4139,7 +4148,7 @@
         <v>2.26</v>
       </c>
       <c r="AQ13">
-        <v>0.63</v>
+        <v>0.65</v>
       </c>
       <c r="AR13">
         <v>0</v>
@@ -4264,7 +4273,7 @@
         <v>96</v>
       </c>
       <c r="P14" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q14">
         <v>3.6</v>
@@ -4470,7 +4479,7 @@
         <v>87</v>
       </c>
       <c r="P15" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q15">
         <v>3.2</v>
@@ -4548,7 +4557,7 @@
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>1.37</v>
+        <v>1.35</v>
       </c>
       <c r="AQ15">
         <v>1.33</v>
@@ -4676,7 +4685,7 @@
         <v>97</v>
       </c>
       <c r="P16" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q16">
         <v>2.88</v>
@@ -4754,7 +4763,7 @@
         <v>0</v>
       </c>
       <c r="AP16">
-        <v>1.28</v>
+        <v>1.26</v>
       </c>
       <c r="AQ16">
         <v>1</v>
@@ -5088,7 +5097,7 @@
         <v>98</v>
       </c>
       <c r="P18" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q18">
         <v>3</v>
@@ -5294,7 +5303,7 @@
         <v>99</v>
       </c>
       <c r="P19" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q19">
         <v>2</v>
@@ -5706,7 +5715,7 @@
         <v>87</v>
       </c>
       <c r="P21" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q21">
         <v>4.75</v>
@@ -5912,7 +5921,7 @@
         <v>101</v>
       </c>
       <c r="P22" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q22">
         <v>2.15</v>
@@ -5990,7 +5999,7 @@
         <v>0</v>
       </c>
       <c r="AP22">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AQ22">
         <v>0.74</v>
@@ -6324,7 +6333,7 @@
         <v>87</v>
       </c>
       <c r="P24" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q24">
         <v>3.25</v>
@@ -6530,7 +6539,7 @@
         <v>87</v>
       </c>
       <c r="P25" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q25">
         <v>4.33</v>
@@ -6611,7 +6620,7 @@
         <v>1.28</v>
       </c>
       <c r="AQ25">
-        <v>1.11</v>
+        <v>1.21</v>
       </c>
       <c r="AR25">
         <v>1.44</v>
@@ -7148,7 +7157,7 @@
         <v>87</v>
       </c>
       <c r="P28" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q28">
         <v>3</v>
@@ -7226,7 +7235,7 @@
         <v>0</v>
       </c>
       <c r="AP28">
-        <v>1.28</v>
+        <v>1.26</v>
       </c>
       <c r="AQ28">
         <v>0.68</v>
@@ -7354,7 +7363,7 @@
         <v>105</v>
       </c>
       <c r="P29" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q29">
         <v>2.55</v>
@@ -7432,10 +7441,10 @@
         <v>0</v>
       </c>
       <c r="AP29">
-        <v>1.37</v>
+        <v>1.35</v>
       </c>
       <c r="AQ29">
-        <v>0.63</v>
+        <v>0.65</v>
       </c>
       <c r="AR29">
         <v>1.11</v>
@@ -7560,7 +7569,7 @@
         <v>106</v>
       </c>
       <c r="P30" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q30">
         <v>3.5</v>
@@ -8796,7 +8805,7 @@
         <v>112</v>
       </c>
       <c r="P36" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q36">
         <v>4.9</v>
@@ -9002,7 +9011,7 @@
         <v>87</v>
       </c>
       <c r="P37" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q37">
         <v>2.3</v>
@@ -9414,7 +9423,7 @@
         <v>114</v>
       </c>
       <c r="P39" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q39">
         <v>3.05</v>
@@ -9904,7 +9913,7 @@
         <v>1</v>
       </c>
       <c r="AP41">
-        <v>1.28</v>
+        <v>1.26</v>
       </c>
       <c r="AQ41">
         <v>1.33</v>
@@ -10032,7 +10041,7 @@
         <v>116</v>
       </c>
       <c r="P42" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q42">
         <v>2.6</v>
@@ -10113,7 +10122,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ42">
-        <v>0.63</v>
+        <v>0.65</v>
       </c>
       <c r="AR42">
         <v>0.99</v>
@@ -10238,7 +10247,7 @@
         <v>117</v>
       </c>
       <c r="P43" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q43">
         <v>2.55</v>
@@ -10444,7 +10453,7 @@
         <v>118</v>
       </c>
       <c r="P44" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q44">
         <v>1.83</v>
@@ -10856,7 +10865,7 @@
         <v>119</v>
       </c>
       <c r="P46" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q46">
         <v>4.85</v>
@@ -10934,7 +10943,7 @@
         <v>1.5</v>
       </c>
       <c r="AP46">
-        <v>1.37</v>
+        <v>1.35</v>
       </c>
       <c r="AQ46">
         <v>1.37</v>
@@ -11062,7 +11071,7 @@
         <v>120</v>
       </c>
       <c r="P47" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q47">
         <v>3.66</v>
@@ -11268,7 +11277,7 @@
         <v>121</v>
       </c>
       <c r="P48" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q48">
         <v>3.4</v>
@@ -11964,7 +11973,7 @@
         <v>2.33</v>
       </c>
       <c r="AP51">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AQ51">
         <v>1.68</v>
@@ -12092,7 +12101,7 @@
         <v>125</v>
       </c>
       <c r="P52" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Q52">
         <v>3.1</v>
@@ -12504,7 +12513,7 @@
         <v>127</v>
       </c>
       <c r="P54" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Q54">
         <v>2.75</v>
@@ -12791,7 +12800,7 @@
         <v>1.68</v>
       </c>
       <c r="AQ55">
-        <v>0.63</v>
+        <v>0.65</v>
       </c>
       <c r="AR55">
         <v>1.82</v>
@@ -12916,7 +12925,7 @@
         <v>93</v>
       </c>
       <c r="P56" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Q56">
         <v>4.7</v>
@@ -13534,7 +13543,7 @@
         <v>87</v>
       </c>
       <c r="P59" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q59">
         <v>2.6</v>
@@ -13612,7 +13621,7 @@
         <v>0.75</v>
       </c>
       <c r="AP59">
-        <v>1.37</v>
+        <v>1.35</v>
       </c>
       <c r="AQ59">
         <v>0.74</v>
@@ -13740,7 +13749,7 @@
         <v>131</v>
       </c>
       <c r="P60" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Q60">
         <v>3.5</v>
@@ -13818,7 +13827,7 @@
         <v>1.33</v>
       </c>
       <c r="AP60">
-        <v>1.28</v>
+        <v>1.26</v>
       </c>
       <c r="AQ60">
         <v>0.72</v>
@@ -14564,7 +14573,7 @@
         <v>133</v>
       </c>
       <c r="P64" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Q64">
         <v>2.5</v>
@@ -14645,7 +14654,7 @@
         <v>1.61</v>
       </c>
       <c r="AQ64">
-        <v>1.11</v>
+        <v>1.21</v>
       </c>
       <c r="AR64">
         <v>1.7</v>
@@ -15182,7 +15191,7 @@
         <v>87</v>
       </c>
       <c r="P67" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Q67">
         <v>3</v>
@@ -15260,7 +15269,7 @@
         <v>2</v>
       </c>
       <c r="AP67">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AQ67">
         <v>2.11</v>
@@ -15388,7 +15397,7 @@
         <v>135</v>
       </c>
       <c r="P68" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Q68">
         <v>2.9</v>
@@ -15800,7 +15809,7 @@
         <v>137</v>
       </c>
       <c r="P70" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Q70">
         <v>4.33</v>
@@ -16006,7 +16015,7 @@
         <v>87</v>
       </c>
       <c r="P71" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Q71">
         <v>2.57</v>
@@ -16212,7 +16221,7 @@
         <v>87</v>
       </c>
       <c r="P72" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="Q72">
         <v>4.1</v>
@@ -16418,7 +16427,7 @@
         <v>138</v>
       </c>
       <c r="P73" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Q73">
         <v>2.7</v>
@@ -16624,7 +16633,7 @@
         <v>139</v>
       </c>
       <c r="P74" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Q74">
         <v>3.4</v>
@@ -16702,7 +16711,7 @@
         <v>0.25</v>
       </c>
       <c r="AP74">
-        <v>1.28</v>
+        <v>1.26</v>
       </c>
       <c r="AQ74">
         <v>1.06</v>
@@ -16908,7 +16917,7 @@
         <v>1.4</v>
       </c>
       <c r="AP75">
-        <v>1.37</v>
+        <v>1.35</v>
       </c>
       <c r="AQ75">
         <v>1.68</v>
@@ -17242,7 +17251,7 @@
         <v>141</v>
       </c>
       <c r="P77" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Q77">
         <v>3.4</v>
@@ -17735,7 +17744,7 @@
         <v>1.37</v>
       </c>
       <c r="AQ79">
-        <v>0.63</v>
+        <v>0.65</v>
       </c>
       <c r="AR79">
         <v>1.42</v>
@@ -18066,7 +18075,7 @@
         <v>144</v>
       </c>
       <c r="P81" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="Q81">
         <v>2.86</v>
@@ -18144,10 +18153,10 @@
         <v>1.33</v>
       </c>
       <c r="AP81">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AQ81">
-        <v>1.11</v>
+        <v>1.21</v>
       </c>
       <c r="AR81">
         <v>1.98</v>
@@ -19096,7 +19105,7 @@
         <v>148</v>
       </c>
       <c r="P86" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Q86">
         <v>2.05</v>
@@ -19383,7 +19392,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ87">
-        <v>1.11</v>
+        <v>1.21</v>
       </c>
       <c r="AR87">
         <v>1.62</v>
@@ -19714,7 +19723,7 @@
         <v>150</v>
       </c>
       <c r="P89" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Q89">
         <v>2</v>
@@ -20410,7 +20419,7 @@
         <v>2.17</v>
       </c>
       <c r="AP92">
-        <v>1.28</v>
+        <v>1.26</v>
       </c>
       <c r="AQ92">
         <v>2.11</v>
@@ -20538,7 +20547,7 @@
         <v>87</v>
       </c>
       <c r="P93" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q93">
         <v>3.5</v>
@@ -20744,7 +20753,7 @@
         <v>151</v>
       </c>
       <c r="P94" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Q94">
         <v>4.4</v>
@@ -21028,10 +21037,10 @@
         <v>0.8</v>
       </c>
       <c r="AP95">
-        <v>1.37</v>
+        <v>1.35</v>
       </c>
       <c r="AQ95">
-        <v>1.11</v>
+        <v>1.21</v>
       </c>
       <c r="AR95">
         <v>1.72</v>
@@ -21237,7 +21246,7 @@
         <v>1.28</v>
       </c>
       <c r="AQ96">
-        <v>1.11</v>
+        <v>1.21</v>
       </c>
       <c r="AR96">
         <v>1.49</v>
@@ -21362,7 +21371,7 @@
         <v>154</v>
       </c>
       <c r="P97" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="Q97">
         <v>3.7</v>
@@ -21649,7 +21658,7 @@
         <v>2</v>
       </c>
       <c r="AQ98">
-        <v>0.63</v>
+        <v>0.65</v>
       </c>
       <c r="AR98">
         <v>1.8</v>
@@ -21852,7 +21861,7 @@
         <v>1.67</v>
       </c>
       <c r="AP99">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AQ99">
         <v>1.33</v>
@@ -22186,7 +22195,7 @@
         <v>90</v>
       </c>
       <c r="P101" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="Q101">
         <v>1.98</v>
@@ -22598,7 +22607,7 @@
         <v>157</v>
       </c>
       <c r="P103" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="Q103">
         <v>2.15</v>
@@ -23010,7 +23019,7 @@
         <v>158</v>
       </c>
       <c r="P105" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="Q105">
         <v>2.15</v>
@@ -23088,7 +23097,7 @@
         <v>0.5</v>
       </c>
       <c r="AP105">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AQ105">
         <v>1.06</v>
@@ -23216,7 +23225,7 @@
         <v>87</v>
       </c>
       <c r="P106" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="Q106">
         <v>3.85</v>
@@ -23297,7 +23306,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ106">
-        <v>1.11</v>
+        <v>1.21</v>
       </c>
       <c r="AR106">
         <v>1.35</v>
@@ -23834,7 +23843,7 @@
         <v>160</v>
       </c>
       <c r="P109" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="Q109">
         <v>4.1</v>
@@ -24040,7 +24049,7 @@
         <v>161</v>
       </c>
       <c r="P110" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="Q110">
         <v>2.6</v>
@@ -24452,7 +24461,7 @@
         <v>87</v>
       </c>
       <c r="P112" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="Q112">
         <v>3.6</v>
@@ -24530,7 +24539,7 @@
         <v>1.57</v>
       </c>
       <c r="AP112">
-        <v>1.28</v>
+        <v>1.26</v>
       </c>
       <c r="AQ112">
         <v>1.33</v>
@@ -24658,7 +24667,7 @@
         <v>163</v>
       </c>
       <c r="P113" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="Q113">
         <v>2.5</v>
@@ -24864,7 +24873,7 @@
         <v>164</v>
       </c>
       <c r="P114" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q114">
         <v>3.25</v>
@@ -25482,7 +25491,7 @@
         <v>136</v>
       </c>
       <c r="P117" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="Q117">
         <v>2.68</v>
@@ -25560,7 +25569,7 @@
         <v>0.86</v>
       </c>
       <c r="AP117">
-        <v>1.37</v>
+        <v>1.35</v>
       </c>
       <c r="AQ117">
         <v>0.95</v>
@@ -25766,7 +25775,7 @@
         <v>0.29</v>
       </c>
       <c r="AP118">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AQ118">
         <v>0.58</v>
@@ -25894,7 +25903,7 @@
         <v>156</v>
       </c>
       <c r="P119" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="Q119">
         <v>5</v>
@@ -26181,7 +26190,7 @@
         <v>1.84</v>
       </c>
       <c r="AQ120">
-        <v>0.63</v>
+        <v>0.65</v>
       </c>
       <c r="AR120">
         <v>1.27</v>
@@ -26796,7 +26805,7 @@
         <v>1.43</v>
       </c>
       <c r="AP123">
-        <v>1.37</v>
+        <v>1.35</v>
       </c>
       <c r="AQ123">
         <v>1</v>
@@ -26924,7 +26933,7 @@
         <v>168</v>
       </c>
       <c r="P124" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="Q124">
         <v>5.15</v>
@@ -27208,7 +27217,7 @@
         <v>1.14</v>
       </c>
       <c r="AP125">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AQ125">
         <v>0.72</v>
@@ -27336,7 +27345,7 @@
         <v>169</v>
       </c>
       <c r="P126" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="Q126">
         <v>3.25</v>
@@ -27414,7 +27423,7 @@
         <v>1.13</v>
       </c>
       <c r="AP126">
-        <v>1.28</v>
+        <v>1.26</v>
       </c>
       <c r="AQ126">
         <v>0.95</v>
@@ -27623,7 +27632,7 @@
         <v>1.61</v>
       </c>
       <c r="AQ127">
-        <v>0.63</v>
+        <v>0.65</v>
       </c>
       <c r="AR127">
         <v>1.79</v>
@@ -27954,7 +27963,7 @@
         <v>172</v>
       </c>
       <c r="P129" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="Q129">
         <v>3.1</v>
@@ -28572,7 +28581,7 @@
         <v>174</v>
       </c>
       <c r="P132" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="Q132">
         <v>3.98</v>
@@ -28984,7 +28993,7 @@
         <v>175</v>
       </c>
       <c r="P134" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="Q134">
         <v>4</v>
@@ -29190,7 +29199,7 @@
         <v>87</v>
       </c>
       <c r="P135" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="Q135">
         <v>7</v>
@@ -29477,7 +29486,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ136">
-        <v>1.11</v>
+        <v>1.21</v>
       </c>
       <c r="AR136">
         <v>1.67</v>
@@ -29602,7 +29611,7 @@
         <v>177</v>
       </c>
       <c r="P137" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="Q137">
         <v>2.39</v>
@@ -30014,7 +30023,7 @@
         <v>178</v>
       </c>
       <c r="P139" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="Q139">
         <v>3.94</v>
@@ -30504,7 +30513,7 @@
         <v>1.63</v>
       </c>
       <c r="AP141">
-        <v>1.28</v>
+        <v>1.26</v>
       </c>
       <c r="AQ141">
         <v>1.33</v>
@@ -30916,7 +30925,7 @@
         <v>1</v>
       </c>
       <c r="AP143">
-        <v>1.37</v>
+        <v>1.35</v>
       </c>
       <c r="AQ143">
         <v>0.68</v>
@@ -31044,7 +31053,7 @@
         <v>87</v>
       </c>
       <c r="P144" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="Q144">
         <v>1.98</v>
@@ -31331,7 +31340,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ145">
-        <v>0.63</v>
+        <v>0.65</v>
       </c>
       <c r="AR145">
         <v>1.57</v>
@@ -31662,7 +31671,7 @@
         <v>152</v>
       </c>
       <c r="P147" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="Q147">
         <v>2.27</v>
@@ -31868,7 +31877,7 @@
         <v>184</v>
       </c>
       <c r="P148" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="Q148">
         <v>3.5</v>
@@ -32152,7 +32161,7 @@
         <v>1.33</v>
       </c>
       <c r="AP149">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AQ149">
         <v>1</v>
@@ -32898,7 +32907,7 @@
         <v>188</v>
       </c>
       <c r="P153" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="Q153">
         <v>3.25</v>
@@ -32979,7 +32988,7 @@
         <v>1.37</v>
       </c>
       <c r="AQ153">
-        <v>1.11</v>
+        <v>1.21</v>
       </c>
       <c r="AR153">
         <v>1.4</v>
@@ -33722,7 +33731,7 @@
         <v>189</v>
       </c>
       <c r="P157" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="Q157">
         <v>1.95</v>
@@ -34212,7 +34221,7 @@
         <v>1.67</v>
       </c>
       <c r="AP159">
-        <v>1.37</v>
+        <v>1.35</v>
       </c>
       <c r="AQ159">
         <v>1.33</v>
@@ -34546,7 +34555,7 @@
         <v>87</v>
       </c>
       <c r="P161" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="Q161">
         <v>3.25</v>
@@ -34624,10 +34633,10 @@
         <v>0.44</v>
       </c>
       <c r="AP161">
-        <v>1.28</v>
+        <v>1.26</v>
       </c>
       <c r="AQ161">
-        <v>0.63</v>
+        <v>0.65</v>
       </c>
       <c r="AR161">
         <v>1.55</v>
@@ -34958,7 +34967,7 @@
         <v>138</v>
       </c>
       <c r="P163" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="Q163">
         <v>4.7</v>
@@ -35164,7 +35173,7 @@
         <v>193</v>
       </c>
       <c r="P164" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="Q164">
         <v>3.75</v>
@@ -35448,7 +35457,7 @@
         <v>1.5</v>
       </c>
       <c r="AP165">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AQ165">
         <v>1.33</v>
@@ -35657,7 +35666,7 @@
         <v>2</v>
       </c>
       <c r="AQ166">
-        <v>1.11</v>
+        <v>1.21</v>
       </c>
       <c r="AR166">
         <v>1.65</v>
@@ -35988,7 +35997,7 @@
         <v>87</v>
       </c>
       <c r="P168" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="Q168">
         <v>2.55</v>
@@ -36606,7 +36615,7 @@
         <v>197</v>
       </c>
       <c r="P171" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="Q171">
         <v>2.4</v>
@@ -36890,7 +36899,7 @@
         <v>0.9</v>
       </c>
       <c r="AP172">
-        <v>1.37</v>
+        <v>1.35</v>
       </c>
       <c r="AQ172">
         <v>0.72</v>
@@ -37099,7 +37108,7 @@
         <v>1.32</v>
       </c>
       <c r="AQ173">
-        <v>0.63</v>
+        <v>0.65</v>
       </c>
       <c r="AR173">
         <v>1.56</v>
@@ -37302,7 +37311,7 @@
         <v>1.1</v>
       </c>
       <c r="AP174">
-        <v>1.28</v>
+        <v>1.26</v>
       </c>
       <c r="AQ174">
         <v>1.37</v>
@@ -37430,7 +37439,7 @@
         <v>201</v>
       </c>
       <c r="P175" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="Q175">
         <v>2.48</v>
@@ -38126,7 +38135,7 @@
         <v>1</v>
       </c>
       <c r="AP178">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AQ178">
         <v>0.68</v>
@@ -38254,7 +38263,7 @@
         <v>204</v>
       </c>
       <c r="P179" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="Q179">
         <v>3.6</v>
@@ -38335,7 +38344,7 @@
         <v>1.84</v>
       </c>
       <c r="AQ179">
-        <v>1.11</v>
+        <v>1.21</v>
       </c>
       <c r="AR179">
         <v>1.39</v>
@@ -38666,7 +38675,7 @@
         <v>205</v>
       </c>
       <c r="P181" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="Q181">
         <v>4</v>
@@ -39284,7 +39293,7 @@
         <v>87</v>
       </c>
       <c r="P184" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="Q184">
         <v>3.2</v>
@@ -39490,7 +39499,7 @@
         <v>208</v>
       </c>
       <c r="P185" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="Q185">
         <v>1.95</v>
@@ -39696,7 +39705,7 @@
         <v>209</v>
       </c>
       <c r="P186" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="Q186">
         <v>3.15</v>
@@ -39774,7 +39783,7 @@
         <v>1.09</v>
       </c>
       <c r="AP186">
-        <v>1.28</v>
+        <v>1.26</v>
       </c>
       <c r="AQ186">
         <v>0.74</v>
@@ -39983,7 +39992,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ187">
-        <v>0.63</v>
+        <v>0.65</v>
       </c>
       <c r="AR187">
         <v>1.69</v>
@@ -40108,7 +40117,7 @@
         <v>211</v>
       </c>
       <c r="P188" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="Q188">
         <v>3.8</v>
@@ -40520,7 +40529,7 @@
         <v>213</v>
       </c>
       <c r="P190" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="Q190">
         <v>2.5</v>
@@ -40598,7 +40607,7 @@
         <v>0.73</v>
       </c>
       <c r="AP190">
-        <v>1.37</v>
+        <v>1.35</v>
       </c>
       <c r="AQ190">
         <v>1.06</v>
@@ -40726,7 +40735,7 @@
         <v>214</v>
       </c>
       <c r="P191" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="Q191">
         <v>3.2</v>
@@ -41550,7 +41559,7 @@
         <v>216</v>
       </c>
       <c r="P195" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="Q195">
         <v>2.4</v>
@@ -42455,7 +42464,7 @@
         <v>2.26</v>
       </c>
       <c r="AQ199">
-        <v>1.11</v>
+        <v>1.21</v>
       </c>
       <c r="AR199">
         <v>1.82</v>
@@ -42580,7 +42589,7 @@
         <v>217</v>
       </c>
       <c r="P200" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="Q200">
         <v>2.7</v>
@@ -42786,7 +42795,7 @@
         <v>87</v>
       </c>
       <c r="P201" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="Q201">
         <v>2.09</v>
@@ -42864,10 +42873,10 @@
         <v>0.58</v>
       </c>
       <c r="AP201">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AQ201">
-        <v>0.63</v>
+        <v>0.65</v>
       </c>
       <c r="AR201">
         <v>1.95</v>
@@ -43610,7 +43619,7 @@
         <v>220</v>
       </c>
       <c r="P205" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="Q205">
         <v>3.5</v>
@@ -43816,7 +43825,7 @@
         <v>221</v>
       </c>
       <c r="P206" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="Q206">
         <v>4.2</v>
@@ -43894,7 +43903,7 @@
         <v>1.33</v>
       </c>
       <c r="AP206">
-        <v>1.28</v>
+        <v>1.26</v>
       </c>
       <c r="AQ206">
         <v>1.68</v>
@@ -44022,7 +44031,7 @@
         <v>222</v>
       </c>
       <c r="P207" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="Q207">
         <v>3.6</v>
@@ -44512,7 +44521,7 @@
         <v>2.25</v>
       </c>
       <c r="AP209">
-        <v>1.37</v>
+        <v>1.35</v>
       </c>
       <c r="AQ209">
         <v>2.11</v>
@@ -44927,7 +44936,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ211">
-        <v>0.63</v>
+        <v>0.65</v>
       </c>
       <c r="AR211">
         <v>1.86</v>
@@ -45336,7 +45345,7 @@
         <v>1.46</v>
       </c>
       <c r="AP213">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AQ213">
         <v>1.33</v>
@@ -45464,7 +45473,7 @@
         <v>224</v>
       </c>
       <c r="P214" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="Q214">
         <v>4.55</v>
@@ -45876,7 +45885,7 @@
         <v>225</v>
       </c>
       <c r="P216" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="Q216">
         <v>1.75</v>
@@ -46082,7 +46091,7 @@
         <v>226</v>
       </c>
       <c r="P217" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="Q217">
         <v>2.05</v>
@@ -46700,7 +46709,7 @@
         <v>229</v>
       </c>
       <c r="P220" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="Q220">
         <v>5.25</v>
@@ -46984,7 +46993,7 @@
         <v>1.54</v>
       </c>
       <c r="AP221">
-        <v>1.37</v>
+        <v>1.35</v>
       </c>
       <c r="AQ221">
         <v>1.47</v>
@@ -47318,7 +47327,7 @@
         <v>183</v>
       </c>
       <c r="P223" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="Q223">
         <v>4.5</v>
@@ -47396,10 +47405,10 @@
         <v>0.85</v>
       </c>
       <c r="AP223">
-        <v>1.28</v>
+        <v>1.26</v>
       </c>
       <c r="AQ223">
-        <v>1.11</v>
+        <v>1.21</v>
       </c>
       <c r="AR223">
         <v>1.38</v>
@@ -47524,7 +47533,7 @@
         <v>231</v>
       </c>
       <c r="P224" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="Q224">
         <v>3.75</v>
@@ -47730,7 +47739,7 @@
         <v>104</v>
       </c>
       <c r="P225" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="Q225">
         <v>4.75</v>
@@ -48017,7 +48026,7 @@
         <v>1.28</v>
       </c>
       <c r="AQ226">
-        <v>0.63</v>
+        <v>0.65</v>
       </c>
       <c r="AR226">
         <v>1.63</v>
@@ -48142,7 +48151,7 @@
         <v>232</v>
       </c>
       <c r="P227" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="Q227">
         <v>2.99</v>
@@ -48632,7 +48641,7 @@
         <v>1.29</v>
       </c>
       <c r="AP229">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AQ229">
         <v>1.37</v>
@@ -48838,7 +48847,7 @@
         <v>0.5</v>
       </c>
       <c r="AP230">
-        <v>1.37</v>
+        <v>1.35</v>
       </c>
       <c r="AQ230">
         <v>0.58</v>
@@ -49378,7 +49387,7 @@
         <v>89</v>
       </c>
       <c r="P233" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="Q233">
         <v>3</v>
@@ -50280,7 +50289,7 @@
         <v>1.43</v>
       </c>
       <c r="AP237">
-        <v>1.28</v>
+        <v>1.26</v>
       </c>
       <c r="AQ237">
         <v>1.47</v>
@@ -50408,7 +50417,7 @@
         <v>237</v>
       </c>
       <c r="P238" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="Q238">
         <v>3.5</v>
@@ -50489,7 +50498,7 @@
         <v>1.32</v>
       </c>
       <c r="AQ238">
-        <v>1.11</v>
+        <v>1.21</v>
       </c>
       <c r="AR238">
         <v>1.55</v>
@@ -50820,7 +50829,7 @@
         <v>213</v>
       </c>
       <c r="P240" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="Q240">
         <v>3.6</v>
@@ -51310,7 +51319,7 @@
         <v>0.47</v>
       </c>
       <c r="AP242">
-        <v>1.37</v>
+        <v>1.35</v>
       </c>
       <c r="AQ242">
         <v>0.58</v>
@@ -51438,7 +51447,7 @@
         <v>108</v>
       </c>
       <c r="P243" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="Q243">
         <v>2.3</v>
@@ -51850,7 +51859,7 @@
         <v>156</v>
       </c>
       <c r="P245" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="Q245">
         <v>2.65</v>
@@ -52137,7 +52146,7 @@
         <v>2</v>
       </c>
       <c r="AQ246">
-        <v>0.63</v>
+        <v>0.65</v>
       </c>
       <c r="AR246">
         <v>1.58</v>
@@ -52343,7 +52352,7 @@
         <v>2.26</v>
       </c>
       <c r="AQ247">
-        <v>1.11</v>
+        <v>1.21</v>
       </c>
       <c r="AR247">
         <v>1.78</v>
@@ -52468,7 +52477,7 @@
         <v>243</v>
       </c>
       <c r="P248" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="Q248">
         <v>2.53</v>
@@ -53370,7 +53379,7 @@
         <v>0.88</v>
       </c>
       <c r="AP252">
-        <v>1.28</v>
+        <v>1.26</v>
       </c>
       <c r="AQ252">
         <v>0.74</v>
@@ -53576,7 +53585,7 @@
         <v>0.93</v>
       </c>
       <c r="AP253">
-        <v>1.37</v>
+        <v>1.35</v>
       </c>
       <c r="AQ253">
         <v>1.06</v>
@@ -53910,7 +53919,7 @@
         <v>102</v>
       </c>
       <c r="P255" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="Q255">
         <v>2.95</v>
@@ -54194,7 +54203,7 @@
         <v>2.07</v>
       </c>
       <c r="AP256">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AQ256">
         <v>2.11</v>
@@ -54322,7 +54331,7 @@
         <v>102</v>
       </c>
       <c r="P257" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="Q257">
         <v>3.1</v>
@@ -54940,7 +54949,7 @@
         <v>87</v>
       </c>
       <c r="P260" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="Q260">
         <v>2.9</v>
@@ -55146,7 +55155,7 @@
         <v>247</v>
       </c>
       <c r="P261" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="Q261">
         <v>2.8</v>
@@ -55352,7 +55361,7 @@
         <v>164</v>
       </c>
       <c r="P262" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="Q262">
         <v>3.12</v>
@@ -56051,7 +56060,7 @@
         <v>1.37</v>
       </c>
       <c r="AQ265">
-        <v>0.63</v>
+        <v>0.65</v>
       </c>
       <c r="AR265">
         <v>1.47</v>
@@ -56176,7 +56185,7 @@
         <v>249</v>
       </c>
       <c r="P266" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="Q266">
         <v>3.05</v>
@@ -56382,7 +56391,7 @@
         <v>250</v>
       </c>
       <c r="P267" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="Q267">
         <v>2.5</v>
@@ -56588,7 +56597,7 @@
         <v>175</v>
       </c>
       <c r="P268" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="Q268">
         <v>3.55</v>
@@ -56794,7 +56803,7 @@
         <v>146</v>
       </c>
       <c r="P269" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="Q269">
         <v>2.49</v>
@@ -56872,7 +56881,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AP269">
-        <v>1.37</v>
+        <v>1.35</v>
       </c>
       <c r="AQ269">
         <v>1</v>
@@ -57078,7 +57087,7 @@
         <v>0.71</v>
       </c>
       <c r="AP270">
-        <v>1.28</v>
+        <v>1.26</v>
       </c>
       <c r="AQ270">
         <v>0.68</v>
@@ -57699,7 +57708,7 @@
         <v>1.68</v>
       </c>
       <c r="AQ273">
-        <v>1.11</v>
+        <v>1.21</v>
       </c>
       <c r="AR273">
         <v>1.83</v>
@@ -58030,7 +58039,7 @@
         <v>253</v>
       </c>
       <c r="P275" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="Q275">
         <v>3.8</v>
@@ -58108,7 +58117,7 @@
         <v>1.35</v>
       </c>
       <c r="AP275">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AQ275">
         <v>1.37</v>
@@ -58236,7 +58245,7 @@
         <v>254</v>
       </c>
       <c r="P276" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="Q276">
         <v>3</v>
@@ -58442,7 +58451,7 @@
         <v>180</v>
       </c>
       <c r="P277" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="Q277">
         <v>2.85</v>
@@ -58523,7 +58532,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ277">
-        <v>0.63</v>
+        <v>0.65</v>
       </c>
       <c r="AR277">
         <v>1.6</v>
@@ -58648,7 +58657,7 @@
         <v>255</v>
       </c>
       <c r="P278" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="Q278">
         <v>2.5</v>
@@ -59060,7 +59069,7 @@
         <v>220</v>
       </c>
       <c r="P280" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="Q280">
         <v>3.1</v>
@@ -59266,7 +59275,7 @@
         <v>256</v>
       </c>
       <c r="P281" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q281">
         <v>3</v>
@@ -59678,7 +59687,7 @@
         <v>257</v>
       </c>
       <c r="P283" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="Q283">
         <v>3.35</v>
@@ -59756,10 +59765,10 @@
         <v>0.67</v>
       </c>
       <c r="AP283">
-        <v>1.28</v>
+        <v>1.26</v>
       </c>
       <c r="AQ283">
-        <v>0.63</v>
+        <v>0.65</v>
       </c>
       <c r="AR283">
         <v>1.4</v>
@@ -59962,7 +59971,7 @@
         <v>0.78</v>
       </c>
       <c r="AP284">
-        <v>1.37</v>
+        <v>1.35</v>
       </c>
       <c r="AQ284">
         <v>0.74</v>
@@ -60168,7 +60177,7 @@
         <v>1.41</v>
       </c>
       <c r="AP285">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AQ285">
         <v>1.33</v>
@@ -60296,7 +60305,7 @@
         <v>260</v>
       </c>
       <c r="P286" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="Q286">
         <v>4.1</v>
@@ -60502,7 +60511,7 @@
         <v>261</v>
       </c>
       <c r="P287" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="Q287">
         <v>3.1</v>
@@ -61326,7 +61335,7 @@
         <v>264</v>
       </c>
       <c r="P291" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="Q291">
         <v>3</v>
@@ -61532,7 +61541,7 @@
         <v>265</v>
       </c>
       <c r="P292" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q292">
         <v>2.55</v>
@@ -61944,7 +61953,7 @@
         <v>87</v>
       </c>
       <c r="P294" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="Q294">
         <v>3.2</v>
@@ -62231,7 +62240,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ295">
-        <v>1.11</v>
+        <v>1.21</v>
       </c>
       <c r="AR295">
         <v>1.86</v>
@@ -62356,7 +62365,7 @@
         <v>136</v>
       </c>
       <c r="P296" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="Q296">
         <v>2.58</v>
@@ -62562,7 +62571,7 @@
         <v>268</v>
       </c>
       <c r="P297" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="Q297">
         <v>2.75</v>
@@ -62719,6 +62728,624 @@
       </c>
       <c r="BP297">
         <v>1.17</v>
+      </c>
+    </row>
+    <row r="298" spans="1:68">
+      <c r="A298" s="1">
+        <v>297</v>
+      </c>
+      <c r="B298">
+        <v>7383662</v>
+      </c>
+      <c r="C298" t="s">
+        <v>68</v>
+      </c>
+      <c r="D298" t="s">
+        <v>69</v>
+      </c>
+      <c r="E298" s="2">
+        <v>45415.58333333334</v>
+      </c>
+      <c r="F298">
+        <v>8</v>
+      </c>
+      <c r="G298" t="s">
+        <v>80</v>
+      </c>
+      <c r="H298" t="s">
+        <v>78</v>
+      </c>
+      <c r="I298">
+        <v>0</v>
+      </c>
+      <c r="J298">
+        <v>3</v>
+      </c>
+      <c r="K298">
+        <v>3</v>
+      </c>
+      <c r="L298">
+        <v>1</v>
+      </c>
+      <c r="M298">
+        <v>4</v>
+      </c>
+      <c r="N298">
+        <v>5</v>
+      </c>
+      <c r="O298" t="s">
+        <v>132</v>
+      </c>
+      <c r="P298" t="s">
+        <v>387</v>
+      </c>
+      <c r="Q298">
+        <v>2.38</v>
+      </c>
+      <c r="R298">
+        <v>2.15</v>
+      </c>
+      <c r="S298">
+        <v>4.75</v>
+      </c>
+      <c r="T298">
+        <v>1.35</v>
+      </c>
+      <c r="U298">
+        <v>2.95</v>
+      </c>
+      <c r="V298">
+        <v>2.85</v>
+      </c>
+      <c r="W298">
+        <v>1.37</v>
+      </c>
+      <c r="X298">
+        <v>7.5</v>
+      </c>
+      <c r="Y298">
+        <v>1.07</v>
+      </c>
+      <c r="Z298">
+        <v>1.57</v>
+      </c>
+      <c r="AA298">
+        <v>3.6</v>
+      </c>
+      <c r="AB298">
+        <v>4.7</v>
+      </c>
+      <c r="AC298">
+        <v>1.04</v>
+      </c>
+      <c r="AD298">
+        <v>11.5</v>
+      </c>
+      <c r="AE298">
+        <v>1.25</v>
+      </c>
+      <c r="AF298">
+        <v>3.5</v>
+      </c>
+      <c r="AG298">
+        <v>1.89</v>
+      </c>
+      <c r="AH298">
+        <v>1.93</v>
+      </c>
+      <c r="AI298">
+        <v>1.77</v>
+      </c>
+      <c r="AJ298">
+        <v>1.98</v>
+      </c>
+      <c r="AK298">
+        <v>1.18</v>
+      </c>
+      <c r="AL298">
+        <v>1.29</v>
+      </c>
+      <c r="AM298">
+        <v>1.98</v>
+      </c>
+      <c r="AN298">
+        <v>1.56</v>
+      </c>
+      <c r="AO298">
+        <v>1.11</v>
+      </c>
+      <c r="AP298">
+        <v>1.47</v>
+      </c>
+      <c r="AQ298">
+        <v>1.21</v>
+      </c>
+      <c r="AR298">
+        <v>1.82</v>
+      </c>
+      <c r="AS298">
+        <v>1.24</v>
+      </c>
+      <c r="AT298">
+        <v>3.06</v>
+      </c>
+      <c r="AU298">
+        <v>12</v>
+      </c>
+      <c r="AV298">
+        <v>8</v>
+      </c>
+      <c r="AW298">
+        <v>10</v>
+      </c>
+      <c r="AX298">
+        <v>5</v>
+      </c>
+      <c r="AY298">
+        <v>22</v>
+      </c>
+      <c r="AZ298">
+        <v>13</v>
+      </c>
+      <c r="BA298">
+        <v>4</v>
+      </c>
+      <c r="BB298">
+        <v>0</v>
+      </c>
+      <c r="BC298">
+        <v>4</v>
+      </c>
+      <c r="BD298">
+        <v>1.43</v>
+      </c>
+      <c r="BE298">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="BF298">
+        <v>3.48</v>
+      </c>
+      <c r="BG298">
+        <v>1.39</v>
+      </c>
+      <c r="BH298">
+        <v>2.67</v>
+      </c>
+      <c r="BI298">
+        <v>1.72</v>
+      </c>
+      <c r="BJ298">
+        <v>2</v>
+      </c>
+      <c r="BK298">
+        <v>2.19</v>
+      </c>
+      <c r="BL298">
+        <v>1.57</v>
+      </c>
+      <c r="BM298">
+        <v>2.98</v>
+      </c>
+      <c r="BN298">
+        <v>1.32</v>
+      </c>
+      <c r="BO298">
+        <v>3.45</v>
+      </c>
+      <c r="BP298">
+        <v>1.26</v>
+      </c>
+    </row>
+    <row r="299" spans="1:68">
+      <c r="A299" s="1">
+        <v>298</v>
+      </c>
+      <c r="B299">
+        <v>7383788</v>
+      </c>
+      <c r="C299" t="s">
+        <v>68</v>
+      </c>
+      <c r="D299" t="s">
+        <v>69</v>
+      </c>
+      <c r="E299" s="2">
+        <v>45416.35416666666</v>
+      </c>
+      <c r="F299">
+        <v>8</v>
+      </c>
+      <c r="G299" t="s">
+        <v>84</v>
+      </c>
+      <c r="H299" t="s">
+        <v>76</v>
+      </c>
+      <c r="I299">
+        <v>0</v>
+      </c>
+      <c r="J299">
+        <v>0</v>
+      </c>
+      <c r="K299">
+        <v>0</v>
+      </c>
+      <c r="L299">
+        <v>0</v>
+      </c>
+      <c r="M299">
+        <v>0</v>
+      </c>
+      <c r="N299">
+        <v>0</v>
+      </c>
+      <c r="O299" t="s">
+        <v>87</v>
+      </c>
+      <c r="P299" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q299">
+        <v>3</v>
+      </c>
+      <c r="R299">
+        <v>1.9</v>
+      </c>
+      <c r="S299">
+        <v>4</v>
+      </c>
+      <c r="T299">
+        <v>1.52</v>
+      </c>
+      <c r="U299">
+        <v>2.49</v>
+      </c>
+      <c r="V299">
+        <v>3.4</v>
+      </c>
+      <c r="W299">
+        <v>1.27</v>
+      </c>
+      <c r="X299">
+        <v>11</v>
+      </c>
+      <c r="Y299">
+        <v>1.05</v>
+      </c>
+      <c r="Z299">
+        <v>2.2</v>
+      </c>
+      <c r="AA299">
+        <v>3</v>
+      </c>
+      <c r="AB299">
+        <v>3</v>
+      </c>
+      <c r="AC299">
+        <v>1.09</v>
+      </c>
+      <c r="AD299">
+        <v>7.5</v>
+      </c>
+      <c r="AE299">
+        <v>1.45</v>
+      </c>
+      <c r="AF299">
+        <v>2.6</v>
+      </c>
+      <c r="AG299">
+        <v>2.37</v>
+      </c>
+      <c r="AH299">
+        <v>1.53</v>
+      </c>
+      <c r="AI299">
+        <v>2</v>
+      </c>
+      <c r="AJ299">
+        <v>1.72</v>
+      </c>
+      <c r="AK299">
+        <v>1.3</v>
+      </c>
+      <c r="AL299">
+        <v>1.32</v>
+      </c>
+      <c r="AM299">
+        <v>1.58</v>
+      </c>
+      <c r="AN299">
+        <v>1.28</v>
+      </c>
+      <c r="AO299">
+        <v>0.95</v>
+      </c>
+      <c r="AP299">
+        <v>1.26</v>
+      </c>
+      <c r="AQ299">
+        <v>0.95</v>
+      </c>
+      <c r="AR299">
+        <v>1.4</v>
+      </c>
+      <c r="AS299">
+        <v>1.26</v>
+      </c>
+      <c r="AT299">
+        <v>2.66</v>
+      </c>
+      <c r="AU299">
+        <v>7</v>
+      </c>
+      <c r="AV299">
+        <v>2</v>
+      </c>
+      <c r="AW299">
+        <v>6</v>
+      </c>
+      <c r="AX299">
+        <v>4</v>
+      </c>
+      <c r="AY299">
+        <v>13</v>
+      </c>
+      <c r="AZ299">
+        <v>6</v>
+      </c>
+      <c r="BA299">
+        <v>7</v>
+      </c>
+      <c r="BB299">
+        <v>4</v>
+      </c>
+      <c r="BC299">
+        <v>11</v>
+      </c>
+      <c r="BD299">
+        <v>1.78</v>
+      </c>
+      <c r="BE299">
+        <v>7.6</v>
+      </c>
+      <c r="BF299">
+        <v>2.58</v>
+      </c>
+      <c r="BG299">
+        <v>1.36</v>
+      </c>
+      <c r="BH299">
+        <v>2.79</v>
+      </c>
+      <c r="BI299">
+        <v>1.67</v>
+      </c>
+      <c r="BJ299">
+        <v>2.08</v>
+      </c>
+      <c r="BK299">
+        <v>2.11</v>
+      </c>
+      <c r="BL299">
+        <v>1.62</v>
+      </c>
+      <c r="BM299">
+        <v>2.84</v>
+      </c>
+      <c r="BN299">
+        <v>1.35</v>
+      </c>
+      <c r="BO299">
+        <v>4.1</v>
+      </c>
+      <c r="BP299">
+        <v>1.18</v>
+      </c>
+    </row>
+    <row r="300" spans="1:68">
+      <c r="A300" s="1">
+        <v>299</v>
+      </c>
+      <c r="B300">
+        <v>7383789</v>
+      </c>
+      <c r="C300" t="s">
+        <v>68</v>
+      </c>
+      <c r="D300" t="s">
+        <v>69</v>
+      </c>
+      <c r="E300" s="2">
+        <v>45416.58333333334</v>
+      </c>
+      <c r="F300">
+        <v>8</v>
+      </c>
+      <c r="G300" t="s">
+        <v>83</v>
+      </c>
+      <c r="H300" t="s">
+        <v>77</v>
+      </c>
+      <c r="I300">
+        <v>1</v>
+      </c>
+      <c r="J300">
+        <v>1</v>
+      </c>
+      <c r="K300">
+        <v>2</v>
+      </c>
+      <c r="L300">
+        <v>3</v>
+      </c>
+      <c r="M300">
+        <v>3</v>
+      </c>
+      <c r="N300">
+        <v>6</v>
+      </c>
+      <c r="O300" t="s">
+        <v>269</v>
+      </c>
+      <c r="P300" t="s">
+        <v>388</v>
+      </c>
+      <c r="Q300">
+        <v>3.39</v>
+      </c>
+      <c r="R300">
+        <v>1.97</v>
+      </c>
+      <c r="S300">
+        <v>3.76</v>
+      </c>
+      <c r="T300">
+        <v>1.54</v>
+      </c>
+      <c r="U300">
+        <v>2.43</v>
+      </c>
+      <c r="V300">
+        <v>3.5</v>
+      </c>
+      <c r="W300">
+        <v>1.26</v>
+      </c>
+      <c r="X300">
+        <v>8.6</v>
+      </c>
+      <c r="Y300">
+        <v>1.02</v>
+      </c>
+      <c r="Z300">
+        <v>2.23</v>
+      </c>
+      <c r="AA300">
+        <v>3.1</v>
+      </c>
+      <c r="AB300">
+        <v>3.05</v>
+      </c>
+      <c r="AC300">
+        <v>1.08</v>
+      </c>
+      <c r="AD300">
+        <v>8.25</v>
+      </c>
+      <c r="AE300">
+        <v>1.5</v>
+      </c>
+      <c r="AF300">
+        <v>2.4</v>
+      </c>
+      <c r="AG300">
+        <v>2.48</v>
+      </c>
+      <c r="AH300">
+        <v>1.52</v>
+      </c>
+      <c r="AI300">
+        <v>2.04</v>
+      </c>
+      <c r="AJ300">
+        <v>1.74</v>
+      </c>
+      <c r="AK300">
+        <v>1.44</v>
+      </c>
+      <c r="AL300">
+        <v>1.35</v>
+      </c>
+      <c r="AM300">
+        <v>1.43</v>
+      </c>
+      <c r="AN300">
+        <v>1.37</v>
+      </c>
+      <c r="AO300">
+        <v>0.63</v>
+      </c>
+      <c r="AP300">
+        <v>1.35</v>
+      </c>
+      <c r="AQ300">
+        <v>0.65</v>
+      </c>
+      <c r="AR300">
+        <v>1.54</v>
+      </c>
+      <c r="AS300">
+        <v>1.11</v>
+      </c>
+      <c r="AT300">
+        <v>2.65</v>
+      </c>
+      <c r="AU300">
+        <v>9</v>
+      </c>
+      <c r="AV300">
+        <v>6</v>
+      </c>
+      <c r="AW300">
+        <v>3</v>
+      </c>
+      <c r="AX300">
+        <v>3</v>
+      </c>
+      <c r="AY300">
+        <v>12</v>
+      </c>
+      <c r="AZ300">
+        <v>9</v>
+      </c>
+      <c r="BA300">
+        <v>5</v>
+      </c>
+      <c r="BB300">
+        <v>3</v>
+      </c>
+      <c r="BC300">
+        <v>8</v>
+      </c>
+      <c r="BD300">
+        <v>1.85</v>
+      </c>
+      <c r="BE300">
+        <v>7.6</v>
+      </c>
+      <c r="BF300">
+        <v>2.44</v>
+      </c>
+      <c r="BG300">
+        <v>1.47</v>
+      </c>
+      <c r="BH300">
+        <v>2.42</v>
+      </c>
+      <c r="BI300">
+        <v>1.85</v>
+      </c>
+      <c r="BJ300">
+        <v>1.85</v>
+      </c>
+      <c r="BK300">
+        <v>2.42</v>
+      </c>
+      <c r="BL300">
+        <v>1.47</v>
+      </c>
+      <c r="BM300">
+        <v>3.38</v>
+      </c>
+      <c r="BN300">
+        <v>1.27</v>
+      </c>
+      <c r="BO300">
+        <v>4.56</v>
+      </c>
+      <c r="BP300">
+        <v>1.16</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Romania Liga I_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Romania Liga I_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1862" uniqueCount="389">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1868" uniqueCount="390">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -826,6 +826,9 @@
     <t>['5', '61', '90+1']</t>
   </si>
   <si>
+    <t>['11', '80']</t>
+  </si>
+  <si>
     <t>['45+5']</t>
   </si>
   <si>
@@ -1542,7 +1545,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP300"/>
+  <dimension ref="A1:BP301"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1801,7 +1804,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q2">
         <v>4</v>
@@ -2213,7 +2216,7 @@
         <v>87</v>
       </c>
       <c r="P4" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q4">
         <v>3.75</v>
@@ -2625,7 +2628,7 @@
         <v>89</v>
       </c>
       <c r="P6" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q6">
         <v>3.5</v>
@@ -2703,7 +2706,7 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>1.32</v>
+        <v>1.4</v>
       </c>
       <c r="AQ6">
         <v>1.33</v>
@@ -2831,7 +2834,7 @@
         <v>90</v>
       </c>
       <c r="P7" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q7">
         <v>5</v>
@@ -3243,7 +3246,7 @@
         <v>87</v>
       </c>
       <c r="P9" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q9">
         <v>5.5</v>
@@ -3655,7 +3658,7 @@
         <v>93</v>
       </c>
       <c r="P11" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q11">
         <v>4.33</v>
@@ -4067,7 +4070,7 @@
         <v>95</v>
       </c>
       <c r="P13" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q13">
         <v>1.95</v>
@@ -4273,7 +4276,7 @@
         <v>96</v>
       </c>
       <c r="P14" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q14">
         <v>3.6</v>
@@ -4479,7 +4482,7 @@
         <v>87</v>
       </c>
       <c r="P15" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q15">
         <v>3.2</v>
@@ -4685,7 +4688,7 @@
         <v>97</v>
       </c>
       <c r="P16" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q16">
         <v>2.88</v>
@@ -4972,7 +4975,7 @@
         <v>1.61</v>
       </c>
       <c r="AQ17">
-        <v>1.33</v>
+        <v>1.26</v>
       </c>
       <c r="AR17">
         <v>0</v>
@@ -5097,7 +5100,7 @@
         <v>98</v>
       </c>
       <c r="P18" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q18">
         <v>3</v>
@@ -5303,7 +5306,7 @@
         <v>99</v>
       </c>
       <c r="P19" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q19">
         <v>2</v>
@@ -5715,7 +5718,7 @@
         <v>87</v>
       </c>
       <c r="P21" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q21">
         <v>4.75</v>
@@ -5921,7 +5924,7 @@
         <v>101</v>
       </c>
       <c r="P22" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q22">
         <v>2.15</v>
@@ -6333,7 +6336,7 @@
         <v>87</v>
       </c>
       <c r="P24" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q24">
         <v>3.25</v>
@@ -6411,7 +6414,7 @@
         <v>0</v>
       </c>
       <c r="AP24">
-        <v>1.32</v>
+        <v>1.4</v>
       </c>
       <c r="AQ24">
         <v>0.95</v>
@@ -6539,7 +6542,7 @@
         <v>87</v>
       </c>
       <c r="P25" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q25">
         <v>4.33</v>
@@ -7157,7 +7160,7 @@
         <v>87</v>
       </c>
       <c r="P28" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q28">
         <v>3</v>
@@ -7363,7 +7366,7 @@
         <v>105</v>
       </c>
       <c r="P29" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q29">
         <v>2.55</v>
@@ -7569,7 +7572,7 @@
         <v>106</v>
       </c>
       <c r="P30" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q30">
         <v>3.5</v>
@@ -7647,7 +7650,7 @@
         <v>3</v>
       </c>
       <c r="AP30">
-        <v>1.32</v>
+        <v>1.4</v>
       </c>
       <c r="AQ30">
         <v>1.47</v>
@@ -8062,7 +8065,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ32">
-        <v>1.33</v>
+        <v>1.26</v>
       </c>
       <c r="AR32">
         <v>1.77</v>
@@ -8805,7 +8808,7 @@
         <v>112</v>
       </c>
       <c r="P36" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q36">
         <v>4.9</v>
@@ -9011,7 +9014,7 @@
         <v>87</v>
       </c>
       <c r="P37" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q37">
         <v>2.3</v>
@@ -9423,7 +9426,7 @@
         <v>114</v>
       </c>
       <c r="P39" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q39">
         <v>3.05</v>
@@ -9501,7 +9504,7 @@
         <v>1.5</v>
       </c>
       <c r="AP39">
-        <v>1.32</v>
+        <v>1.4</v>
       </c>
       <c r="AQ39">
         <v>0.68</v>
@@ -9916,7 +9919,7 @@
         <v>1.26</v>
       </c>
       <c r="AQ41">
-        <v>1.33</v>
+        <v>1.26</v>
       </c>
       <c r="AR41">
         <v>1.44</v>
@@ -10041,7 +10044,7 @@
         <v>116</v>
       </c>
       <c r="P42" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q42">
         <v>2.6</v>
@@ -10247,7 +10250,7 @@
         <v>117</v>
       </c>
       <c r="P43" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q43">
         <v>2.55</v>
@@ -10453,7 +10456,7 @@
         <v>118</v>
       </c>
       <c r="P44" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q44">
         <v>1.83</v>
@@ -10865,7 +10868,7 @@
         <v>119</v>
       </c>
       <c r="P46" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q46">
         <v>4.85</v>
@@ -11071,7 +11074,7 @@
         <v>120</v>
       </c>
       <c r="P47" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q47">
         <v>3.66</v>
@@ -11277,7 +11280,7 @@
         <v>121</v>
       </c>
       <c r="P48" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Q48">
         <v>3.4</v>
@@ -12101,7 +12104,7 @@
         <v>125</v>
       </c>
       <c r="P52" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Q52">
         <v>3.1</v>
@@ -12513,7 +12516,7 @@
         <v>127</v>
       </c>
       <c r="P54" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Q54">
         <v>2.75</v>
@@ -12591,10 +12594,10 @@
         <v>1</v>
       </c>
       <c r="AP54">
-        <v>1.32</v>
+        <v>1.4</v>
       </c>
       <c r="AQ54">
-        <v>1.33</v>
+        <v>1.26</v>
       </c>
       <c r="AR54">
         <v>1.55</v>
@@ -12925,7 +12928,7 @@
         <v>93</v>
       </c>
       <c r="P56" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q56">
         <v>4.7</v>
@@ -13543,7 +13546,7 @@
         <v>87</v>
       </c>
       <c r="P59" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Q59">
         <v>2.6</v>
@@ -13749,7 +13752,7 @@
         <v>131</v>
       </c>
       <c r="P60" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Q60">
         <v>3.5</v>
@@ -14573,7 +14576,7 @@
         <v>133</v>
       </c>
       <c r="P64" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Q64">
         <v>2.5</v>
@@ -15191,7 +15194,7 @@
         <v>87</v>
       </c>
       <c r="P67" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Q67">
         <v>3</v>
@@ -15397,7 +15400,7 @@
         <v>135</v>
       </c>
       <c r="P68" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Q68">
         <v>2.9</v>
@@ -15809,7 +15812,7 @@
         <v>137</v>
       </c>
       <c r="P70" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Q70">
         <v>4.33</v>
@@ -16015,7 +16018,7 @@
         <v>87</v>
       </c>
       <c r="P71" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="Q71">
         <v>2.57</v>
@@ -16096,7 +16099,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ71">
-        <v>1.33</v>
+        <v>1.26</v>
       </c>
       <c r="AR71">
         <v>1.68</v>
@@ -16221,7 +16224,7 @@
         <v>87</v>
       </c>
       <c r="P72" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Q72">
         <v>4.1</v>
@@ -16427,7 +16430,7 @@
         <v>138</v>
       </c>
       <c r="P73" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Q73">
         <v>2.7</v>
@@ -16633,7 +16636,7 @@
         <v>139</v>
       </c>
       <c r="P74" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Q74">
         <v>3.4</v>
@@ -17123,7 +17126,7 @@
         <v>1.25</v>
       </c>
       <c r="AP76">
-        <v>1.32</v>
+        <v>1.4</v>
       </c>
       <c r="AQ76">
         <v>0.72</v>
@@ -17251,7 +17254,7 @@
         <v>141</v>
       </c>
       <c r="P77" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="Q77">
         <v>3.4</v>
@@ -18075,7 +18078,7 @@
         <v>144</v>
       </c>
       <c r="P81" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Q81">
         <v>2.86</v>
@@ -19105,7 +19108,7 @@
         <v>148</v>
       </c>
       <c r="P86" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Q86">
         <v>2.05</v>
@@ -19723,7 +19726,7 @@
         <v>150</v>
       </c>
       <c r="P89" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="Q89">
         <v>2</v>
@@ -20007,7 +20010,7 @@
         <v>0.4</v>
       </c>
       <c r="AP90">
-        <v>1.32</v>
+        <v>1.4</v>
       </c>
       <c r="AQ90">
         <v>1.06</v>
@@ -20547,7 +20550,7 @@
         <v>87</v>
       </c>
       <c r="P93" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q93">
         <v>3.5</v>
@@ -20753,7 +20756,7 @@
         <v>151</v>
       </c>
       <c r="P94" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Q94">
         <v>4.4</v>
@@ -21371,7 +21374,7 @@
         <v>154</v>
       </c>
       <c r="P97" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="Q97">
         <v>3.7</v>
@@ -22195,7 +22198,7 @@
         <v>90</v>
       </c>
       <c r="P101" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="Q101">
         <v>1.98</v>
@@ -22607,7 +22610,7 @@
         <v>157</v>
       </c>
       <c r="P103" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="Q103">
         <v>2.15</v>
@@ -22894,7 +22897,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ104">
-        <v>1.33</v>
+        <v>1.26</v>
       </c>
       <c r="AR104">
         <v>1.64</v>
@@ -23019,7 +23022,7 @@
         <v>158</v>
       </c>
       <c r="P105" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="Q105">
         <v>2.15</v>
@@ -23225,7 +23228,7 @@
         <v>87</v>
       </c>
       <c r="P106" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="Q106">
         <v>3.85</v>
@@ -23843,7 +23846,7 @@
         <v>160</v>
       </c>
       <c r="P109" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="Q109">
         <v>4.1</v>
@@ -23921,7 +23924,7 @@
         <v>2.29</v>
       </c>
       <c r="AP109">
-        <v>1.32</v>
+        <v>1.4</v>
       </c>
       <c r="AQ109">
         <v>2.11</v>
@@ -24049,7 +24052,7 @@
         <v>161</v>
       </c>
       <c r="P110" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="Q110">
         <v>2.6</v>
@@ -24461,7 +24464,7 @@
         <v>87</v>
       </c>
       <c r="P112" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="Q112">
         <v>3.6</v>
@@ -24667,7 +24670,7 @@
         <v>163</v>
       </c>
       <c r="P113" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="Q113">
         <v>2.5</v>
@@ -24873,7 +24876,7 @@
         <v>164</v>
       </c>
       <c r="P114" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q114">
         <v>3.25</v>
@@ -24954,7 +24957,7 @@
         <v>1.28</v>
       </c>
       <c r="AQ114">
-        <v>1.33</v>
+        <v>1.26</v>
       </c>
       <c r="AR114">
         <v>1.54</v>
@@ -25491,7 +25494,7 @@
         <v>136</v>
       </c>
       <c r="P117" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="Q117">
         <v>2.68</v>
@@ -25903,7 +25906,7 @@
         <v>156</v>
       </c>
       <c r="P119" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="Q119">
         <v>5</v>
@@ -26933,7 +26936,7 @@
         <v>168</v>
       </c>
       <c r="P124" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="Q124">
         <v>5.15</v>
@@ -27345,7 +27348,7 @@
         <v>169</v>
       </c>
       <c r="P126" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="Q126">
         <v>3.25</v>
@@ -27963,7 +27966,7 @@
         <v>172</v>
       </c>
       <c r="P129" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="Q129">
         <v>3.1</v>
@@ -28044,7 +28047,7 @@
         <v>1.84</v>
       </c>
       <c r="AQ129">
-        <v>1.33</v>
+        <v>1.26</v>
       </c>
       <c r="AR129">
         <v>1.34</v>
@@ -28453,7 +28456,7 @@
         <v>0.38</v>
       </c>
       <c r="AP131">
-        <v>1.32</v>
+        <v>1.4</v>
       </c>
       <c r="AQ131">
         <v>0.58</v>
@@ -28581,7 +28584,7 @@
         <v>174</v>
       </c>
       <c r="P132" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="Q132">
         <v>3.98</v>
@@ -28993,7 +28996,7 @@
         <v>175</v>
       </c>
       <c r="P134" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="Q134">
         <v>4</v>
@@ -29199,7 +29202,7 @@
         <v>87</v>
       </c>
       <c r="P135" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="Q135">
         <v>7</v>
@@ -29611,7 +29614,7 @@
         <v>177</v>
       </c>
       <c r="P137" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="Q137">
         <v>2.39</v>
@@ -30023,7 +30026,7 @@
         <v>178</v>
       </c>
       <c r="P139" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="Q139">
         <v>3.94</v>
@@ -31053,7 +31056,7 @@
         <v>87</v>
       </c>
       <c r="P144" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="Q144">
         <v>1.98</v>
@@ -31134,7 +31137,7 @@
         <v>2.26</v>
       </c>
       <c r="AQ144">
-        <v>1.33</v>
+        <v>1.26</v>
       </c>
       <c r="AR144">
         <v>1.71</v>
@@ -31671,7 +31674,7 @@
         <v>152</v>
       </c>
       <c r="P147" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="Q147">
         <v>2.27</v>
@@ -31877,7 +31880,7 @@
         <v>184</v>
       </c>
       <c r="P148" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="Q148">
         <v>3.5</v>
@@ -32907,7 +32910,7 @@
         <v>188</v>
       </c>
       <c r="P153" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="Q153">
         <v>3.25</v>
@@ -33397,7 +33400,7 @@
         <v>1.56</v>
       </c>
       <c r="AP155">
-        <v>1.32</v>
+        <v>1.4</v>
       </c>
       <c r="AQ155">
         <v>1.33</v>
@@ -33731,7 +33734,7 @@
         <v>189</v>
       </c>
       <c r="P157" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="Q157">
         <v>1.95</v>
@@ -34224,7 +34227,7 @@
         <v>1.35</v>
       </c>
       <c r="AQ159">
-        <v>1.33</v>
+        <v>1.26</v>
       </c>
       <c r="AR159">
         <v>1.65</v>
@@ -34555,7 +34558,7 @@
         <v>87</v>
       </c>
       <c r="P161" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="Q161">
         <v>3.25</v>
@@ -34967,7 +34970,7 @@
         <v>138</v>
       </c>
       <c r="P163" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="Q163">
         <v>4.7</v>
@@ -35173,7 +35176,7 @@
         <v>193</v>
       </c>
       <c r="P164" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="Q164">
         <v>3.75</v>
@@ -35997,7 +36000,7 @@
         <v>87</v>
       </c>
       <c r="P168" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="Q168">
         <v>2.55</v>
@@ -36615,7 +36618,7 @@
         <v>197</v>
       </c>
       <c r="P171" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="Q171">
         <v>2.4</v>
@@ -37105,7 +37108,7 @@
         <v>0.7</v>
       </c>
       <c r="AP173">
-        <v>1.32</v>
+        <v>1.4</v>
       </c>
       <c r="AQ173">
         <v>0.65</v>
@@ -37439,7 +37442,7 @@
         <v>201</v>
       </c>
       <c r="P175" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="Q175">
         <v>2.48</v>
@@ -37726,7 +37729,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ176">
-        <v>1.33</v>
+        <v>1.26</v>
       </c>
       <c r="AR176">
         <v>1.38</v>
@@ -38263,7 +38266,7 @@
         <v>204</v>
       </c>
       <c r="P179" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="Q179">
         <v>3.6</v>
@@ -38675,7 +38678,7 @@
         <v>205</v>
       </c>
       <c r="P181" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="Q181">
         <v>4</v>
@@ -39293,7 +39296,7 @@
         <v>87</v>
       </c>
       <c r="P184" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="Q184">
         <v>3.2</v>
@@ -39499,7 +39502,7 @@
         <v>208</v>
       </c>
       <c r="P185" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="Q185">
         <v>1.95</v>
@@ -39705,7 +39708,7 @@
         <v>209</v>
       </c>
       <c r="P186" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="Q186">
         <v>3.15</v>
@@ -40117,7 +40120,7 @@
         <v>211</v>
       </c>
       <c r="P188" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="Q188">
         <v>3.8</v>
@@ -40195,7 +40198,7 @@
         <v>1</v>
       </c>
       <c r="AP188">
-        <v>1.32</v>
+        <v>1.4</v>
       </c>
       <c r="AQ188">
         <v>1.37</v>
@@ -40404,7 +40407,7 @@
         <v>1.68</v>
       </c>
       <c r="AQ189">
-        <v>1.33</v>
+        <v>1.26</v>
       </c>
       <c r="AR189">
         <v>1.9</v>
@@ -40529,7 +40532,7 @@
         <v>213</v>
       </c>
       <c r="P190" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="Q190">
         <v>2.5</v>
@@ -40735,7 +40738,7 @@
         <v>214</v>
       </c>
       <c r="P191" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="Q191">
         <v>3.2</v>
@@ -41559,7 +41562,7 @@
         <v>216</v>
       </c>
       <c r="P195" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="Q195">
         <v>2.4</v>
@@ -42589,7 +42592,7 @@
         <v>217</v>
       </c>
       <c r="P200" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="Q200">
         <v>2.7</v>
@@ -42795,7 +42798,7 @@
         <v>87</v>
       </c>
       <c r="P201" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="Q201">
         <v>2.09</v>
@@ -43079,7 +43082,7 @@
         <v>1</v>
       </c>
       <c r="AP202">
-        <v>1.32</v>
+        <v>1.4</v>
       </c>
       <c r="AQ202">
         <v>0.74</v>
@@ -43619,7 +43622,7 @@
         <v>220</v>
       </c>
       <c r="P205" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="Q205">
         <v>3.5</v>
@@ -43825,7 +43828,7 @@
         <v>221</v>
       </c>
       <c r="P206" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="Q206">
         <v>4.2</v>
@@ -44031,7 +44034,7 @@
         <v>222</v>
       </c>
       <c r="P207" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="Q207">
         <v>3.6</v>
@@ -44112,7 +44115,7 @@
         <v>1.28</v>
       </c>
       <c r="AQ207">
-        <v>1.33</v>
+        <v>1.26</v>
       </c>
       <c r="AR207">
         <v>1.46</v>
@@ -45348,7 +45351,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ213">
-        <v>1.33</v>
+        <v>1.26</v>
       </c>
       <c r="AR213">
         <v>1.94</v>
@@ -45473,7 +45476,7 @@
         <v>224</v>
       </c>
       <c r="P214" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="Q214">
         <v>4.55</v>
@@ -45885,7 +45888,7 @@
         <v>225</v>
       </c>
       <c r="P216" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="Q216">
         <v>1.75</v>
@@ -46091,7 +46094,7 @@
         <v>226</v>
       </c>
       <c r="P217" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="Q217">
         <v>2.05</v>
@@ -46709,7 +46712,7 @@
         <v>229</v>
       </c>
       <c r="P220" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="Q220">
         <v>5.25</v>
@@ -47327,7 +47330,7 @@
         <v>183</v>
       </c>
       <c r="P223" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="Q223">
         <v>4.5</v>
@@ -47533,7 +47536,7 @@
         <v>231</v>
       </c>
       <c r="P224" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="Q224">
         <v>3.75</v>
@@ -47611,7 +47614,7 @@
         <v>1.31</v>
       </c>
       <c r="AP224">
-        <v>1.32</v>
+        <v>1.4</v>
       </c>
       <c r="AQ224">
         <v>1.68</v>
@@ -47739,7 +47742,7 @@
         <v>104</v>
       </c>
       <c r="P225" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="Q225">
         <v>4.75</v>
@@ -48151,7 +48154,7 @@
         <v>232</v>
       </c>
       <c r="P227" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="Q227">
         <v>2.99</v>
@@ -48438,7 +48441,7 @@
         <v>2</v>
       </c>
       <c r="AQ228">
-        <v>1.33</v>
+        <v>1.26</v>
       </c>
       <c r="AR228">
         <v>1.59</v>
@@ -49387,7 +49390,7 @@
         <v>89</v>
       </c>
       <c r="P233" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="Q233">
         <v>3</v>
@@ -50417,7 +50420,7 @@
         <v>237</v>
       </c>
       <c r="P238" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="Q238">
         <v>3.5</v>
@@ -50495,7 +50498,7 @@
         <v>1</v>
       </c>
       <c r="AP238">
-        <v>1.32</v>
+        <v>1.4</v>
       </c>
       <c r="AQ238">
         <v>1.21</v>
@@ -50829,7 +50832,7 @@
         <v>213</v>
       </c>
       <c r="P240" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="Q240">
         <v>3.6</v>
@@ -51447,7 +51450,7 @@
         <v>108</v>
       </c>
       <c r="P243" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="Q243">
         <v>2.3</v>
@@ -51859,7 +51862,7 @@
         <v>156</v>
       </c>
       <c r="P245" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="Q245">
         <v>2.65</v>
@@ -52477,7 +52480,7 @@
         <v>243</v>
       </c>
       <c r="P248" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="Q248">
         <v>2.53</v>
@@ -52761,7 +52764,7 @@
         <v>0.73</v>
       </c>
       <c r="AP249">
-        <v>1.32</v>
+        <v>1.4</v>
       </c>
       <c r="AQ249">
         <v>0.68</v>
@@ -53919,7 +53922,7 @@
         <v>102</v>
       </c>
       <c r="P255" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="Q255">
         <v>2.95</v>
@@ -54000,7 +54003,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ255">
-        <v>1.33</v>
+        <v>1.26</v>
       </c>
       <c r="AR255">
         <v>1.62</v>
@@ -54331,7 +54334,7 @@
         <v>102</v>
       </c>
       <c r="P257" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="Q257">
         <v>3.1</v>
@@ -54949,7 +54952,7 @@
         <v>87</v>
       </c>
       <c r="P260" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="Q260">
         <v>2.9</v>
@@ -55027,7 +55030,7 @@
         <v>0.88</v>
       </c>
       <c r="AP260">
-        <v>1.32</v>
+        <v>1.4</v>
       </c>
       <c r="AQ260">
         <v>0.95</v>
@@ -55155,7 +55158,7 @@
         <v>247</v>
       </c>
       <c r="P261" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="Q261">
         <v>2.8</v>
@@ -55361,7 +55364,7 @@
         <v>164</v>
       </c>
       <c r="P262" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="Q262">
         <v>3.12</v>
@@ -56185,7 +56188,7 @@
         <v>249</v>
       </c>
       <c r="P266" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="Q266">
         <v>3.05</v>
@@ -56391,7 +56394,7 @@
         <v>250</v>
       </c>
       <c r="P267" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="Q267">
         <v>2.5</v>
@@ -56597,7 +56600,7 @@
         <v>175</v>
       </c>
       <c r="P268" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="Q268">
         <v>3.55</v>
@@ -56678,7 +56681,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ268">
-        <v>1.33</v>
+        <v>1.26</v>
       </c>
       <c r="AR268">
         <v>1.34</v>
@@ -56803,7 +56806,7 @@
         <v>146</v>
       </c>
       <c r="P269" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="Q269">
         <v>2.49</v>
@@ -58039,7 +58042,7 @@
         <v>253</v>
       </c>
       <c r="P275" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="Q275">
         <v>3.8</v>
@@ -58245,7 +58248,7 @@
         <v>254</v>
       </c>
       <c r="P276" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="Q276">
         <v>3</v>
@@ -58451,7 +58454,7 @@
         <v>180</v>
       </c>
       <c r="P277" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="Q277">
         <v>2.85</v>
@@ -58657,7 +58660,7 @@
         <v>255</v>
       </c>
       <c r="P278" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="Q278">
         <v>2.5</v>
@@ -59069,7 +59072,7 @@
         <v>220</v>
       </c>
       <c r="P280" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="Q280">
         <v>3.1</v>
@@ -59275,7 +59278,7 @@
         <v>256</v>
       </c>
       <c r="P281" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q281">
         <v>3</v>
@@ -59353,7 +59356,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AP281">
-        <v>1.32</v>
+        <v>1.4</v>
       </c>
       <c r="AQ281">
         <v>1.06</v>
@@ -59687,7 +59690,7 @@
         <v>257</v>
       </c>
       <c r="P283" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Q283">
         <v>3.35</v>
@@ -60305,7 +60308,7 @@
         <v>260</v>
       </c>
       <c r="P286" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="Q286">
         <v>4.1</v>
@@ -60511,7 +60514,7 @@
         <v>261</v>
       </c>
       <c r="P287" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="Q287">
         <v>3.1</v>
@@ -60592,7 +60595,7 @@
         <v>1.84</v>
       </c>
       <c r="AQ287">
-        <v>1.33</v>
+        <v>1.26</v>
       </c>
       <c r="AR287">
         <v>1.52</v>
@@ -61335,7 +61338,7 @@
         <v>264</v>
       </c>
       <c r="P291" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="Q291">
         <v>3</v>
@@ -61541,7 +61544,7 @@
         <v>265</v>
       </c>
       <c r="P292" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q292">
         <v>2.55</v>
@@ -61953,7 +61956,7 @@
         <v>87</v>
       </c>
       <c r="P294" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="Q294">
         <v>3.2</v>
@@ -62365,7 +62368,7 @@
         <v>136</v>
       </c>
       <c r="P296" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="Q296">
         <v>2.58</v>
@@ -62443,7 +62446,7 @@
         <v>0.44</v>
       </c>
       <c r="AP296">
-        <v>1.32</v>
+        <v>1.4</v>
       </c>
       <c r="AQ296">
         <v>0.58</v>
@@ -62571,7 +62574,7 @@
         <v>268</v>
       </c>
       <c r="P297" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="Q297">
         <v>2.75</v>
@@ -62777,7 +62780,7 @@
         <v>132</v>
       </c>
       <c r="P298" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="Q298">
         <v>2.38</v>
@@ -63189,7 +63192,7 @@
         <v>269</v>
       </c>
       <c r="P300" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="Q300">
         <v>3.39</v>
@@ -63346,6 +63349,212 @@
       </c>
       <c r="BP300">
         <v>1.16</v>
+      </c>
+    </row>
+    <row r="301" spans="1:68">
+      <c r="A301" s="1">
+        <v>300</v>
+      </c>
+      <c r="B301">
+        <v>7383792</v>
+      </c>
+      <c r="C301" t="s">
+        <v>68</v>
+      </c>
+      <c r="D301" t="s">
+        <v>69</v>
+      </c>
+      <c r="E301" s="2">
+        <v>45417.39583333334</v>
+      </c>
+      <c r="F301">
+        <v>8</v>
+      </c>
+      <c r="G301" t="s">
+        <v>74</v>
+      </c>
+      <c r="H301" t="s">
+        <v>70</v>
+      </c>
+      <c r="I301">
+        <v>1</v>
+      </c>
+      <c r="J301">
+        <v>1</v>
+      </c>
+      <c r="K301">
+        <v>2</v>
+      </c>
+      <c r="L301">
+        <v>2</v>
+      </c>
+      <c r="M301">
+        <v>1</v>
+      </c>
+      <c r="N301">
+        <v>3</v>
+      </c>
+      <c r="O301" t="s">
+        <v>270</v>
+      </c>
+      <c r="P301" t="s">
+        <v>220</v>
+      </c>
+      <c r="Q301">
+        <v>2.97</v>
+      </c>
+      <c r="R301">
+        <v>1.97</v>
+      </c>
+      <c r="S301">
+        <v>4.45</v>
+      </c>
+      <c r="T301">
+        <v>1.55</v>
+      </c>
+      <c r="U301">
+        <v>2.41</v>
+      </c>
+      <c r="V301">
+        <v>3.58</v>
+      </c>
+      <c r="W301">
+        <v>1.25</v>
+      </c>
+      <c r="X301">
+        <v>8.75</v>
+      </c>
+      <c r="Y301">
+        <v>1.02</v>
+      </c>
+      <c r="Z301">
+        <v>2.15</v>
+      </c>
+      <c r="AA301">
+        <v>3</v>
+      </c>
+      <c r="AB301">
+        <v>3.37</v>
+      </c>
+      <c r="AC301">
+        <v>1.1</v>
+      </c>
+      <c r="AD301">
+        <v>6.59</v>
+      </c>
+      <c r="AE301">
+        <v>1.49</v>
+      </c>
+      <c r="AF301">
+        <v>2.55</v>
+      </c>
+      <c r="AG301">
+        <v>2.59</v>
+      </c>
+      <c r="AH301">
+        <v>1.44</v>
+      </c>
+      <c r="AI301">
+        <v>2.11</v>
+      </c>
+      <c r="AJ301">
+        <v>1.69</v>
+      </c>
+      <c r="AK301">
+        <v>1.28</v>
+      </c>
+      <c r="AL301">
+        <v>1.34</v>
+      </c>
+      <c r="AM301">
+        <v>1.66</v>
+      </c>
+      <c r="AN301">
+        <v>1.32</v>
+      </c>
+      <c r="AO301">
+        <v>1.33</v>
+      </c>
+      <c r="AP301">
+        <v>1.4</v>
+      </c>
+      <c r="AQ301">
+        <v>1.26</v>
+      </c>
+      <c r="AR301">
+        <v>1.51</v>
+      </c>
+      <c r="AS301">
+        <v>1.34</v>
+      </c>
+      <c r="AT301">
+        <v>2.85</v>
+      </c>
+      <c r="AU301">
+        <v>2</v>
+      </c>
+      <c r="AV301">
+        <v>2</v>
+      </c>
+      <c r="AW301">
+        <v>5</v>
+      </c>
+      <c r="AX301">
+        <v>2</v>
+      </c>
+      <c r="AY301">
+        <v>7</v>
+      </c>
+      <c r="AZ301">
+        <v>4</v>
+      </c>
+      <c r="BA301">
+        <v>2</v>
+      </c>
+      <c r="BB301">
+        <v>7</v>
+      </c>
+      <c r="BC301">
+        <v>9</v>
+      </c>
+      <c r="BD301">
+        <v>1.71</v>
+      </c>
+      <c r="BE301">
+        <v>8.1</v>
+      </c>
+      <c r="BF301">
+        <v>2.67</v>
+      </c>
+      <c r="BG301">
+        <v>1.36</v>
+      </c>
+      <c r="BH301">
+        <v>2.78</v>
+      </c>
+      <c r="BI301">
+        <v>1.72</v>
+      </c>
+      <c r="BJ301">
+        <v>2.09</v>
+      </c>
+      <c r="BK301">
+        <v>2.18</v>
+      </c>
+      <c r="BL301">
+        <v>1.67</v>
+      </c>
+      <c r="BM301">
+        <v>2.88</v>
+      </c>
+      <c r="BN301">
+        <v>1.34</v>
+      </c>
+      <c r="BO301">
+        <v>3.85</v>
+      </c>
+      <c r="BP301">
+        <v>1.2</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Romania Liga I_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Romania Liga I_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1868" uniqueCount="390">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1886" uniqueCount="393">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -829,6 +829,12 @@
     <t>['11', '80']</t>
   </si>
   <si>
+    <t>['20', '30', '56']</t>
+  </si>
+  <si>
+    <t>['6', '31', '66']</t>
+  </si>
+  <si>
     <t>['45+5']</t>
   </si>
   <si>
@@ -1184,6 +1190,9 @@
   </si>
   <si>
     <t>['37', '48', '87']</t>
+  </si>
+  <si>
+    <t>['16', '60']</t>
   </si>
 </sst>
 </file>
@@ -1545,7 +1554,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP301"/>
+  <dimension ref="A1:BP304"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1804,7 +1813,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="Q2">
         <v>4</v>
@@ -2216,7 +2225,7 @@
         <v>87</v>
       </c>
       <c r="P4" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="Q4">
         <v>3.75</v>
@@ -2294,7 +2303,7 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="AQ4">
         <v>1.47</v>
@@ -2500,10 +2509,10 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>2.06</v>
+        <v>2.11</v>
       </c>
       <c r="AQ5">
-        <v>0.74</v>
+        <v>0.85</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2628,7 +2637,7 @@
         <v>89</v>
       </c>
       <c r="P6" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="Q6">
         <v>3.5</v>
@@ -2834,7 +2843,7 @@
         <v>90</v>
       </c>
       <c r="P7" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="Q7">
         <v>5</v>
@@ -3246,7 +3255,7 @@
         <v>87</v>
       </c>
       <c r="P9" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="Q9">
         <v>5.5</v>
@@ -3533,7 +3542,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ10">
-        <v>0.68</v>
+        <v>0.65</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -3658,7 +3667,7 @@
         <v>93</v>
       </c>
       <c r="P11" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="Q11">
         <v>4.33</v>
@@ -3736,7 +3745,7 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>1.84</v>
+        <v>1.9</v>
       </c>
       <c r="AQ11">
         <v>1.37</v>
@@ -4070,7 +4079,7 @@
         <v>95</v>
       </c>
       <c r="P13" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="Q13">
         <v>1.95</v>
@@ -4276,7 +4285,7 @@
         <v>96</v>
       </c>
       <c r="P14" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="Q14">
         <v>3.6</v>
@@ -4482,7 +4491,7 @@
         <v>87</v>
       </c>
       <c r="P15" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="Q15">
         <v>3.2</v>
@@ -4563,7 +4572,7 @@
         <v>1.35</v>
       </c>
       <c r="AQ15">
-        <v>1.33</v>
+        <v>1.26</v>
       </c>
       <c r="AR15">
         <v>0</v>
@@ -4688,7 +4697,7 @@
         <v>97</v>
       </c>
       <c r="P16" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="Q16">
         <v>2.88</v>
@@ -5100,7 +5109,7 @@
         <v>98</v>
       </c>
       <c r="P18" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="Q18">
         <v>3</v>
@@ -5306,7 +5315,7 @@
         <v>99</v>
       </c>
       <c r="P19" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="Q19">
         <v>2</v>
@@ -5590,7 +5599,7 @@
         <v>1</v>
       </c>
       <c r="AP20">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="AQ20">
         <v>1.06</v>
@@ -5718,7 +5727,7 @@
         <v>87</v>
       </c>
       <c r="P21" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="Q21">
         <v>4.75</v>
@@ -5924,7 +5933,7 @@
         <v>101</v>
       </c>
       <c r="P22" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="Q22">
         <v>2.15</v>
@@ -6005,7 +6014,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ22">
-        <v>0.74</v>
+        <v>0.85</v>
       </c>
       <c r="AR22">
         <v>2.87</v>
@@ -6208,7 +6217,7 @@
         <v>3</v>
       </c>
       <c r="AP23">
-        <v>2.06</v>
+        <v>2.11</v>
       </c>
       <c r="AQ23">
         <v>1.68</v>
@@ -6336,7 +6345,7 @@
         <v>87</v>
       </c>
       <c r="P24" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="Q24">
         <v>3.25</v>
@@ -6542,7 +6551,7 @@
         <v>87</v>
       </c>
       <c r="P25" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="Q25">
         <v>4.33</v>
@@ -6826,10 +6835,10 @@
         <v>1.5</v>
       </c>
       <c r="AP26">
-        <v>1.84</v>
+        <v>1.9</v>
       </c>
       <c r="AQ26">
-        <v>0.74</v>
+        <v>0.85</v>
       </c>
       <c r="AR26">
         <v>1.05</v>
@@ -7160,7 +7169,7 @@
         <v>87</v>
       </c>
       <c r="P28" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="Q28">
         <v>3</v>
@@ -7241,7 +7250,7 @@
         <v>1.26</v>
       </c>
       <c r="AQ28">
-        <v>0.68</v>
+        <v>0.65</v>
       </c>
       <c r="AR28">
         <v>1.1</v>
@@ -7366,7 +7375,7 @@
         <v>105</v>
       </c>
       <c r="P29" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="Q29">
         <v>2.55</v>
@@ -7572,7 +7581,7 @@
         <v>106</v>
       </c>
       <c r="P30" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="Q30">
         <v>3.5</v>
@@ -8271,7 +8280,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ33">
-        <v>1.33</v>
+        <v>1.26</v>
       </c>
       <c r="AR33">
         <v>1.18</v>
@@ -8808,7 +8817,7 @@
         <v>112</v>
       </c>
       <c r="P36" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="Q36">
         <v>4.9</v>
@@ -9014,7 +9023,7 @@
         <v>87</v>
       </c>
       <c r="P37" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="Q37">
         <v>2.3</v>
@@ -9426,7 +9435,7 @@
         <v>114</v>
       </c>
       <c r="P39" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="Q39">
         <v>3.05</v>
@@ -9507,7 +9516,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ39">
-        <v>0.68</v>
+        <v>0.65</v>
       </c>
       <c r="AR39">
         <v>1.64</v>
@@ -10044,7 +10053,7 @@
         <v>116</v>
       </c>
       <c r="P42" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="Q42">
         <v>2.6</v>
@@ -10250,7 +10259,7 @@
         <v>117</v>
       </c>
       <c r="P43" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="Q43">
         <v>2.55</v>
@@ -10456,7 +10465,7 @@
         <v>118</v>
       </c>
       <c r="P44" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="Q44">
         <v>1.83</v>
@@ -10537,7 +10546,7 @@
         <v>2.26</v>
       </c>
       <c r="AQ44">
-        <v>0.74</v>
+        <v>0.85</v>
       </c>
       <c r="AR44">
         <v>1.65</v>
@@ -10868,7 +10877,7 @@
         <v>119</v>
       </c>
       <c r="P46" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="Q46">
         <v>4.85</v>
@@ -11074,7 +11083,7 @@
         <v>120</v>
       </c>
       <c r="P47" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="Q47">
         <v>3.66</v>
@@ -11280,7 +11289,7 @@
         <v>121</v>
       </c>
       <c r="P48" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="Q48">
         <v>3.4</v>
@@ -11361,7 +11370,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ48">
-        <v>1.33</v>
+        <v>1.26</v>
       </c>
       <c r="AR48">
         <v>1.57</v>
@@ -11564,7 +11573,7 @@
         <v>0.33</v>
       </c>
       <c r="AP49">
-        <v>2.06</v>
+        <v>2.11</v>
       </c>
       <c r="AQ49">
         <v>0.58</v>
@@ -12104,7 +12113,7 @@
         <v>125</v>
       </c>
       <c r="P52" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="Q52">
         <v>3.1</v>
@@ -12182,7 +12191,7 @@
         <v>1.67</v>
       </c>
       <c r="AP52">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="AQ52">
         <v>1.33</v>
@@ -12388,7 +12397,7 @@
         <v>3</v>
       </c>
       <c r="AP53">
-        <v>1.84</v>
+        <v>1.9</v>
       </c>
       <c r="AQ53">
         <v>2.11</v>
@@ -12516,7 +12525,7 @@
         <v>127</v>
       </c>
       <c r="P54" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="Q54">
         <v>2.75</v>
@@ -12928,7 +12937,7 @@
         <v>93</v>
       </c>
       <c r="P56" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="Q56">
         <v>4.7</v>
@@ -13546,7 +13555,7 @@
         <v>87</v>
       </c>
       <c r="P59" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="Q59">
         <v>2.6</v>
@@ -13627,7 +13636,7 @@
         <v>1.35</v>
       </c>
       <c r="AQ59">
-        <v>0.74</v>
+        <v>0.85</v>
       </c>
       <c r="AR59">
         <v>1.86</v>
@@ -13752,7 +13761,7 @@
         <v>131</v>
       </c>
       <c r="P60" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="Q60">
         <v>3.5</v>
@@ -14242,7 +14251,7 @@
         <v>1.5</v>
       </c>
       <c r="AP62">
-        <v>1.84</v>
+        <v>1.9</v>
       </c>
       <c r="AQ62">
         <v>1.33</v>
@@ -14451,7 +14460,7 @@
         <v>1.28</v>
       </c>
       <c r="AQ63">
-        <v>0.68</v>
+        <v>0.65</v>
       </c>
       <c r="AR63">
         <v>1.53</v>
@@ -14576,7 +14585,7 @@
         <v>133</v>
       </c>
       <c r="P64" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="Q64">
         <v>2.5</v>
@@ -14860,7 +14869,7 @@
         <v>1</v>
       </c>
       <c r="AP65">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="AQ65">
         <v>0.95</v>
@@ -15069,7 +15078,7 @@
         <v>1.37</v>
       </c>
       <c r="AQ66">
-        <v>1.33</v>
+        <v>1.26</v>
       </c>
       <c r="AR66">
         <v>1.44</v>
@@ -15194,7 +15203,7 @@
         <v>87</v>
       </c>
       <c r="P67" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="Q67">
         <v>3</v>
@@ -15400,7 +15409,7 @@
         <v>135</v>
       </c>
       <c r="P68" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="Q68">
         <v>2.9</v>
@@ -15684,7 +15693,7 @@
         <v>1.67</v>
       </c>
       <c r="AP69">
-        <v>2.06</v>
+        <v>2.11</v>
       </c>
       <c r="AQ69">
         <v>1</v>
@@ -15812,7 +15821,7 @@
         <v>137</v>
       </c>
       <c r="P70" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="Q70">
         <v>4.33</v>
@@ -15890,7 +15899,7 @@
         <v>2.25</v>
       </c>
       <c r="AP70">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="AQ70">
         <v>2.11</v>
@@ -16018,7 +16027,7 @@
         <v>87</v>
       </c>
       <c r="P71" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="Q71">
         <v>2.57</v>
@@ -16224,7 +16233,7 @@
         <v>87</v>
       </c>
       <c r="P72" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="Q72">
         <v>4.1</v>
@@ -16430,7 +16439,7 @@
         <v>138</v>
       </c>
       <c r="P73" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="Q73">
         <v>2.7</v>
@@ -16511,7 +16520,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ73">
-        <v>0.74</v>
+        <v>0.85</v>
       </c>
       <c r="AR73">
         <v>1.32</v>
@@ -16636,7 +16645,7 @@
         <v>139</v>
       </c>
       <c r="P74" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="Q74">
         <v>3.4</v>
@@ -17254,7 +17263,7 @@
         <v>141</v>
       </c>
       <c r="P77" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="Q77">
         <v>3.4</v>
@@ -17950,7 +17959,7 @@
         <v>0.8</v>
       </c>
       <c r="AP80">
-        <v>1.84</v>
+        <v>1.9</v>
       </c>
       <c r="AQ80">
         <v>0.95</v>
@@ -18078,7 +18087,7 @@
         <v>144</v>
       </c>
       <c r="P81" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="Q81">
         <v>2.86</v>
@@ -18568,10 +18577,10 @@
         <v>1.75</v>
       </c>
       <c r="AP83">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="AQ83">
-        <v>1.33</v>
+        <v>1.26</v>
       </c>
       <c r="AR83">
         <v>1.84</v>
@@ -18774,10 +18783,10 @@
         <v>1.5</v>
       </c>
       <c r="AP84">
-        <v>2.06</v>
+        <v>2.11</v>
       </c>
       <c r="AQ84">
-        <v>0.68</v>
+        <v>0.65</v>
       </c>
       <c r="AR84">
         <v>1.63</v>
@@ -19108,7 +19117,7 @@
         <v>148</v>
       </c>
       <c r="P86" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="Q86">
         <v>2.05</v>
@@ -19392,7 +19401,7 @@
         <v>1</v>
       </c>
       <c r="AP87">
-        <v>2.06</v>
+        <v>2.11</v>
       </c>
       <c r="AQ87">
         <v>1.21</v>
@@ -19726,7 +19735,7 @@
         <v>150</v>
       </c>
       <c r="P89" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="Q89">
         <v>2</v>
@@ -19807,7 +19816,7 @@
         <v>1.68</v>
       </c>
       <c r="AQ89">
-        <v>0.74</v>
+        <v>0.85</v>
       </c>
       <c r="AR89">
         <v>1.94</v>
@@ -20550,7 +20559,7 @@
         <v>87</v>
       </c>
       <c r="P93" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="Q93">
         <v>3.5</v>
@@ -20756,7 +20765,7 @@
         <v>151</v>
       </c>
       <c r="P94" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="Q94">
         <v>4.4</v>
@@ -21374,7 +21383,7 @@
         <v>154</v>
       </c>
       <c r="P97" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="Q97">
         <v>3.7</v>
@@ -21452,10 +21461,10 @@
         <v>1.6</v>
       </c>
       <c r="AP97">
-        <v>1.84</v>
+        <v>1.9</v>
       </c>
       <c r="AQ97">
-        <v>1.33</v>
+        <v>1.26</v>
       </c>
       <c r="AR97">
         <v>1.23</v>
@@ -21658,7 +21667,7 @@
         <v>0.8</v>
       </c>
       <c r="AP98">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="AQ98">
         <v>0.65</v>
@@ -22073,7 +22082,7 @@
         <v>1.28</v>
       </c>
       <c r="AQ100">
-        <v>0.68</v>
+        <v>0.65</v>
       </c>
       <c r="AR100">
         <v>1.51</v>
@@ -22198,7 +22207,7 @@
         <v>90</v>
       </c>
       <c r="P101" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="Q101">
         <v>1.98</v>
@@ -22610,7 +22619,7 @@
         <v>157</v>
       </c>
       <c r="P103" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="Q103">
         <v>2.15</v>
@@ -22894,7 +22903,7 @@
         <v>1.4</v>
       </c>
       <c r="AP104">
-        <v>2.06</v>
+        <v>2.11</v>
       </c>
       <c r="AQ104">
         <v>1.26</v>
@@ -23022,7 +23031,7 @@
         <v>158</v>
       </c>
       <c r="P105" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="Q105">
         <v>2.15</v>
@@ -23228,7 +23237,7 @@
         <v>87</v>
       </c>
       <c r="P106" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="Q106">
         <v>3.85</v>
@@ -23515,7 +23524,7 @@
         <v>1.28</v>
       </c>
       <c r="AQ107">
-        <v>0.74</v>
+        <v>0.85</v>
       </c>
       <c r="AR107">
         <v>1.51</v>
@@ -23846,7 +23855,7 @@
         <v>160</v>
       </c>
       <c r="P109" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="Q109">
         <v>4.1</v>
@@ -24052,7 +24061,7 @@
         <v>161</v>
       </c>
       <c r="P110" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="Q110">
         <v>2.6</v>
@@ -24464,7 +24473,7 @@
         <v>87</v>
       </c>
       <c r="P112" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="Q112">
         <v>3.6</v>
@@ -24670,7 +24679,7 @@
         <v>163</v>
       </c>
       <c r="P113" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="Q113">
         <v>2.5</v>
@@ -24748,7 +24757,7 @@
         <v>1.5</v>
       </c>
       <c r="AP113">
-        <v>2.06</v>
+        <v>2.11</v>
       </c>
       <c r="AQ113">
         <v>1.47</v>
@@ -24876,7 +24885,7 @@
         <v>164</v>
       </c>
       <c r="P114" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="Q114">
         <v>3.25</v>
@@ -25369,7 +25378,7 @@
         <v>1.61</v>
       </c>
       <c r="AQ116">
-        <v>0.68</v>
+        <v>0.65</v>
       </c>
       <c r="AR116">
         <v>1.93</v>
@@ -25494,7 +25503,7 @@
         <v>136</v>
       </c>
       <c r="P117" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="Q117">
         <v>2.68</v>
@@ -25906,7 +25915,7 @@
         <v>156</v>
       </c>
       <c r="P119" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="Q119">
         <v>5</v>
@@ -25987,7 +25996,7 @@
         <v>2.26</v>
       </c>
       <c r="AQ119">
-        <v>1.33</v>
+        <v>1.26</v>
       </c>
       <c r="AR119">
         <v>1.74</v>
@@ -26190,7 +26199,7 @@
         <v>0.67</v>
       </c>
       <c r="AP120">
-        <v>1.84</v>
+        <v>1.9</v>
       </c>
       <c r="AQ120">
         <v>0.65</v>
@@ -26396,7 +26405,7 @@
         <v>1.67</v>
       </c>
       <c r="AP121">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="AQ121">
         <v>1.37</v>
@@ -26605,7 +26614,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ122">
-        <v>1.33</v>
+        <v>1.26</v>
       </c>
       <c r="AR122">
         <v>1.57</v>
@@ -26936,7 +26945,7 @@
         <v>168</v>
       </c>
       <c r="P124" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="Q124">
         <v>5.15</v>
@@ -27348,7 +27357,7 @@
         <v>169</v>
       </c>
       <c r="P126" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="Q126">
         <v>3.25</v>
@@ -27841,7 +27850,7 @@
         <v>2.26</v>
       </c>
       <c r="AQ128">
-        <v>0.68</v>
+        <v>0.65</v>
       </c>
       <c r="AR128">
         <v>1.77</v>
@@ -27966,7 +27975,7 @@
         <v>172</v>
       </c>
       <c r="P129" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="Q129">
         <v>3.1</v>
@@ -28044,7 +28053,7 @@
         <v>1.29</v>
       </c>
       <c r="AP129">
-        <v>1.84</v>
+        <v>1.9</v>
       </c>
       <c r="AQ129">
         <v>1.26</v>
@@ -28250,10 +28259,10 @@
         <v>1.25</v>
       </c>
       <c r="AP130">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="AQ130">
-        <v>0.74</v>
+        <v>0.85</v>
       </c>
       <c r="AR130">
         <v>1.69</v>
@@ -28584,7 +28593,7 @@
         <v>174</v>
       </c>
       <c r="P132" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="Q132">
         <v>3.98</v>
@@ -28868,7 +28877,7 @@
         <v>0.88</v>
       </c>
       <c r="AP133">
-        <v>2.06</v>
+        <v>2.11</v>
       </c>
       <c r="AQ133">
         <v>1.06</v>
@@ -28996,7 +29005,7 @@
         <v>175</v>
       </c>
       <c r="P134" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="Q134">
         <v>4</v>
@@ -29202,7 +29211,7 @@
         <v>87</v>
       </c>
       <c r="P135" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="Q135">
         <v>7</v>
@@ -29614,7 +29623,7 @@
         <v>177</v>
       </c>
       <c r="P137" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="Q137">
         <v>2.39</v>
@@ -30026,7 +30035,7 @@
         <v>178</v>
       </c>
       <c r="P139" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="Q139">
         <v>3.94</v>
@@ -30310,7 +30319,7 @@
         <v>1.13</v>
       </c>
       <c r="AP140">
-        <v>1.84</v>
+        <v>1.9</v>
       </c>
       <c r="AQ140">
         <v>0.72</v>
@@ -30519,7 +30528,7 @@
         <v>1.26</v>
       </c>
       <c r="AQ141">
-        <v>1.33</v>
+        <v>1.26</v>
       </c>
       <c r="AR141">
         <v>1.56</v>
@@ -30931,7 +30940,7 @@
         <v>1.35</v>
       </c>
       <c r="AQ143">
-        <v>0.68</v>
+        <v>0.65</v>
       </c>
       <c r="AR143">
         <v>1.63</v>
@@ -31056,7 +31065,7 @@
         <v>87</v>
       </c>
       <c r="P144" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="Q144">
         <v>1.98</v>
@@ -31674,7 +31683,7 @@
         <v>152</v>
       </c>
       <c r="P147" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="Q147">
         <v>2.27</v>
@@ -31880,7 +31889,7 @@
         <v>184</v>
       </c>
       <c r="P148" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="Q148">
         <v>3.5</v>
@@ -31958,7 +31967,7 @@
         <v>1.33</v>
       </c>
       <c r="AP148">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="AQ148">
         <v>1.68</v>
@@ -32370,7 +32379,7 @@
         <v>2.22</v>
       </c>
       <c r="AP150">
-        <v>2.06</v>
+        <v>2.11</v>
       </c>
       <c r="AQ150">
         <v>2.11</v>
@@ -32910,7 +32919,7 @@
         <v>188</v>
       </c>
       <c r="P153" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="Q153">
         <v>3.25</v>
@@ -33197,7 +33206,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ154">
-        <v>0.68</v>
+        <v>0.65</v>
       </c>
       <c r="AR154">
         <v>1.38</v>
@@ -33403,7 +33412,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ155">
-        <v>1.33</v>
+        <v>1.26</v>
       </c>
       <c r="AR155">
         <v>1.52</v>
@@ -33606,7 +33615,7 @@
         <v>1.33</v>
       </c>
       <c r="AP156">
-        <v>1.84</v>
+        <v>1.9</v>
       </c>
       <c r="AQ156">
         <v>1.47</v>
@@ -33734,7 +33743,7 @@
         <v>189</v>
       </c>
       <c r="P157" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="Q157">
         <v>1.95</v>
@@ -33815,7 +33824,7 @@
         <v>1.61</v>
       </c>
       <c r="AQ157">
-        <v>0.74</v>
+        <v>0.85</v>
       </c>
       <c r="AR157">
         <v>1.72</v>
@@ -34558,7 +34567,7 @@
         <v>87</v>
       </c>
       <c r="P161" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="Q161">
         <v>3.25</v>
@@ -34970,7 +34979,7 @@
         <v>138</v>
       </c>
       <c r="P163" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="Q163">
         <v>4.7</v>
@@ -35176,7 +35185,7 @@
         <v>193</v>
       </c>
       <c r="P164" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="Q164">
         <v>3.75</v>
@@ -35254,7 +35263,7 @@
         <v>1.2</v>
       </c>
       <c r="AP164">
-        <v>1.84</v>
+        <v>1.9</v>
       </c>
       <c r="AQ164">
         <v>1.68</v>
@@ -35463,7 +35472,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ165">
-        <v>1.33</v>
+        <v>1.26</v>
       </c>
       <c r="AR165">
         <v>1.9</v>
@@ -35666,7 +35675,7 @@
         <v>1</v>
       </c>
       <c r="AP166">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="AQ166">
         <v>1.21</v>
@@ -35872,7 +35881,7 @@
         <v>2</v>
       </c>
       <c r="AP167">
-        <v>2.06</v>
+        <v>2.11</v>
       </c>
       <c r="AQ167">
         <v>1.33</v>
@@ -36000,7 +36009,7 @@
         <v>87</v>
       </c>
       <c r="P168" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="Q168">
         <v>2.55</v>
@@ -36493,7 +36502,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ170">
-        <v>0.74</v>
+        <v>0.85</v>
       </c>
       <c r="AR170">
         <v>1.55</v>
@@ -36618,7 +36627,7 @@
         <v>197</v>
       </c>
       <c r="P171" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="Q171">
         <v>2.4</v>
@@ -36699,7 +36708,7 @@
         <v>1.68</v>
       </c>
       <c r="AQ171">
-        <v>0.68</v>
+        <v>0.65</v>
       </c>
       <c r="AR171">
         <v>1.81</v>
@@ -37442,7 +37451,7 @@
         <v>201</v>
       </c>
       <c r="P175" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="Q175">
         <v>2.48</v>
@@ -38141,7 +38150,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ178">
-        <v>0.68</v>
+        <v>0.65</v>
       </c>
       <c r="AR178">
         <v>1.89</v>
@@ -38266,7 +38275,7 @@
         <v>204</v>
       </c>
       <c r="P179" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="Q179">
         <v>3.6</v>
@@ -38344,7 +38353,7 @@
         <v>1</v>
       </c>
       <c r="AP179">
-        <v>1.84</v>
+        <v>1.9</v>
       </c>
       <c r="AQ179">
         <v>1.21</v>
@@ -38678,7 +38687,7 @@
         <v>205</v>
       </c>
       <c r="P181" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="Q181">
         <v>4</v>
@@ -38759,7 +38768,7 @@
         <v>1.28</v>
       </c>
       <c r="AQ181">
-        <v>1.33</v>
+        <v>1.26</v>
       </c>
       <c r="AR181">
         <v>1.45</v>
@@ -38962,7 +38971,7 @@
         <v>0.55</v>
       </c>
       <c r="AP182">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="AQ182">
         <v>0.58</v>
@@ -39296,7 +39305,7 @@
         <v>87</v>
       </c>
       <c r="P184" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="Q184">
         <v>3.2</v>
@@ -39502,7 +39511,7 @@
         <v>208</v>
       </c>
       <c r="P185" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="Q185">
         <v>1.95</v>
@@ -39580,7 +39589,7 @@
         <v>1.18</v>
       </c>
       <c r="AP185">
-        <v>2.06</v>
+        <v>2.11</v>
       </c>
       <c r="AQ185">
         <v>0.95</v>
@@ -39708,7 +39717,7 @@
         <v>209</v>
       </c>
       <c r="P186" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="Q186">
         <v>3.15</v>
@@ -39789,7 +39798,7 @@
         <v>1.26</v>
       </c>
       <c r="AQ186">
-        <v>0.74</v>
+        <v>0.85</v>
       </c>
       <c r="AR186">
         <v>1.45</v>
@@ -40120,7 +40129,7 @@
         <v>211</v>
       </c>
       <c r="P188" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="Q188">
         <v>3.8</v>
@@ -40532,7 +40541,7 @@
         <v>213</v>
       </c>
       <c r="P190" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="Q190">
         <v>2.5</v>
@@ -40738,7 +40747,7 @@
         <v>214</v>
       </c>
       <c r="P191" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="Q191">
         <v>3.2</v>
@@ -41437,7 +41446,7 @@
         <v>1.37</v>
       </c>
       <c r="AQ194">
-        <v>0.68</v>
+        <v>0.65</v>
       </c>
       <c r="AR194">
         <v>1.47</v>
@@ -41562,7 +41571,7 @@
         <v>216</v>
       </c>
       <c r="P195" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="Q195">
         <v>2.4</v>
@@ -42052,10 +42061,10 @@
         <v>1.58</v>
       </c>
       <c r="AP197">
-        <v>2.06</v>
+        <v>2.11</v>
       </c>
       <c r="AQ197">
-        <v>1.33</v>
+        <v>1.26</v>
       </c>
       <c r="AR197">
         <v>1.88</v>
@@ -42258,7 +42267,7 @@
         <v>1.08</v>
       </c>
       <c r="AP198">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="AQ198">
         <v>1</v>
@@ -42592,7 +42601,7 @@
         <v>217</v>
       </c>
       <c r="P200" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="Q200">
         <v>2.7</v>
@@ -42670,7 +42679,7 @@
         <v>0.5</v>
       </c>
       <c r="AP200">
-        <v>1.84</v>
+        <v>1.9</v>
       </c>
       <c r="AQ200">
         <v>0.58</v>
@@ -42798,7 +42807,7 @@
         <v>87</v>
       </c>
       <c r="P201" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="Q201">
         <v>2.09</v>
@@ -43085,7 +43094,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ202">
-        <v>0.74</v>
+        <v>0.85</v>
       </c>
       <c r="AR202">
         <v>1.52</v>
@@ -43622,7 +43631,7 @@
         <v>220</v>
       </c>
       <c r="P205" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="Q205">
         <v>3.5</v>
@@ -43828,7 +43837,7 @@
         <v>221</v>
       </c>
       <c r="P206" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="Q206">
         <v>4.2</v>
@@ -44034,7 +44043,7 @@
         <v>222</v>
       </c>
       <c r="P207" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="Q207">
         <v>3.6</v>
@@ -44730,10 +44739,10 @@
         <v>0.85</v>
       </c>
       <c r="AP210">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="AQ210">
-        <v>0.68</v>
+        <v>0.65</v>
       </c>
       <c r="AR210">
         <v>1.56</v>
@@ -44936,7 +44945,7 @@
         <v>0.77</v>
       </c>
       <c r="AP211">
-        <v>2.06</v>
+        <v>2.11</v>
       </c>
       <c r="AQ211">
         <v>0.65</v>
@@ -45142,7 +45151,7 @@
         <v>1.08</v>
       </c>
       <c r="AP212">
-        <v>1.84</v>
+        <v>1.9</v>
       </c>
       <c r="AQ212">
         <v>1</v>
@@ -45476,7 +45485,7 @@
         <v>224</v>
       </c>
       <c r="P214" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="Q214">
         <v>4.55</v>
@@ -45557,7 +45566,7 @@
         <v>1.28</v>
       </c>
       <c r="AQ214">
-        <v>1.33</v>
+        <v>1.26</v>
       </c>
       <c r="AR214">
         <v>1.61</v>
@@ -45888,7 +45897,7 @@
         <v>225</v>
       </c>
       <c r="P216" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="Q216">
         <v>1.75</v>
@@ -46094,7 +46103,7 @@
         <v>226</v>
       </c>
       <c r="P217" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="Q217">
         <v>2.05</v>
@@ -46381,7 +46390,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ218">
-        <v>0.74</v>
+        <v>0.85</v>
       </c>
       <c r="AR218">
         <v>1.69</v>
@@ -46712,7 +46721,7 @@
         <v>229</v>
       </c>
       <c r="P220" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="Q220">
         <v>5.25</v>
@@ -47330,7 +47339,7 @@
         <v>183</v>
       </c>
       <c r="P223" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="Q223">
         <v>4.5</v>
@@ -47536,7 +47545,7 @@
         <v>231</v>
       </c>
       <c r="P224" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="Q224">
         <v>3.75</v>
@@ -47742,7 +47751,7 @@
         <v>104</v>
       </c>
       <c r="P225" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="Q225">
         <v>4.75</v>
@@ -48154,7 +48163,7 @@
         <v>232</v>
       </c>
       <c r="P227" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="Q227">
         <v>2.99</v>
@@ -48232,10 +48241,10 @@
         <v>0.79</v>
       </c>
       <c r="AP227">
-        <v>1.84</v>
+        <v>1.9</v>
       </c>
       <c r="AQ227">
-        <v>0.68</v>
+        <v>0.65</v>
       </c>
       <c r="AR227">
         <v>1.44</v>
@@ -48438,7 +48447,7 @@
         <v>1.43</v>
       </c>
       <c r="AP228">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="AQ228">
         <v>1.26</v>
@@ -49390,7 +49399,7 @@
         <v>89</v>
       </c>
       <c r="P233" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="Q233">
         <v>3</v>
@@ -49471,7 +49480,7 @@
         <v>1.61</v>
       </c>
       <c r="AQ233">
-        <v>1.33</v>
+        <v>1.26</v>
       </c>
       <c r="AR233">
         <v>1.74</v>
@@ -49674,7 +49683,7 @@
         <v>0.71</v>
       </c>
       <c r="AP234">
-        <v>2.06</v>
+        <v>2.11</v>
       </c>
       <c r="AQ234">
         <v>0.72</v>
@@ -50420,7 +50429,7 @@
         <v>237</v>
       </c>
       <c r="P238" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="Q238">
         <v>3.5</v>
@@ -50832,7 +50841,7 @@
         <v>213</v>
       </c>
       <c r="P240" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="Q240">
         <v>3.6</v>
@@ -51119,7 +51128,7 @@
         <v>1.37</v>
       </c>
       <c r="AQ241">
-        <v>0.74</v>
+        <v>0.85</v>
       </c>
       <c r="AR241">
         <v>1.45</v>
@@ -51450,7 +51459,7 @@
         <v>108</v>
       </c>
       <c r="P243" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="Q243">
         <v>2.3</v>
@@ -51737,7 +51746,7 @@
         <v>1.37</v>
       </c>
       <c r="AQ244">
-        <v>0.74</v>
+        <v>0.85</v>
       </c>
       <c r="AR244">
         <v>1.44</v>
@@ -51862,7 +51871,7 @@
         <v>156</v>
       </c>
       <c r="P245" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="Q245">
         <v>2.65</v>
@@ -51940,7 +51949,7 @@
         <v>1.53</v>
       </c>
       <c r="AP245">
-        <v>2.06</v>
+        <v>2.11</v>
       </c>
       <c r="AQ245">
         <v>1.68</v>
@@ -52146,7 +52155,7 @@
         <v>0.73</v>
       </c>
       <c r="AP246">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="AQ246">
         <v>0.65</v>
@@ -52480,7 +52489,7 @@
         <v>243</v>
       </c>
       <c r="P248" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="Q248">
         <v>2.53</v>
@@ -52558,7 +52567,7 @@
         <v>0.93</v>
       </c>
       <c r="AP248">
-        <v>1.84</v>
+        <v>1.9</v>
       </c>
       <c r="AQ248">
         <v>0.95</v>
@@ -52767,7 +52776,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ249">
-        <v>0.68</v>
+        <v>0.65</v>
       </c>
       <c r="AR249">
         <v>1.55</v>
@@ -53385,7 +53394,7 @@
         <v>1.26</v>
       </c>
       <c r="AQ252">
-        <v>0.74</v>
+        <v>0.85</v>
       </c>
       <c r="AR252">
         <v>1.4</v>
@@ -53797,7 +53806,7 @@
         <v>1.61</v>
       </c>
       <c r="AQ254">
-        <v>1.33</v>
+        <v>1.26</v>
       </c>
       <c r="AR254">
         <v>1.72</v>
@@ -53922,7 +53931,7 @@
         <v>102</v>
       </c>
       <c r="P255" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="Q255">
         <v>2.95</v>
@@ -54334,7 +54343,7 @@
         <v>102</v>
       </c>
       <c r="P257" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="Q257">
         <v>3.1</v>
@@ -54618,7 +54627,7 @@
         <v>0.44</v>
       </c>
       <c r="AP258">
-        <v>1.84</v>
+        <v>1.9</v>
       </c>
       <c r="AQ258">
         <v>0.58</v>
@@ -54952,7 +54961,7 @@
         <v>87</v>
       </c>
       <c r="P260" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="Q260">
         <v>2.9</v>
@@ -55158,7 +55167,7 @@
         <v>247</v>
       </c>
       <c r="P261" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="Q261">
         <v>2.8</v>
@@ -55364,7 +55373,7 @@
         <v>164</v>
       </c>
       <c r="P262" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="Q262">
         <v>3.12</v>
@@ -55442,7 +55451,7 @@
         <v>1.53</v>
       </c>
       <c r="AP262">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="AQ262">
         <v>1.33</v>
@@ -55857,7 +55866,7 @@
         <v>1.28</v>
       </c>
       <c r="AQ264">
-        <v>0.68</v>
+        <v>0.65</v>
       </c>
       <c r="AR264">
         <v>1.58</v>
@@ -56188,7 +56197,7 @@
         <v>249</v>
       </c>
       <c r="P266" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="Q266">
         <v>3.05</v>
@@ -56266,7 +56275,7 @@
         <v>0.63</v>
       </c>
       <c r="AP266">
-        <v>1.84</v>
+        <v>1.9</v>
       </c>
       <c r="AQ266">
         <v>0.72</v>
@@ -56394,7 +56403,7 @@
         <v>250</v>
       </c>
       <c r="P267" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="Q267">
         <v>2.5</v>
@@ -56600,7 +56609,7 @@
         <v>175</v>
       </c>
       <c r="P268" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="Q268">
         <v>3.55</v>
@@ -56806,7 +56815,7 @@
         <v>146</v>
       </c>
       <c r="P269" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="Q269">
         <v>2.49</v>
@@ -57093,7 +57102,7 @@
         <v>1.26</v>
       </c>
       <c r="AQ270">
-        <v>0.68</v>
+        <v>0.65</v>
       </c>
       <c r="AR270">
         <v>1.42</v>
@@ -57299,7 +57308,7 @@
         <v>1.28</v>
       </c>
       <c r="AQ271">
-        <v>0.74</v>
+        <v>0.85</v>
       </c>
       <c r="AR271">
         <v>1.39</v>
@@ -57502,7 +57511,7 @@
         <v>2.13</v>
       </c>
       <c r="AP272">
-        <v>2.06</v>
+        <v>2.11</v>
       </c>
       <c r="AQ272">
         <v>2.11</v>
@@ -57914,7 +57923,7 @@
         <v>0.41</v>
       </c>
       <c r="AP274">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="AQ274">
         <v>0.58</v>
@@ -58042,7 +58051,7 @@
         <v>253</v>
       </c>
       <c r="P275" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="Q275">
         <v>3.8</v>
@@ -58248,7 +58257,7 @@
         <v>254</v>
       </c>
       <c r="P276" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="Q276">
         <v>3</v>
@@ -58454,7 +58463,7 @@
         <v>180</v>
       </c>
       <c r="P277" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="Q277">
         <v>2.85</v>
@@ -58660,7 +58669,7 @@
         <v>255</v>
       </c>
       <c r="P278" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="Q278">
         <v>2.5</v>
@@ -58741,7 +58750,7 @@
         <v>2.26</v>
       </c>
       <c r="AQ278">
-        <v>1.33</v>
+        <v>1.26</v>
       </c>
       <c r="AR278">
         <v>1.76</v>
@@ -59072,7 +59081,7 @@
         <v>220</v>
       </c>
       <c r="P280" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="Q280">
         <v>3.1</v>
@@ -59278,7 +59287,7 @@
         <v>256</v>
       </c>
       <c r="P281" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="Q281">
         <v>3</v>
@@ -59565,7 +59574,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ282">
-        <v>0.68</v>
+        <v>0.65</v>
       </c>
       <c r="AR282">
         <v>1.32</v>
@@ -59690,7 +59699,7 @@
         <v>257</v>
       </c>
       <c r="P283" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="Q283">
         <v>3.35</v>
@@ -59977,7 +59986,7 @@
         <v>1.35</v>
       </c>
       <c r="AQ284">
-        <v>0.74</v>
+        <v>0.85</v>
       </c>
       <c r="AR284">
         <v>1.55</v>
@@ -60183,7 +60192,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ285">
-        <v>1.33</v>
+        <v>1.26</v>
       </c>
       <c r="AR285">
         <v>1.81</v>
@@ -60308,7 +60317,7 @@
         <v>260</v>
       </c>
       <c r="P286" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="Q286">
         <v>4.1</v>
@@ -60514,7 +60523,7 @@
         <v>261</v>
       </c>
       <c r="P287" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="Q287">
         <v>3.1</v>
@@ -60592,7 +60601,7 @@
         <v>1.41</v>
       </c>
       <c r="AP287">
-        <v>1.84</v>
+        <v>1.9</v>
       </c>
       <c r="AQ287">
         <v>1.26</v>
@@ -60798,7 +60807,7 @@
         <v>1.06</v>
       </c>
       <c r="AP288">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="AQ288">
         <v>1</v>
@@ -61338,7 +61347,7 @@
         <v>264</v>
       </c>
       <c r="P291" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="Q291">
         <v>3</v>
@@ -61544,7 +61553,7 @@
         <v>265</v>
       </c>
       <c r="P292" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="Q292">
         <v>2.55</v>
@@ -61956,7 +61965,7 @@
         <v>87</v>
       </c>
       <c r="P294" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="Q294">
         <v>3.2</v>
@@ -62240,7 +62249,7 @@
         <v>1.18</v>
       </c>
       <c r="AP295">
-        <v>2.06</v>
+        <v>2.11</v>
       </c>
       <c r="AQ295">
         <v>1.21</v>
@@ -62368,7 +62377,7 @@
         <v>136</v>
       </c>
       <c r="P296" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="Q296">
         <v>2.58</v>
@@ -62574,7 +62583,7 @@
         <v>268</v>
       </c>
       <c r="P297" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="Q297">
         <v>2.75</v>
@@ -62780,7 +62789,7 @@
         <v>132</v>
       </c>
       <c r="P298" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="Q298">
         <v>2.38</v>
@@ -63192,7 +63201,7 @@
         <v>269</v>
       </c>
       <c r="P300" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="Q300">
         <v>3.39</v>
@@ -63491,22 +63500,22 @@
         <v>2.85</v>
       </c>
       <c r="AU301">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AV301">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AW301">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AX301">
         <v>2</v>
       </c>
       <c r="AY301">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="AZ301">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="BA301">
         <v>2</v>
@@ -63555,6 +63564,624 @@
       </c>
       <c r="BP301">
         <v>1.2</v>
+      </c>
+    </row>
+    <row r="302" spans="1:68">
+      <c r="A302" s="1">
+        <v>301</v>
+      </c>
+      <c r="B302">
+        <v>7383661</v>
+      </c>
+      <c r="C302" t="s">
+        <v>68</v>
+      </c>
+      <c r="D302" t="s">
+        <v>69</v>
+      </c>
+      <c r="E302" s="2">
+        <v>45417.64583333334</v>
+      </c>
+      <c r="F302">
+        <v>8</v>
+      </c>
+      <c r="G302" t="s">
+        <v>73</v>
+      </c>
+      <c r="H302" t="s">
+        <v>71</v>
+      </c>
+      <c r="I302">
+        <v>2</v>
+      </c>
+      <c r="J302">
+        <v>1</v>
+      </c>
+      <c r="K302">
+        <v>3</v>
+      </c>
+      <c r="L302">
+        <v>3</v>
+      </c>
+      <c r="M302">
+        <v>2</v>
+      </c>
+      <c r="N302">
+        <v>5</v>
+      </c>
+      <c r="O302" t="s">
+        <v>271</v>
+      </c>
+      <c r="P302" t="s">
+        <v>392</v>
+      </c>
+      <c r="Q302">
+        <v>1.84</v>
+      </c>
+      <c r="R302">
+        <v>2.6</v>
+      </c>
+      <c r="S302">
+        <v>6</v>
+      </c>
+      <c r="T302">
+        <v>1.24</v>
+      </c>
+      <c r="U302">
+        <v>3.65</v>
+      </c>
+      <c r="V302">
+        <v>2.33</v>
+      </c>
+      <c r="W302">
+        <v>1.53</v>
+      </c>
+      <c r="X302">
+        <v>5.6</v>
+      </c>
+      <c r="Y302">
+        <v>1.12</v>
+      </c>
+      <c r="Z302">
+        <v>1.8</v>
+      </c>
+      <c r="AA302">
+        <v>3.55</v>
+      </c>
+      <c r="AB302">
+        <v>3.55</v>
+      </c>
+      <c r="AC302">
+        <v>1.02</v>
+      </c>
+      <c r="AD302">
+        <v>12</v>
+      </c>
+      <c r="AE302">
+        <v>1.15</v>
+      </c>
+      <c r="AF302">
+        <v>4.6</v>
+      </c>
+      <c r="AG302">
+        <v>2</v>
+      </c>
+      <c r="AH302">
+        <v>1.72</v>
+      </c>
+      <c r="AI302">
+        <v>1.8</v>
+      </c>
+      <c r="AJ302">
+        <v>1.96</v>
+      </c>
+      <c r="AK302">
+        <v>1.08</v>
+      </c>
+      <c r="AL302">
+        <v>1.17</v>
+      </c>
+      <c r="AM302">
+        <v>2.88</v>
+      </c>
+      <c r="AN302">
+        <v>2.06</v>
+      </c>
+      <c r="AO302">
+        <v>1.33</v>
+      </c>
+      <c r="AP302">
+        <v>2.11</v>
+      </c>
+      <c r="AQ302">
+        <v>1.26</v>
+      </c>
+      <c r="AR302">
+        <v>1.93</v>
+      </c>
+      <c r="AS302">
+        <v>1.34</v>
+      </c>
+      <c r="AT302">
+        <v>3.27</v>
+      </c>
+      <c r="AU302">
+        <v>7</v>
+      </c>
+      <c r="AV302">
+        <v>8</v>
+      </c>
+      <c r="AW302">
+        <v>4</v>
+      </c>
+      <c r="AX302">
+        <v>5</v>
+      </c>
+      <c r="AY302">
+        <v>11</v>
+      </c>
+      <c r="AZ302">
+        <v>13</v>
+      </c>
+      <c r="BA302">
+        <v>3</v>
+      </c>
+      <c r="BB302">
+        <v>5</v>
+      </c>
+      <c r="BC302">
+        <v>8</v>
+      </c>
+      <c r="BD302">
+        <v>1.35</v>
+      </c>
+      <c r="BE302">
+        <v>9.5</v>
+      </c>
+      <c r="BF302">
+        <v>4.08</v>
+      </c>
+      <c r="BG302">
+        <v>1.23</v>
+      </c>
+      <c r="BH302">
+        <v>3.69</v>
+      </c>
+      <c r="BI302">
+        <v>1.42</v>
+      </c>
+      <c r="BJ302">
+        <v>2.57</v>
+      </c>
+      <c r="BK302">
+        <v>1.95</v>
+      </c>
+      <c r="BL302">
+        <v>1.85</v>
+      </c>
+      <c r="BM302">
+        <v>2.2</v>
+      </c>
+      <c r="BN302">
+        <v>1.65</v>
+      </c>
+      <c r="BO302">
+        <v>2.93</v>
+      </c>
+      <c r="BP302">
+        <v>1.33</v>
+      </c>
+    </row>
+    <row r="303" spans="1:68">
+      <c r="A303" s="1">
+        <v>302</v>
+      </c>
+      <c r="B303">
+        <v>7383791</v>
+      </c>
+      <c r="C303" t="s">
+        <v>68</v>
+      </c>
+      <c r="D303" t="s">
+        <v>69</v>
+      </c>
+      <c r="E303" s="2">
+        <v>45418.375</v>
+      </c>
+      <c r="F303">
+        <v>8</v>
+      </c>
+      <c r="G303" t="s">
+        <v>72</v>
+      </c>
+      <c r="H303" t="s">
+        <v>82</v>
+      </c>
+      <c r="I303">
+        <v>0</v>
+      </c>
+      <c r="J303">
+        <v>0</v>
+      </c>
+      <c r="K303">
+        <v>0</v>
+      </c>
+      <c r="L303">
+        <v>0</v>
+      </c>
+      <c r="M303">
+        <v>1</v>
+      </c>
+      <c r="N303">
+        <v>1</v>
+      </c>
+      <c r="O303" t="s">
+        <v>87</v>
+      </c>
+      <c r="P303" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q303">
+        <v>2.45</v>
+      </c>
+      <c r="R303">
+        <v>1.95</v>
+      </c>
+      <c r="S303">
+        <v>4.8</v>
+      </c>
+      <c r="T303">
+        <v>1.5</v>
+      </c>
+      <c r="U303">
+        <v>2.5</v>
+      </c>
+      <c r="V303">
+        <v>3.25</v>
+      </c>
+      <c r="W303">
+        <v>1.33</v>
+      </c>
+      <c r="X303">
+        <v>8</v>
+      </c>
+      <c r="Y303">
+        <v>1.06</v>
+      </c>
+      <c r="Z303">
+        <v>1.94</v>
+      </c>
+      <c r="AA303">
+        <v>3.1</v>
+      </c>
+      <c r="AB303">
+        <v>3.8</v>
+      </c>
+      <c r="AC303">
+        <v>1.1</v>
+      </c>
+      <c r="AD303">
+        <v>6.5</v>
+      </c>
+      <c r="AE303">
+        <v>1.4</v>
+      </c>
+      <c r="AF303">
+        <v>2.75</v>
+      </c>
+      <c r="AG303">
+        <v>2.38</v>
+      </c>
+      <c r="AH303">
+        <v>1.56</v>
+      </c>
+      <c r="AI303">
+        <v>2.1</v>
+      </c>
+      <c r="AJ303">
+        <v>1.67</v>
+      </c>
+      <c r="AK303">
+        <v>1.18</v>
+      </c>
+      <c r="AL303">
+        <v>1.33</v>
+      </c>
+      <c r="AM303">
+        <v>1.85</v>
+      </c>
+      <c r="AN303">
+        <v>2</v>
+      </c>
+      <c r="AO303">
+        <v>0.74</v>
+      </c>
+      <c r="AP303">
+        <v>1.9</v>
+      </c>
+      <c r="AQ303">
+        <v>0.85</v>
+      </c>
+      <c r="AR303">
+        <v>1.52</v>
+      </c>
+      <c r="AS303">
+        <v>1.29</v>
+      </c>
+      <c r="AT303">
+        <v>2.81</v>
+      </c>
+      <c r="AU303">
+        <v>4</v>
+      </c>
+      <c r="AV303">
+        <v>5</v>
+      </c>
+      <c r="AW303">
+        <v>4</v>
+      </c>
+      <c r="AX303">
+        <v>6</v>
+      </c>
+      <c r="AY303">
+        <v>8</v>
+      </c>
+      <c r="AZ303">
+        <v>11</v>
+      </c>
+      <c r="BA303">
+        <v>7</v>
+      </c>
+      <c r="BB303">
+        <v>4</v>
+      </c>
+      <c r="BC303">
+        <v>11</v>
+      </c>
+      <c r="BD303">
+        <v>1.59</v>
+      </c>
+      <c r="BE303">
+        <v>7.65</v>
+      </c>
+      <c r="BF303">
+        <v>3.11</v>
+      </c>
+      <c r="BG303">
+        <v>1.64</v>
+      </c>
+      <c r="BH303">
+        <v>2.07</v>
+      </c>
+      <c r="BI303">
+        <v>2.12</v>
+      </c>
+      <c r="BJ303">
+        <v>1.61</v>
+      </c>
+      <c r="BK303">
+        <v>2.88</v>
+      </c>
+      <c r="BL303">
+        <v>1.34</v>
+      </c>
+      <c r="BM303">
+        <v>4.1</v>
+      </c>
+      <c r="BN303">
+        <v>1.18</v>
+      </c>
+      <c r="BO303">
+        <v>4.94</v>
+      </c>
+      <c r="BP303">
+        <v>1.14</v>
+      </c>
+    </row>
+    <row r="304" spans="1:68">
+      <c r="A304" s="1">
+        <v>303</v>
+      </c>
+      <c r="B304">
+        <v>7383790</v>
+      </c>
+      <c r="C304" t="s">
+        <v>68</v>
+      </c>
+      <c r="D304" t="s">
+        <v>69</v>
+      </c>
+      <c r="E304" s="2">
+        <v>45418.5</v>
+      </c>
+      <c r="F304">
+        <v>8</v>
+      </c>
+      <c r="G304" t="s">
+        <v>79</v>
+      </c>
+      <c r="H304" t="s">
+        <v>75</v>
+      </c>
+      <c r="I304">
+        <v>2</v>
+      </c>
+      <c r="J304">
+        <v>0</v>
+      </c>
+      <c r="K304">
+        <v>2</v>
+      </c>
+      <c r="L304">
+        <v>3</v>
+      </c>
+      <c r="M304">
+        <v>1</v>
+      </c>
+      <c r="N304">
+        <v>4</v>
+      </c>
+      <c r="O304" t="s">
+        <v>272</v>
+      </c>
+      <c r="P304" t="s">
+        <v>237</v>
+      </c>
+      <c r="Q304">
+        <v>2.62</v>
+      </c>
+      <c r="R304">
+        <v>2.05</v>
+      </c>
+      <c r="S304">
+        <v>3.9</v>
+      </c>
+      <c r="T304">
+        <v>1.4</v>
+      </c>
+      <c r="U304">
+        <v>2.75</v>
+      </c>
+      <c r="V304">
+        <v>2.75</v>
+      </c>
+      <c r="W304">
+        <v>1.4</v>
+      </c>
+      <c r="X304">
+        <v>7</v>
+      </c>
+      <c r="Y304">
+        <v>1.08</v>
+      </c>
+      <c r="Z304">
+        <v>2.14</v>
+      </c>
+      <c r="AA304">
+        <v>3.15</v>
+      </c>
+      <c r="AB304">
+        <v>3.2</v>
+      </c>
+      <c r="AC304">
+        <v>1.07</v>
+      </c>
+      <c r="AD304">
+        <v>7.5</v>
+      </c>
+      <c r="AE304">
+        <v>1.3</v>
+      </c>
+      <c r="AF304">
+        <v>3.4</v>
+      </c>
+      <c r="AG304">
+        <v>1.88</v>
+      </c>
+      <c r="AH304">
+        <v>1.85</v>
+      </c>
+      <c r="AI304">
+        <v>1.73</v>
+      </c>
+      <c r="AJ304">
+        <v>2</v>
+      </c>
+      <c r="AK304">
+        <v>1.33</v>
+      </c>
+      <c r="AL304">
+        <v>1.3</v>
+      </c>
+      <c r="AM304">
+        <v>1.62</v>
+      </c>
+      <c r="AN304">
+        <v>1.84</v>
+      </c>
+      <c r="AO304">
+        <v>0.68</v>
+      </c>
+      <c r="AP304">
+        <v>1.9</v>
+      </c>
+      <c r="AQ304">
+        <v>0.65</v>
+      </c>
+      <c r="AR304">
+        <v>1.5</v>
+      </c>
+      <c r="AS304">
+        <v>1.33</v>
+      </c>
+      <c r="AT304">
+        <v>2.83</v>
+      </c>
+      <c r="AU304">
+        <v>4</v>
+      </c>
+      <c r="AV304">
+        <v>4</v>
+      </c>
+      <c r="AW304">
+        <v>7</v>
+      </c>
+      <c r="AX304">
+        <v>6</v>
+      </c>
+      <c r="AY304">
+        <v>11</v>
+      </c>
+      <c r="AZ304">
+        <v>10</v>
+      </c>
+      <c r="BA304">
+        <v>5</v>
+      </c>
+      <c r="BB304">
+        <v>9</v>
+      </c>
+      <c r="BC304">
+        <v>14</v>
+      </c>
+      <c r="BD304">
+        <v>1.79</v>
+      </c>
+      <c r="BE304">
+        <v>8.15</v>
+      </c>
+      <c r="BF304">
+        <v>2.5</v>
+      </c>
+      <c r="BG304">
+        <v>1.26</v>
+      </c>
+      <c r="BH304">
+        <v>3.35</v>
+      </c>
+      <c r="BI304">
+        <v>1.49</v>
+      </c>
+      <c r="BJ304">
+        <v>2.38</v>
+      </c>
+      <c r="BK304">
+        <v>1.9</v>
+      </c>
+      <c r="BL304">
+        <v>1.9</v>
+      </c>
+      <c r="BM304">
+        <v>2.35</v>
+      </c>
+      <c r="BN304">
+        <v>1.49</v>
+      </c>
+      <c r="BO304">
+        <v>3.2</v>
+      </c>
+      <c r="BP304">
+        <v>1.29</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Romania Liga I_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Romania Liga I_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1886" uniqueCount="393">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1892" uniqueCount="394">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -835,6 +835,9 @@
     <t>['6', '31', '66']</t>
   </si>
   <si>
+    <t>['3', '71']</t>
+  </si>
+  <si>
     <t>['45+5']</t>
   </si>
   <si>
@@ -1554,7 +1557,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP304"/>
+  <dimension ref="A1:BP305"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1813,7 +1816,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q2">
         <v>4</v>
@@ -2225,7 +2228,7 @@
         <v>87</v>
       </c>
       <c r="P4" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q4">
         <v>3.75</v>
@@ -2637,7 +2640,7 @@
         <v>89</v>
       </c>
       <c r="P6" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q6">
         <v>3.5</v>
@@ -2843,7 +2846,7 @@
         <v>90</v>
       </c>
       <c r="P7" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q7">
         <v>5</v>
@@ -2924,7 +2927,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ7">
-        <v>2.11</v>
+        <v>2</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -3255,7 +3258,7 @@
         <v>87</v>
       </c>
       <c r="P9" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q9">
         <v>5.5</v>
@@ -3667,7 +3670,7 @@
         <v>93</v>
       </c>
       <c r="P11" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q11">
         <v>4.33</v>
@@ -4079,7 +4082,7 @@
         <v>95</v>
       </c>
       <c r="P13" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q13">
         <v>1.95</v>
@@ -4285,7 +4288,7 @@
         <v>96</v>
       </c>
       <c r="P14" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q14">
         <v>3.6</v>
@@ -4491,7 +4494,7 @@
         <v>87</v>
       </c>
       <c r="P15" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q15">
         <v>3.2</v>
@@ -4697,7 +4700,7 @@
         <v>97</v>
       </c>
       <c r="P16" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q16">
         <v>2.88</v>
@@ -4981,7 +4984,7 @@
         <v>0</v>
       </c>
       <c r="AP17">
-        <v>1.61</v>
+        <v>1.68</v>
       </c>
       <c r="AQ17">
         <v>1.26</v>
@@ -5109,7 +5112,7 @@
         <v>98</v>
       </c>
       <c r="P18" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q18">
         <v>3</v>
@@ -5315,7 +5318,7 @@
         <v>99</v>
       </c>
       <c r="P19" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q19">
         <v>2</v>
@@ -5727,7 +5730,7 @@
         <v>87</v>
       </c>
       <c r="P21" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q21">
         <v>4.75</v>
@@ -5808,7 +5811,7 @@
         <v>1.37</v>
       </c>
       <c r="AQ21">
-        <v>2.11</v>
+        <v>2</v>
       </c>
       <c r="AR21">
         <v>1.66</v>
@@ -5933,7 +5936,7 @@
         <v>101</v>
       </c>
       <c r="P22" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q22">
         <v>2.15</v>
@@ -6345,7 +6348,7 @@
         <v>87</v>
       </c>
       <c r="P24" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q24">
         <v>3.25</v>
@@ -6551,7 +6554,7 @@
         <v>87</v>
       </c>
       <c r="P25" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q25">
         <v>4.33</v>
@@ -7041,7 +7044,7 @@
         <v>3</v>
       </c>
       <c r="AP27">
-        <v>1.61</v>
+        <v>1.68</v>
       </c>
       <c r="AQ27">
         <v>0.72</v>
@@ -7169,7 +7172,7 @@
         <v>87</v>
       </c>
       <c r="P28" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q28">
         <v>3</v>
@@ -7375,7 +7378,7 @@
         <v>105</v>
       </c>
       <c r="P29" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q29">
         <v>2.55</v>
@@ -7581,7 +7584,7 @@
         <v>106</v>
       </c>
       <c r="P30" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q30">
         <v>3.5</v>
@@ -8817,7 +8820,7 @@
         <v>112</v>
       </c>
       <c r="P36" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q36">
         <v>4.9</v>
@@ -9023,7 +9026,7 @@
         <v>87</v>
       </c>
       <c r="P37" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q37">
         <v>2.3</v>
@@ -9435,7 +9438,7 @@
         <v>114</v>
       </c>
       <c r="P39" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q39">
         <v>3.05</v>
@@ -9719,7 +9722,7 @@
         <v>0.5</v>
       </c>
       <c r="AP40">
-        <v>1.61</v>
+        <v>1.68</v>
       </c>
       <c r="AQ40">
         <v>1.06</v>
@@ -10053,7 +10056,7 @@
         <v>116</v>
       </c>
       <c r="P42" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q42">
         <v>2.6</v>
@@ -10259,7 +10262,7 @@
         <v>117</v>
       </c>
       <c r="P43" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Q43">
         <v>2.55</v>
@@ -10465,7 +10468,7 @@
         <v>118</v>
       </c>
       <c r="P44" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Q44">
         <v>1.83</v>
@@ -10877,7 +10880,7 @@
         <v>119</v>
       </c>
       <c r="P46" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Q46">
         <v>4.85</v>
@@ -11083,7 +11086,7 @@
         <v>120</v>
       </c>
       <c r="P47" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Q47">
         <v>3.66</v>
@@ -11289,7 +11292,7 @@
         <v>121</v>
       </c>
       <c r="P48" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q48">
         <v>3.4</v>
@@ -12113,7 +12116,7 @@
         <v>125</v>
       </c>
       <c r="P52" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Q52">
         <v>3.1</v>
@@ -12400,7 +12403,7 @@
         <v>1.9</v>
       </c>
       <c r="AQ53">
-        <v>2.11</v>
+        <v>2</v>
       </c>
       <c r="AR53">
         <v>0.83</v>
@@ -12525,7 +12528,7 @@
         <v>127</v>
       </c>
       <c r="P54" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Q54">
         <v>2.75</v>
@@ -12937,7 +12940,7 @@
         <v>93</v>
       </c>
       <c r="P56" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Q56">
         <v>4.7</v>
@@ -13555,7 +13558,7 @@
         <v>87</v>
       </c>
       <c r="P59" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Q59">
         <v>2.6</v>
@@ -13761,7 +13764,7 @@
         <v>131</v>
       </c>
       <c r="P60" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Q60">
         <v>3.5</v>
@@ -14585,7 +14588,7 @@
         <v>133</v>
       </c>
       <c r="P64" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Q64">
         <v>2.5</v>
@@ -14663,7 +14666,7 @@
         <v>2</v>
       </c>
       <c r="AP64">
-        <v>1.61</v>
+        <v>1.68</v>
       </c>
       <c r="AQ64">
         <v>1.21</v>
@@ -15203,7 +15206,7 @@
         <v>87</v>
       </c>
       <c r="P67" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="Q67">
         <v>3</v>
@@ -15284,7 +15287,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ67">
-        <v>2.11</v>
+        <v>2</v>
       </c>
       <c r="AR67">
         <v>2.06</v>
@@ -15409,7 +15412,7 @@
         <v>135</v>
       </c>
       <c r="P68" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Q68">
         <v>2.9</v>
@@ -15821,7 +15824,7 @@
         <v>137</v>
       </c>
       <c r="P70" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Q70">
         <v>4.33</v>
@@ -15902,7 +15905,7 @@
         <v>1.9</v>
       </c>
       <c r="AQ70">
-        <v>2.11</v>
+        <v>2</v>
       </c>
       <c r="AR70">
         <v>1.79</v>
@@ -16027,7 +16030,7 @@
         <v>87</v>
       </c>
       <c r="P71" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Q71">
         <v>2.57</v>
@@ -16233,7 +16236,7 @@
         <v>87</v>
       </c>
       <c r="P72" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="Q72">
         <v>4.1</v>
@@ -16439,7 +16442,7 @@
         <v>138</v>
       </c>
       <c r="P73" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Q73">
         <v>2.7</v>
@@ -16645,7 +16648,7 @@
         <v>139</v>
       </c>
       <c r="P74" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Q74">
         <v>3.4</v>
@@ -17263,7 +17266,7 @@
         <v>141</v>
       </c>
       <c r="P77" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="Q77">
         <v>3.4</v>
@@ -17344,7 +17347,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ77">
-        <v>2.11</v>
+        <v>2</v>
       </c>
       <c r="AR77">
         <v>1.48</v>
@@ -18087,7 +18090,7 @@
         <v>144</v>
       </c>
       <c r="P81" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="Q81">
         <v>2.86</v>
@@ -18371,7 +18374,7 @@
         <v>0.4</v>
       </c>
       <c r="AP82">
-        <v>1.61</v>
+        <v>1.68</v>
       </c>
       <c r="AQ82">
         <v>0.58</v>
@@ -19117,7 +19120,7 @@
         <v>148</v>
       </c>
       <c r="P86" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="Q86">
         <v>2.05</v>
@@ -19735,7 +19738,7 @@
         <v>150</v>
       </c>
       <c r="P89" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="Q89">
         <v>2</v>
@@ -20434,7 +20437,7 @@
         <v>1.26</v>
       </c>
       <c r="AQ92">
-        <v>2.11</v>
+        <v>2</v>
       </c>
       <c r="AR92">
         <v>1.53</v>
@@ -20559,7 +20562,7 @@
         <v>87</v>
       </c>
       <c r="P93" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Q93">
         <v>3.5</v>
@@ -20765,7 +20768,7 @@
         <v>151</v>
       </c>
       <c r="P94" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="Q94">
         <v>4.4</v>
@@ -21383,7 +21386,7 @@
         <v>154</v>
       </c>
       <c r="P97" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="Q97">
         <v>3.7</v>
@@ -22207,7 +22210,7 @@
         <v>90</v>
       </c>
       <c r="P101" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="Q101">
         <v>1.98</v>
@@ -22285,7 +22288,7 @@
         <v>1.2</v>
       </c>
       <c r="AP101">
-        <v>1.61</v>
+        <v>1.68</v>
       </c>
       <c r="AQ101">
         <v>1</v>
@@ -22619,7 +22622,7 @@
         <v>157</v>
       </c>
       <c r="P103" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="Q103">
         <v>2.15</v>
@@ -23031,7 +23034,7 @@
         <v>158</v>
       </c>
       <c r="P105" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="Q105">
         <v>2.15</v>
@@ -23237,7 +23240,7 @@
         <v>87</v>
       </c>
       <c r="P106" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="Q106">
         <v>3.85</v>
@@ -23855,7 +23858,7 @@
         <v>160</v>
       </c>
       <c r="P109" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="Q109">
         <v>4.1</v>
@@ -23936,7 +23939,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ109">
-        <v>2.11</v>
+        <v>2</v>
       </c>
       <c r="AR109">
         <v>1.49</v>
@@ -24061,7 +24064,7 @@
         <v>161</v>
       </c>
       <c r="P110" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="Q110">
         <v>2.6</v>
@@ -24473,7 +24476,7 @@
         <v>87</v>
       </c>
       <c r="P112" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="Q112">
         <v>3.6</v>
@@ -24679,7 +24682,7 @@
         <v>163</v>
       </c>
       <c r="P113" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="Q113">
         <v>2.5</v>
@@ -24885,7 +24888,7 @@
         <v>164</v>
       </c>
       <c r="P114" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Q114">
         <v>3.25</v>
@@ -25375,7 +25378,7 @@
         <v>1.17</v>
       </c>
       <c r="AP116">
-        <v>1.61</v>
+        <v>1.68</v>
       </c>
       <c r="AQ116">
         <v>0.65</v>
@@ -25503,7 +25506,7 @@
         <v>136</v>
       </c>
       <c r="P117" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="Q117">
         <v>2.68</v>
@@ -25915,7 +25918,7 @@
         <v>156</v>
       </c>
       <c r="P119" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="Q119">
         <v>5</v>
@@ -26945,7 +26948,7 @@
         <v>168</v>
       </c>
       <c r="P124" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="Q124">
         <v>5.15</v>
@@ -27357,7 +27360,7 @@
         <v>169</v>
       </c>
       <c r="P126" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="Q126">
         <v>3.25</v>
@@ -27641,7 +27644,7 @@
         <v>0.57</v>
       </c>
       <c r="AP127">
-        <v>1.61</v>
+        <v>1.68</v>
       </c>
       <c r="AQ127">
         <v>0.65</v>
@@ -27975,7 +27978,7 @@
         <v>172</v>
       </c>
       <c r="P129" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="Q129">
         <v>3.1</v>
@@ -28593,7 +28596,7 @@
         <v>174</v>
       </c>
       <c r="P132" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="Q132">
         <v>3.98</v>
@@ -29005,7 +29008,7 @@
         <v>175</v>
       </c>
       <c r="P134" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="Q134">
         <v>4</v>
@@ -29211,7 +29214,7 @@
         <v>87</v>
       </c>
       <c r="P135" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="Q135">
         <v>7</v>
@@ -29292,7 +29295,7 @@
         <v>1.28</v>
       </c>
       <c r="AQ135">
-        <v>2.11</v>
+        <v>2</v>
       </c>
       <c r="AR135">
         <v>1.46</v>
@@ -29623,7 +29626,7 @@
         <v>177</v>
       </c>
       <c r="P137" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="Q137">
         <v>2.39</v>
@@ -30035,7 +30038,7 @@
         <v>178</v>
       </c>
       <c r="P139" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="Q139">
         <v>3.94</v>
@@ -30731,7 +30734,7 @@
         <v>1.38</v>
       </c>
       <c r="AP142">
-        <v>1.61</v>
+        <v>1.68</v>
       </c>
       <c r="AQ142">
         <v>1.37</v>
@@ -31065,7 +31068,7 @@
         <v>87</v>
       </c>
       <c r="P144" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="Q144">
         <v>1.98</v>
@@ -31683,7 +31686,7 @@
         <v>152</v>
       </c>
       <c r="P147" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="Q147">
         <v>2.27</v>
@@ -31889,7 +31892,7 @@
         <v>184</v>
       </c>
       <c r="P148" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="Q148">
         <v>3.5</v>
@@ -32382,7 +32385,7 @@
         <v>2.11</v>
       </c>
       <c r="AQ150">
-        <v>2.11</v>
+        <v>2</v>
       </c>
       <c r="AR150">
         <v>1.82</v>
@@ -32919,7 +32922,7 @@
         <v>188</v>
       </c>
       <c r="P153" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="Q153">
         <v>3.25</v>
@@ -33743,7 +33746,7 @@
         <v>189</v>
       </c>
       <c r="P157" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="Q157">
         <v>1.95</v>
@@ -33821,7 +33824,7 @@
         <v>1.22</v>
       </c>
       <c r="AP157">
-        <v>1.61</v>
+        <v>1.68</v>
       </c>
       <c r="AQ157">
         <v>0.85</v>
@@ -34567,7 +34570,7 @@
         <v>87</v>
       </c>
       <c r="P161" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="Q161">
         <v>3.25</v>
@@ -34979,7 +34982,7 @@
         <v>138</v>
       </c>
       <c r="P163" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="Q163">
         <v>4.7</v>
@@ -35060,7 +35063,7 @@
         <v>1.28</v>
       </c>
       <c r="AQ163">
-        <v>2.11</v>
+        <v>2</v>
       </c>
       <c r="AR163">
         <v>1.7</v>
@@ -35185,7 +35188,7 @@
         <v>193</v>
       </c>
       <c r="P164" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="Q164">
         <v>3.75</v>
@@ -36009,7 +36012,7 @@
         <v>87</v>
       </c>
       <c r="P168" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="Q168">
         <v>2.55</v>
@@ -36627,7 +36630,7 @@
         <v>197</v>
       </c>
       <c r="P171" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="Q171">
         <v>2.4</v>
@@ -37451,7 +37454,7 @@
         <v>201</v>
       </c>
       <c r="P175" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="Q175">
         <v>2.48</v>
@@ -37529,7 +37532,7 @@
         <v>1.3</v>
       </c>
       <c r="AP175">
-        <v>1.61</v>
+        <v>1.68</v>
       </c>
       <c r="AQ175">
         <v>1.47</v>
@@ -38275,7 +38278,7 @@
         <v>204</v>
       </c>
       <c r="P179" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="Q179">
         <v>3.6</v>
@@ -38687,7 +38690,7 @@
         <v>205</v>
       </c>
       <c r="P181" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="Q181">
         <v>4</v>
@@ -39305,7 +39308,7 @@
         <v>87</v>
       </c>
       <c r="P184" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="Q184">
         <v>3.2</v>
@@ -39383,10 +39386,10 @@
         <v>2.18</v>
       </c>
       <c r="AP184">
-        <v>1.61</v>
+        <v>1.68</v>
       </c>
       <c r="AQ184">
-        <v>2.11</v>
+        <v>2</v>
       </c>
       <c r="AR184">
         <v>1.77</v>
@@ -39511,7 +39514,7 @@
         <v>208</v>
       </c>
       <c r="P185" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="Q185">
         <v>1.95</v>
@@ -39717,7 +39720,7 @@
         <v>209</v>
       </c>
       <c r="P186" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="Q186">
         <v>3.15</v>
@@ -40129,7 +40132,7 @@
         <v>211</v>
       </c>
       <c r="P188" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="Q188">
         <v>3.8</v>
@@ -40541,7 +40544,7 @@
         <v>213</v>
       </c>
       <c r="P190" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="Q190">
         <v>2.5</v>
@@ -40747,7 +40750,7 @@
         <v>214</v>
       </c>
       <c r="P191" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="Q191">
         <v>3.2</v>
@@ -41571,7 +41574,7 @@
         <v>216</v>
       </c>
       <c r="P195" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="Q195">
         <v>2.4</v>
@@ -41649,7 +41652,7 @@
         <v>1.67</v>
       </c>
       <c r="AP195">
-        <v>1.61</v>
+        <v>1.68</v>
       </c>
       <c r="AQ195">
         <v>1.33</v>
@@ -42601,7 +42604,7 @@
         <v>217</v>
       </c>
       <c r="P200" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="Q200">
         <v>2.7</v>
@@ -42807,7 +42810,7 @@
         <v>87</v>
       </c>
       <c r="P201" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="Q201">
         <v>2.09</v>
@@ -43631,7 +43634,7 @@
         <v>220</v>
       </c>
       <c r="P205" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="Q205">
         <v>3.5</v>
@@ -43837,7 +43840,7 @@
         <v>221</v>
       </c>
       <c r="P206" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="Q206">
         <v>4.2</v>
@@ -44043,7 +44046,7 @@
         <v>222</v>
       </c>
       <c r="P207" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="Q207">
         <v>3.6</v>
@@ -44536,7 +44539,7 @@
         <v>1.35</v>
       </c>
       <c r="AQ209">
-        <v>2.11</v>
+        <v>2</v>
       </c>
       <c r="AR209">
         <v>1.68</v>
@@ -45485,7 +45488,7 @@
         <v>224</v>
       </c>
       <c r="P214" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="Q214">
         <v>4.55</v>
@@ -45897,7 +45900,7 @@
         <v>225</v>
       </c>
       <c r="P216" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="Q216">
         <v>1.75</v>
@@ -46103,7 +46106,7 @@
         <v>226</v>
       </c>
       <c r="P217" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="Q217">
         <v>2.05</v>
@@ -46181,7 +46184,7 @@
         <v>1.08</v>
       </c>
       <c r="AP217">
-        <v>1.61</v>
+        <v>1.68</v>
       </c>
       <c r="AQ217">
         <v>0.95</v>
@@ -46721,7 +46724,7 @@
         <v>229</v>
       </c>
       <c r="P220" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="Q220">
         <v>5.25</v>
@@ -47339,7 +47342,7 @@
         <v>183</v>
       </c>
       <c r="P223" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="Q223">
         <v>4.5</v>
@@ -47545,7 +47548,7 @@
         <v>231</v>
       </c>
       <c r="P224" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="Q224">
         <v>3.75</v>
@@ -47751,7 +47754,7 @@
         <v>104</v>
       </c>
       <c r="P225" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="Q225">
         <v>4.75</v>
@@ -47832,7 +47835,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ225">
-        <v>2.11</v>
+        <v>2</v>
       </c>
       <c r="AR225">
         <v>1.37</v>
@@ -48163,7 +48166,7 @@
         <v>232</v>
       </c>
       <c r="P227" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="Q227">
         <v>2.99</v>
@@ -49399,7 +49402,7 @@
         <v>89</v>
       </c>
       <c r="P233" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="Q233">
         <v>3</v>
@@ -49477,7 +49480,7 @@
         <v>1.57</v>
       </c>
       <c r="AP233">
-        <v>1.61</v>
+        <v>1.68</v>
       </c>
       <c r="AQ233">
         <v>1.26</v>
@@ -50429,7 +50432,7 @@
         <v>237</v>
       </c>
       <c r="P238" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="Q238">
         <v>3.5</v>
@@ -50716,7 +50719,7 @@
         <v>1.68</v>
       </c>
       <c r="AQ239">
-        <v>2.11</v>
+        <v>2</v>
       </c>
       <c r="AR239">
         <v>1.86</v>
@@ -50841,7 +50844,7 @@
         <v>213</v>
       </c>
       <c r="P240" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="Q240">
         <v>3.6</v>
@@ -51459,7 +51462,7 @@
         <v>108</v>
       </c>
       <c r="P243" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="Q243">
         <v>2.3</v>
@@ -51871,7 +51874,7 @@
         <v>156</v>
       </c>
       <c r="P245" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="Q245">
         <v>2.65</v>
@@ -52489,7 +52492,7 @@
         <v>243</v>
       </c>
       <c r="P248" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="Q248">
         <v>2.53</v>
@@ -53803,7 +53806,7 @@
         <v>1.53</v>
       </c>
       <c r="AP254">
-        <v>1.61</v>
+        <v>1.68</v>
       </c>
       <c r="AQ254">
         <v>1.26</v>
@@ -53931,7 +53934,7 @@
         <v>102</v>
       </c>
       <c r="P255" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="Q255">
         <v>2.95</v>
@@ -54218,7 +54221,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ256">
-        <v>2.11</v>
+        <v>2</v>
       </c>
       <c r="AR256">
         <v>1.84</v>
@@ -54343,7 +54346,7 @@
         <v>102</v>
       </c>
       <c r="P257" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="Q257">
         <v>3.1</v>
@@ -54961,7 +54964,7 @@
         <v>87</v>
       </c>
       <c r="P260" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="Q260">
         <v>2.9</v>
@@ -55167,7 +55170,7 @@
         <v>247</v>
       </c>
       <c r="P261" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="Q261">
         <v>2.8</v>
@@ -55373,7 +55376,7 @@
         <v>164</v>
       </c>
       <c r="P262" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="Q262">
         <v>3.12</v>
@@ -56197,7 +56200,7 @@
         <v>249</v>
       </c>
       <c r="P266" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="Q266">
         <v>3.05</v>
@@ -56403,7 +56406,7 @@
         <v>250</v>
       </c>
       <c r="P267" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="Q267">
         <v>2.5</v>
@@ -56481,7 +56484,7 @@
         <v>1.47</v>
       </c>
       <c r="AP267">
-        <v>1.61</v>
+        <v>1.68</v>
       </c>
       <c r="AQ267">
         <v>1.47</v>
@@ -56609,7 +56612,7 @@
         <v>175</v>
       </c>
       <c r="P268" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="Q268">
         <v>3.55</v>
@@ -56815,7 +56818,7 @@
         <v>146</v>
       </c>
       <c r="P269" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="Q269">
         <v>2.49</v>
@@ -57514,7 +57517,7 @@
         <v>2.11</v>
       </c>
       <c r="AQ272">
-        <v>2.11</v>
+        <v>2</v>
       </c>
       <c r="AR272">
         <v>1.86</v>
@@ -58051,7 +58054,7 @@
         <v>253</v>
       </c>
       <c r="P275" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="Q275">
         <v>3.8</v>
@@ -58257,7 +58260,7 @@
         <v>254</v>
       </c>
       <c r="P276" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="Q276">
         <v>3</v>
@@ -58463,7 +58466,7 @@
         <v>180</v>
       </c>
       <c r="P277" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="Q277">
         <v>2.85</v>
@@ -58669,7 +58672,7 @@
         <v>255</v>
       </c>
       <c r="P278" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="Q278">
         <v>2.5</v>
@@ -59081,7 +59084,7 @@
         <v>220</v>
       </c>
       <c r="P280" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="Q280">
         <v>3.1</v>
@@ -59287,7 +59290,7 @@
         <v>256</v>
       </c>
       <c r="P281" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q281">
         <v>3</v>
@@ -59699,7 +59702,7 @@
         <v>257</v>
       </c>
       <c r="P283" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="Q283">
         <v>3.35</v>
@@ -60317,7 +60320,7 @@
         <v>260</v>
       </c>
       <c r="P286" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="Q286">
         <v>4.1</v>
@@ -60398,7 +60401,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ286">
-        <v>2.11</v>
+        <v>2</v>
       </c>
       <c r="AR286">
         <v>1.63</v>
@@ -60523,7 +60526,7 @@
         <v>261</v>
       </c>
       <c r="P287" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="Q287">
         <v>3.1</v>
@@ -61013,7 +61016,7 @@
         <v>1.28</v>
       </c>
       <c r="AP289">
-        <v>1.61</v>
+        <v>1.68</v>
       </c>
       <c r="AQ289">
         <v>1.37</v>
@@ -61347,7 +61350,7 @@
         <v>264</v>
       </c>
       <c r="P291" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="Q291">
         <v>3</v>
@@ -61553,7 +61556,7 @@
         <v>265</v>
       </c>
       <c r="P292" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Q292">
         <v>2.55</v>
@@ -61965,7 +61968,7 @@
         <v>87</v>
       </c>
       <c r="P294" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="Q294">
         <v>3.2</v>
@@ -62377,7 +62380,7 @@
         <v>136</v>
       </c>
       <c r="P296" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="Q296">
         <v>2.58</v>
@@ -62583,7 +62586,7 @@
         <v>268</v>
       </c>
       <c r="P297" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="Q297">
         <v>2.75</v>
@@ -62789,7 +62792,7 @@
         <v>132</v>
       </c>
       <c r="P298" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="Q298">
         <v>2.38</v>
@@ -63201,7 +63204,7 @@
         <v>269</v>
       </c>
       <c r="P300" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="Q300">
         <v>3.39</v>
@@ -63613,7 +63616,7 @@
         <v>271</v>
       </c>
       <c r="P302" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="Q302">
         <v>1.84</v>
@@ -64118,22 +64121,22 @@
         <v>2.83</v>
       </c>
       <c r="AU304">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="AV304">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AW304">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AX304">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AY304">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="AZ304">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="BA304">
         <v>5</v>
@@ -64182,6 +64185,212 @@
       </c>
       <c r="BP304">
         <v>1.29</v>
+      </c>
+    </row>
+    <row r="305" spans="1:68">
+      <c r="A305" s="1">
+        <v>304</v>
+      </c>
+      <c r="B305">
+        <v>7383660</v>
+      </c>
+      <c r="C305" t="s">
+        <v>68</v>
+      </c>
+      <c r="D305" t="s">
+        <v>69</v>
+      </c>
+      <c r="E305" s="2">
+        <v>45418.625</v>
+      </c>
+      <c r="F305">
+        <v>8</v>
+      </c>
+      <c r="G305" t="s">
+        <v>85</v>
+      </c>
+      <c r="H305" t="s">
+        <v>81</v>
+      </c>
+      <c r="I305">
+        <v>1</v>
+      </c>
+      <c r="J305">
+        <v>0</v>
+      </c>
+      <c r="K305">
+        <v>1</v>
+      </c>
+      <c r="L305">
+        <v>2</v>
+      </c>
+      <c r="M305">
+        <v>0</v>
+      </c>
+      <c r="N305">
+        <v>2</v>
+      </c>
+      <c r="O305" t="s">
+        <v>273</v>
+      </c>
+      <c r="P305" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q305">
+        <v>2.1</v>
+      </c>
+      <c r="R305">
+        <v>2.38</v>
+      </c>
+      <c r="S305">
+        <v>4.5</v>
+      </c>
+      <c r="T305">
+        <v>1.33</v>
+      </c>
+      <c r="U305">
+        <v>3.25</v>
+      </c>
+      <c r="V305">
+        <v>2.5</v>
+      </c>
+      <c r="W305">
+        <v>1.5</v>
+      </c>
+      <c r="X305">
+        <v>5.5</v>
+      </c>
+      <c r="Y305">
+        <v>1.12</v>
+      </c>
+      <c r="Z305">
+        <v>1.63</v>
+      </c>
+      <c r="AA305">
+        <v>3.75</v>
+      </c>
+      <c r="AB305">
+        <v>5</v>
+      </c>
+      <c r="AC305">
+        <v>1.01</v>
+      </c>
+      <c r="AD305">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="AE305">
+        <v>1.21</v>
+      </c>
+      <c r="AF305">
+        <v>4.3</v>
+      </c>
+      <c r="AG305">
+        <v>1.75</v>
+      </c>
+      <c r="AH305">
+        <v>2</v>
+      </c>
+      <c r="AI305">
+        <v>1.7</v>
+      </c>
+      <c r="AJ305">
+        <v>2.05</v>
+      </c>
+      <c r="AK305">
+        <v>1.14</v>
+      </c>
+      <c r="AL305">
+        <v>1.25</v>
+      </c>
+      <c r="AM305">
+        <v>2.25</v>
+      </c>
+      <c r="AN305">
+        <v>1.61</v>
+      </c>
+      <c r="AO305">
+        <v>2.11</v>
+      </c>
+      <c r="AP305">
+        <v>1.68</v>
+      </c>
+      <c r="AQ305">
+        <v>2</v>
+      </c>
+      <c r="AR305">
+        <v>1.67</v>
+      </c>
+      <c r="AS305">
+        <v>1.54</v>
+      </c>
+      <c r="AT305">
+        <v>3.21</v>
+      </c>
+      <c r="AU305">
+        <v>6</v>
+      </c>
+      <c r="AV305">
+        <v>3</v>
+      </c>
+      <c r="AW305">
+        <v>7</v>
+      </c>
+      <c r="AX305">
+        <v>7</v>
+      </c>
+      <c r="AY305">
+        <v>13</v>
+      </c>
+      <c r="AZ305">
+        <v>10</v>
+      </c>
+      <c r="BA305">
+        <v>4</v>
+      </c>
+      <c r="BB305">
+        <v>6</v>
+      </c>
+      <c r="BC305">
+        <v>10</v>
+      </c>
+      <c r="BD305">
+        <v>1.48</v>
+      </c>
+      <c r="BE305">
+        <v>9.4</v>
+      </c>
+      <c r="BF305">
+        <v>3.2</v>
+      </c>
+      <c r="BG305">
+        <v>1.23</v>
+      </c>
+      <c r="BH305">
+        <v>3.69</v>
+      </c>
+      <c r="BI305">
+        <v>1.41</v>
+      </c>
+      <c r="BJ305">
+        <v>2.6</v>
+      </c>
+      <c r="BK305">
+        <v>1.74</v>
+      </c>
+      <c r="BL305">
+        <v>1.98</v>
+      </c>
+      <c r="BM305">
+        <v>2.19</v>
+      </c>
+      <c r="BN305">
+        <v>1.57</v>
+      </c>
+      <c r="BO305">
+        <v>2.93</v>
+      </c>
+      <c r="BP305">
+        <v>1.33</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Romania Liga I_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Romania Liga I_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1892" uniqueCount="394">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1898" uniqueCount="396">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -838,6 +838,9 @@
     <t>['3', '71']</t>
   </si>
   <si>
+    <t>['21', '39', '45+1']</t>
+  </si>
+  <si>
     <t>['45+5']</t>
   </si>
   <si>
@@ -1196,6 +1199,9 @@
   </si>
   <si>
     <t>['16', '60']</t>
+  </si>
+  <si>
+    <t>['17', '63']</t>
   </si>
 </sst>
 </file>
@@ -1557,7 +1563,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP305"/>
+  <dimension ref="A1:BP306"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1816,7 +1822,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q2">
         <v>4</v>
@@ -2228,7 +2234,7 @@
         <v>87</v>
       </c>
       <c r="P4" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q4">
         <v>3.75</v>
@@ -2640,7 +2646,7 @@
         <v>89</v>
       </c>
       <c r="P6" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q6">
         <v>3.5</v>
@@ -2846,7 +2852,7 @@
         <v>90</v>
       </c>
       <c r="P7" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q7">
         <v>5</v>
@@ -3258,7 +3264,7 @@
         <v>87</v>
       </c>
       <c r="P9" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q9">
         <v>5.5</v>
@@ -3542,7 +3548,7 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>1.53</v>
+        <v>1.6</v>
       </c>
       <c r="AQ10">
         <v>0.65</v>
@@ -3670,7 +3676,7 @@
         <v>93</v>
       </c>
       <c r="P11" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q11">
         <v>4.33</v>
@@ -4082,7 +4088,7 @@
         <v>95</v>
       </c>
       <c r="P13" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q13">
         <v>1.95</v>
@@ -4288,7 +4294,7 @@
         <v>96</v>
       </c>
       <c r="P14" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q14">
         <v>3.6</v>
@@ -4494,7 +4500,7 @@
         <v>87</v>
       </c>
       <c r="P15" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q15">
         <v>3.2</v>
@@ -4575,7 +4581,7 @@
         <v>1.35</v>
       </c>
       <c r="AQ15">
-        <v>1.26</v>
+        <v>1.2</v>
       </c>
       <c r="AR15">
         <v>0</v>
@@ -4700,7 +4706,7 @@
         <v>97</v>
       </c>
       <c r="P16" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q16">
         <v>2.88</v>
@@ -5112,7 +5118,7 @@
         <v>98</v>
       </c>
       <c r="P18" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q18">
         <v>3</v>
@@ -5318,7 +5324,7 @@
         <v>99</v>
       </c>
       <c r="P19" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q19">
         <v>2</v>
@@ -5730,7 +5736,7 @@
         <v>87</v>
       </c>
       <c r="P21" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q21">
         <v>4.75</v>
@@ -5936,7 +5942,7 @@
         <v>101</v>
       </c>
       <c r="P22" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q22">
         <v>2.15</v>
@@ -6348,7 +6354,7 @@
         <v>87</v>
       </c>
       <c r="P24" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q24">
         <v>3.25</v>
@@ -6554,7 +6560,7 @@
         <v>87</v>
       </c>
       <c r="P25" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q25">
         <v>4.33</v>
@@ -7172,7 +7178,7 @@
         <v>87</v>
       </c>
       <c r="P28" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q28">
         <v>3</v>
@@ -7378,7 +7384,7 @@
         <v>105</v>
       </c>
       <c r="P29" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q29">
         <v>2.55</v>
@@ -7584,7 +7590,7 @@
         <v>106</v>
       </c>
       <c r="P30" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q30">
         <v>3.5</v>
@@ -8074,7 +8080,7 @@
         <v>1</v>
       </c>
       <c r="AP32">
-        <v>1.53</v>
+        <v>1.6</v>
       </c>
       <c r="AQ32">
         <v>1.26</v>
@@ -8283,7 +8289,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ33">
-        <v>1.26</v>
+        <v>1.2</v>
       </c>
       <c r="AR33">
         <v>1.18</v>
@@ -8820,7 +8826,7 @@
         <v>112</v>
       </c>
       <c r="P36" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q36">
         <v>4.9</v>
@@ -9026,7 +9032,7 @@
         <v>87</v>
       </c>
       <c r="P37" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q37">
         <v>2.3</v>
@@ -9438,7 +9444,7 @@
         <v>114</v>
       </c>
       <c r="P39" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q39">
         <v>3.05</v>
@@ -10056,7 +10062,7 @@
         <v>116</v>
       </c>
       <c r="P42" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Q42">
         <v>2.6</v>
@@ -10262,7 +10268,7 @@
         <v>117</v>
       </c>
       <c r="P43" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Q43">
         <v>2.55</v>
@@ -10468,7 +10474,7 @@
         <v>118</v>
       </c>
       <c r="P44" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Q44">
         <v>1.83</v>
@@ -10752,7 +10758,7 @@
         <v>1.5</v>
       </c>
       <c r="AP45">
-        <v>1.53</v>
+        <v>1.6</v>
       </c>
       <c r="AQ45">
         <v>0.72</v>
@@ -10880,7 +10886,7 @@
         <v>119</v>
       </c>
       <c r="P46" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Q46">
         <v>4.85</v>
@@ -11086,7 +11092,7 @@
         <v>120</v>
       </c>
       <c r="P47" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q47">
         <v>3.66</v>
@@ -11292,7 +11298,7 @@
         <v>121</v>
       </c>
       <c r="P48" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Q48">
         <v>3.4</v>
@@ -11373,7 +11379,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ48">
-        <v>1.26</v>
+        <v>1.2</v>
       </c>
       <c r="AR48">
         <v>1.57</v>
@@ -12116,7 +12122,7 @@
         <v>125</v>
       </c>
       <c r="P52" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Q52">
         <v>3.1</v>
@@ -12528,7 +12534,7 @@
         <v>127</v>
       </c>
       <c r="P54" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Q54">
         <v>2.75</v>
@@ -12940,7 +12946,7 @@
         <v>93</v>
       </c>
       <c r="P56" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Q56">
         <v>4.7</v>
@@ -13558,7 +13564,7 @@
         <v>87</v>
       </c>
       <c r="P59" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Q59">
         <v>2.6</v>
@@ -13764,7 +13770,7 @@
         <v>131</v>
       </c>
       <c r="P60" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Q60">
         <v>3.5</v>
@@ -14048,7 +14054,7 @@
         <v>0.33</v>
       </c>
       <c r="AP61">
-        <v>1.53</v>
+        <v>1.6</v>
       </c>
       <c r="AQ61">
         <v>1.06</v>
@@ -14588,7 +14594,7 @@
         <v>133</v>
       </c>
       <c r="P64" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="Q64">
         <v>2.5</v>
@@ -15081,7 +15087,7 @@
         <v>1.37</v>
       </c>
       <c r="AQ66">
-        <v>1.26</v>
+        <v>1.2</v>
       </c>
       <c r="AR66">
         <v>1.44</v>
@@ -15206,7 +15212,7 @@
         <v>87</v>
       </c>
       <c r="P67" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Q67">
         <v>3</v>
@@ -15412,7 +15418,7 @@
         <v>135</v>
       </c>
       <c r="P68" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Q68">
         <v>2.9</v>
@@ -15824,7 +15830,7 @@
         <v>137</v>
       </c>
       <c r="P70" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Q70">
         <v>4.33</v>
@@ -16030,7 +16036,7 @@
         <v>87</v>
       </c>
       <c r="P71" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="Q71">
         <v>2.57</v>
@@ -16236,7 +16242,7 @@
         <v>87</v>
       </c>
       <c r="P72" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Q72">
         <v>4.1</v>
@@ -16442,7 +16448,7 @@
         <v>138</v>
       </c>
       <c r="P73" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Q73">
         <v>2.7</v>
@@ -16648,7 +16654,7 @@
         <v>139</v>
       </c>
       <c r="P74" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="Q74">
         <v>3.4</v>
@@ -17266,7 +17272,7 @@
         <v>141</v>
       </c>
       <c r="P77" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="Q77">
         <v>3.4</v>
@@ -17344,7 +17350,7 @@
         <v>2</v>
       </c>
       <c r="AP77">
-        <v>1.53</v>
+        <v>1.6</v>
       </c>
       <c r="AQ77">
         <v>2</v>
@@ -18090,7 +18096,7 @@
         <v>144</v>
       </c>
       <c r="P81" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="Q81">
         <v>2.86</v>
@@ -18583,7 +18589,7 @@
         <v>1.9</v>
       </c>
       <c r="AQ83">
-        <v>1.26</v>
+        <v>1.2</v>
       </c>
       <c r="AR83">
         <v>1.84</v>
@@ -19120,7 +19126,7 @@
         <v>148</v>
       </c>
       <c r="P86" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="Q86">
         <v>2.05</v>
@@ -19738,7 +19744,7 @@
         <v>150</v>
       </c>
       <c r="P89" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="Q89">
         <v>2</v>
@@ -20562,7 +20568,7 @@
         <v>87</v>
       </c>
       <c r="P93" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Q93">
         <v>3.5</v>
@@ -20768,7 +20774,7 @@
         <v>151</v>
       </c>
       <c r="P94" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Q94">
         <v>4.4</v>
@@ -21386,7 +21392,7 @@
         <v>154</v>
       </c>
       <c r="P97" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="Q97">
         <v>3.7</v>
@@ -21467,7 +21473,7 @@
         <v>1.9</v>
       </c>
       <c r="AQ97">
-        <v>1.26</v>
+        <v>1.2</v>
       </c>
       <c r="AR97">
         <v>1.23</v>
@@ -22210,7 +22216,7 @@
         <v>90</v>
       </c>
       <c r="P101" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="Q101">
         <v>1.98</v>
@@ -22622,7 +22628,7 @@
         <v>157</v>
       </c>
       <c r="P103" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="Q103">
         <v>2.15</v>
@@ -22700,7 +22706,7 @@
         <v>0.33</v>
       </c>
       <c r="AP103">
-        <v>1.53</v>
+        <v>1.6</v>
       </c>
       <c r="AQ103">
         <v>0.58</v>
@@ -23034,7 +23040,7 @@
         <v>158</v>
       </c>
       <c r="P105" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="Q105">
         <v>2.15</v>
@@ -23240,7 +23246,7 @@
         <v>87</v>
       </c>
       <c r="P106" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="Q106">
         <v>3.85</v>
@@ -23858,7 +23864,7 @@
         <v>160</v>
       </c>
       <c r="P109" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="Q109">
         <v>4.1</v>
@@ -24064,7 +24070,7 @@
         <v>161</v>
       </c>
       <c r="P110" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="Q110">
         <v>2.6</v>
@@ -24476,7 +24482,7 @@
         <v>87</v>
       </c>
       <c r="P112" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="Q112">
         <v>3.6</v>
@@ -24682,7 +24688,7 @@
         <v>163</v>
       </c>
       <c r="P113" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="Q113">
         <v>2.5</v>
@@ -24888,7 +24894,7 @@
         <v>164</v>
       </c>
       <c r="P114" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Q114">
         <v>3.25</v>
@@ -25172,7 +25178,7 @@
         <v>1.5</v>
       </c>
       <c r="AP115">
-        <v>1.53</v>
+        <v>1.6</v>
       </c>
       <c r="AQ115">
         <v>1</v>
@@ -25506,7 +25512,7 @@
         <v>136</v>
       </c>
       <c r="P117" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="Q117">
         <v>2.68</v>
@@ -25918,7 +25924,7 @@
         <v>156</v>
       </c>
       <c r="P119" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="Q119">
         <v>5</v>
@@ -25999,7 +26005,7 @@
         <v>2.26</v>
       </c>
       <c r="AQ119">
-        <v>1.26</v>
+        <v>1.2</v>
       </c>
       <c r="AR119">
         <v>1.74</v>
@@ -26614,10 +26620,10 @@
         <v>1.71</v>
       </c>
       <c r="AP122">
-        <v>1.53</v>
+        <v>1.6</v>
       </c>
       <c r="AQ122">
-        <v>1.26</v>
+        <v>1.2</v>
       </c>
       <c r="AR122">
         <v>1.57</v>
@@ -26948,7 +26954,7 @@
         <v>168</v>
       </c>
       <c r="P124" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="Q124">
         <v>5.15</v>
@@ -27360,7 +27366,7 @@
         <v>169</v>
       </c>
       <c r="P126" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="Q126">
         <v>3.25</v>
@@ -27978,7 +27984,7 @@
         <v>172</v>
       </c>
       <c r="P129" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="Q129">
         <v>3.1</v>
@@ -28596,7 +28602,7 @@
         <v>174</v>
       </c>
       <c r="P132" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="Q132">
         <v>3.98</v>
@@ -29008,7 +29014,7 @@
         <v>175</v>
       </c>
       <c r="P134" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="Q134">
         <v>4</v>
@@ -29214,7 +29220,7 @@
         <v>87</v>
       </c>
       <c r="P135" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="Q135">
         <v>7</v>
@@ -29626,7 +29632,7 @@
         <v>177</v>
       </c>
       <c r="P137" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="Q137">
         <v>2.39</v>
@@ -30038,7 +30044,7 @@
         <v>178</v>
       </c>
       <c r="P139" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="Q139">
         <v>3.94</v>
@@ -30531,7 +30537,7 @@
         <v>1.26</v>
       </c>
       <c r="AQ141">
-        <v>1.26</v>
+        <v>1.2</v>
       </c>
       <c r="AR141">
         <v>1.56</v>
@@ -31068,7 +31074,7 @@
         <v>87</v>
       </c>
       <c r="P144" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="Q144">
         <v>1.98</v>
@@ -31352,7 +31358,7 @@
         <v>0.5</v>
       </c>
       <c r="AP145">
-        <v>1.53</v>
+        <v>1.6</v>
       </c>
       <c r="AQ145">
         <v>0.65</v>
@@ -31686,7 +31692,7 @@
         <v>152</v>
       </c>
       <c r="P147" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="Q147">
         <v>2.27</v>
@@ -31892,7 +31898,7 @@
         <v>184</v>
       </c>
       <c r="P148" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="Q148">
         <v>3.5</v>
@@ -32922,7 +32928,7 @@
         <v>188</v>
       </c>
       <c r="P153" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="Q153">
         <v>3.25</v>
@@ -33415,7 +33421,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ155">
-        <v>1.26</v>
+        <v>1.2</v>
       </c>
       <c r="AR155">
         <v>1.52</v>
@@ -33746,7 +33752,7 @@
         <v>189</v>
       </c>
       <c r="P157" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="Q157">
         <v>1.95</v>
@@ -34442,7 +34448,7 @@
         <v>1.22</v>
       </c>
       <c r="AP160">
-        <v>1.53</v>
+        <v>1.6</v>
       </c>
       <c r="AQ160">
         <v>1.37</v>
@@ -34570,7 +34576,7 @@
         <v>87</v>
       </c>
       <c r="P161" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="Q161">
         <v>3.25</v>
@@ -34982,7 +34988,7 @@
         <v>138</v>
       </c>
       <c r="P163" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="Q163">
         <v>4.7</v>
@@ -35188,7 +35194,7 @@
         <v>193</v>
       </c>
       <c r="P164" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="Q164">
         <v>3.75</v>
@@ -35475,7 +35481,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ165">
-        <v>1.26</v>
+        <v>1.2</v>
       </c>
       <c r="AR165">
         <v>1.9</v>
@@ -36012,7 +36018,7 @@
         <v>87</v>
       </c>
       <c r="P168" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="Q168">
         <v>2.55</v>
@@ -36502,7 +36508,7 @@
         <v>1.2</v>
       </c>
       <c r="AP170">
-        <v>1.53</v>
+        <v>1.6</v>
       </c>
       <c r="AQ170">
         <v>0.85</v>
@@ -36630,7 +36636,7 @@
         <v>197</v>
       </c>
       <c r="P171" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="Q171">
         <v>2.4</v>
@@ -37454,7 +37460,7 @@
         <v>201</v>
       </c>
       <c r="P175" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="Q175">
         <v>2.48</v>
@@ -38278,7 +38284,7 @@
         <v>204</v>
       </c>
       <c r="P179" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="Q179">
         <v>3.6</v>
@@ -38690,7 +38696,7 @@
         <v>205</v>
       </c>
       <c r="P181" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="Q181">
         <v>4</v>
@@ -38771,7 +38777,7 @@
         <v>1.28</v>
       </c>
       <c r="AQ181">
-        <v>1.26</v>
+        <v>1.2</v>
       </c>
       <c r="AR181">
         <v>1.45</v>
@@ -39308,7 +39314,7 @@
         <v>87</v>
       </c>
       <c r="P184" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="Q184">
         <v>3.2</v>
@@ -39514,7 +39520,7 @@
         <v>208</v>
       </c>
       <c r="P185" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="Q185">
         <v>1.95</v>
@@ -39720,7 +39726,7 @@
         <v>209</v>
       </c>
       <c r="P186" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="Q186">
         <v>3.15</v>
@@ -40132,7 +40138,7 @@
         <v>211</v>
       </c>
       <c r="P188" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="Q188">
         <v>3.8</v>
@@ -40544,7 +40550,7 @@
         <v>213</v>
       </c>
       <c r="P190" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="Q190">
         <v>2.5</v>
@@ -40750,7 +40756,7 @@
         <v>214</v>
       </c>
       <c r="P191" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="Q191">
         <v>3.2</v>
@@ -40828,7 +40834,7 @@
         <v>1.18</v>
       </c>
       <c r="AP191">
-        <v>1.53</v>
+        <v>1.6</v>
       </c>
       <c r="AQ191">
         <v>1.68</v>
@@ -41574,7 +41580,7 @@
         <v>216</v>
       </c>
       <c r="P195" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="Q195">
         <v>2.4</v>
@@ -42067,7 +42073,7 @@
         <v>2.11</v>
       </c>
       <c r="AQ197">
-        <v>1.26</v>
+        <v>1.2</v>
       </c>
       <c r="AR197">
         <v>1.88</v>
@@ -42604,7 +42610,7 @@
         <v>217</v>
       </c>
       <c r="P200" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="Q200">
         <v>2.7</v>
@@ -42810,7 +42816,7 @@
         <v>87</v>
       </c>
       <c r="P201" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="Q201">
         <v>2.09</v>
@@ -43634,7 +43640,7 @@
         <v>220</v>
       </c>
       <c r="P205" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="Q205">
         <v>3.5</v>
@@ -43840,7 +43846,7 @@
         <v>221</v>
       </c>
       <c r="P206" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="Q206">
         <v>4.2</v>
@@ -44046,7 +44052,7 @@
         <v>222</v>
       </c>
       <c r="P207" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="Q207">
         <v>3.6</v>
@@ -44330,7 +44336,7 @@
         <v>1.42</v>
       </c>
       <c r="AP208">
-        <v>1.53</v>
+        <v>1.6</v>
       </c>
       <c r="AQ208">
         <v>1.47</v>
@@ -45488,7 +45494,7 @@
         <v>224</v>
       </c>
       <c r="P214" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="Q214">
         <v>4.55</v>
@@ -45569,7 +45575,7 @@
         <v>1.28</v>
       </c>
       <c r="AQ214">
-        <v>1.26</v>
+        <v>1.2</v>
       </c>
       <c r="AR214">
         <v>1.61</v>
@@ -45772,7 +45778,7 @@
         <v>1.62</v>
       </c>
       <c r="AP215">
-        <v>1.53</v>
+        <v>1.6</v>
       </c>
       <c r="AQ215">
         <v>1.33</v>
@@ -45900,7 +45906,7 @@
         <v>225</v>
       </c>
       <c r="P216" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="Q216">
         <v>1.75</v>
@@ -46106,7 +46112,7 @@
         <v>226</v>
       </c>
       <c r="P217" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="Q217">
         <v>2.05</v>
@@ -46724,7 +46730,7 @@
         <v>229</v>
       </c>
       <c r="P220" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="Q220">
         <v>5.25</v>
@@ -47342,7 +47348,7 @@
         <v>183</v>
       </c>
       <c r="P223" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="Q223">
         <v>4.5</v>
@@ -47548,7 +47554,7 @@
         <v>231</v>
       </c>
       <c r="P224" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="Q224">
         <v>3.75</v>
@@ -47754,7 +47760,7 @@
         <v>104</v>
       </c>
       <c r="P225" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="Q225">
         <v>4.75</v>
@@ -48166,7 +48172,7 @@
         <v>232</v>
       </c>
       <c r="P227" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="Q227">
         <v>2.99</v>
@@ -49274,7 +49280,7 @@
         <v>1</v>
       </c>
       <c r="AP232">
-        <v>1.53</v>
+        <v>1.6</v>
       </c>
       <c r="AQ232">
         <v>0.95</v>
@@ -49402,7 +49408,7 @@
         <v>89</v>
       </c>
       <c r="P233" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="Q233">
         <v>3</v>
@@ -49483,7 +49489,7 @@
         <v>1.68</v>
       </c>
       <c r="AQ233">
-        <v>1.26</v>
+        <v>1.2</v>
       </c>
       <c r="AR233">
         <v>1.74</v>
@@ -50432,7 +50438,7 @@
         <v>237</v>
       </c>
       <c r="P238" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="Q238">
         <v>3.5</v>
@@ -50844,7 +50850,7 @@
         <v>213</v>
       </c>
       <c r="P240" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="Q240">
         <v>3.6</v>
@@ -51462,7 +51468,7 @@
         <v>108</v>
       </c>
       <c r="P243" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="Q243">
         <v>2.3</v>
@@ -51874,7 +51880,7 @@
         <v>156</v>
       </c>
       <c r="P245" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="Q245">
         <v>2.65</v>
@@ -52492,7 +52498,7 @@
         <v>243</v>
       </c>
       <c r="P248" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="Q248">
         <v>2.53</v>
@@ -53188,7 +53194,7 @@
         <v>1.27</v>
       </c>
       <c r="AP251">
-        <v>1.53</v>
+        <v>1.6</v>
       </c>
       <c r="AQ251">
         <v>1.37</v>
@@ -53809,7 +53815,7 @@
         <v>1.68</v>
       </c>
       <c r="AQ254">
-        <v>1.26</v>
+        <v>1.2</v>
       </c>
       <c r="AR254">
         <v>1.72</v>
@@ -53934,7 +53940,7 @@
         <v>102</v>
       </c>
       <c r="P255" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="Q255">
         <v>2.95</v>
@@ -54346,7 +54352,7 @@
         <v>102</v>
       </c>
       <c r="P257" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="Q257">
         <v>3.1</v>
@@ -54836,7 +54842,7 @@
         <v>1.5</v>
       </c>
       <c r="AP259">
-        <v>1.53</v>
+        <v>1.6</v>
       </c>
       <c r="AQ259">
         <v>1.47</v>
@@ -54964,7 +54970,7 @@
         <v>87</v>
       </c>
       <c r="P260" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="Q260">
         <v>2.9</v>
@@ -55170,7 +55176,7 @@
         <v>247</v>
       </c>
       <c r="P261" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="Q261">
         <v>2.8</v>
@@ -55376,7 +55382,7 @@
         <v>164</v>
       </c>
       <c r="P262" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="Q262">
         <v>3.12</v>
@@ -56200,7 +56206,7 @@
         <v>249</v>
       </c>
       <c r="P266" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="Q266">
         <v>3.05</v>
@@ -56406,7 +56412,7 @@
         <v>250</v>
       </c>
       <c r="P267" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="Q267">
         <v>2.5</v>
@@ -56612,7 +56618,7 @@
         <v>175</v>
       </c>
       <c r="P268" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="Q268">
         <v>3.55</v>
@@ -56818,7 +56824,7 @@
         <v>146</v>
       </c>
       <c r="P269" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="Q269">
         <v>2.49</v>
@@ -58054,7 +58060,7 @@
         <v>253</v>
       </c>
       <c r="P275" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="Q275">
         <v>3.8</v>
@@ -58260,7 +58266,7 @@
         <v>254</v>
       </c>
       <c r="P276" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="Q276">
         <v>3</v>
@@ -58466,7 +58472,7 @@
         <v>180</v>
       </c>
       <c r="P277" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="Q277">
         <v>2.85</v>
@@ -58672,7 +58678,7 @@
         <v>255</v>
       </c>
       <c r="P278" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="Q278">
         <v>2.5</v>
@@ -58753,7 +58759,7 @@
         <v>2.26</v>
       </c>
       <c r="AQ278">
-        <v>1.26</v>
+        <v>1.2</v>
       </c>
       <c r="AR278">
         <v>1.76</v>
@@ -59084,7 +59090,7 @@
         <v>220</v>
       </c>
       <c r="P280" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="Q280">
         <v>3.1</v>
@@ -59162,7 +59168,7 @@
         <v>1.53</v>
       </c>
       <c r="AP280">
-        <v>1.53</v>
+        <v>1.6</v>
       </c>
       <c r="AQ280">
         <v>1.68</v>
@@ -59290,7 +59296,7 @@
         <v>256</v>
       </c>
       <c r="P281" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q281">
         <v>3</v>
@@ -59702,7 +59708,7 @@
         <v>257</v>
       </c>
       <c r="P283" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="Q283">
         <v>3.35</v>
@@ -60195,7 +60201,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ285">
-        <v>1.26</v>
+        <v>1.2</v>
       </c>
       <c r="AR285">
         <v>1.81</v>
@@ -60320,7 +60326,7 @@
         <v>260</v>
       </c>
       <c r="P286" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="Q286">
         <v>4.1</v>
@@ -60398,7 +60404,7 @@
         <v>2.18</v>
       </c>
       <c r="AP286">
-        <v>1.53</v>
+        <v>1.6</v>
       </c>
       <c r="AQ286">
         <v>2</v>
@@ -60526,7 +60532,7 @@
         <v>261</v>
       </c>
       <c r="P287" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="Q287">
         <v>3.1</v>
@@ -61350,7 +61356,7 @@
         <v>264</v>
       </c>
       <c r="P291" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="Q291">
         <v>3</v>
@@ -61556,7 +61562,7 @@
         <v>265</v>
       </c>
       <c r="P292" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Q292">
         <v>2.55</v>
@@ -61968,7 +61974,7 @@
         <v>87</v>
       </c>
       <c r="P294" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="Q294">
         <v>3.2</v>
@@ -62380,7 +62386,7 @@
         <v>136</v>
       </c>
       <c r="P296" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="Q296">
         <v>2.58</v>
@@ -62586,7 +62592,7 @@
         <v>268</v>
       </c>
       <c r="P297" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="Q297">
         <v>2.75</v>
@@ -62792,7 +62798,7 @@
         <v>132</v>
       </c>
       <c r="P298" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="Q298">
         <v>2.38</v>
@@ -63204,7 +63210,7 @@
         <v>269</v>
       </c>
       <c r="P300" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="Q300">
         <v>3.39</v>
@@ -63616,7 +63622,7 @@
         <v>271</v>
       </c>
       <c r="P302" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="Q302">
         <v>1.84</v>
@@ -63697,7 +63703,7 @@
         <v>2.11</v>
       </c>
       <c r="AQ302">
-        <v>1.26</v>
+        <v>1.2</v>
       </c>
       <c r="AR302">
         <v>1.93</v>
@@ -64391,6 +64397,212 @@
       </c>
       <c r="BP305">
         <v>1.33</v>
+      </c>
+    </row>
+    <row r="306" spans="1:68">
+      <c r="A306" s="1">
+        <v>305</v>
+      </c>
+      <c r="B306">
+        <v>7383665</v>
+      </c>
+      <c r="C306" t="s">
+        <v>68</v>
+      </c>
+      <c r="D306" t="s">
+        <v>69</v>
+      </c>
+      <c r="E306" s="2">
+        <v>45422.60416666666</v>
+      </c>
+      <c r="F306">
+        <v>9</v>
+      </c>
+      <c r="G306" t="s">
+        <v>78</v>
+      </c>
+      <c r="H306" t="s">
+        <v>71</v>
+      </c>
+      <c r="I306">
+        <v>3</v>
+      </c>
+      <c r="J306">
+        <v>1</v>
+      </c>
+      <c r="K306">
+        <v>4</v>
+      </c>
+      <c r="L306">
+        <v>3</v>
+      </c>
+      <c r="M306">
+        <v>2</v>
+      </c>
+      <c r="N306">
+        <v>5</v>
+      </c>
+      <c r="O306" t="s">
+        <v>274</v>
+      </c>
+      <c r="P306" t="s">
+        <v>395</v>
+      </c>
+      <c r="Q306">
+        <v>3</v>
+      </c>
+      <c r="R306">
+        <v>2.15</v>
+      </c>
+      <c r="S306">
+        <v>3.1</v>
+      </c>
+      <c r="T306">
+        <v>1.35</v>
+      </c>
+      <c r="U306">
+        <v>2.95</v>
+      </c>
+      <c r="V306">
+        <v>2.55</v>
+      </c>
+      <c r="W306">
+        <v>1.45</v>
+      </c>
+      <c r="X306">
+        <v>6.5</v>
+      </c>
+      <c r="Y306">
+        <v>1.11</v>
+      </c>
+      <c r="Z306">
+        <v>2.5</v>
+      </c>
+      <c r="AA306">
+        <v>3.4</v>
+      </c>
+      <c r="AB306">
+        <v>2.63</v>
+      </c>
+      <c r="AC306">
+        <v>1.05</v>
+      </c>
+      <c r="AD306">
+        <v>8.5</v>
+      </c>
+      <c r="AE306">
+        <v>1.25</v>
+      </c>
+      <c r="AF306">
+        <v>3.7</v>
+      </c>
+      <c r="AG306">
+        <v>1.73</v>
+      </c>
+      <c r="AH306">
+        <v>1.84</v>
+      </c>
+      <c r="AI306">
+        <v>1.55</v>
+      </c>
+      <c r="AJ306">
+        <v>2.2</v>
+      </c>
+      <c r="AK306">
+        <v>1.45</v>
+      </c>
+      <c r="AL306">
+        <v>1.25</v>
+      </c>
+      <c r="AM306">
+        <v>1.5</v>
+      </c>
+      <c r="AN306">
+        <v>1.53</v>
+      </c>
+      <c r="AO306">
+        <v>1.26</v>
+      </c>
+      <c r="AP306">
+        <v>1.6</v>
+      </c>
+      <c r="AQ306">
+        <v>1.2</v>
+      </c>
+      <c r="AR306">
+        <v>1.65</v>
+      </c>
+      <c r="AS306">
+        <v>1.37</v>
+      </c>
+      <c r="AT306">
+        <v>3.02</v>
+      </c>
+      <c r="AU306">
+        <v>10</v>
+      </c>
+      <c r="AV306">
+        <v>7</v>
+      </c>
+      <c r="AW306">
+        <v>7</v>
+      </c>
+      <c r="AX306">
+        <v>6</v>
+      </c>
+      <c r="AY306">
+        <v>17</v>
+      </c>
+      <c r="AZ306">
+        <v>13</v>
+      </c>
+      <c r="BA306">
+        <v>7</v>
+      </c>
+      <c r="BB306">
+        <v>2</v>
+      </c>
+      <c r="BC306">
+        <v>9</v>
+      </c>
+      <c r="BD306">
+        <v>1.95</v>
+      </c>
+      <c r="BE306">
+        <v>8.75</v>
+      </c>
+      <c r="BF306">
+        <v>2.2</v>
+      </c>
+      <c r="BG306">
+        <v>1.32</v>
+      </c>
+      <c r="BH306">
+        <v>3.12</v>
+      </c>
+      <c r="BI306">
+        <v>1.55</v>
+      </c>
+      <c r="BJ306">
+        <v>2.23</v>
+      </c>
+      <c r="BK306">
+        <v>1.96</v>
+      </c>
+      <c r="BL306">
+        <v>1.75</v>
+      </c>
+      <c r="BM306">
+        <v>2.57</v>
+      </c>
+      <c r="BN306">
+        <v>1.42</v>
+      </c>
+      <c r="BO306">
+        <v>3.52</v>
+      </c>
+      <c r="BP306">
+        <v>1.25</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Romania Liga I_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Romania Liga I_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1898" uniqueCount="396">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1904" uniqueCount="396">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -1563,7 +1563,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP306"/>
+  <dimension ref="A1:BP307"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3757,7 +3757,7 @@
         <v>1.9</v>
       </c>
       <c r="AQ11">
-        <v>1.37</v>
+        <v>1.45</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -4166,7 +4166,7 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>2.26</v>
+        <v>2.15</v>
       </c>
       <c r="AQ13">
         <v>0.65</v>
@@ -7874,10 +7874,10 @@
         <v>3</v>
       </c>
       <c r="AP31">
-        <v>2.26</v>
+        <v>2.15</v>
       </c>
       <c r="AQ31">
-        <v>1.37</v>
+        <v>1.45</v>
       </c>
       <c r="AR31">
         <v>2.11</v>
@@ -10552,7 +10552,7 @@
         <v>1</v>
       </c>
       <c r="AP44">
-        <v>2.26</v>
+        <v>2.15</v>
       </c>
       <c r="AQ44">
         <v>0.85</v>
@@ -10967,7 +10967,7 @@
         <v>1.35</v>
       </c>
       <c r="AQ46">
-        <v>1.37</v>
+        <v>1.45</v>
       </c>
       <c r="AR46">
         <v>1.59</v>
@@ -13027,7 +13027,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ56">
-        <v>1.37</v>
+        <v>1.45</v>
       </c>
       <c r="AR56">
         <v>1.12</v>
@@ -13230,7 +13230,7 @@
         <v>1.75</v>
       </c>
       <c r="AP57">
-        <v>2.26</v>
+        <v>2.15</v>
       </c>
       <c r="AQ57">
         <v>1.68</v>
@@ -17559,7 +17559,7 @@
         <v>1.68</v>
       </c>
       <c r="AQ78">
-        <v>1.37</v>
+        <v>1.45</v>
       </c>
       <c r="AR78">
         <v>1.82</v>
@@ -19204,7 +19204,7 @@
         <v>1.8</v>
       </c>
       <c r="AP86">
-        <v>2.26</v>
+        <v>2.15</v>
       </c>
       <c r="AQ86">
         <v>1.33</v>
@@ -20855,7 +20855,7 @@
         <v>1.28</v>
       </c>
       <c r="AQ94">
-        <v>1.37</v>
+        <v>1.45</v>
       </c>
       <c r="AR94">
         <v>1.58</v>
@@ -22500,7 +22500,7 @@
         <v>0.83</v>
       </c>
       <c r="AP102">
-        <v>2.26</v>
+        <v>2.15</v>
       </c>
       <c r="AQ102">
         <v>0.95</v>
@@ -26002,7 +26002,7 @@
         <v>1.5</v>
       </c>
       <c r="AP119">
-        <v>2.26</v>
+        <v>2.15</v>
       </c>
       <c r="AQ119">
         <v>1.2</v>
@@ -26417,7 +26417,7 @@
         <v>1.9</v>
       </c>
       <c r="AQ121">
-        <v>1.37</v>
+        <v>1.45</v>
       </c>
       <c r="AR121">
         <v>1.75</v>
@@ -27035,7 +27035,7 @@
         <v>1.28</v>
       </c>
       <c r="AQ124">
-        <v>1.37</v>
+        <v>1.45</v>
       </c>
       <c r="AR124">
         <v>1.55</v>
@@ -27856,7 +27856,7 @@
         <v>1.14</v>
       </c>
       <c r="AP128">
-        <v>2.26</v>
+        <v>2.15</v>
       </c>
       <c r="AQ128">
         <v>0.65</v>
@@ -30743,7 +30743,7 @@
         <v>1.68</v>
       </c>
       <c r="AQ142">
-        <v>1.37</v>
+        <v>1.45</v>
       </c>
       <c r="AR142">
         <v>1.74</v>
@@ -31152,7 +31152,7 @@
         <v>1.5</v>
       </c>
       <c r="AP144">
-        <v>2.26</v>
+        <v>2.15</v>
       </c>
       <c r="AQ144">
         <v>1.26</v>
@@ -34036,7 +34036,7 @@
         <v>1</v>
       </c>
       <c r="AP158">
-        <v>2.26</v>
+        <v>2.15</v>
       </c>
       <c r="AQ158">
         <v>0.72</v>
@@ -34451,7 +34451,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ160">
-        <v>1.37</v>
+        <v>1.45</v>
       </c>
       <c r="AR160">
         <v>1.53</v>
@@ -37335,7 +37335,7 @@
         <v>1.26</v>
       </c>
       <c r="AQ174">
-        <v>1.37</v>
+        <v>1.45</v>
       </c>
       <c r="AR174">
         <v>1.48</v>
@@ -37950,7 +37950,7 @@
         <v>0.8</v>
       </c>
       <c r="AP177">
-        <v>2.26</v>
+        <v>2.15</v>
       </c>
       <c r="AQ177">
         <v>1.06</v>
@@ -40219,7 +40219,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ188">
-        <v>1.37</v>
+        <v>1.45</v>
       </c>
       <c r="AR188">
         <v>1.55</v>
@@ -41246,7 +41246,7 @@
         <v>1.45</v>
       </c>
       <c r="AP193">
-        <v>2.26</v>
+        <v>2.15</v>
       </c>
       <c r="AQ193">
         <v>1.47</v>
@@ -42482,7 +42482,7 @@
         <v>0.92</v>
       </c>
       <c r="AP199">
-        <v>2.26</v>
+        <v>2.15</v>
       </c>
       <c r="AQ199">
         <v>1.21</v>
@@ -43721,7 +43721,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ205">
-        <v>1.37</v>
+        <v>1.45</v>
       </c>
       <c r="AR205">
         <v>1.7</v>
@@ -45984,7 +45984,7 @@
         <v>0.54</v>
       </c>
       <c r="AP216">
-        <v>2.26</v>
+        <v>2.15</v>
       </c>
       <c r="AQ216">
         <v>0.58</v>
@@ -46811,7 +46811,7 @@
         <v>1.37</v>
       </c>
       <c r="AQ220">
-        <v>1.37</v>
+        <v>1.45</v>
       </c>
       <c r="AR220">
         <v>1.46</v>
@@ -48665,7 +48665,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ229">
-        <v>1.37</v>
+        <v>1.45</v>
       </c>
       <c r="AR229">
         <v>1.88</v>
@@ -49074,7 +49074,7 @@
         <v>1</v>
       </c>
       <c r="AP231">
-        <v>2.26</v>
+        <v>2.15</v>
       </c>
       <c r="AQ231">
         <v>1</v>
@@ -52370,7 +52370,7 @@
         <v>1.13</v>
       </c>
       <c r="AP247">
-        <v>2.26</v>
+        <v>2.15</v>
       </c>
       <c r="AQ247">
         <v>1.21</v>
@@ -53197,7 +53197,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ251">
-        <v>1.37</v>
+        <v>1.45</v>
       </c>
       <c r="AR251">
         <v>1.64</v>
@@ -55257,7 +55257,7 @@
         <v>1.68</v>
       </c>
       <c r="AQ261">
-        <v>1.37</v>
+        <v>1.45</v>
       </c>
       <c r="AR261">
         <v>1.82</v>
@@ -55666,7 +55666,7 @@
         <v>1.63</v>
       </c>
       <c r="AP263">
-        <v>2.26</v>
+        <v>2.15</v>
       </c>
       <c r="AQ263">
         <v>1.68</v>
@@ -58141,7 +58141,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ275">
-        <v>1.37</v>
+        <v>1.45</v>
       </c>
       <c r="AR275">
         <v>1.81</v>
@@ -58756,7 +58756,7 @@
         <v>1.44</v>
       </c>
       <c r="AP278">
-        <v>2.26</v>
+        <v>2.15</v>
       </c>
       <c r="AQ278">
         <v>1.2</v>
@@ -61025,7 +61025,7 @@
         <v>1.68</v>
       </c>
       <c r="AQ289">
-        <v>1.37</v>
+        <v>1.45</v>
       </c>
       <c r="AR289">
         <v>1.68</v>
@@ -61640,7 +61640,7 @@
         <v>1.56</v>
       </c>
       <c r="AP292">
-        <v>2.26</v>
+        <v>2.15</v>
       </c>
       <c r="AQ292">
         <v>1.47</v>
@@ -64603,6 +64603,212 @@
       </c>
       <c r="BP306">
         <v>1.25</v>
+      </c>
+    </row>
+    <row r="307" spans="1:68">
+      <c r="A307" s="1">
+        <v>306</v>
+      </c>
+      <c r="B307">
+        <v>7383663</v>
+      </c>
+      <c r="C307" t="s">
+        <v>68</v>
+      </c>
+      <c r="D307" t="s">
+        <v>69</v>
+      </c>
+      <c r="E307" s="2">
+        <v>45423.58333333334</v>
+      </c>
+      <c r="F307">
+        <v>9</v>
+      </c>
+      <c r="G307" t="s">
+        <v>81</v>
+      </c>
+      <c r="H307" t="s">
+        <v>73</v>
+      </c>
+      <c r="I307">
+        <v>0</v>
+      </c>
+      <c r="J307">
+        <v>0</v>
+      </c>
+      <c r="K307">
+        <v>0</v>
+      </c>
+      <c r="L307">
+        <v>0</v>
+      </c>
+      <c r="M307">
+        <v>1</v>
+      </c>
+      <c r="N307">
+        <v>1</v>
+      </c>
+      <c r="O307" t="s">
+        <v>87</v>
+      </c>
+      <c r="P307" t="s">
+        <v>383</v>
+      </c>
+      <c r="Q307">
+        <v>3.55</v>
+      </c>
+      <c r="R307">
+        <v>2.1</v>
+      </c>
+      <c r="S307">
+        <v>2.75</v>
+      </c>
+      <c r="T307">
+        <v>1.36</v>
+      </c>
+      <c r="U307">
+        <v>2.9</v>
+      </c>
+      <c r="V307">
+        <v>2.55</v>
+      </c>
+      <c r="W307">
+        <v>1.45</v>
+      </c>
+      <c r="X307">
+        <v>6.38</v>
+      </c>
+      <c r="Y307">
+        <v>1.08</v>
+      </c>
+      <c r="Z307">
+        <v>2.98</v>
+      </c>
+      <c r="AA307">
+        <v>3.25</v>
+      </c>
+      <c r="AB307">
+        <v>2.05</v>
+      </c>
+      <c r="AC307">
+        <v>1.05</v>
+      </c>
+      <c r="AD307">
+        <v>8.5</v>
+      </c>
+      <c r="AE307">
+        <v>1.25</v>
+      </c>
+      <c r="AF307">
+        <v>3.7</v>
+      </c>
+      <c r="AG307">
+        <v>1.69</v>
+      </c>
+      <c r="AH307">
+        <v>1.85</v>
+      </c>
+      <c r="AI307">
+        <v>1.57</v>
+      </c>
+      <c r="AJ307">
+        <v>2.15</v>
+      </c>
+      <c r="AK307">
+        <v>1.65</v>
+      </c>
+      <c r="AL307">
+        <v>1.25</v>
+      </c>
+      <c r="AM307">
+        <v>1.35</v>
+      </c>
+      <c r="AN307">
+        <v>2.26</v>
+      </c>
+      <c r="AO307">
+        <v>1.37</v>
+      </c>
+      <c r="AP307">
+        <v>2.15</v>
+      </c>
+      <c r="AQ307">
+        <v>1.45</v>
+      </c>
+      <c r="AR307">
+        <v>1.76</v>
+      </c>
+      <c r="AS307">
+        <v>1.69</v>
+      </c>
+      <c r="AT307">
+        <v>3.45</v>
+      </c>
+      <c r="AU307">
+        <v>6</v>
+      </c>
+      <c r="AV307">
+        <v>2</v>
+      </c>
+      <c r="AW307">
+        <v>5</v>
+      </c>
+      <c r="AX307">
+        <v>3</v>
+      </c>
+      <c r="AY307">
+        <v>11</v>
+      </c>
+      <c r="AZ307">
+        <v>5</v>
+      </c>
+      <c r="BA307">
+        <v>5</v>
+      </c>
+      <c r="BB307">
+        <v>3</v>
+      </c>
+      <c r="BC307">
+        <v>8</v>
+      </c>
+      <c r="BD307">
+        <v>2.16</v>
+      </c>
+      <c r="BE307">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="BF307">
+        <v>2.01</v>
+      </c>
+      <c r="BG307">
+        <v>1.17</v>
+      </c>
+      <c r="BH307">
+        <v>4.2</v>
+      </c>
+      <c r="BI307">
+        <v>1.33</v>
+      </c>
+      <c r="BJ307">
+        <v>2.93</v>
+      </c>
+      <c r="BK307">
+        <v>1.9</v>
+      </c>
+      <c r="BL307">
+        <v>1.9</v>
+      </c>
+      <c r="BM307">
+        <v>2.02</v>
+      </c>
+      <c r="BN307">
+        <v>1.77</v>
+      </c>
+      <c r="BO307">
+        <v>2.57</v>
+      </c>
+      <c r="BP307">
+        <v>1.42</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Romania Liga I_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Romania Liga I_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1904" uniqueCount="396">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1934" uniqueCount="400">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -841,6 +841,18 @@
     <t>['21', '39', '45+1']</t>
   </si>
   <si>
+    <t>['47']</t>
+  </si>
+  <si>
+    <t>['68', '69']</t>
+  </si>
+  <si>
+    <t>['12', '45']</t>
+  </si>
+  <si>
+    <t>['14', '18']</t>
+  </si>
+  <si>
     <t>['45+5']</t>
   </si>
   <si>
@@ -940,9 +952,6 @@
     <t>['58']</t>
   </si>
   <si>
-    <t>['47']</t>
-  </si>
-  <si>
     <t>['31', '47']</t>
   </si>
   <si>
@@ -968,9 +977,6 @@
   </si>
   <si>
     <t>['6', '39']</t>
-  </si>
-  <si>
-    <t>['12', '45']</t>
   </si>
   <si>
     <t>['57', '70', '90+1']</t>
@@ -1202,6 +1208,12 @@
   </si>
   <si>
     <t>['17', '63']</t>
+  </si>
+  <si>
+    <t>['55', '59', '82']</t>
+  </si>
+  <si>
+    <t>['18']</t>
   </si>
 </sst>
 </file>
@@ -1563,7 +1575,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP307"/>
+  <dimension ref="A1:BP312"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1822,7 +1834,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="Q2">
         <v>4</v>
@@ -1900,10 +1912,10 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>1.37</v>
+        <v>1.45</v>
       </c>
       <c r="AQ2">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -2234,7 +2246,7 @@
         <v>87</v>
       </c>
       <c r="P4" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="Q4">
         <v>3.75</v>
@@ -2646,7 +2658,7 @@
         <v>89</v>
       </c>
       <c r="P6" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="Q6">
         <v>3.5</v>
@@ -2727,7 +2739,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ6">
-        <v>1.33</v>
+        <v>1.42</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2852,7 +2864,7 @@
         <v>90</v>
       </c>
       <c r="P7" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="Q7">
         <v>5</v>
@@ -2930,7 +2942,7 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>1.33</v>
+        <v>1.26</v>
       </c>
       <c r="AQ7">
         <v>2</v>
@@ -3136,10 +3148,10 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AQ8">
-        <v>0.58</v>
+        <v>0.55</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -3264,7 +3276,7 @@
         <v>87</v>
       </c>
       <c r="P9" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="Q9">
         <v>5.5</v>
@@ -3342,7 +3354,7 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>1.28</v>
+        <v>1.37</v>
       </c>
       <c r="AQ9">
         <v>1.68</v>
@@ -3676,7 +3688,7 @@
         <v>93</v>
       </c>
       <c r="P11" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="Q11">
         <v>4.33</v>
@@ -4088,7 +4100,7 @@
         <v>95</v>
       </c>
       <c r="P13" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="Q13">
         <v>1.95</v>
@@ -4294,7 +4306,7 @@
         <v>96</v>
       </c>
       <c r="P14" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="Q14">
         <v>3.6</v>
@@ -4372,10 +4384,10 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>1.28</v>
+        <v>1.37</v>
       </c>
       <c r="AQ14">
-        <v>0.72</v>
+        <v>0.84</v>
       </c>
       <c r="AR14">
         <v>0</v>
@@ -4500,7 +4512,7 @@
         <v>87</v>
       </c>
       <c r="P15" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="Q15">
         <v>3.2</v>
@@ -4706,7 +4718,7 @@
         <v>97</v>
       </c>
       <c r="P16" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="Q16">
         <v>2.88</v>
@@ -4787,7 +4799,7 @@
         <v>1.26</v>
       </c>
       <c r="AQ16">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AR16">
         <v>0</v>
@@ -5118,7 +5130,7 @@
         <v>98</v>
       </c>
       <c r="P18" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="Q18">
         <v>3</v>
@@ -5196,10 +5208,10 @@
         <v>1</v>
       </c>
       <c r="AP18">
-        <v>1.33</v>
+        <v>1.26</v>
       </c>
       <c r="AQ18">
-        <v>1.33</v>
+        <v>1.42</v>
       </c>
       <c r="AR18">
         <v>1.24</v>
@@ -5324,7 +5336,7 @@
         <v>99</v>
       </c>
       <c r="P19" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="Q19">
         <v>2</v>
@@ -5405,7 +5417,7 @@
         <v>1.68</v>
       </c>
       <c r="AQ19">
-        <v>0.58</v>
+        <v>0.55</v>
       </c>
       <c r="AR19">
         <v>1.95</v>
@@ -5611,7 +5623,7 @@
         <v>1.9</v>
       </c>
       <c r="AQ20">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR20">
         <v>1.97</v>
@@ -5736,7 +5748,7 @@
         <v>87</v>
       </c>
       <c r="P21" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="Q21">
         <v>4.75</v>
@@ -5814,7 +5826,7 @@
         <v>3</v>
       </c>
       <c r="AP21">
-        <v>1.37</v>
+        <v>1.45</v>
       </c>
       <c r="AQ21">
         <v>2</v>
@@ -5942,7 +5954,7 @@
         <v>101</v>
       </c>
       <c r="P22" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="Q22">
         <v>2.15</v>
@@ -6354,7 +6366,7 @@
         <v>87</v>
       </c>
       <c r="P24" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="Q24">
         <v>3.25</v>
@@ -6560,7 +6572,7 @@
         <v>87</v>
       </c>
       <c r="P25" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="Q25">
         <v>4.33</v>
@@ -6638,7 +6650,7 @@
         <v>1</v>
       </c>
       <c r="AP25">
-        <v>1.28</v>
+        <v>1.37</v>
       </c>
       <c r="AQ25">
         <v>1.21</v>
@@ -7053,7 +7065,7 @@
         <v>1.68</v>
       </c>
       <c r="AQ27">
-        <v>0.72</v>
+        <v>0.84</v>
       </c>
       <c r="AR27">
         <v>1.96</v>
@@ -7178,7 +7190,7 @@
         <v>87</v>
       </c>
       <c r="P28" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="Q28">
         <v>3</v>
@@ -7384,7 +7396,7 @@
         <v>105</v>
       </c>
       <c r="P29" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="Q29">
         <v>2.55</v>
@@ -7590,7 +7602,7 @@
         <v>106</v>
       </c>
       <c r="P30" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="Q30">
         <v>3.5</v>
@@ -8286,7 +8298,7 @@
         <v>3</v>
       </c>
       <c r="AP33">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AQ33">
         <v>1.2</v>
@@ -8492,7 +8504,7 @@
         <v>1.5</v>
       </c>
       <c r="AP34">
-        <v>1.33</v>
+        <v>1.26</v>
       </c>
       <c r="AQ34">
         <v>0.95</v>
@@ -8698,10 +8710,10 @@
         <v>2</v>
       </c>
       <c r="AP35">
-        <v>1.37</v>
+        <v>1.45</v>
       </c>
       <c r="AQ35">
-        <v>1.33</v>
+        <v>1.42</v>
       </c>
       <c r="AR35">
         <v>1.34</v>
@@ -8826,7 +8838,7 @@
         <v>112</v>
       </c>
       <c r="P36" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="Q36">
         <v>4.9</v>
@@ -8904,7 +8916,7 @@
         <v>2</v>
       </c>
       <c r="AP36">
-        <v>1.28</v>
+        <v>1.37</v>
       </c>
       <c r="AQ36">
         <v>1.68</v>
@@ -9032,7 +9044,7 @@
         <v>87</v>
       </c>
       <c r="P37" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="Q37">
         <v>2.3</v>
@@ -9113,7 +9125,7 @@
         <v>1.68</v>
       </c>
       <c r="AQ37">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AR37">
         <v>1.84</v>
@@ -9316,10 +9328,10 @@
         <v>0.5</v>
       </c>
       <c r="AP38">
-        <v>1.28</v>
+        <v>1.37</v>
       </c>
       <c r="AQ38">
-        <v>0.58</v>
+        <v>0.55</v>
       </c>
       <c r="AR38">
         <v>1.58</v>
@@ -9444,7 +9456,7 @@
         <v>114</v>
       </c>
       <c r="P39" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="Q39">
         <v>3.05</v>
@@ -9731,7 +9743,7 @@
         <v>1.68</v>
       </c>
       <c r="AQ40">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR40">
         <v>1.82</v>
@@ -10062,7 +10074,7 @@
         <v>116</v>
       </c>
       <c r="P42" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="Q42">
         <v>2.6</v>
@@ -10140,7 +10152,7 @@
         <v>0.5</v>
       </c>
       <c r="AP42">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AQ42">
         <v>0.65</v>
@@ -10268,7 +10280,7 @@
         <v>117</v>
       </c>
       <c r="P43" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="Q43">
         <v>2.55</v>
@@ -10474,7 +10486,7 @@
         <v>118</v>
       </c>
       <c r="P44" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="Q44">
         <v>1.83</v>
@@ -10761,7 +10773,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ45">
-        <v>0.72</v>
+        <v>0.84</v>
       </c>
       <c r="AR45">
         <v>1.53</v>
@@ -10886,7 +10898,7 @@
         <v>119</v>
       </c>
       <c r="P46" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="Q46">
         <v>4.85</v>
@@ -11092,7 +11104,7 @@
         <v>120</v>
       </c>
       <c r="P47" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="Q47">
         <v>3.66</v>
@@ -11170,7 +11182,7 @@
         <v>1</v>
       </c>
       <c r="AP47">
-        <v>1.37</v>
+        <v>1.45</v>
       </c>
       <c r="AQ47">
         <v>0.95</v>
@@ -11298,7 +11310,7 @@
         <v>121</v>
       </c>
       <c r="P48" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="Q48">
         <v>3.4</v>
@@ -11376,7 +11388,7 @@
         <v>1.5</v>
       </c>
       <c r="AP48">
-        <v>1.33</v>
+        <v>1.26</v>
       </c>
       <c r="AQ48">
         <v>1.2</v>
@@ -11585,7 +11597,7 @@
         <v>2.11</v>
       </c>
       <c r="AQ49">
-        <v>0.58</v>
+        <v>0.55</v>
       </c>
       <c r="AR49">
         <v>1.63</v>
@@ -11788,10 +11800,10 @@
         <v>2</v>
       </c>
       <c r="AP50">
-        <v>1.28</v>
+        <v>1.37</v>
       </c>
       <c r="AQ50">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AR50">
         <v>1.61</v>
@@ -12122,7 +12134,7 @@
         <v>125</v>
       </c>
       <c r="P52" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="Q52">
         <v>3.1</v>
@@ -12203,7 +12215,7 @@
         <v>1.9</v>
       </c>
       <c r="AQ52">
-        <v>1.33</v>
+        <v>1.42</v>
       </c>
       <c r="AR52">
         <v>2.04</v>
@@ -12534,7 +12546,7 @@
         <v>127</v>
       </c>
       <c r="P54" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="Q54">
         <v>2.75</v>
@@ -12946,7 +12958,7 @@
         <v>93</v>
       </c>
       <c r="P56" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="Q56">
         <v>4.7</v>
@@ -13024,7 +13036,7 @@
         <v>2</v>
       </c>
       <c r="AP56">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AQ56">
         <v>1.45</v>
@@ -13436,7 +13448,7 @@
         <v>1</v>
       </c>
       <c r="AP58">
-        <v>1.33</v>
+        <v>1.26</v>
       </c>
       <c r="AQ58">
         <v>1.47</v>
@@ -13564,7 +13576,7 @@
         <v>87</v>
       </c>
       <c r="P59" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="Q59">
         <v>2.6</v>
@@ -13770,7 +13782,7 @@
         <v>131</v>
       </c>
       <c r="P60" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="Q60">
         <v>3.5</v>
@@ -13851,7 +13863,7 @@
         <v>1.26</v>
       </c>
       <c r="AQ60">
-        <v>0.72</v>
+        <v>0.84</v>
       </c>
       <c r="AR60">
         <v>1.32</v>
@@ -14057,7 +14069,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ61">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR61">
         <v>1.42</v>
@@ -14263,7 +14275,7 @@
         <v>1.9</v>
       </c>
       <c r="AQ62">
-        <v>1.33</v>
+        <v>1.42</v>
       </c>
       <c r="AR62">
         <v>1.12</v>
@@ -14466,7 +14478,7 @@
         <v>1</v>
       </c>
       <c r="AP63">
-        <v>1.28</v>
+        <v>1.37</v>
       </c>
       <c r="AQ63">
         <v>0.65</v>
@@ -14594,7 +14606,7 @@
         <v>133</v>
       </c>
       <c r="P64" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="Q64">
         <v>2.5</v>
@@ -15084,7 +15096,7 @@
         <v>2</v>
       </c>
       <c r="AP66">
-        <v>1.37</v>
+        <v>1.45</v>
       </c>
       <c r="AQ66">
         <v>1.2</v>
@@ -15212,7 +15224,7 @@
         <v>87</v>
       </c>
       <c r="P67" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="Q67">
         <v>3</v>
@@ -15418,7 +15430,7 @@
         <v>135</v>
       </c>
       <c r="P68" t="s">
-        <v>308</v>
+        <v>275</v>
       </c>
       <c r="Q68">
         <v>2.9</v>
@@ -15496,10 +15508,10 @@
         <v>0.25</v>
       </c>
       <c r="AP68">
-        <v>1.28</v>
+        <v>1.37</v>
       </c>
       <c r="AQ68">
-        <v>0.58</v>
+        <v>0.55</v>
       </c>
       <c r="AR68">
         <v>1.37</v>
@@ -15705,7 +15717,7 @@
         <v>2.11</v>
       </c>
       <c r="AQ69">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AR69">
         <v>1.58</v>
@@ -15830,7 +15842,7 @@
         <v>137</v>
       </c>
       <c r="P70" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="Q70">
         <v>4.33</v>
@@ -16036,7 +16048,7 @@
         <v>87</v>
       </c>
       <c r="P71" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="Q71">
         <v>2.57</v>
@@ -16114,7 +16126,7 @@
         <v>1</v>
       </c>
       <c r="AP71">
-        <v>1.33</v>
+        <v>1.26</v>
       </c>
       <c r="AQ71">
         <v>1.26</v>
@@ -16242,7 +16254,7 @@
         <v>87</v>
       </c>
       <c r="P72" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="Q72">
         <v>4.1</v>
@@ -16320,7 +16332,7 @@
         <v>0.75</v>
       </c>
       <c r="AP72">
-        <v>1.28</v>
+        <v>1.37</v>
       </c>
       <c r="AQ72">
         <v>1.47</v>
@@ -16448,7 +16460,7 @@
         <v>138</v>
       </c>
       <c r="P73" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="Q73">
         <v>2.7</v>
@@ -16526,7 +16538,7 @@
         <v>1.2</v>
       </c>
       <c r="AP73">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AQ73">
         <v>0.85</v>
@@ -16654,7 +16666,7 @@
         <v>139</v>
       </c>
       <c r="P74" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="Q74">
         <v>3.4</v>
@@ -16735,7 +16747,7 @@
         <v>1.26</v>
       </c>
       <c r="AQ74">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR74">
         <v>1.37</v>
@@ -17147,7 +17159,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ76">
-        <v>0.72</v>
+        <v>0.84</v>
       </c>
       <c r="AR76">
         <v>1.61</v>
@@ -17272,7 +17284,7 @@
         <v>141</v>
       </c>
       <c r="P77" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="Q77">
         <v>3.4</v>
@@ -17762,7 +17774,7 @@
         <v>1</v>
       </c>
       <c r="AP79">
-        <v>1.37</v>
+        <v>1.45</v>
       </c>
       <c r="AQ79">
         <v>0.65</v>
@@ -18096,7 +18108,7 @@
         <v>144</v>
       </c>
       <c r="P81" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="Q81">
         <v>2.86</v>
@@ -18383,7 +18395,7 @@
         <v>1.68</v>
       </c>
       <c r="AQ82">
-        <v>0.58</v>
+        <v>0.55</v>
       </c>
       <c r="AR82">
         <v>1.77</v>
@@ -18998,10 +19010,10 @@
         <v>1.25</v>
       </c>
       <c r="AP85">
-        <v>1.28</v>
+        <v>1.37</v>
       </c>
       <c r="AQ85">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AR85">
         <v>1.42</v>
@@ -19126,7 +19138,7 @@
         <v>148</v>
       </c>
       <c r="P86" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="Q86">
         <v>2.05</v>
@@ -19207,7 +19219,7 @@
         <v>2.15</v>
       </c>
       <c r="AQ86">
-        <v>1.33</v>
+        <v>1.42</v>
       </c>
       <c r="AR86">
         <v>1.72</v>
@@ -19616,10 +19628,10 @@
         <v>1.2</v>
       </c>
       <c r="AP88">
-        <v>1.33</v>
+        <v>1.26</v>
       </c>
       <c r="AQ88">
-        <v>0.72</v>
+        <v>0.84</v>
       </c>
       <c r="AR88">
         <v>1.68</v>
@@ -19744,7 +19756,7 @@
         <v>150</v>
       </c>
       <c r="P89" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="Q89">
         <v>2</v>
@@ -20031,7 +20043,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ90">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR90">
         <v>1.5</v>
@@ -20234,7 +20246,7 @@
         <v>1.33</v>
       </c>
       <c r="AP91">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AQ91">
         <v>1.68</v>
@@ -20568,7 +20580,7 @@
         <v>87</v>
       </c>
       <c r="P93" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="Q93">
         <v>3.5</v>
@@ -20646,7 +20658,7 @@
         <v>1.2</v>
       </c>
       <c r="AP93">
-        <v>1.37</v>
+        <v>1.45</v>
       </c>
       <c r="AQ93">
         <v>1.47</v>
@@ -20774,7 +20786,7 @@
         <v>151</v>
       </c>
       <c r="P94" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="Q94">
         <v>4.4</v>
@@ -20852,7 +20864,7 @@
         <v>1.8</v>
       </c>
       <c r="AP94">
-        <v>1.28</v>
+        <v>1.37</v>
       </c>
       <c r="AQ94">
         <v>1.45</v>
@@ -21264,7 +21276,7 @@
         <v>0.67</v>
       </c>
       <c r="AP96">
-        <v>1.28</v>
+        <v>1.37</v>
       </c>
       <c r="AQ96">
         <v>1.21</v>
@@ -21392,7 +21404,7 @@
         <v>154</v>
       </c>
       <c r="P97" t="s">
-        <v>318</v>
+        <v>277</v>
       </c>
       <c r="Q97">
         <v>3.7</v>
@@ -21885,7 +21897,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ99">
-        <v>1.33</v>
+        <v>1.42</v>
       </c>
       <c r="AR99">
         <v>1.97</v>
@@ -22088,7 +22100,7 @@
         <v>1.2</v>
       </c>
       <c r="AP100">
-        <v>1.28</v>
+        <v>1.37</v>
       </c>
       <c r="AQ100">
         <v>0.65</v>
@@ -22216,7 +22228,7 @@
         <v>90</v>
       </c>
       <c r="P101" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="Q101">
         <v>1.98</v>
@@ -22297,7 +22309,7 @@
         <v>1.68</v>
       </c>
       <c r="AQ101">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AR101">
         <v>2</v>
@@ -22628,7 +22640,7 @@
         <v>157</v>
       </c>
       <c r="P103" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="Q103">
         <v>2.15</v>
@@ -22709,7 +22721,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ103">
-        <v>0.58</v>
+        <v>0.55</v>
       </c>
       <c r="AR103">
         <v>1.45</v>
@@ -23040,7 +23052,7 @@
         <v>158</v>
       </c>
       <c r="P105" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="Q105">
         <v>2.15</v>
@@ -23121,7 +23133,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ105">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR105">
         <v>1.87</v>
@@ -23246,7 +23258,7 @@
         <v>87</v>
       </c>
       <c r="P106" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="Q106">
         <v>3.85</v>
@@ -23324,7 +23336,7 @@
         <v>0.57</v>
       </c>
       <c r="AP106">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AQ106">
         <v>1.21</v>
@@ -23530,7 +23542,7 @@
         <v>1.29</v>
       </c>
       <c r="AP107">
-        <v>1.28</v>
+        <v>1.37</v>
       </c>
       <c r="AQ107">
         <v>0.85</v>
@@ -23736,10 +23748,10 @@
         <v>1.17</v>
       </c>
       <c r="AP108">
-        <v>1.37</v>
+        <v>1.45</v>
       </c>
       <c r="AQ108">
-        <v>0.72</v>
+        <v>0.84</v>
       </c>
       <c r="AR108">
         <v>1.41</v>
@@ -23864,7 +23876,7 @@
         <v>160</v>
       </c>
       <c r="P109" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="Q109">
         <v>4.1</v>
@@ -24070,7 +24082,7 @@
         <v>161</v>
       </c>
       <c r="P110" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="Q110">
         <v>2.6</v>
@@ -24148,10 +24160,10 @@
         <v>0.57</v>
       </c>
       <c r="AP110">
-        <v>1.33</v>
+        <v>1.26</v>
       </c>
       <c r="AQ110">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR110">
         <v>1.63</v>
@@ -24482,7 +24494,7 @@
         <v>87</v>
       </c>
       <c r="P112" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="Q112">
         <v>3.6</v>
@@ -24563,7 +24575,7 @@
         <v>1.26</v>
       </c>
       <c r="AQ112">
-        <v>1.33</v>
+        <v>1.42</v>
       </c>
       <c r="AR112">
         <v>1.54</v>
@@ -24688,7 +24700,7 @@
         <v>163</v>
       </c>
       <c r="P113" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="Q113">
         <v>2.5</v>
@@ -24894,7 +24906,7 @@
         <v>164</v>
       </c>
       <c r="P114" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="Q114">
         <v>3.25</v>
@@ -24972,7 +24984,7 @@
         <v>1.33</v>
       </c>
       <c r="AP114">
-        <v>1.28</v>
+        <v>1.37</v>
       </c>
       <c r="AQ114">
         <v>1.26</v>
@@ -25181,7 +25193,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ115">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AR115">
         <v>1.6</v>
@@ -25512,7 +25524,7 @@
         <v>136</v>
       </c>
       <c r="P117" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="Q117">
         <v>2.68</v>
@@ -25799,7 +25811,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ118">
-        <v>0.58</v>
+        <v>0.55</v>
       </c>
       <c r="AR118">
         <v>1.89</v>
@@ -25924,7 +25936,7 @@
         <v>156</v>
       </c>
       <c r="P119" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="Q119">
         <v>5</v>
@@ -26829,7 +26841,7 @@
         <v>1.35</v>
       </c>
       <c r="AQ123">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AR123">
         <v>1.65</v>
@@ -26954,7 +26966,7 @@
         <v>168</v>
       </c>
       <c r="P124" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="Q124">
         <v>5.15</v>
@@ -27032,7 +27044,7 @@
         <v>1.43</v>
       </c>
       <c r="AP124">
-        <v>1.28</v>
+        <v>1.37</v>
       </c>
       <c r="AQ124">
         <v>1.45</v>
@@ -27241,7 +27253,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ125">
-        <v>0.72</v>
+        <v>0.84</v>
       </c>
       <c r="AR125">
         <v>1.94</v>
@@ -27366,7 +27378,7 @@
         <v>169</v>
       </c>
       <c r="P126" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="Q126">
         <v>3.25</v>
@@ -27984,7 +27996,7 @@
         <v>172</v>
       </c>
       <c r="P129" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="Q129">
         <v>3.1</v>
@@ -28477,7 +28489,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ131">
-        <v>0.58</v>
+        <v>0.55</v>
       </c>
       <c r="AR131">
         <v>1.51</v>
@@ -28602,7 +28614,7 @@
         <v>174</v>
       </c>
       <c r="P132" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="Q132">
         <v>3.98</v>
@@ -28680,7 +28692,7 @@
         <v>1.29</v>
       </c>
       <c r="AP132">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AQ132">
         <v>1.47</v>
@@ -28889,7 +28901,7 @@
         <v>2.11</v>
       </c>
       <c r="AQ133">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR133">
         <v>1.69</v>
@@ -29014,7 +29026,7 @@
         <v>175</v>
       </c>
       <c r="P134" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="Q134">
         <v>4</v>
@@ -29092,7 +29104,7 @@
         <v>1.13</v>
       </c>
       <c r="AP134">
-        <v>1.37</v>
+        <v>1.45</v>
       </c>
       <c r="AQ134">
         <v>1.68</v>
@@ -29220,7 +29232,7 @@
         <v>87</v>
       </c>
       <c r="P135" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="Q135">
         <v>7</v>
@@ -29298,7 +29310,7 @@
         <v>2.13</v>
       </c>
       <c r="AP135">
-        <v>1.28</v>
+        <v>1.37</v>
       </c>
       <c r="AQ135">
         <v>2</v>
@@ -29504,7 +29516,7 @@
         <v>0.88</v>
       </c>
       <c r="AP136">
-        <v>1.33</v>
+        <v>1.26</v>
       </c>
       <c r="AQ136">
         <v>1.21</v>
@@ -29632,7 +29644,7 @@
         <v>177</v>
       </c>
       <c r="P137" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="Q137">
         <v>2.39</v>
@@ -29713,7 +29725,7 @@
         <v>1.68</v>
       </c>
       <c r="AQ137">
-        <v>1.33</v>
+        <v>1.42</v>
       </c>
       <c r="AR137">
         <v>1.86</v>
@@ -29916,10 +29928,10 @@
         <v>1.38</v>
       </c>
       <c r="AP138">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AQ138">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AR138">
         <v>1.37</v>
@@ -30044,7 +30056,7 @@
         <v>178</v>
       </c>
       <c r="P139" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="Q139">
         <v>3.94</v>
@@ -30122,7 +30134,7 @@
         <v>1.13</v>
       </c>
       <c r="AP139">
-        <v>1.28</v>
+        <v>1.37</v>
       </c>
       <c r="AQ139">
         <v>1.47</v>
@@ -30331,7 +30343,7 @@
         <v>1.9</v>
       </c>
       <c r="AQ140">
-        <v>0.72</v>
+        <v>0.84</v>
       </c>
       <c r="AR140">
         <v>1.36</v>
@@ -31074,7 +31086,7 @@
         <v>87</v>
       </c>
       <c r="P144" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="Q144">
         <v>1.98</v>
@@ -31564,10 +31576,10 @@
         <v>0.89</v>
       </c>
       <c r="AP146">
-        <v>1.28</v>
+        <v>1.37</v>
       </c>
       <c r="AQ146">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR146">
         <v>1.59</v>
@@ -31692,7 +31704,7 @@
         <v>152</v>
       </c>
       <c r="P147" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="Q147">
         <v>2.27</v>
@@ -31898,7 +31910,7 @@
         <v>184</v>
       </c>
       <c r="P148" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="Q148">
         <v>3.5</v>
@@ -32185,7 +32197,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ149">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AR149">
         <v>1.9</v>
@@ -32594,10 +32606,10 @@
         <v>0.33</v>
       </c>
       <c r="AP151">
-        <v>1.33</v>
+        <v>1.26</v>
       </c>
       <c r="AQ151">
-        <v>0.58</v>
+        <v>0.55</v>
       </c>
       <c r="AR151">
         <v>1.71</v>
@@ -32800,10 +32812,10 @@
         <v>1.89</v>
       </c>
       <c r="AP152">
-        <v>1.28</v>
+        <v>1.37</v>
       </c>
       <c r="AQ152">
-        <v>1.33</v>
+        <v>1.42</v>
       </c>
       <c r="AR152">
         <v>1.41</v>
@@ -32928,7 +32940,7 @@
         <v>188</v>
       </c>
       <c r="P153" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="Q153">
         <v>3.25</v>
@@ -33006,7 +33018,7 @@
         <v>0.78</v>
       </c>
       <c r="AP153">
-        <v>1.37</v>
+        <v>1.45</v>
       </c>
       <c r="AQ153">
         <v>1.21</v>
@@ -33212,7 +33224,7 @@
         <v>0.89</v>
       </c>
       <c r="AP154">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AQ154">
         <v>0.65</v>
@@ -33752,7 +33764,7 @@
         <v>189</v>
       </c>
       <c r="P157" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="Q157">
         <v>1.95</v>
@@ -34039,7 +34051,7 @@
         <v>2.15</v>
       </c>
       <c r="AQ158">
-        <v>0.72</v>
+        <v>0.84</v>
       </c>
       <c r="AR158">
         <v>1.76</v>
@@ -34576,7 +34588,7 @@
         <v>87</v>
       </c>
       <c r="P161" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="Q161">
         <v>3.25</v>
@@ -34860,10 +34872,10 @@
         <v>1.2</v>
       </c>
       <c r="AP162">
-        <v>1.33</v>
+        <v>1.26</v>
       </c>
       <c r="AQ162">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AR162">
         <v>1.68</v>
@@ -34988,7 +35000,7 @@
         <v>138</v>
       </c>
       <c r="P163" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="Q163">
         <v>4.7</v>
@@ -35066,7 +35078,7 @@
         <v>2.1</v>
       </c>
       <c r="AP163">
-        <v>1.28</v>
+        <v>1.37</v>
       </c>
       <c r="AQ163">
         <v>2</v>
@@ -35194,7 +35206,7 @@
         <v>193</v>
       </c>
       <c r="P164" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="Q164">
         <v>3.75</v>
@@ -35893,7 +35905,7 @@
         <v>2.11</v>
       </c>
       <c r="AQ167">
-        <v>1.33</v>
+        <v>1.42</v>
       </c>
       <c r="AR167">
         <v>1.8</v>
@@ -36018,7 +36030,7 @@
         <v>87</v>
       </c>
       <c r="P168" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="Q168">
         <v>2.55</v>
@@ -36096,10 +36108,10 @@
         <v>0.3</v>
       </c>
       <c r="AP168">
-        <v>1.37</v>
+        <v>1.45</v>
       </c>
       <c r="AQ168">
-        <v>0.58</v>
+        <v>0.55</v>
       </c>
       <c r="AR168">
         <v>1.49</v>
@@ -36302,7 +36314,7 @@
         <v>1.3</v>
       </c>
       <c r="AP169">
-        <v>1.28</v>
+        <v>1.37</v>
       </c>
       <c r="AQ169">
         <v>0.95</v>
@@ -36636,7 +36648,7 @@
         <v>197</v>
       </c>
       <c r="P171" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="Q171">
         <v>2.4</v>
@@ -36923,7 +36935,7 @@
         <v>1.35</v>
       </c>
       <c r="AQ172">
-        <v>0.72</v>
+        <v>0.84</v>
       </c>
       <c r="AR172">
         <v>1.66</v>
@@ -37460,7 +37472,7 @@
         <v>201</v>
       </c>
       <c r="P175" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="Q175">
         <v>2.48</v>
@@ -37744,7 +37756,7 @@
         <v>1.8</v>
       </c>
       <c r="AP176">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AQ176">
         <v>1.26</v>
@@ -37953,7 +37965,7 @@
         <v>2.15</v>
       </c>
       <c r="AQ177">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR177">
         <v>1.81</v>
@@ -38284,7 +38296,7 @@
         <v>204</v>
       </c>
       <c r="P179" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="Q179">
         <v>3.6</v>
@@ -38568,10 +38580,10 @@
         <v>1.09</v>
       </c>
       <c r="AP180">
-        <v>1.37</v>
+        <v>1.45</v>
       </c>
       <c r="AQ180">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AR180">
         <v>1.43</v>
@@ -38696,7 +38708,7 @@
         <v>205</v>
       </c>
       <c r="P181" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="Q181">
         <v>4</v>
@@ -38774,7 +38786,7 @@
         <v>1.45</v>
       </c>
       <c r="AP181">
-        <v>1.28</v>
+        <v>1.37</v>
       </c>
       <c r="AQ181">
         <v>1.2</v>
@@ -38983,7 +38995,7 @@
         <v>1.9</v>
       </c>
       <c r="AQ182">
-        <v>0.58</v>
+        <v>0.55</v>
       </c>
       <c r="AR182">
         <v>1.59</v>
@@ -39186,10 +39198,10 @@
         <v>1.82</v>
       </c>
       <c r="AP183">
-        <v>1.28</v>
+        <v>1.37</v>
       </c>
       <c r="AQ183">
-        <v>1.33</v>
+        <v>1.42</v>
       </c>
       <c r="AR183">
         <v>1.67</v>
@@ -39314,7 +39326,7 @@
         <v>87</v>
       </c>
       <c r="P184" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="Q184">
         <v>3.2</v>
@@ -39520,7 +39532,7 @@
         <v>208</v>
       </c>
       <c r="P185" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="Q185">
         <v>1.95</v>
@@ -39726,7 +39738,7 @@
         <v>209</v>
       </c>
       <c r="P186" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="Q186">
         <v>3.15</v>
@@ -40010,7 +40022,7 @@
         <v>0.64</v>
       </c>
       <c r="AP187">
-        <v>1.33</v>
+        <v>1.26</v>
       </c>
       <c r="AQ187">
         <v>0.65</v>
@@ -40138,7 +40150,7 @@
         <v>211</v>
       </c>
       <c r="P188" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="Q188">
         <v>3.8</v>
@@ -40550,7 +40562,7 @@
         <v>213</v>
       </c>
       <c r="P190" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="Q190">
         <v>2.5</v>
@@ -40631,7 +40643,7 @@
         <v>1.35</v>
       </c>
       <c r="AQ190">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR190">
         <v>1.65</v>
@@ -40756,7 +40768,7 @@
         <v>214</v>
       </c>
       <c r="P191" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="Q191">
         <v>3.2</v>
@@ -41040,10 +41052,10 @@
         <v>0.82</v>
       </c>
       <c r="AP192">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AQ192">
-        <v>0.72</v>
+        <v>0.84</v>
       </c>
       <c r="AR192">
         <v>1.36</v>
@@ -41452,7 +41464,7 @@
         <v>0.92</v>
       </c>
       <c r="AP194">
-        <v>1.37</v>
+        <v>1.45</v>
       </c>
       <c r="AQ194">
         <v>0.65</v>
@@ -41580,7 +41592,7 @@
         <v>216</v>
       </c>
       <c r="P195" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="Q195">
         <v>2.4</v>
@@ -41661,7 +41673,7 @@
         <v>1.68</v>
       </c>
       <c r="AQ195">
-        <v>1.33</v>
+        <v>1.42</v>
       </c>
       <c r="AR195">
         <v>1.72</v>
@@ -41864,7 +41876,7 @@
         <v>1.08</v>
       </c>
       <c r="AP196">
-        <v>1.28</v>
+        <v>1.37</v>
       </c>
       <c r="AQ196">
         <v>0.95</v>
@@ -42279,7 +42291,7 @@
         <v>1.9</v>
       </c>
       <c r="AQ198">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AR198">
         <v>1.61</v>
@@ -42610,7 +42622,7 @@
         <v>217</v>
       </c>
       <c r="P200" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="Q200">
         <v>2.7</v>
@@ -42691,7 +42703,7 @@
         <v>1.9</v>
       </c>
       <c r="AQ200">
-        <v>0.58</v>
+        <v>0.55</v>
       </c>
       <c r="AR200">
         <v>1.45</v>
@@ -42816,7 +42828,7 @@
         <v>87</v>
       </c>
       <c r="P201" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="Q201">
         <v>2.09</v>
@@ -43309,7 +43321,7 @@
         <v>1.68</v>
       </c>
       <c r="AQ203">
-        <v>0.72</v>
+        <v>0.84</v>
       </c>
       <c r="AR203">
         <v>1.85</v>
@@ -43512,10 +43524,10 @@
         <v>0.92</v>
       </c>
       <c r="AP204">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AQ204">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR204">
         <v>1.38</v>
@@ -43640,7 +43652,7 @@
         <v>220</v>
       </c>
       <c r="P205" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="Q205">
         <v>3.5</v>
@@ -43718,7 +43730,7 @@
         <v>1.17</v>
       </c>
       <c r="AP205">
-        <v>1.33</v>
+        <v>1.26</v>
       </c>
       <c r="AQ205">
         <v>1.45</v>
@@ -43846,7 +43858,7 @@
         <v>221</v>
       </c>
       <c r="P206" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="Q206">
         <v>4.2</v>
@@ -44052,7 +44064,7 @@
         <v>222</v>
       </c>
       <c r="P207" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="Q207">
         <v>3.6</v>
@@ -44130,7 +44142,7 @@
         <v>1.58</v>
       </c>
       <c r="AP207">
-        <v>1.28</v>
+        <v>1.37</v>
       </c>
       <c r="AQ207">
         <v>1.26</v>
@@ -45163,7 +45175,7 @@
         <v>1.9</v>
       </c>
       <c r="AQ212">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AR212">
         <v>1.46</v>
@@ -45494,7 +45506,7 @@
         <v>224</v>
       </c>
       <c r="P214" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="Q214">
         <v>4.55</v>
@@ -45572,7 +45584,7 @@
         <v>1.69</v>
       </c>
       <c r="AP214">
-        <v>1.28</v>
+        <v>1.37</v>
       </c>
       <c r="AQ214">
         <v>1.2</v>
@@ -45781,7 +45793,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ215">
-        <v>1.33</v>
+        <v>1.42</v>
       </c>
       <c r="AR215">
         <v>1.62</v>
@@ -45906,7 +45918,7 @@
         <v>225</v>
       </c>
       <c r="P216" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="Q216">
         <v>1.75</v>
@@ -45987,7 +45999,7 @@
         <v>2.15</v>
       </c>
       <c r="AQ216">
-        <v>0.58</v>
+        <v>0.55</v>
       </c>
       <c r="AR216">
         <v>1.77</v>
@@ -46112,7 +46124,7 @@
         <v>226</v>
       </c>
       <c r="P217" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="Q217">
         <v>2.05</v>
@@ -46396,7 +46408,7 @@
         <v>0.92</v>
       </c>
       <c r="AP218">
-        <v>1.33</v>
+        <v>1.26</v>
       </c>
       <c r="AQ218">
         <v>0.85</v>
@@ -46602,10 +46614,10 @@
         <v>0.77</v>
       </c>
       <c r="AP219">
-        <v>1.28</v>
+        <v>1.37</v>
       </c>
       <c r="AQ219">
-        <v>0.72</v>
+        <v>0.84</v>
       </c>
       <c r="AR219">
         <v>1.47</v>
@@ -46730,7 +46742,7 @@
         <v>229</v>
       </c>
       <c r="P220" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="Q220">
         <v>5.25</v>
@@ -46808,7 +46820,7 @@
         <v>1.31</v>
       </c>
       <c r="AP220">
-        <v>1.37</v>
+        <v>1.45</v>
       </c>
       <c r="AQ220">
         <v>1.45</v>
@@ -47223,7 +47235,7 @@
         <v>1.68</v>
       </c>
       <c r="AQ222">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR222">
         <v>1.85</v>
@@ -47348,7 +47360,7 @@
         <v>183</v>
       </c>
       <c r="P223" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="Q223">
         <v>4.5</v>
@@ -47554,7 +47566,7 @@
         <v>231</v>
       </c>
       <c r="P224" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="Q224">
         <v>3.75</v>
@@ -47760,7 +47772,7 @@
         <v>104</v>
       </c>
       <c r="P225" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="Q225">
         <v>4.75</v>
@@ -47838,7 +47850,7 @@
         <v>2.15</v>
       </c>
       <c r="AP225">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AQ225">
         <v>2</v>
@@ -48044,7 +48056,7 @@
         <v>0.71</v>
       </c>
       <c r="AP226">
-        <v>1.28</v>
+        <v>1.37</v>
       </c>
       <c r="AQ226">
         <v>0.65</v>
@@ -48172,7 +48184,7 @@
         <v>232</v>
       </c>
       <c r="P227" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="Q227">
         <v>2.99</v>
@@ -48871,7 +48883,7 @@
         <v>1.35</v>
       </c>
       <c r="AQ230">
-        <v>0.58</v>
+        <v>0.55</v>
       </c>
       <c r="AR230">
         <v>1.61</v>
@@ -49077,7 +49089,7 @@
         <v>2.15</v>
       </c>
       <c r="AQ231">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AR231">
         <v>1.78</v>
@@ -49408,7 +49420,7 @@
         <v>89</v>
       </c>
       <c r="P233" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="Q233">
         <v>3</v>
@@ -49695,7 +49707,7 @@
         <v>2.11</v>
       </c>
       <c r="AQ234">
-        <v>0.72</v>
+        <v>0.84</v>
       </c>
       <c r="AR234">
         <v>1.85</v>
@@ -49898,10 +49910,10 @@
         <v>1.57</v>
       </c>
       <c r="AP235">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AQ235">
-        <v>1.33</v>
+        <v>1.42</v>
       </c>
       <c r="AR235">
         <v>1.37</v>
@@ -50104,10 +50116,10 @@
         <v>1</v>
       </c>
       <c r="AP236">
-        <v>1.28</v>
+        <v>1.37</v>
       </c>
       <c r="AQ236">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR236">
         <v>1.43</v>
@@ -50438,7 +50450,7 @@
         <v>237</v>
       </c>
       <c r="P238" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="Q238">
         <v>3.5</v>
@@ -50850,7 +50862,7 @@
         <v>213</v>
       </c>
       <c r="P240" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="Q240">
         <v>3.6</v>
@@ -50928,7 +50940,7 @@
         <v>1.43</v>
       </c>
       <c r="AP240">
-        <v>1.33</v>
+        <v>1.26</v>
       </c>
       <c r="AQ240">
         <v>1.68</v>
@@ -51134,7 +51146,7 @@
         <v>0.93</v>
       </c>
       <c r="AP241">
-        <v>1.37</v>
+        <v>1.45</v>
       </c>
       <c r="AQ241">
         <v>0.85</v>
@@ -51343,7 +51355,7 @@
         <v>1.35</v>
       </c>
       <c r="AQ242">
-        <v>0.58</v>
+        <v>0.55</v>
       </c>
       <c r="AR242">
         <v>1.56</v>
@@ -51468,7 +51480,7 @@
         <v>108</v>
       </c>
       <c r="P243" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="Q243">
         <v>2.3</v>
@@ -51752,7 +51764,7 @@
         <v>0.93</v>
       </c>
       <c r="AP244">
-        <v>1.37</v>
+        <v>1.45</v>
       </c>
       <c r="AQ244">
         <v>0.85</v>
@@ -51880,7 +51892,7 @@
         <v>156</v>
       </c>
       <c r="P245" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="Q245">
         <v>2.65</v>
@@ -52498,7 +52510,7 @@
         <v>243</v>
       </c>
       <c r="P248" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="Q248">
         <v>2.53</v>
@@ -52988,10 +53000,10 @@
         <v>0.67</v>
       </c>
       <c r="AP250">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AQ250">
-        <v>0.72</v>
+        <v>0.84</v>
       </c>
       <c r="AR250">
         <v>1.34</v>
@@ -53609,7 +53621,7 @@
         <v>1.35</v>
       </c>
       <c r="AQ253">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR253">
         <v>1.55</v>
@@ -53940,7 +53952,7 @@
         <v>102</v>
       </c>
       <c r="P255" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="Q255">
         <v>2.95</v>
@@ -54018,7 +54030,7 @@
         <v>1.33</v>
       </c>
       <c r="AP255">
-        <v>1.33</v>
+        <v>1.26</v>
       </c>
       <c r="AQ255">
         <v>1.26</v>
@@ -54352,7 +54364,7 @@
         <v>102</v>
       </c>
       <c r="P257" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="Q257">
         <v>3.1</v>
@@ -54430,10 +54442,10 @@
         <v>0.93</v>
       </c>
       <c r="AP257">
-        <v>1.28</v>
+        <v>1.37</v>
       </c>
       <c r="AQ257">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AR257">
         <v>1.41</v>
@@ -54639,7 +54651,7 @@
         <v>1.9</v>
       </c>
       <c r="AQ258">
-        <v>0.58</v>
+        <v>0.55</v>
       </c>
       <c r="AR258">
         <v>1.48</v>
@@ -54970,7 +54982,7 @@
         <v>87</v>
       </c>
       <c r="P260" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="Q260">
         <v>2.9</v>
@@ -55176,7 +55188,7 @@
         <v>247</v>
       </c>
       <c r="P261" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="Q261">
         <v>2.8</v>
@@ -55382,7 +55394,7 @@
         <v>164</v>
       </c>
       <c r="P262" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="Q262">
         <v>3.12</v>
@@ -55463,7 +55475,7 @@
         <v>1.9</v>
       </c>
       <c r="AQ262">
-        <v>1.33</v>
+        <v>1.42</v>
       </c>
       <c r="AR262">
         <v>1.59</v>
@@ -55872,7 +55884,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AP264">
-        <v>1.28</v>
+        <v>1.37</v>
       </c>
       <c r="AQ264">
         <v>0.65</v>
@@ -56078,7 +56090,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AP265">
-        <v>1.37</v>
+        <v>1.45</v>
       </c>
       <c r="AQ265">
         <v>0.65</v>
@@ -56206,7 +56218,7 @@
         <v>249</v>
       </c>
       <c r="P266" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="Q266">
         <v>3.05</v>
@@ -56287,7 +56299,7 @@
         <v>1.9</v>
       </c>
       <c r="AQ266">
-        <v>0.72</v>
+        <v>0.84</v>
       </c>
       <c r="AR266">
         <v>1.49</v>
@@ -56412,7 +56424,7 @@
         <v>250</v>
       </c>
       <c r="P267" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="Q267">
         <v>2.5</v>
@@ -56618,7 +56630,7 @@
         <v>175</v>
       </c>
       <c r="P268" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="Q268">
         <v>3.55</v>
@@ -56696,7 +56708,7 @@
         <v>1.44</v>
       </c>
       <c r="AP268">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AQ268">
         <v>1.26</v>
@@ -56824,7 +56836,7 @@
         <v>146</v>
       </c>
       <c r="P269" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="Q269">
         <v>2.49</v>
@@ -56905,7 +56917,7 @@
         <v>1.35</v>
       </c>
       <c r="AQ269">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AR269">
         <v>1.52</v>
@@ -57314,7 +57326,7 @@
         <v>0.82</v>
       </c>
       <c r="AP271">
-        <v>1.28</v>
+        <v>1.37</v>
       </c>
       <c r="AQ271">
         <v>0.85</v>
@@ -57935,7 +57947,7 @@
         <v>1.9</v>
       </c>
       <c r="AQ274">
-        <v>0.58</v>
+        <v>0.55</v>
       </c>
       <c r="AR274">
         <v>1.54</v>
@@ -58060,7 +58072,7 @@
         <v>253</v>
       </c>
       <c r="P275" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="Q275">
         <v>3.8</v>
@@ -58266,7 +58278,7 @@
         <v>254</v>
       </c>
       <c r="P276" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="Q276">
         <v>3</v>
@@ -58344,7 +58356,7 @@
         <v>1</v>
       </c>
       <c r="AP276">
-        <v>1.28</v>
+        <v>1.37</v>
       </c>
       <c r="AQ276">
         <v>0.95</v>
@@ -58472,7 +58484,7 @@
         <v>180</v>
       </c>
       <c r="P277" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="Q277">
         <v>2.85</v>
@@ -58550,7 +58562,7 @@
         <v>0.65</v>
       </c>
       <c r="AP277">
-        <v>1.33</v>
+        <v>1.26</v>
       </c>
       <c r="AQ277">
         <v>0.65</v>
@@ -58678,7 +58690,7 @@
         <v>255</v>
       </c>
       <c r="P278" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="Q278">
         <v>2.5</v>
@@ -58962,10 +58974,10 @@
         <v>1.5</v>
       </c>
       <c r="AP279">
-        <v>1.37</v>
+        <v>1.45</v>
       </c>
       <c r="AQ279">
-        <v>1.33</v>
+        <v>1.42</v>
       </c>
       <c r="AR279">
         <v>1.47</v>
@@ -59090,7 +59102,7 @@
         <v>220</v>
       </c>
       <c r="P280" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="Q280">
         <v>3.1</v>
@@ -59296,7 +59308,7 @@
         <v>256</v>
       </c>
       <c r="P281" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="Q281">
         <v>3</v>
@@ -59377,7 +59389,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ281">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR281">
         <v>1.54</v>
@@ -59580,7 +59592,7 @@
         <v>0.67</v>
       </c>
       <c r="AP282">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AQ282">
         <v>0.65</v>
@@ -59708,7 +59720,7 @@
         <v>257</v>
       </c>
       <c r="P283" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="Q283">
         <v>3.35</v>
@@ -60326,7 +60338,7 @@
         <v>260</v>
       </c>
       <c r="P286" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="Q286">
         <v>4.1</v>
@@ -60532,7 +60544,7 @@
         <v>261</v>
       </c>
       <c r="P287" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="Q287">
         <v>3.1</v>
@@ -60819,7 +60831,7 @@
         <v>1.9</v>
       </c>
       <c r="AQ288">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AR288">
         <v>1.52</v>
@@ -61228,7 +61240,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AP290">
-        <v>1.28</v>
+        <v>1.37</v>
       </c>
       <c r="AQ290">
         <v>0.95</v>
@@ -61356,7 +61368,7 @@
         <v>264</v>
       </c>
       <c r="P291" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="Q291">
         <v>3</v>
@@ -61434,10 +61446,10 @@
         <v>1.41</v>
       </c>
       <c r="AP291">
-        <v>1.33</v>
+        <v>1.26</v>
       </c>
       <c r="AQ291">
-        <v>1.33</v>
+        <v>1.42</v>
       </c>
       <c r="AR291">
         <v>1.56</v>
@@ -61562,7 +61574,7 @@
         <v>265</v>
       </c>
       <c r="P292" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="Q292">
         <v>2.55</v>
@@ -61846,10 +61858,10 @@
         <v>0.76</v>
       </c>
       <c r="AP293">
-        <v>1.37</v>
+        <v>1.45</v>
       </c>
       <c r="AQ293">
-        <v>0.72</v>
+        <v>0.84</v>
       </c>
       <c r="AR293">
         <v>1.44</v>
@@ -61974,7 +61986,7 @@
         <v>87</v>
       </c>
       <c r="P294" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="Q294">
         <v>3.2</v>
@@ -62052,10 +62064,10 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AP294">
-        <v>1.28</v>
+        <v>1.37</v>
       </c>
       <c r="AQ294">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR294">
         <v>1.6</v>
@@ -62386,7 +62398,7 @@
         <v>136</v>
       </c>
       <c r="P296" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="Q296">
         <v>2.58</v>
@@ -62467,7 +62479,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ296">
-        <v>0.58</v>
+        <v>0.55</v>
       </c>
       <c r="AR296">
         <v>1.52</v>
@@ -62592,7 +62604,7 @@
         <v>268</v>
       </c>
       <c r="P297" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="Q297">
         <v>2.75</v>
@@ -62798,7 +62810,7 @@
         <v>132</v>
       </c>
       <c r="P298" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="Q298">
         <v>2.38</v>
@@ -63210,7 +63222,7 @@
         <v>269</v>
       </c>
       <c r="P300" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="Q300">
         <v>3.39</v>
@@ -63622,7 +63634,7 @@
         <v>271</v>
       </c>
       <c r="P302" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="Q302">
         <v>1.84</v>
@@ -64446,7 +64458,7 @@
         <v>274</v>
       </c>
       <c r="P306" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="Q306">
         <v>3</v>
@@ -64652,7 +64664,7 @@
         <v>87</v>
       </c>
       <c r="P307" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="Q307">
         <v>3.55</v>
@@ -64809,6 +64821,1036 @@
       </c>
       <c r="BP307">
         <v>1.42</v>
+      </c>
+    </row>
+    <row r="308" spans="1:68">
+      <c r="A308" s="1">
+        <v>307</v>
+      </c>
+      <c r="B308">
+        <v>7383795</v>
+      </c>
+      <c r="C308" t="s">
+        <v>68</v>
+      </c>
+      <c r="D308" t="s">
+        <v>69</v>
+      </c>
+      <c r="E308" s="2">
+        <v>45424.64583333334</v>
+      </c>
+      <c r="F308">
+        <v>9</v>
+      </c>
+      <c r="G308" t="s">
+        <v>75</v>
+      </c>
+      <c r="H308" t="s">
+        <v>72</v>
+      </c>
+      <c r="I308">
+        <v>0</v>
+      </c>
+      <c r="J308">
+        <v>0</v>
+      </c>
+      <c r="K308">
+        <v>0</v>
+      </c>
+      <c r="L308">
+        <v>1</v>
+      </c>
+      <c r="M308">
+        <v>3</v>
+      </c>
+      <c r="N308">
+        <v>4</v>
+      </c>
+      <c r="O308" t="s">
+        <v>275</v>
+      </c>
+      <c r="P308" t="s">
+        <v>398</v>
+      </c>
+      <c r="Q308">
+        <v>2.6</v>
+      </c>
+      <c r="R308">
+        <v>2.14</v>
+      </c>
+      <c r="S308">
+        <v>4.38</v>
+      </c>
+      <c r="T308">
+        <v>1.41</v>
+      </c>
+      <c r="U308">
+        <v>2.78</v>
+      </c>
+      <c r="V308">
+        <v>2.9</v>
+      </c>
+      <c r="W308">
+        <v>1.38</v>
+      </c>
+      <c r="X308">
+        <v>7.31</v>
+      </c>
+      <c r="Y308">
+        <v>1.06</v>
+      </c>
+      <c r="Z308">
+        <v>2.1</v>
+      </c>
+      <c r="AA308">
+        <v>3.1</v>
+      </c>
+      <c r="AB308">
+        <v>3.4</v>
+      </c>
+      <c r="AC308">
+        <v>1.02</v>
+      </c>
+      <c r="AD308">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AE308">
+        <v>1.28</v>
+      </c>
+      <c r="AF308">
+        <v>3.18</v>
+      </c>
+      <c r="AG308">
+        <v>2.25</v>
+      </c>
+      <c r="AH308">
+        <v>1.57</v>
+      </c>
+      <c r="AI308">
+        <v>1.79</v>
+      </c>
+      <c r="AJ308">
+        <v>1.98</v>
+      </c>
+      <c r="AK308">
+        <v>1.27</v>
+      </c>
+      <c r="AL308">
+        <v>1.28</v>
+      </c>
+      <c r="AM308">
+        <v>1.77</v>
+      </c>
+      <c r="AN308">
+        <v>1.33</v>
+      </c>
+      <c r="AO308">
+        <v>0.72</v>
+      </c>
+      <c r="AP308">
+        <v>1.26</v>
+      </c>
+      <c r="AQ308">
+        <v>0.84</v>
+      </c>
+      <c r="AR308">
+        <v>1.56</v>
+      </c>
+      <c r="AS308">
+        <v>1.29</v>
+      </c>
+      <c r="AT308">
+        <v>2.85</v>
+      </c>
+      <c r="AU308">
+        <v>6</v>
+      </c>
+      <c r="AV308">
+        <v>4</v>
+      </c>
+      <c r="AW308">
+        <v>5</v>
+      </c>
+      <c r="AX308">
+        <v>4</v>
+      </c>
+      <c r="AY308">
+        <v>11</v>
+      </c>
+      <c r="AZ308">
+        <v>8</v>
+      </c>
+      <c r="BA308">
+        <v>6</v>
+      </c>
+      <c r="BB308">
+        <v>6</v>
+      </c>
+      <c r="BC308">
+        <v>12</v>
+      </c>
+      <c r="BD308">
+        <v>2.02</v>
+      </c>
+      <c r="BE308">
+        <v>7.75</v>
+      </c>
+      <c r="BF308">
+        <v>2.18</v>
+      </c>
+      <c r="BG308">
+        <v>1.34</v>
+      </c>
+      <c r="BH308">
+        <v>2.88</v>
+      </c>
+      <c r="BI308">
+        <v>1.68</v>
+      </c>
+      <c r="BJ308">
+        <v>2.16</v>
+      </c>
+      <c r="BK308">
+        <v>2.11</v>
+      </c>
+      <c r="BL308">
+        <v>1.71</v>
+      </c>
+      <c r="BM308">
+        <v>2.75</v>
+      </c>
+      <c r="BN308">
+        <v>1.37</v>
+      </c>
+      <c r="BO308">
+        <v>3.9</v>
+      </c>
+      <c r="BP308">
+        <v>1.21</v>
+      </c>
+    </row>
+    <row r="309" spans="1:68">
+      <c r="A309" s="1">
+        <v>308</v>
+      </c>
+      <c r="B309">
+        <v>7383794</v>
+      </c>
+      <c r="C309" t="s">
+        <v>68</v>
+      </c>
+      <c r="D309" t="s">
+        <v>69</v>
+      </c>
+      <c r="E309" s="2">
+        <v>45424.64583333334</v>
+      </c>
+      <c r="F309">
+        <v>9</v>
+      </c>
+      <c r="G309" t="s">
+        <v>82</v>
+      </c>
+      <c r="H309" t="s">
+        <v>74</v>
+      </c>
+      <c r="I309">
+        <v>0</v>
+      </c>
+      <c r="J309">
+        <v>0</v>
+      </c>
+      <c r="K309">
+        <v>0</v>
+      </c>
+      <c r="L309">
+        <v>2</v>
+      </c>
+      <c r="M309">
+        <v>0</v>
+      </c>
+      <c r="N309">
+        <v>2</v>
+      </c>
+      <c r="O309" t="s">
+        <v>276</v>
+      </c>
+      <c r="P309" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q309">
+        <v>2.22</v>
+      </c>
+      <c r="R309">
+        <v>2.21</v>
+      </c>
+      <c r="S309">
+        <v>5.64</v>
+      </c>
+      <c r="T309">
+        <v>1.39</v>
+      </c>
+      <c r="U309">
+        <v>2.86</v>
+      </c>
+      <c r="V309">
+        <v>2.78</v>
+      </c>
+      <c r="W309">
+        <v>1.41</v>
+      </c>
+      <c r="X309">
+        <v>6.92</v>
+      </c>
+      <c r="Y309">
+        <v>1.07</v>
+      </c>
+      <c r="Z309">
+        <v>1.6</v>
+      </c>
+      <c r="AA309">
+        <v>3.5</v>
+      </c>
+      <c r="AB309">
+        <v>5</v>
+      </c>
+      <c r="AC309">
+        <v>1.02</v>
+      </c>
+      <c r="AD309">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AE309">
+        <v>1.27</v>
+      </c>
+      <c r="AF309">
+        <v>3.28</v>
+      </c>
+      <c r="AG309">
+        <v>2.2</v>
+      </c>
+      <c r="AH309">
+        <v>1.62</v>
+      </c>
+      <c r="AI309">
+        <v>1.87</v>
+      </c>
+      <c r="AJ309">
+        <v>1.83</v>
+      </c>
+      <c r="AK309">
+        <v>1.15</v>
+      </c>
+      <c r="AL309">
+        <v>1.24</v>
+      </c>
+      <c r="AM309">
+        <v>2.18</v>
+      </c>
+      <c r="AN309">
+        <v>1.28</v>
+      </c>
+      <c r="AO309">
+        <v>1</v>
+      </c>
+      <c r="AP309">
+        <v>1.37</v>
+      </c>
+      <c r="AQ309">
+        <v>0.95</v>
+      </c>
+      <c r="AR309">
+        <v>1.61</v>
+      </c>
+      <c r="AS309">
+        <v>1.29</v>
+      </c>
+      <c r="AT309">
+        <v>2.9</v>
+      </c>
+      <c r="AU309">
+        <v>-1</v>
+      </c>
+      <c r="AV309">
+        <v>-1</v>
+      </c>
+      <c r="AW309">
+        <v>-1</v>
+      </c>
+      <c r="AX309">
+        <v>-1</v>
+      </c>
+      <c r="AY309">
+        <v>-1</v>
+      </c>
+      <c r="AZ309">
+        <v>-1</v>
+      </c>
+      <c r="BA309">
+        <v>-1</v>
+      </c>
+      <c r="BB309">
+        <v>-1</v>
+      </c>
+      <c r="BC309">
+        <v>-1</v>
+      </c>
+      <c r="BD309">
+        <v>1.49</v>
+      </c>
+      <c r="BE309">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="BF309">
+        <v>3.38</v>
+      </c>
+      <c r="BG309">
+        <v>1.35</v>
+      </c>
+      <c r="BH309">
+        <v>2.84</v>
+      </c>
+      <c r="BI309">
+        <v>1.68</v>
+      </c>
+      <c r="BJ309">
+        <v>2.13</v>
+      </c>
+      <c r="BK309">
+        <v>2.13</v>
+      </c>
+      <c r="BL309">
+        <v>1.69</v>
+      </c>
+      <c r="BM309">
+        <v>2.79</v>
+      </c>
+      <c r="BN309">
+        <v>1.36</v>
+      </c>
+      <c r="BO309">
+        <v>3.8</v>
+      </c>
+      <c r="BP309">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="310" spans="1:68">
+      <c r="A310" s="1">
+        <v>309</v>
+      </c>
+      <c r="B310">
+        <v>7383793</v>
+      </c>
+      <c r="C310" t="s">
+        <v>68</v>
+      </c>
+      <c r="D310" t="s">
+        <v>69</v>
+      </c>
+      <c r="E310" s="2">
+        <v>45424.64583333334</v>
+      </c>
+      <c r="F310">
+        <v>9</v>
+      </c>
+      <c r="G310" t="s">
+        <v>70</v>
+      </c>
+      <c r="H310" t="s">
+        <v>84</v>
+      </c>
+      <c r="I310">
+        <v>2</v>
+      </c>
+      <c r="J310">
+        <v>0</v>
+      </c>
+      <c r="K310">
+        <v>2</v>
+      </c>
+      <c r="L310">
+        <v>2</v>
+      </c>
+      <c r="M310">
+        <v>0</v>
+      </c>
+      <c r="N310">
+        <v>2</v>
+      </c>
+      <c r="O310" t="s">
+        <v>277</v>
+      </c>
+      <c r="P310" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q310">
+        <v>3.25</v>
+      </c>
+      <c r="R310">
+        <v>2.12</v>
+      </c>
+      <c r="S310">
+        <v>3.2</v>
+      </c>
+      <c r="T310">
+        <v>1.38</v>
+      </c>
+      <c r="U310">
+        <v>2.8</v>
+      </c>
+      <c r="V310">
+        <v>3.15</v>
+      </c>
+      <c r="W310">
+        <v>1.3</v>
+      </c>
+      <c r="X310">
+        <v>9</v>
+      </c>
+      <c r="Y310">
+        <v>1.05</v>
+      </c>
+      <c r="Z310">
+        <v>2.45</v>
+      </c>
+      <c r="AA310">
+        <v>3</v>
+      </c>
+      <c r="AB310">
+        <v>2.9</v>
+      </c>
+      <c r="AC310">
+        <v>1.02</v>
+      </c>
+      <c r="AD310">
+        <v>8.6</v>
+      </c>
+      <c r="AE310">
+        <v>1.29</v>
+      </c>
+      <c r="AF310">
+        <v>3.14</v>
+      </c>
+      <c r="AG310">
+        <v>2.1</v>
+      </c>
+      <c r="AH310">
+        <v>1.65</v>
+      </c>
+      <c r="AI310">
+        <v>1.9</v>
+      </c>
+      <c r="AJ310">
+        <v>1.86</v>
+      </c>
+      <c r="AK310">
+        <v>1.5</v>
+      </c>
+      <c r="AL310">
+        <v>1.29</v>
+      </c>
+      <c r="AM310">
+        <v>1.46</v>
+      </c>
+      <c r="AN310">
+        <v>1.37</v>
+      </c>
+      <c r="AO310">
+        <v>0.58</v>
+      </c>
+      <c r="AP310">
+        <v>1.45</v>
+      </c>
+      <c r="AQ310">
+        <v>0.55</v>
+      </c>
+      <c r="AR310">
+        <v>1.42</v>
+      </c>
+      <c r="AS310">
+        <v>1.22</v>
+      </c>
+      <c r="AT310">
+        <v>2.64</v>
+      </c>
+      <c r="AU310">
+        <v>-1</v>
+      </c>
+      <c r="AV310">
+        <v>-1</v>
+      </c>
+      <c r="AW310">
+        <v>-1</v>
+      </c>
+      <c r="AX310">
+        <v>-1</v>
+      </c>
+      <c r="AY310">
+        <v>-1</v>
+      </c>
+      <c r="AZ310">
+        <v>-1</v>
+      </c>
+      <c r="BA310">
+        <v>-1</v>
+      </c>
+      <c r="BB310">
+        <v>-1</v>
+      </c>
+      <c r="BC310">
+        <v>-1</v>
+      </c>
+      <c r="BD310">
+        <v>2.07</v>
+      </c>
+      <c r="BE310">
+        <v>7.75</v>
+      </c>
+      <c r="BF310">
+        <v>2.13</v>
+      </c>
+      <c r="BG310">
+        <v>1.39</v>
+      </c>
+      <c r="BH310">
+        <v>2.67</v>
+      </c>
+      <c r="BI310">
+        <v>1.85</v>
+      </c>
+      <c r="BJ310">
+        <v>1.95</v>
+      </c>
+      <c r="BK310">
+        <v>2.11</v>
+      </c>
+      <c r="BL310">
+        <v>1.7</v>
+      </c>
+      <c r="BM310">
+        <v>2.98</v>
+      </c>
+      <c r="BN310">
+        <v>1.32</v>
+      </c>
+      <c r="BO310">
+        <v>4.34</v>
+      </c>
+      <c r="BP310">
+        <v>1.18</v>
+      </c>
+    </row>
+    <row r="311" spans="1:68">
+      <c r="A311" s="1">
+        <v>310</v>
+      </c>
+      <c r="B311">
+        <v>7383796</v>
+      </c>
+      <c r="C311" t="s">
+        <v>68</v>
+      </c>
+      <c r="D311" t="s">
+        <v>69</v>
+      </c>
+      <c r="E311" s="2">
+        <v>45424.64583333334</v>
+      </c>
+      <c r="F311">
+        <v>9</v>
+      </c>
+      <c r="G311" t="s">
+        <v>77</v>
+      </c>
+      <c r="H311" t="s">
+        <v>79</v>
+      </c>
+      <c r="I311">
+        <v>2</v>
+      </c>
+      <c r="J311">
+        <v>0</v>
+      </c>
+      <c r="K311">
+        <v>2</v>
+      </c>
+      <c r="L311">
+        <v>2</v>
+      </c>
+      <c r="M311">
+        <v>0</v>
+      </c>
+      <c r="N311">
+        <v>2</v>
+      </c>
+      <c r="O311" t="s">
+        <v>278</v>
+      </c>
+      <c r="P311" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q311">
+        <v>2.43</v>
+      </c>
+      <c r="R311">
+        <v>2.18</v>
+      </c>
+      <c r="S311">
+        <v>4.74</v>
+      </c>
+      <c r="T311">
+        <v>1.39</v>
+      </c>
+      <c r="U311">
+        <v>2.86</v>
+      </c>
+      <c r="V311">
+        <v>2.78</v>
+      </c>
+      <c r="W311">
+        <v>1.41</v>
+      </c>
+      <c r="X311">
+        <v>6.92</v>
+      </c>
+      <c r="Y311">
+        <v>1.07</v>
+      </c>
+      <c r="Z311">
+        <v>1.83</v>
+      </c>
+      <c r="AA311">
+        <v>3.4</v>
+      </c>
+      <c r="AB311">
+        <v>3.6</v>
+      </c>
+      <c r="AC311">
+        <v>1.04</v>
+      </c>
+      <c r="AD311">
+        <v>12</v>
+      </c>
+      <c r="AE311">
+        <v>1.27</v>
+      </c>
+      <c r="AF311">
+        <v>3.4</v>
+      </c>
+      <c r="AG311">
+        <v>1.9</v>
+      </c>
+      <c r="AH311">
+        <v>1.9</v>
+      </c>
+      <c r="AI311">
+        <v>1.78</v>
+      </c>
+      <c r="AJ311">
+        <v>1.99</v>
+      </c>
+      <c r="AK311">
+        <v>1.22</v>
+      </c>
+      <c r="AL311">
+        <v>1.27</v>
+      </c>
+      <c r="AM311">
+        <v>1.92</v>
+      </c>
+      <c r="AN311">
+        <v>1.28</v>
+      </c>
+      <c r="AO311">
+        <v>1.06</v>
+      </c>
+      <c r="AP311">
+        <v>1.37</v>
+      </c>
+      <c r="AQ311">
+        <v>1</v>
+      </c>
+      <c r="AR311">
+        <v>1.43</v>
+      </c>
+      <c r="AS311">
+        <v>1.29</v>
+      </c>
+      <c r="AT311">
+        <v>2.72</v>
+      </c>
+      <c r="AU311">
+        <v>2</v>
+      </c>
+      <c r="AV311">
+        <v>2</v>
+      </c>
+      <c r="AW311">
+        <v>1</v>
+      </c>
+      <c r="AX311">
+        <v>5</v>
+      </c>
+      <c r="AY311">
+        <v>3</v>
+      </c>
+      <c r="AZ311">
+        <v>7</v>
+      </c>
+      <c r="BA311">
+        <v>3</v>
+      </c>
+      <c r="BB311">
+        <v>4</v>
+      </c>
+      <c r="BC311">
+        <v>7</v>
+      </c>
+      <c r="BD311">
+        <v>1.66</v>
+      </c>
+      <c r="BE311">
+        <v>8.1</v>
+      </c>
+      <c r="BF311">
+        <v>2.81</v>
+      </c>
+      <c r="BG311">
+        <v>1.34</v>
+      </c>
+      <c r="BH311">
+        <v>2.88</v>
+      </c>
+      <c r="BI311">
+        <v>1.69</v>
+      </c>
+      <c r="BJ311">
+        <v>2.15</v>
+      </c>
+      <c r="BK311">
+        <v>2.13</v>
+      </c>
+      <c r="BL311">
+        <v>1.7</v>
+      </c>
+      <c r="BM311">
+        <v>2.78</v>
+      </c>
+      <c r="BN311">
+        <v>1.36</v>
+      </c>
+      <c r="BO311">
+        <v>3.94</v>
+      </c>
+      <c r="BP311">
+        <v>1.21</v>
+      </c>
+    </row>
+    <row r="312" spans="1:68">
+      <c r="A312" s="1">
+        <v>311</v>
+      </c>
+      <c r="B312">
+        <v>7383797</v>
+      </c>
+      <c r="C312" t="s">
+        <v>68</v>
+      </c>
+      <c r="D312" t="s">
+        <v>69</v>
+      </c>
+      <c r="E312" s="2">
+        <v>45424.64583333334</v>
+      </c>
+      <c r="F312">
+        <v>9</v>
+      </c>
+      <c r="G312" t="s">
+        <v>76</v>
+      </c>
+      <c r="H312" t="s">
+        <v>83</v>
+      </c>
+      <c r="I312">
+        <v>0</v>
+      </c>
+      <c r="J312">
+        <v>1</v>
+      </c>
+      <c r="K312">
+        <v>1</v>
+      </c>
+      <c r="L312">
+        <v>0</v>
+      </c>
+      <c r="M312">
+        <v>1</v>
+      </c>
+      <c r="N312">
+        <v>1</v>
+      </c>
+      <c r="O312" t="s">
+        <v>87</v>
+      </c>
+      <c r="P312" t="s">
+        <v>399</v>
+      </c>
+      <c r="Q312">
+        <v>3.85</v>
+      </c>
+      <c r="R312">
+        <v>2.12</v>
+      </c>
+      <c r="S312">
+        <v>2.87</v>
+      </c>
+      <c r="T312">
+        <v>1.41</v>
+      </c>
+      <c r="U312">
+        <v>2.78</v>
+      </c>
+      <c r="V312">
+        <v>2.9</v>
+      </c>
+      <c r="W312">
+        <v>1.38</v>
+      </c>
+      <c r="X312">
+        <v>7.32</v>
+      </c>
+      <c r="Y312">
+        <v>1.06</v>
+      </c>
+      <c r="Z312">
+        <v>2.38</v>
+      </c>
+      <c r="AA312">
+        <v>3.1</v>
+      </c>
+      <c r="AB312">
+        <v>2.9</v>
+      </c>
+      <c r="AC312">
+        <v>1.02</v>
+      </c>
+      <c r="AD312">
+        <v>9.050000000000001</v>
+      </c>
+      <c r="AE312">
+        <v>1.3</v>
+      </c>
+      <c r="AF312">
+        <v>3.18</v>
+      </c>
+      <c r="AG312">
+        <v>2.25</v>
+      </c>
+      <c r="AH312">
+        <v>1.57</v>
+      </c>
+      <c r="AI312">
+        <v>1.79</v>
+      </c>
+      <c r="AJ312">
+        <v>1.92</v>
+      </c>
+      <c r="AK312">
+        <v>1.48</v>
+      </c>
+      <c r="AL312">
+        <v>1.31</v>
+      </c>
+      <c r="AM312">
+        <v>1.44</v>
+      </c>
+      <c r="AN312">
+        <v>1.06</v>
+      </c>
+      <c r="AO312">
+        <v>1.33</v>
+      </c>
+      <c r="AP312">
+        <v>1</v>
+      </c>
+      <c r="AQ312">
+        <v>1.42</v>
+      </c>
+      <c r="AR312">
+        <v>1.27</v>
+      </c>
+      <c r="AS312">
+        <v>1.28</v>
+      </c>
+      <c r="AT312">
+        <v>2.55</v>
+      </c>
+      <c r="AU312">
+        <v>3</v>
+      </c>
+      <c r="AV312">
+        <v>3</v>
+      </c>
+      <c r="AW312">
+        <v>4</v>
+      </c>
+      <c r="AX312">
+        <v>5</v>
+      </c>
+      <c r="AY312">
+        <v>7</v>
+      </c>
+      <c r="AZ312">
+        <v>8</v>
+      </c>
+      <c r="BA312">
+        <v>5</v>
+      </c>
+      <c r="BB312">
+        <v>0</v>
+      </c>
+      <c r="BC312">
+        <v>5</v>
+      </c>
+      <c r="BD312">
+        <v>2.43</v>
+      </c>
+      <c r="BE312">
+        <v>8.4</v>
+      </c>
+      <c r="BF312">
+        <v>1.81</v>
+      </c>
+      <c r="BG312">
+        <v>1.46</v>
+      </c>
+      <c r="BH312">
+        <v>2.62</v>
+      </c>
+      <c r="BI312">
+        <v>1.79</v>
+      </c>
+      <c r="BJ312">
+        <v>2.01</v>
+      </c>
+      <c r="BK312">
+        <v>2.26</v>
+      </c>
+      <c r="BL312">
+        <v>1.61</v>
+      </c>
+      <c r="BM312">
+        <v>3.07</v>
+      </c>
+      <c r="BN312">
+        <v>1.32</v>
+      </c>
+      <c r="BO312">
+        <v>4.2</v>
+      </c>
+      <c r="BP312">
+        <v>1.17</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Romania Liga I_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Romania Liga I_20232024.xlsx
@@ -841,6 +841,9 @@
     <t>['21', '39', '45+1']</t>
   </si>
   <si>
+    <t>['14', '18']</t>
+  </si>
+  <si>
     <t>['47']</t>
   </si>
   <si>
@@ -848,9 +851,6 @@
   </si>
   <si>
     <t>['12', '45']</t>
-  </si>
-  <si>
-    <t>['14', '18']</t>
   </si>
   <si>
     <t>['35', '52', '55']</t>
@@ -15436,7 +15436,7 @@
         <v>135</v>
       </c>
       <c r="P68" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q68">
         <v>2.9</v>
@@ -21410,7 +21410,7 @@
         <v>154</v>
       </c>
       <c r="P97" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q97">
         <v>3.7</v>
@@ -64834,7 +64834,7 @@
         <v>307</v>
       </c>
       <c r="B308">
-        <v>7383795</v>
+        <v>7383796</v>
       </c>
       <c r="C308" t="s">
         <v>68</v>
@@ -64849,160 +64849,160 @@
         <v>9</v>
       </c>
       <c r="G308" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="H308" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="I308">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J308">
         <v>0</v>
       </c>
       <c r="K308">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L308">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M308">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N308">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O308" t="s">
         <v>275</v>
       </c>
       <c r="P308" t="s">
-        <v>399</v>
+        <v>87</v>
       </c>
       <c r="Q308">
-        <v>2.6</v>
+        <v>2.43</v>
       </c>
       <c r="R308">
-        <v>2.14</v>
+        <v>2.18</v>
       </c>
       <c r="S308">
-        <v>4.38</v>
+        <v>4.74</v>
       </c>
       <c r="T308">
+        <v>1.39</v>
+      </c>
+      <c r="U308">
+        <v>2.86</v>
+      </c>
+      <c r="V308">
+        <v>2.78</v>
+      </c>
+      <c r="W308">
         <v>1.41</v>
       </c>
-      <c r="U308">
-        <v>2.78</v>
-      </c>
-      <c r="V308">
-        <v>2.9</v>
-      </c>
-      <c r="W308">
-        <v>1.38</v>
-      </c>
       <c r="X308">
-        <v>7.31</v>
+        <v>6.92</v>
       </c>
       <c r="Y308">
+        <v>1.07</v>
+      </c>
+      <c r="Z308">
+        <v>1.83</v>
+      </c>
+      <c r="AA308">
+        <v>3.4</v>
+      </c>
+      <c r="AB308">
+        <v>3.6</v>
+      </c>
+      <c r="AC308">
+        <v>1.04</v>
+      </c>
+      <c r="AD308">
+        <v>12</v>
+      </c>
+      <c r="AE308">
+        <v>1.27</v>
+      </c>
+      <c r="AF308">
+        <v>3.4</v>
+      </c>
+      <c r="AG308">
+        <v>1.9</v>
+      </c>
+      <c r="AH308">
+        <v>1.9</v>
+      </c>
+      <c r="AI308">
+        <v>1.78</v>
+      </c>
+      <c r="AJ308">
+        <v>1.99</v>
+      </c>
+      <c r="AK308">
+        <v>1.22</v>
+      </c>
+      <c r="AL308">
+        <v>1.27</v>
+      </c>
+      <c r="AM308">
+        <v>1.92</v>
+      </c>
+      <c r="AN308">
+        <v>1.28</v>
+      </c>
+      <c r="AO308">
         <v>1.06</v>
       </c>
-      <c r="Z308">
-        <v>2.1</v>
-      </c>
-      <c r="AA308">
-        <v>3.1</v>
-      </c>
-      <c r="AB308">
-        <v>3.4</v>
-      </c>
-      <c r="AC308">
-        <v>1.02</v>
-      </c>
-      <c r="AD308">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="AE308">
-        <v>1.28</v>
-      </c>
-      <c r="AF308">
-        <v>3.18</v>
-      </c>
-      <c r="AG308">
-        <v>2.25</v>
-      </c>
-      <c r="AH308">
-        <v>1.57</v>
-      </c>
-      <c r="AI308">
-        <v>1.79</v>
-      </c>
-      <c r="AJ308">
-        <v>1.98</v>
-      </c>
-      <c r="AK308">
-        <v>1.27</v>
-      </c>
-      <c r="AL308">
-        <v>1.28</v>
-      </c>
-      <c r="AM308">
-        <v>1.77</v>
-      </c>
-      <c r="AN308">
-        <v>1.33</v>
-      </c>
-      <c r="AO308">
-        <v>0.72</v>
-      </c>
       <c r="AP308">
-        <v>1.26</v>
+        <v>1.37</v>
       </c>
       <c r="AQ308">
-        <v>0.84</v>
+        <v>1</v>
       </c>
       <c r="AR308">
-        <v>1.56</v>
+        <v>1.43</v>
       </c>
       <c r="AS308">
         <v>1.29</v>
       </c>
       <c r="AT308">
-        <v>2.85</v>
+        <v>2.72</v>
       </c>
       <c r="AU308">
+        <v>4</v>
+      </c>
+      <c r="AV308">
+        <v>2</v>
+      </c>
+      <c r="AW308">
+        <v>1</v>
+      </c>
+      <c r="AX308">
+        <v>6</v>
+      </c>
+      <c r="AY308">
+        <v>5</v>
+      </c>
+      <c r="AZ308">
         <v>8</v>
       </c>
-      <c r="AV308">
+      <c r="BA308">
+        <v>3</v>
+      </c>
+      <c r="BB308">
         <v>4</v>
       </c>
-      <c r="AW308">
-        <v>5</v>
-      </c>
-      <c r="AX308">
-        <v>3</v>
-      </c>
-      <c r="AY308">
-        <v>13</v>
-      </c>
-      <c r="AZ308">
+      <c r="BC308">
         <v>7</v>
       </c>
-      <c r="BA308">
-        <v>6</v>
-      </c>
-      <c r="BB308">
-        <v>6</v>
-      </c>
-      <c r="BC308">
-        <v>12</v>
-      </c>
       <c r="BD308">
-        <v>2.02</v>
+        <v>1.66</v>
       </c>
       <c r="BE308">
-        <v>7.75</v>
+        <v>8.1</v>
       </c>
       <c r="BF308">
-        <v>2.18</v>
+        <v>2.81</v>
       </c>
       <c r="BG308">
         <v>1.34</v>
@@ -65011,25 +65011,25 @@
         <v>2.88</v>
       </c>
       <c r="BI308">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
       <c r="BJ308">
-        <v>2.16</v>
+        <v>2.15</v>
       </c>
       <c r="BK308">
-        <v>2.11</v>
+        <v>2.13</v>
       </c>
       <c r="BL308">
-        <v>1.71</v>
+        <v>1.7</v>
       </c>
       <c r="BM308">
-        <v>2.75</v>
+        <v>2.78</v>
       </c>
       <c r="BN308">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="BO308">
-        <v>3.9</v>
+        <v>3.94</v>
       </c>
       <c r="BP308">
         <v>1.21</v>
@@ -65040,7 +65040,7 @@
         <v>308</v>
       </c>
       <c r="B309">
-        <v>7383794</v>
+        <v>7383795</v>
       </c>
       <c r="C309" t="s">
         <v>68</v>
@@ -65055,10 +65055,10 @@
         <v>9</v>
       </c>
       <c r="G309" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="H309" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="I309">
         <v>0</v>
@@ -65070,175 +65070,175 @@
         <v>0</v>
       </c>
       <c r="L309">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M309">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N309">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O309" t="s">
         <v>276</v>
       </c>
       <c r="P309" t="s">
-        <v>87</v>
+        <v>399</v>
       </c>
       <c r="Q309">
-        <v>2.22</v>
+        <v>2.6</v>
       </c>
       <c r="R309">
-        <v>2.21</v>
+        <v>2.14</v>
       </c>
       <c r="S309">
-        <v>5.64</v>
+        <v>4.38</v>
       </c>
       <c r="T309">
-        <v>1.39</v>
+        <v>1.41</v>
       </c>
       <c r="U309">
-        <v>2.86</v>
+        <v>2.78</v>
       </c>
       <c r="V309">
-        <v>2.78</v>
+        <v>2.9</v>
       </c>
       <c r="W309">
-        <v>1.41</v>
+        <v>1.38</v>
       </c>
       <c r="X309">
-        <v>6.92</v>
+        <v>7.31</v>
       </c>
       <c r="Y309">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="Z309">
-        <v>1.6</v>
+        <v>2.1</v>
       </c>
       <c r="AA309">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="AB309">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="AC309">
         <v>1.02</v>
       </c>
       <c r="AD309">
-        <v>9.199999999999999</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AE309">
+        <v>1.28</v>
+      </c>
+      <c r="AF309">
+        <v>3.18</v>
+      </c>
+      <c r="AG309">
+        <v>2.25</v>
+      </c>
+      <c r="AH309">
+        <v>1.57</v>
+      </c>
+      <c r="AI309">
+        <v>1.79</v>
+      </c>
+      <c r="AJ309">
+        <v>1.98</v>
+      </c>
+      <c r="AK309">
         <v>1.27</v>
       </c>
-      <c r="AF309">
-        <v>3.28</v>
-      </c>
-      <c r="AG309">
-        <v>2.2</v>
-      </c>
-      <c r="AH309">
-        <v>1.62</v>
-      </c>
-      <c r="AI309">
-        <v>1.87</v>
-      </c>
-      <c r="AJ309">
-        <v>1.83</v>
-      </c>
-      <c r="AK309">
-        <v>1.15</v>
-      </c>
       <c r="AL309">
-        <v>1.24</v>
+        <v>1.28</v>
       </c>
       <c r="AM309">
-        <v>2.18</v>
+        <v>1.77</v>
       </c>
       <c r="AN309">
-        <v>1.28</v>
+        <v>1.33</v>
       </c>
       <c r="AO309">
-        <v>1</v>
+        <v>0.72</v>
       </c>
       <c r="AP309">
-        <v>1.37</v>
+        <v>1.26</v>
       </c>
       <c r="AQ309">
-        <v>0.95</v>
+        <v>0.84</v>
       </c>
       <c r="AR309">
-        <v>1.61</v>
+        <v>1.56</v>
       </c>
       <c r="AS309">
         <v>1.29</v>
       </c>
       <c r="AT309">
-        <v>2.9</v>
+        <v>2.85</v>
       </c>
       <c r="AU309">
+        <v>8</v>
+      </c>
+      <c r="AV309">
+        <v>4</v>
+      </c>
+      <c r="AW309">
+        <v>5</v>
+      </c>
+      <c r="AX309">
+        <v>3</v>
+      </c>
+      <c r="AY309">
+        <v>13</v>
+      </c>
+      <c r="AZ309">
         <v>7</v>
-      </c>
-      <c r="AV309">
-        <v>2</v>
-      </c>
-      <c r="AW309">
-        <v>7</v>
-      </c>
-      <c r="AX309">
-        <v>4</v>
-      </c>
-      <c r="AY309">
-        <v>14</v>
-      </c>
-      <c r="AZ309">
-        <v>6</v>
       </c>
       <c r="BA309">
         <v>6</v>
       </c>
       <c r="BB309">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="BC309">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="BD309">
-        <v>1.49</v>
+        <v>2.02</v>
       </c>
       <c r="BE309">
-        <v>8.699999999999999</v>
+        <v>7.75</v>
       </c>
       <c r="BF309">
-        <v>3.38</v>
+        <v>2.18</v>
       </c>
       <c r="BG309">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="BH309">
-        <v>2.84</v>
+        <v>2.88</v>
       </c>
       <c r="BI309">
         <v>1.68</v>
       </c>
       <c r="BJ309">
-        <v>2.13</v>
+        <v>2.16</v>
       </c>
       <c r="BK309">
-        <v>2.13</v>
+        <v>2.11</v>
       </c>
       <c r="BL309">
-        <v>1.69</v>
+        <v>1.71</v>
       </c>
       <c r="BM309">
-        <v>2.79</v>
+        <v>2.75</v>
       </c>
       <c r="BN309">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="BO309">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="BP309">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
     </row>
     <row r="310" spans="1:68">
@@ -65246,7 +65246,7 @@
         <v>309</v>
       </c>
       <c r="B310">
-        <v>7383793</v>
+        <v>7383794</v>
       </c>
       <c r="C310" t="s">
         <v>68</v>
@@ -65261,19 +65261,19 @@
         <v>9</v>
       </c>
       <c r="G310" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="H310" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="I310">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J310">
         <v>0</v>
       </c>
       <c r="K310">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L310">
         <v>2</v>
@@ -65291,160 +65291,160 @@
         <v>87</v>
       </c>
       <c r="Q310">
-        <v>3.25</v>
+        <v>2.22</v>
       </c>
       <c r="R310">
-        <v>2.12</v>
+        <v>2.21</v>
       </c>
       <c r="S310">
-        <v>3.2</v>
+        <v>5.64</v>
       </c>
       <c r="T310">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="U310">
-        <v>2.8</v>
+        <v>2.86</v>
       </c>
       <c r="V310">
-        <v>3.15</v>
+        <v>2.78</v>
       </c>
       <c r="W310">
-        <v>1.3</v>
+        <v>1.41</v>
       </c>
       <c r="X310">
-        <v>9</v>
+        <v>6.92</v>
       </c>
       <c r="Y310">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="Z310">
-        <v>2.45</v>
+        <v>1.6</v>
       </c>
       <c r="AA310">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="AB310">
-        <v>2.9</v>
+        <v>5</v>
       </c>
       <c r="AC310">
         <v>1.02</v>
       </c>
       <c r="AD310">
-        <v>8.6</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AE310">
+        <v>1.27</v>
+      </c>
+      <c r="AF310">
+        <v>3.28</v>
+      </c>
+      <c r="AG310">
+        <v>2.2</v>
+      </c>
+      <c r="AH310">
+        <v>1.62</v>
+      </c>
+      <c r="AI310">
+        <v>1.87</v>
+      </c>
+      <c r="AJ310">
+        <v>1.83</v>
+      </c>
+      <c r="AK310">
+        <v>1.15</v>
+      </c>
+      <c r="AL310">
+        <v>1.24</v>
+      </c>
+      <c r="AM310">
+        <v>2.18</v>
+      </c>
+      <c r="AN310">
+        <v>1.28</v>
+      </c>
+      <c r="AO310">
+        <v>1</v>
+      </c>
+      <c r="AP310">
+        <v>1.37</v>
+      </c>
+      <c r="AQ310">
+        <v>0.95</v>
+      </c>
+      <c r="AR310">
+        <v>1.61</v>
+      </c>
+      <c r="AS310">
         <v>1.29</v>
       </c>
-      <c r="AF310">
-        <v>3.14</v>
-      </c>
-      <c r="AG310">
-        <v>2.1</v>
-      </c>
-      <c r="AH310">
-        <v>1.65</v>
-      </c>
-      <c r="AI310">
-        <v>1.9</v>
-      </c>
-      <c r="AJ310">
-        <v>1.86</v>
-      </c>
-      <c r="AK310">
-        <v>1.5</v>
-      </c>
-      <c r="AL310">
-        <v>1.29</v>
-      </c>
-      <c r="AM310">
-        <v>1.46</v>
-      </c>
-      <c r="AN310">
-        <v>1.37</v>
-      </c>
-      <c r="AO310">
-        <v>0.58</v>
-      </c>
-      <c r="AP310">
-        <v>1.45</v>
-      </c>
-      <c r="AQ310">
-        <v>0.55</v>
-      </c>
-      <c r="AR310">
-        <v>1.42</v>
-      </c>
-      <c r="AS310">
-        <v>1.22</v>
-      </c>
       <c r="AT310">
-        <v>2.64</v>
+        <v>2.9</v>
       </c>
       <c r="AU310">
         <v>7</v>
       </c>
       <c r="AV310">
+        <v>2</v>
+      </c>
+      <c r="AW310">
+        <v>7</v>
+      </c>
+      <c r="AX310">
         <v>4</v>
       </c>
-      <c r="AW310">
-        <v>4</v>
-      </c>
-      <c r="AX310">
+      <c r="AY310">
+        <v>14</v>
+      </c>
+      <c r="AZ310">
         <v>6</v>
       </c>
-      <c r="AY310">
-        <v>11</v>
-      </c>
-      <c r="AZ310">
-        <v>10</v>
-      </c>
       <c r="BA310">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="BB310">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="BC310">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="BD310">
-        <v>2.07</v>
+        <v>1.49</v>
       </c>
       <c r="BE310">
-        <v>7.75</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="BF310">
+        <v>3.38</v>
+      </c>
+      <c r="BG310">
+        <v>1.35</v>
+      </c>
+      <c r="BH310">
+        <v>2.84</v>
+      </c>
+      <c r="BI310">
+        <v>1.68</v>
+      </c>
+      <c r="BJ310">
         <v>2.13</v>
       </c>
-      <c r="BG310">
-        <v>1.39</v>
-      </c>
-      <c r="BH310">
-        <v>2.67</v>
-      </c>
-      <c r="BI310">
-        <v>1.85</v>
-      </c>
-      <c r="BJ310">
-        <v>1.95</v>
-      </c>
       <c r="BK310">
-        <v>2.11</v>
+        <v>2.13</v>
       </c>
       <c r="BL310">
-        <v>1.7</v>
+        <v>1.69</v>
       </c>
       <c r="BM310">
-        <v>2.98</v>
+        <v>2.79</v>
       </c>
       <c r="BN310">
-        <v>1.32</v>
+        <v>1.36</v>
       </c>
       <c r="BO310">
-        <v>4.34</v>
+        <v>3.8</v>
       </c>
       <c r="BP310">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="311" spans="1:68">
@@ -65452,7 +65452,7 @@
         <v>310</v>
       </c>
       <c r="B311">
-        <v>7383796</v>
+        <v>7383793</v>
       </c>
       <c r="C311" t="s">
         <v>68</v>
@@ -65467,10 +65467,10 @@
         <v>9</v>
       </c>
       <c r="G311" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="H311" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="I311">
         <v>2</v>
@@ -65497,160 +65497,160 @@
         <v>87</v>
       </c>
       <c r="Q311">
-        <v>2.43</v>
+        <v>3.25</v>
       </c>
       <c r="R311">
-        <v>2.18</v>
+        <v>2.12</v>
       </c>
       <c r="S311">
-        <v>4.74</v>
+        <v>3.2</v>
       </c>
       <c r="T311">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="U311">
-        <v>2.86</v>
+        <v>2.8</v>
       </c>
       <c r="V311">
-        <v>2.78</v>
+        <v>3.15</v>
       </c>
       <c r="W311">
-        <v>1.41</v>
+        <v>1.3</v>
       </c>
       <c r="X311">
-        <v>6.92</v>
+        <v>9</v>
       </c>
       <c r="Y311">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="Z311">
-        <v>1.83</v>
+        <v>2.45</v>
       </c>
       <c r="AA311">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="AB311">
-        <v>3.6</v>
+        <v>2.9</v>
       </c>
       <c r="AC311">
-        <v>1.04</v>
+        <v>1.02</v>
       </c>
       <c r="AD311">
-        <v>12</v>
+        <v>8.6</v>
       </c>
       <c r="AE311">
-        <v>1.27</v>
+        <v>1.29</v>
       </c>
       <c r="AF311">
-        <v>3.4</v>
+        <v>3.14</v>
       </c>
       <c r="AG311">
+        <v>2.1</v>
+      </c>
+      <c r="AH311">
+        <v>1.65</v>
+      </c>
+      <c r="AI311">
         <v>1.9</v>
       </c>
-      <c r="AH311">
-        <v>1.9</v>
-      </c>
-      <c r="AI311">
-        <v>1.78</v>
-      </c>
       <c r="AJ311">
-        <v>1.99</v>
+        <v>1.86</v>
       </c>
       <c r="AK311">
+        <v>1.5</v>
+      </c>
+      <c r="AL311">
+        <v>1.29</v>
+      </c>
+      <c r="AM311">
+        <v>1.46</v>
+      </c>
+      <c r="AN311">
+        <v>1.37</v>
+      </c>
+      <c r="AO311">
+        <v>0.58</v>
+      </c>
+      <c r="AP311">
+        <v>1.45</v>
+      </c>
+      <c r="AQ311">
+        <v>0.55</v>
+      </c>
+      <c r="AR311">
+        <v>1.42</v>
+      </c>
+      <c r="AS311">
         <v>1.22</v>
       </c>
-      <c r="AL311">
-        <v>1.27</v>
-      </c>
-      <c r="AM311">
-        <v>1.92</v>
-      </c>
-      <c r="AN311">
-        <v>1.28</v>
-      </c>
-      <c r="AO311">
-        <v>1.06</v>
-      </c>
-      <c r="AP311">
-        <v>1.37</v>
-      </c>
-      <c r="AQ311">
-        <v>1</v>
-      </c>
-      <c r="AR311">
-        <v>1.43</v>
-      </c>
-      <c r="AS311">
-        <v>1.29</v>
-      </c>
       <c r="AT311">
-        <v>2.72</v>
+        <v>2.64</v>
       </c>
       <c r="AU311">
+        <v>7</v>
+      </c>
+      <c r="AV311">
         <v>4</v>
       </c>
-      <c r="AV311">
-        <v>2</v>
-      </c>
       <c r="AW311">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AX311">
         <v>6</v>
       </c>
       <c r="AY311">
+        <v>11</v>
+      </c>
+      <c r="AZ311">
+        <v>10</v>
+      </c>
+      <c r="BA311">
+        <v>4</v>
+      </c>
+      <c r="BB311">
         <v>5</v>
       </c>
-      <c r="AZ311">
-        <v>8</v>
-      </c>
-      <c r="BA311">
-        <v>3</v>
-      </c>
-      <c r="BB311">
-        <v>4</v>
-      </c>
       <c r="BC311">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="BD311">
-        <v>1.66</v>
+        <v>2.07</v>
       </c>
       <c r="BE311">
-        <v>8.1</v>
+        <v>7.75</v>
       </c>
       <c r="BF311">
-        <v>2.81</v>
+        <v>2.13</v>
       </c>
       <c r="BG311">
-        <v>1.34</v>
+        <v>1.39</v>
       </c>
       <c r="BH311">
-        <v>2.88</v>
+        <v>2.67</v>
       </c>
       <c r="BI311">
-        <v>1.69</v>
+        <v>1.85</v>
       </c>
       <c r="BJ311">
-        <v>2.15</v>
+        <v>1.95</v>
       </c>
       <c r="BK311">
-        <v>2.13</v>
+        <v>2.11</v>
       </c>
       <c r="BL311">
         <v>1.7</v>
       </c>
       <c r="BM311">
-        <v>2.78</v>
+        <v>2.98</v>
       </c>
       <c r="BN311">
-        <v>1.36</v>
+        <v>1.32</v>
       </c>
       <c r="BO311">
-        <v>3.94</v>
+        <v>4.34</v>
       </c>
       <c r="BP311">
-        <v>1.21</v>
+        <v>1.18</v>
       </c>
     </row>
     <row r="312" spans="1:68">
@@ -65793,7 +65793,7 @@
         <v>2.55</v>
       </c>
       <c r="AU312">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AV312">
         <v>3</v>
@@ -65802,13 +65802,13 @@
         <v>4</v>
       </c>
       <c r="AX312">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AY312">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AZ312">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BA312">
         <v>5</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Romania Liga I_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Romania Liga I_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1952" uniqueCount="405">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1958" uniqueCount="406">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -1230,6 +1230,9 @@
   <si>
     <t>['21', '66']</t>
   </si>
+  <si>
+    <t>['62', '73']</t>
+  </si>
 </sst>
 </file>
 
@@ -1590,7 +1593,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP315"/>
+  <dimension ref="A1:BP316"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1927,7 +1930,7 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>1.45</v>
+        <v>1.38</v>
       </c>
       <c r="AQ2">
         <v>1</v>
@@ -2754,7 +2757,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ6">
-        <v>1.42</v>
+        <v>1.5</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -5226,7 +5229,7 @@
         <v>1.26</v>
       </c>
       <c r="AQ18">
-        <v>1.42</v>
+        <v>1.5</v>
       </c>
       <c r="AR18">
         <v>1.24</v>
@@ -5841,7 +5844,7 @@
         <v>3</v>
       </c>
       <c r="AP21">
-        <v>1.45</v>
+        <v>1.38</v>
       </c>
       <c r="AQ21">
         <v>2</v>
@@ -8725,10 +8728,10 @@
         <v>2</v>
       </c>
       <c r="AP35">
-        <v>1.45</v>
+        <v>1.38</v>
       </c>
       <c r="AQ35">
-        <v>1.42</v>
+        <v>1.5</v>
       </c>
       <c r="AR35">
         <v>1.34</v>
@@ -11197,7 +11200,7 @@
         <v>1</v>
       </c>
       <c r="AP47">
-        <v>1.45</v>
+        <v>1.38</v>
       </c>
       <c r="AQ47">
         <v>0.95</v>
@@ -12230,7 +12233,7 @@
         <v>1.9</v>
       </c>
       <c r="AQ52">
-        <v>1.42</v>
+        <v>1.5</v>
       </c>
       <c r="AR52">
         <v>2.04</v>
@@ -14290,7 +14293,7 @@
         <v>1.9</v>
       </c>
       <c r="AQ62">
-        <v>1.42</v>
+        <v>1.5</v>
       </c>
       <c r="AR62">
         <v>1.12</v>
@@ -15111,7 +15114,7 @@
         <v>2</v>
       </c>
       <c r="AP66">
-        <v>1.45</v>
+        <v>1.38</v>
       </c>
       <c r="AQ66">
         <v>1.2</v>
@@ -17789,7 +17792,7 @@
         <v>1</v>
       </c>
       <c r="AP79">
-        <v>1.45</v>
+        <v>1.38</v>
       </c>
       <c r="AQ79">
         <v>0.65</v>
@@ -19234,7 +19237,7 @@
         <v>2.15</v>
       </c>
       <c r="AQ86">
-        <v>1.42</v>
+        <v>1.5</v>
       </c>
       <c r="AR86">
         <v>1.72</v>
@@ -20673,7 +20676,7 @@
         <v>1.2</v>
       </c>
       <c r="AP93">
-        <v>1.45</v>
+        <v>1.38</v>
       </c>
       <c r="AQ93">
         <v>1.4</v>
@@ -21912,7 +21915,7 @@
         <v>1.45</v>
       </c>
       <c r="AQ99">
-        <v>1.42</v>
+        <v>1.5</v>
       </c>
       <c r="AR99">
         <v>1.97</v>
@@ -23763,7 +23766,7 @@
         <v>1.17</v>
       </c>
       <c r="AP108">
-        <v>1.45</v>
+        <v>1.38</v>
       </c>
       <c r="AQ108">
         <v>0.84</v>
@@ -24590,7 +24593,7 @@
         <v>1.26</v>
       </c>
       <c r="AQ112">
-        <v>1.42</v>
+        <v>1.5</v>
       </c>
       <c r="AR112">
         <v>1.54</v>
@@ -29119,7 +29122,7 @@
         <v>1.13</v>
       </c>
       <c r="AP134">
-        <v>1.45</v>
+        <v>1.38</v>
       </c>
       <c r="AQ134">
         <v>1.65</v>
@@ -29740,7 +29743,7 @@
         <v>1.68</v>
       </c>
       <c r="AQ137">
-        <v>1.42</v>
+        <v>1.5</v>
       </c>
       <c r="AR137">
         <v>1.86</v>
@@ -32830,7 +32833,7 @@
         <v>1.37</v>
       </c>
       <c r="AQ152">
-        <v>1.42</v>
+        <v>1.5</v>
       </c>
       <c r="AR152">
         <v>1.41</v>
@@ -33033,7 +33036,7 @@
         <v>0.78</v>
       </c>
       <c r="AP153">
-        <v>1.45</v>
+        <v>1.38</v>
       </c>
       <c r="AQ153">
         <v>1.15</v>
@@ -35920,7 +35923,7 @@
         <v>2.15</v>
       </c>
       <c r="AQ167">
-        <v>1.42</v>
+        <v>1.5</v>
       </c>
       <c r="AR167">
         <v>1.8</v>
@@ -36123,7 +36126,7 @@
         <v>0.3</v>
       </c>
       <c r="AP168">
-        <v>1.45</v>
+        <v>1.38</v>
       </c>
       <c r="AQ168">
         <v>0.55</v>
@@ -38595,7 +38598,7 @@
         <v>1.09</v>
       </c>
       <c r="AP180">
-        <v>1.45</v>
+        <v>1.38</v>
       </c>
       <c r="AQ180">
         <v>0.95</v>
@@ -39216,7 +39219,7 @@
         <v>1.37</v>
       </c>
       <c r="AQ183">
-        <v>1.42</v>
+        <v>1.5</v>
       </c>
       <c r="AR183">
         <v>1.67</v>
@@ -41479,7 +41482,7 @@
         <v>0.92</v>
       </c>
       <c r="AP194">
-        <v>1.45</v>
+        <v>1.38</v>
       </c>
       <c r="AQ194">
         <v>0.65</v>
@@ -41688,7 +41691,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ195">
-        <v>1.42</v>
+        <v>1.5</v>
       </c>
       <c r="AR195">
         <v>1.72</v>
@@ -45808,7 +45811,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ215">
-        <v>1.42</v>
+        <v>1.5</v>
       </c>
       <c r="AR215">
         <v>1.62</v>
@@ -46835,7 +46838,7 @@
         <v>1.31</v>
       </c>
       <c r="AP220">
-        <v>1.45</v>
+        <v>1.38</v>
       </c>
       <c r="AQ220">
         <v>1.45</v>
@@ -49928,7 +49931,7 @@
         <v>1</v>
       </c>
       <c r="AQ235">
-        <v>1.42</v>
+        <v>1.5</v>
       </c>
       <c r="AR235">
         <v>1.37</v>
@@ -51161,7 +51164,7 @@
         <v>0.93</v>
       </c>
       <c r="AP241">
-        <v>1.45</v>
+        <v>1.38</v>
       </c>
       <c r="AQ241">
         <v>0.85</v>
@@ -51779,7 +51782,7 @@
         <v>0.93</v>
       </c>
       <c r="AP244">
-        <v>1.45</v>
+        <v>1.38</v>
       </c>
       <c r="AQ244">
         <v>0.85</v>
@@ -55490,7 +55493,7 @@
         <v>1.9</v>
       </c>
       <c r="AQ262">
-        <v>1.42</v>
+        <v>1.5</v>
       </c>
       <c r="AR262">
         <v>1.59</v>
@@ -56105,7 +56108,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AP265">
-        <v>1.45</v>
+        <v>1.38</v>
       </c>
       <c r="AQ265">
         <v>0.65</v>
@@ -58989,10 +58992,10 @@
         <v>1.5</v>
       </c>
       <c r="AP279">
-        <v>1.45</v>
+        <v>1.38</v>
       </c>
       <c r="AQ279">
-        <v>1.42</v>
+        <v>1.5</v>
       </c>
       <c r="AR279">
         <v>1.47</v>
@@ -61464,7 +61467,7 @@
         <v>1.26</v>
       </c>
       <c r="AQ291">
-        <v>1.42</v>
+        <v>1.5</v>
       </c>
       <c r="AR291">
         <v>1.56</v>
@@ -61873,7 +61876,7 @@
         <v>0.76</v>
       </c>
       <c r="AP293">
-        <v>1.45</v>
+        <v>1.38</v>
       </c>
       <c r="AQ293">
         <v>0.84</v>
@@ -65581,7 +65584,7 @@
         <v>0.58</v>
       </c>
       <c r="AP311">
-        <v>1.45</v>
+        <v>1.38</v>
       </c>
       <c r="AQ311">
         <v>0.55</v>
@@ -65790,7 +65793,7 @@
         <v>1</v>
       </c>
       <c r="AQ312">
-        <v>1.42</v>
+        <v>1.5</v>
       </c>
       <c r="AR312">
         <v>1.27</v>
@@ -66484,6 +66487,212 @@
       </c>
       <c r="BP315">
         <v>1.29</v>
+      </c>
+    </row>
+    <row r="316" spans="1:68">
+      <c r="A316" s="1">
+        <v>315</v>
+      </c>
+      <c r="B316">
+        <v>7435387</v>
+      </c>
+      <c r="C316" t="s">
+        <v>68</v>
+      </c>
+      <c r="D316" t="s">
+        <v>69</v>
+      </c>
+      <c r="E316" s="2">
+        <v>45431.35416666666</v>
+      </c>
+      <c r="F316">
+        <v>0</v>
+      </c>
+      <c r="G316" t="s">
+        <v>70</v>
+      </c>
+      <c r="H316" t="s">
+        <v>83</v>
+      </c>
+      <c r="I316">
+        <v>0</v>
+      </c>
+      <c r="J316">
+        <v>0</v>
+      </c>
+      <c r="K316">
+        <v>0</v>
+      </c>
+      <c r="L316">
+        <v>0</v>
+      </c>
+      <c r="M316">
+        <v>2</v>
+      </c>
+      <c r="N316">
+        <v>2</v>
+      </c>
+      <c r="O316" t="s">
+        <v>87</v>
+      </c>
+      <c r="P316" t="s">
+        <v>405</v>
+      </c>
+      <c r="Q316">
+        <v>3.3</v>
+      </c>
+      <c r="R316">
+        <v>1.87</v>
+      </c>
+      <c r="S316">
+        <v>3.5</v>
+      </c>
+      <c r="T316">
+        <v>1.56</v>
+      </c>
+      <c r="U316">
+        <v>2.31</v>
+      </c>
+      <c r="V316">
+        <v>3.45</v>
+      </c>
+      <c r="W316">
+        <v>1.25</v>
+      </c>
+      <c r="X316">
+        <v>11</v>
+      </c>
+      <c r="Y316">
+        <v>1.03</v>
+      </c>
+      <c r="Z316">
+        <v>2.6</v>
+      </c>
+      <c r="AA316">
+        <v>2.95</v>
+      </c>
+      <c r="AB316">
+        <v>2.9</v>
+      </c>
+      <c r="AC316">
+        <v>1.1</v>
+      </c>
+      <c r="AD316">
+        <v>6.25</v>
+      </c>
+      <c r="AE316">
+        <v>1.48</v>
+      </c>
+      <c r="AF316">
+        <v>2.45</v>
+      </c>
+      <c r="AG316">
+        <v>2.5</v>
+      </c>
+      <c r="AH316">
+        <v>1.5</v>
+      </c>
+      <c r="AI316">
+        <v>2</v>
+      </c>
+      <c r="AJ316">
+        <v>1.75</v>
+      </c>
+      <c r="AK316">
+        <v>1.4</v>
+      </c>
+      <c r="AL316">
+        <v>1.33</v>
+      </c>
+      <c r="AM316">
+        <v>1.47</v>
+      </c>
+      <c r="AN316">
+        <v>1.36</v>
+      </c>
+      <c r="AO316">
+        <v>1.38</v>
+      </c>
+      <c r="AP316">
+        <v>1.33</v>
+      </c>
+      <c r="AQ316">
+        <v>1.43</v>
+      </c>
+      <c r="AR316">
+        <v>1.45</v>
+      </c>
+      <c r="AS316">
+        <v>1.28</v>
+      </c>
+      <c r="AT316">
+        <v>2.73</v>
+      </c>
+      <c r="AU316">
+        <v>-1</v>
+      </c>
+      <c r="AV316">
+        <v>-1</v>
+      </c>
+      <c r="AW316">
+        <v>-1</v>
+      </c>
+      <c r="AX316">
+        <v>-1</v>
+      </c>
+      <c r="AY316">
+        <v>-1</v>
+      </c>
+      <c r="AZ316">
+        <v>-1</v>
+      </c>
+      <c r="BA316">
+        <v>-1</v>
+      </c>
+      <c r="BB316">
+        <v>-1</v>
+      </c>
+      <c r="BC316">
+        <v>-1</v>
+      </c>
+      <c r="BD316">
+        <v>2.18</v>
+      </c>
+      <c r="BE316">
+        <v>7.75</v>
+      </c>
+      <c r="BF316">
+        <v>2.02</v>
+      </c>
+      <c r="BG316">
+        <v>0</v>
+      </c>
+      <c r="BH316">
+        <v>0</v>
+      </c>
+      <c r="BI316">
+        <v>1.95</v>
+      </c>
+      <c r="BJ316">
+        <v>1.85</v>
+      </c>
+      <c r="BK316">
+        <v>0</v>
+      </c>
+      <c r="BL316">
+        <v>0</v>
+      </c>
+      <c r="BM316">
+        <v>0</v>
+      </c>
+      <c r="BN316">
+        <v>0</v>
+      </c>
+      <c r="BO316">
+        <v>0</v>
+      </c>
+      <c r="BP316">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Romania Liga I_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Romania Liga I_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1958" uniqueCount="406">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1964" uniqueCount="407">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -841,25 +841,28 @@
     <t>['21', '39', '45+1']</t>
   </si>
   <si>
+    <t>['12', '45']</t>
+  </si>
+  <si>
+    <t>['68', '69']</t>
+  </si>
+  <si>
     <t>['14', '18']</t>
   </si>
   <si>
     <t>['47']</t>
   </si>
   <si>
-    <t>['68', '69']</t>
+    <t>['35', '52', '55']</t>
   </si>
   <si>
-    <t>['12', '45']</t>
-  </si>
-  <si>
-    <t>['35', '52', '55']</t>
+    <t>['46', '52', '79']</t>
   </si>
   <si>
     <t>['8', '16', '22', '38', '87']</t>
   </si>
   <si>
-    <t>['46', '52', '79']</t>
+    <t>['12', '42']</t>
   </si>
   <si>
     <t>['45+5']</t>
@@ -1593,7 +1596,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP316"/>
+  <dimension ref="A1:BP317"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1852,7 +1855,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q2">
         <v>4</v>
@@ -2136,7 +2139,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>1.68</v>
+        <v>1.75</v>
       </c>
       <c r="AQ3">
         <v>1.15</v>
@@ -2264,7 +2267,7 @@
         <v>87</v>
       </c>
       <c r="P4" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q4">
         <v>3.75</v>
@@ -2676,7 +2679,7 @@
         <v>89</v>
       </c>
       <c r="P6" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q6">
         <v>3.5</v>
@@ -2882,7 +2885,7 @@
         <v>90</v>
       </c>
       <c r="P7" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q7">
         <v>5</v>
@@ -2963,7 +2966,7 @@
         <v>1.26</v>
       </c>
       <c r="AQ7">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -3294,7 +3297,7 @@
         <v>87</v>
       </c>
       <c r="P9" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q9">
         <v>5.5</v>
@@ -3706,7 +3709,7 @@
         <v>93</v>
       </c>
       <c r="P11" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q11">
         <v>4.33</v>
@@ -4118,7 +4121,7 @@
         <v>95</v>
       </c>
       <c r="P13" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q13">
         <v>1.95</v>
@@ -4324,7 +4327,7 @@
         <v>96</v>
       </c>
       <c r="P14" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q14">
         <v>3.6</v>
@@ -4530,7 +4533,7 @@
         <v>87</v>
       </c>
       <c r="P15" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q15">
         <v>3.2</v>
@@ -4736,7 +4739,7 @@
         <v>97</v>
       </c>
       <c r="P16" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q16">
         <v>2.88</v>
@@ -5148,7 +5151,7 @@
         <v>98</v>
       </c>
       <c r="P18" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q18">
         <v>3</v>
@@ -5354,7 +5357,7 @@
         <v>99</v>
       </c>
       <c r="P19" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q19">
         <v>2</v>
@@ -5432,7 +5435,7 @@
         <v>0</v>
       </c>
       <c r="AP19">
-        <v>1.68</v>
+        <v>1.75</v>
       </c>
       <c r="AQ19">
         <v>0.55</v>
@@ -5766,7 +5769,7 @@
         <v>87</v>
       </c>
       <c r="P21" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q21">
         <v>4.75</v>
@@ -5847,7 +5850,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ21">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="AR21">
         <v>1.66</v>
@@ -5972,7 +5975,7 @@
         <v>101</v>
       </c>
       <c r="P22" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q22">
         <v>2.15</v>
@@ -6384,7 +6387,7 @@
         <v>87</v>
       </c>
       <c r="P24" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Q24">
         <v>3.25</v>
@@ -6590,7 +6593,7 @@
         <v>87</v>
       </c>
       <c r="P25" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Q25">
         <v>4.33</v>
@@ -7208,7 +7211,7 @@
         <v>87</v>
       </c>
       <c r="P28" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Q28">
         <v>3</v>
@@ -7414,7 +7417,7 @@
         <v>105</v>
       </c>
       <c r="P29" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q29">
         <v>2.55</v>
@@ -7620,7 +7623,7 @@
         <v>106</v>
       </c>
       <c r="P30" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Q30">
         <v>3.5</v>
@@ -8856,7 +8859,7 @@
         <v>112</v>
       </c>
       <c r="P36" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Q36">
         <v>4.9</v>
@@ -9062,7 +9065,7 @@
         <v>87</v>
       </c>
       <c r="P37" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Q37">
         <v>2.3</v>
@@ -9140,7 +9143,7 @@
         <v>1</v>
       </c>
       <c r="AP37">
-        <v>1.68</v>
+        <v>1.75</v>
       </c>
       <c r="AQ37">
         <v>0.95</v>
@@ -9474,7 +9477,7 @@
         <v>114</v>
       </c>
       <c r="P39" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Q39">
         <v>3.05</v>
@@ -10092,7 +10095,7 @@
         <v>116</v>
       </c>
       <c r="P42" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Q42">
         <v>2.6</v>
@@ -10298,7 +10301,7 @@
         <v>117</v>
       </c>
       <c r="P43" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Q43">
         <v>2.55</v>
@@ -10376,7 +10379,7 @@
         <v>1.5</v>
       </c>
       <c r="AP43">
-        <v>1.68</v>
+        <v>1.75</v>
       </c>
       <c r="AQ43">
         <v>1.4</v>
@@ -10504,7 +10507,7 @@
         <v>118</v>
       </c>
       <c r="P44" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Q44">
         <v>1.83</v>
@@ -10916,7 +10919,7 @@
         <v>119</v>
       </c>
       <c r="P46" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="Q46">
         <v>4.85</v>
@@ -11122,7 +11125,7 @@
         <v>120</v>
       </c>
       <c r="P47" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Q47">
         <v>3.66</v>
@@ -11328,7 +11331,7 @@
         <v>121</v>
       </c>
       <c r="P48" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Q48">
         <v>3.4</v>
@@ -12152,7 +12155,7 @@
         <v>125</v>
       </c>
       <c r="P52" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Q52">
         <v>3.1</v>
@@ -12439,7 +12442,7 @@
         <v>1.9</v>
       </c>
       <c r="AQ53">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="AR53">
         <v>0.83</v>
@@ -12564,7 +12567,7 @@
         <v>127</v>
       </c>
       <c r="P54" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="Q54">
         <v>2.75</v>
@@ -12848,7 +12851,7 @@
         <v>1.33</v>
       </c>
       <c r="AP55">
-        <v>1.68</v>
+        <v>1.75</v>
       </c>
       <c r="AQ55">
         <v>0.65</v>
@@ -12976,7 +12979,7 @@
         <v>93</v>
       </c>
       <c r="P56" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Q56">
         <v>4.7</v>
@@ -13594,7 +13597,7 @@
         <v>87</v>
       </c>
       <c r="P59" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Q59">
         <v>2.6</v>
@@ -13800,7 +13803,7 @@
         <v>131</v>
       </c>
       <c r="P60" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="Q60">
         <v>3.5</v>
@@ -14624,7 +14627,7 @@
         <v>133</v>
       </c>
       <c r="P64" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="Q64">
         <v>2.5</v>
@@ -15242,7 +15245,7 @@
         <v>87</v>
       </c>
       <c r="P67" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="Q67">
         <v>3</v>
@@ -15323,7 +15326,7 @@
         <v>1.45</v>
       </c>
       <c r="AQ67">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="AR67">
         <v>2.06</v>
@@ -15448,7 +15451,7 @@
         <v>135</v>
       </c>
       <c r="P68" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="Q68">
         <v>2.9</v>
@@ -15860,7 +15863,7 @@
         <v>137</v>
       </c>
       <c r="P70" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="Q70">
         <v>4.33</v>
@@ -15941,7 +15944,7 @@
         <v>1.9</v>
       </c>
       <c r="AQ70">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="AR70">
         <v>1.79</v>
@@ -16066,7 +16069,7 @@
         <v>87</v>
       </c>
       <c r="P71" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="Q71">
         <v>2.57</v>
@@ -16272,7 +16275,7 @@
         <v>87</v>
       </c>
       <c r="P72" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="Q72">
         <v>4.1</v>
@@ -16478,7 +16481,7 @@
         <v>138</v>
       </c>
       <c r="P73" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="Q73">
         <v>2.7</v>
@@ -16684,7 +16687,7 @@
         <v>139</v>
       </c>
       <c r="P74" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="Q74">
         <v>3.4</v>
@@ -17302,7 +17305,7 @@
         <v>141</v>
       </c>
       <c r="P77" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="Q77">
         <v>3.4</v>
@@ -17383,7 +17386,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ77">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="AR77">
         <v>1.48</v>
@@ -17586,7 +17589,7 @@
         <v>2.25</v>
       </c>
       <c r="AP78">
-        <v>1.68</v>
+        <v>1.75</v>
       </c>
       <c r="AQ78">
         <v>1.45</v>
@@ -18126,7 +18129,7 @@
         <v>144</v>
       </c>
       <c r="P81" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="Q81">
         <v>2.86</v>
@@ -19156,7 +19159,7 @@
         <v>148</v>
       </c>
       <c r="P86" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="Q86">
         <v>2.05</v>
@@ -19774,7 +19777,7 @@
         <v>150</v>
       </c>
       <c r="P89" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="Q89">
         <v>2</v>
@@ -19852,7 +19855,7 @@
         <v>1.5</v>
       </c>
       <c r="AP89">
-        <v>1.68</v>
+        <v>1.75</v>
       </c>
       <c r="AQ89">
         <v>0.85</v>
@@ -20473,7 +20476,7 @@
         <v>1.26</v>
       </c>
       <c r="AQ92">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="AR92">
         <v>1.53</v>
@@ -20598,7 +20601,7 @@
         <v>87</v>
       </c>
       <c r="P93" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Q93">
         <v>3.5</v>
@@ -20804,7 +20807,7 @@
         <v>151</v>
       </c>
       <c r="P94" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="Q94">
         <v>4.4</v>
@@ -21422,7 +21425,7 @@
         <v>154</v>
       </c>
       <c r="P97" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="Q97">
         <v>3.7</v>
@@ -22246,7 +22249,7 @@
         <v>90</v>
       </c>
       <c r="P101" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="Q101">
         <v>1.98</v>
@@ -22658,7 +22661,7 @@
         <v>157</v>
       </c>
       <c r="P103" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="Q103">
         <v>2.15</v>
@@ -23070,7 +23073,7 @@
         <v>158</v>
       </c>
       <c r="P105" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="Q105">
         <v>2.15</v>
@@ -23276,7 +23279,7 @@
         <v>87</v>
       </c>
       <c r="P106" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="Q106">
         <v>3.85</v>
@@ -23894,7 +23897,7 @@
         <v>160</v>
       </c>
       <c r="P109" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="Q109">
         <v>4.1</v>
@@ -23975,7 +23978,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ109">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="AR109">
         <v>1.49</v>
@@ -24100,7 +24103,7 @@
         <v>161</v>
       </c>
       <c r="P110" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="Q110">
         <v>2.6</v>
@@ -24384,7 +24387,7 @@
         <v>1.29</v>
       </c>
       <c r="AP111">
-        <v>1.68</v>
+        <v>1.75</v>
       </c>
       <c r="AQ111">
         <v>1.65</v>
@@ -24512,7 +24515,7 @@
         <v>87</v>
       </c>
       <c r="P112" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="Q112">
         <v>3.6</v>
@@ -24718,7 +24721,7 @@
         <v>163</v>
       </c>
       <c r="P113" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="Q113">
         <v>2.5</v>
@@ -24924,7 +24927,7 @@
         <v>164</v>
       </c>
       <c r="P114" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Q114">
         <v>3.25</v>
@@ -25542,7 +25545,7 @@
         <v>136</v>
       </c>
       <c r="P117" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="Q117">
         <v>2.68</v>
@@ -25954,7 +25957,7 @@
         <v>156</v>
       </c>
       <c r="P119" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="Q119">
         <v>5</v>
@@ -26984,7 +26987,7 @@
         <v>168</v>
       </c>
       <c r="P124" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="Q124">
         <v>5.15</v>
@@ -27396,7 +27399,7 @@
         <v>169</v>
       </c>
       <c r="P126" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="Q126">
         <v>3.25</v>
@@ -28014,7 +28017,7 @@
         <v>172</v>
       </c>
       <c r="P129" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="Q129">
         <v>3.1</v>
@@ -28632,7 +28635,7 @@
         <v>174</v>
       </c>
       <c r="P132" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="Q132">
         <v>3.98</v>
@@ -29044,7 +29047,7 @@
         <v>175</v>
       </c>
       <c r="P134" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="Q134">
         <v>4</v>
@@ -29250,7 +29253,7 @@
         <v>87</v>
       </c>
       <c r="P135" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="Q135">
         <v>7</v>
@@ -29331,7 +29334,7 @@
         <v>1.37</v>
       </c>
       <c r="AQ135">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="AR135">
         <v>1.46</v>
@@ -29662,7 +29665,7 @@
         <v>177</v>
       </c>
       <c r="P137" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="Q137">
         <v>2.39</v>
@@ -29740,7 +29743,7 @@
         <v>1.75</v>
       </c>
       <c r="AP137">
-        <v>1.68</v>
+        <v>1.75</v>
       </c>
       <c r="AQ137">
         <v>1.5</v>
@@ -30074,7 +30077,7 @@
         <v>178</v>
       </c>
       <c r="P139" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="Q139">
         <v>3.94</v>
@@ -31104,7 +31107,7 @@
         <v>87</v>
       </c>
       <c r="P144" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="Q144">
         <v>1.98</v>
@@ -31722,7 +31725,7 @@
         <v>152</v>
       </c>
       <c r="P147" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="Q147">
         <v>2.27</v>
@@ -31800,7 +31803,7 @@
         <v>1.11</v>
       </c>
       <c r="AP147">
-        <v>1.68</v>
+        <v>1.75</v>
       </c>
       <c r="AQ147">
         <v>0.95</v>
@@ -31928,7 +31931,7 @@
         <v>184</v>
       </c>
       <c r="P148" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="Q148">
         <v>3.5</v>
@@ -32421,7 +32424,7 @@
         <v>2.15</v>
       </c>
       <c r="AQ150">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="AR150">
         <v>1.82</v>
@@ -32958,7 +32961,7 @@
         <v>188</v>
       </c>
       <c r="P153" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="Q153">
         <v>3.25</v>
@@ -33782,7 +33785,7 @@
         <v>189</v>
       </c>
       <c r="P157" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="Q157">
         <v>1.95</v>
@@ -34606,7 +34609,7 @@
         <v>87</v>
       </c>
       <c r="P161" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="Q161">
         <v>3.25</v>
@@ -35018,7 +35021,7 @@
         <v>138</v>
       </c>
       <c r="P163" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="Q163">
         <v>4.7</v>
@@ -35099,7 +35102,7 @@
         <v>1.37</v>
       </c>
       <c r="AQ163">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="AR163">
         <v>1.7</v>
@@ -35224,7 +35227,7 @@
         <v>193</v>
       </c>
       <c r="P164" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="Q164">
         <v>3.75</v>
@@ -36048,7 +36051,7 @@
         <v>87</v>
       </c>
       <c r="P168" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="Q168">
         <v>2.55</v>
@@ -36666,7 +36669,7 @@
         <v>197</v>
       </c>
       <c r="P171" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="Q171">
         <v>2.4</v>
@@ -36744,7 +36747,7 @@
         <v>1.1</v>
       </c>
       <c r="AP171">
-        <v>1.68</v>
+        <v>1.75</v>
       </c>
       <c r="AQ171">
         <v>0.65</v>
@@ -37490,7 +37493,7 @@
         <v>201</v>
       </c>
       <c r="P175" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="Q175">
         <v>2.48</v>
@@ -38314,7 +38317,7 @@
         <v>204</v>
       </c>
       <c r="P179" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="Q179">
         <v>3.6</v>
@@ -38726,7 +38729,7 @@
         <v>205</v>
       </c>
       <c r="P181" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="Q181">
         <v>4</v>
@@ -39344,7 +39347,7 @@
         <v>87</v>
       </c>
       <c r="P184" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="Q184">
         <v>3.2</v>
@@ -39425,7 +39428,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ184">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="AR184">
         <v>1.77</v>
@@ -39550,7 +39553,7 @@
         <v>208</v>
       </c>
       <c r="P185" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="Q185">
         <v>1.95</v>
@@ -39756,7 +39759,7 @@
         <v>209</v>
       </c>
       <c r="P186" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="Q186">
         <v>3.15</v>
@@ -40168,7 +40171,7 @@
         <v>211</v>
       </c>
       <c r="P188" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="Q188">
         <v>3.8</v>
@@ -40452,7 +40455,7 @@
         <v>1.73</v>
       </c>
       <c r="AP189">
-        <v>1.68</v>
+        <v>1.75</v>
       </c>
       <c r="AQ189">
         <v>1.26</v>
@@ -40580,7 +40583,7 @@
         <v>213</v>
       </c>
       <c r="P190" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="Q190">
         <v>2.5</v>
@@ -40786,7 +40789,7 @@
         <v>214</v>
       </c>
       <c r="P191" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="Q191">
         <v>3.2</v>
@@ -41610,7 +41613,7 @@
         <v>216</v>
       </c>
       <c r="P195" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="Q195">
         <v>2.4</v>
@@ -42640,7 +42643,7 @@
         <v>217</v>
       </c>
       <c r="P200" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="Q200">
         <v>2.7</v>
@@ -42846,7 +42849,7 @@
         <v>87</v>
       </c>
       <c r="P201" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="Q201">
         <v>2.09</v>
@@ -43336,7 +43339,7 @@
         <v>0.83</v>
       </c>
       <c r="AP203">
-        <v>1.68</v>
+        <v>1.75</v>
       </c>
       <c r="AQ203">
         <v>0.84</v>
@@ -43670,7 +43673,7 @@
         <v>220</v>
       </c>
       <c r="P205" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="Q205">
         <v>3.5</v>
@@ -43876,7 +43879,7 @@
         <v>221</v>
       </c>
       <c r="P206" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="Q206">
         <v>4.2</v>
@@ -44082,7 +44085,7 @@
         <v>222</v>
       </c>
       <c r="P207" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="Q207">
         <v>3.6</v>
@@ -44575,7 +44578,7 @@
         <v>1.35</v>
       </c>
       <c r="AQ209">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="AR209">
         <v>1.68</v>
@@ -45524,7 +45527,7 @@
         <v>224</v>
       </c>
       <c r="P214" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="Q214">
         <v>4.55</v>
@@ -45936,7 +45939,7 @@
         <v>225</v>
       </c>
       <c r="P216" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="Q216">
         <v>1.75</v>
@@ -46142,7 +46145,7 @@
         <v>226</v>
       </c>
       <c r="P217" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="Q217">
         <v>2.05</v>
@@ -46760,7 +46763,7 @@
         <v>229</v>
       </c>
       <c r="P220" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="Q220">
         <v>5.25</v>
@@ -47250,7 +47253,7 @@
         <v>1.08</v>
       </c>
       <c r="AP222">
-        <v>1.68</v>
+        <v>1.75</v>
       </c>
       <c r="AQ222">
         <v>1</v>
@@ -47378,7 +47381,7 @@
         <v>183</v>
       </c>
       <c r="P223" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="Q223">
         <v>4.5</v>
@@ -47584,7 +47587,7 @@
         <v>231</v>
       </c>
       <c r="P224" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="Q224">
         <v>3.75</v>
@@ -47790,7 +47793,7 @@
         <v>104</v>
       </c>
       <c r="P225" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="Q225">
         <v>4.75</v>
@@ -47871,7 +47874,7 @@
         <v>1</v>
       </c>
       <c r="AQ225">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="AR225">
         <v>1.37</v>
@@ -48202,7 +48205,7 @@
         <v>232</v>
       </c>
       <c r="P227" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="Q227">
         <v>2.99</v>
@@ -49438,7 +49441,7 @@
         <v>89</v>
       </c>
       <c r="P233" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="Q233">
         <v>3</v>
@@ -50468,7 +50471,7 @@
         <v>237</v>
       </c>
       <c r="P238" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="Q238">
         <v>3.5</v>
@@ -50752,10 +50755,10 @@
         <v>2.21</v>
       </c>
       <c r="AP239">
-        <v>1.68</v>
+        <v>1.75</v>
       </c>
       <c r="AQ239">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="AR239">
         <v>1.86</v>
@@ -50880,7 +50883,7 @@
         <v>213</v>
       </c>
       <c r="P240" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="Q240">
         <v>3.6</v>
@@ -51498,7 +51501,7 @@
         <v>108</v>
       </c>
       <c r="P243" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="Q243">
         <v>2.3</v>
@@ -51576,7 +51579,7 @@
         <v>1.4</v>
       </c>
       <c r="AP243">
-        <v>1.68</v>
+        <v>1.75</v>
       </c>
       <c r="AQ243">
         <v>1.4</v>
@@ -51910,7 +51913,7 @@
         <v>156</v>
       </c>
       <c r="P245" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="Q245">
         <v>2.65</v>
@@ -52528,7 +52531,7 @@
         <v>243</v>
       </c>
       <c r="P248" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="Q248">
         <v>2.53</v>
@@ -53970,7 +53973,7 @@
         <v>102</v>
       </c>
       <c r="P255" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="Q255">
         <v>2.95</v>
@@ -54257,7 +54260,7 @@
         <v>1.45</v>
       </c>
       <c r="AQ256">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="AR256">
         <v>1.84</v>
@@ -54382,7 +54385,7 @@
         <v>102</v>
       </c>
       <c r="P257" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="Q257">
         <v>3.1</v>
@@ -55000,7 +55003,7 @@
         <v>87</v>
       </c>
       <c r="P260" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="Q260">
         <v>2.9</v>
@@ -55206,7 +55209,7 @@
         <v>247</v>
       </c>
       <c r="P261" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="Q261">
         <v>2.8</v>
@@ -55284,7 +55287,7 @@
         <v>1.25</v>
       </c>
       <c r="AP261">
-        <v>1.68</v>
+        <v>1.75</v>
       </c>
       <c r="AQ261">
         <v>1.45</v>
@@ -55412,7 +55415,7 @@
         <v>164</v>
       </c>
       <c r="P262" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="Q262">
         <v>3.12</v>
@@ -56236,7 +56239,7 @@
         <v>249</v>
       </c>
       <c r="P266" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="Q266">
         <v>3.05</v>
@@ -56442,7 +56445,7 @@
         <v>250</v>
       </c>
       <c r="P267" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="Q267">
         <v>2.5</v>
@@ -56648,7 +56651,7 @@
         <v>175</v>
       </c>
       <c r="P268" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="Q268">
         <v>3.55</v>
@@ -56854,7 +56857,7 @@
         <v>146</v>
       </c>
       <c r="P269" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="Q269">
         <v>2.49</v>
@@ -57553,7 +57556,7 @@
         <v>2.15</v>
       </c>
       <c r="AQ272">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="AR272">
         <v>1.86</v>
@@ -57756,7 +57759,7 @@
         <v>1.06</v>
       </c>
       <c r="AP273">
-        <v>1.68</v>
+        <v>1.75</v>
       </c>
       <c r="AQ273">
         <v>1.15</v>
@@ -58090,7 +58093,7 @@
         <v>253</v>
       </c>
       <c r="P275" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="Q275">
         <v>3.8</v>
@@ -58296,7 +58299,7 @@
         <v>254</v>
       </c>
       <c r="P276" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="Q276">
         <v>3</v>
@@ -58502,7 +58505,7 @@
         <v>180</v>
       </c>
       <c r="P277" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="Q277">
         <v>2.85</v>
@@ -58708,7 +58711,7 @@
         <v>255</v>
       </c>
       <c r="P278" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="Q278">
         <v>2.5</v>
@@ -59120,7 +59123,7 @@
         <v>220</v>
       </c>
       <c r="P280" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="Q280">
         <v>3.1</v>
@@ -59326,7 +59329,7 @@
         <v>256</v>
       </c>
       <c r="P281" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q281">
         <v>3</v>
@@ -59738,7 +59741,7 @@
         <v>257</v>
       </c>
       <c r="P283" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="Q283">
         <v>3.35</v>
@@ -60356,7 +60359,7 @@
         <v>260</v>
       </c>
       <c r="P286" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="Q286">
         <v>4.1</v>
@@ -60437,7 +60440,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ286">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="AR286">
         <v>1.63</v>
@@ -60562,7 +60565,7 @@
         <v>261</v>
       </c>
       <c r="P287" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="Q287">
         <v>3.1</v>
@@ -61386,7 +61389,7 @@
         <v>264</v>
       </c>
       <c r="P291" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="Q291">
         <v>3</v>
@@ -61592,7 +61595,7 @@
         <v>265</v>
       </c>
       <c r="P292" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Q292">
         <v>2.55</v>
@@ -62004,7 +62007,7 @@
         <v>87</v>
       </c>
       <c r="P294" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="Q294">
         <v>3.2</v>
@@ -62416,7 +62419,7 @@
         <v>136</v>
       </c>
       <c r="P296" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="Q296">
         <v>2.58</v>
@@ -62622,7 +62625,7 @@
         <v>268</v>
       </c>
       <c r="P297" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="Q297">
         <v>2.75</v>
@@ -62700,7 +62703,7 @@
         <v>1.61</v>
       </c>
       <c r="AP297">
-        <v>1.68</v>
+        <v>1.75</v>
       </c>
       <c r="AQ297">
         <v>1.65</v>
@@ -62828,7 +62831,7 @@
         <v>132</v>
       </c>
       <c r="P298" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="Q298">
         <v>2.38</v>
@@ -63240,7 +63243,7 @@
         <v>269</v>
       </c>
       <c r="P300" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="Q300">
         <v>3.39</v>
@@ -63652,7 +63655,7 @@
         <v>271</v>
       </c>
       <c r="P302" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="Q302">
         <v>1.84</v>
@@ -64351,7 +64354,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ305">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="AR305">
         <v>1.67</v>
@@ -64476,7 +64479,7 @@
         <v>274</v>
       </c>
       <c r="P306" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="Q306">
         <v>3</v>
@@ -64682,7 +64685,7 @@
         <v>87</v>
       </c>
       <c r="P307" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="Q307">
         <v>3.55</v>
@@ -64846,7 +64849,7 @@
         <v>307</v>
       </c>
       <c r="B308">
-        <v>7383796</v>
+        <v>7383793</v>
       </c>
       <c r="C308" t="s">
         <v>68</v>
@@ -64861,10 +64864,10 @@
         <v>9</v>
       </c>
       <c r="G308" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="H308" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="I308">
         <v>2</v>
@@ -64891,160 +64894,160 @@
         <v>87</v>
       </c>
       <c r="Q308">
-        <v>2.43</v>
+        <v>3.25</v>
       </c>
       <c r="R308">
-        <v>2.18</v>
+        <v>2.12</v>
       </c>
       <c r="S308">
-        <v>4.74</v>
+        <v>3.2</v>
       </c>
       <c r="T308">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="U308">
-        <v>2.86</v>
+        <v>2.8</v>
       </c>
       <c r="V308">
-        <v>2.78</v>
+        <v>3.15</v>
       </c>
       <c r="W308">
-        <v>1.41</v>
+        <v>1.3</v>
       </c>
       <c r="X308">
-        <v>6.92</v>
+        <v>9</v>
       </c>
       <c r="Y308">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="Z308">
-        <v>1.83</v>
+        <v>2.45</v>
       </c>
       <c r="AA308">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="AB308">
-        <v>3.6</v>
+        <v>2.9</v>
       </c>
       <c r="AC308">
-        <v>1.04</v>
+        <v>1.02</v>
       </c>
       <c r="AD308">
-        <v>12</v>
+        <v>8.6</v>
       </c>
       <c r="AE308">
-        <v>1.27</v>
+        <v>1.29</v>
       </c>
       <c r="AF308">
-        <v>3.4</v>
+        <v>3.14</v>
       </c>
       <c r="AG308">
+        <v>2.1</v>
+      </c>
+      <c r="AH308">
+        <v>1.65</v>
+      </c>
+      <c r="AI308">
         <v>1.9</v>
       </c>
-      <c r="AH308">
-        <v>1.9</v>
-      </c>
-      <c r="AI308">
-        <v>1.78</v>
-      </c>
       <c r="AJ308">
-        <v>1.99</v>
+        <v>1.86</v>
       </c>
       <c r="AK308">
+        <v>1.5</v>
+      </c>
+      <c r="AL308">
+        <v>1.29</v>
+      </c>
+      <c r="AM308">
+        <v>1.46</v>
+      </c>
+      <c r="AN308">
+        <v>1.37</v>
+      </c>
+      <c r="AO308">
+        <v>0.58</v>
+      </c>
+      <c r="AP308">
+        <v>1.38</v>
+      </c>
+      <c r="AQ308">
+        <v>0.55</v>
+      </c>
+      <c r="AR308">
+        <v>1.42</v>
+      </c>
+      <c r="AS308">
         <v>1.22</v>
       </c>
-      <c r="AL308">
-        <v>1.27</v>
-      </c>
-      <c r="AM308">
-        <v>1.92</v>
-      </c>
-      <c r="AN308">
-        <v>1.28</v>
-      </c>
-      <c r="AO308">
-        <v>1.06</v>
-      </c>
-      <c r="AP308">
-        <v>1.37</v>
-      </c>
-      <c r="AQ308">
-        <v>1</v>
-      </c>
-      <c r="AR308">
-        <v>1.43</v>
-      </c>
-      <c r="AS308">
-        <v>1.29</v>
-      </c>
       <c r="AT308">
-        <v>2.72</v>
+        <v>2.64</v>
       </c>
       <c r="AU308">
+        <v>7</v>
+      </c>
+      <c r="AV308">
         <v>4</v>
       </c>
-      <c r="AV308">
-        <v>2</v>
-      </c>
       <c r="AW308">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AX308">
         <v>6</v>
       </c>
       <c r="AY308">
+        <v>11</v>
+      </c>
+      <c r="AZ308">
+        <v>10</v>
+      </c>
+      <c r="BA308">
+        <v>4</v>
+      </c>
+      <c r="BB308">
         <v>5</v>
       </c>
-      <c r="AZ308">
-        <v>8</v>
-      </c>
-      <c r="BA308">
-        <v>3</v>
-      </c>
-      <c r="BB308">
-        <v>4</v>
-      </c>
       <c r="BC308">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="BD308">
-        <v>1.66</v>
+        <v>2.07</v>
       </c>
       <c r="BE308">
-        <v>8.1</v>
+        <v>7.75</v>
       </c>
       <c r="BF308">
-        <v>2.81</v>
+        <v>2.13</v>
       </c>
       <c r="BG308">
-        <v>1.34</v>
+        <v>1.39</v>
       </c>
       <c r="BH308">
-        <v>2.88</v>
+        <v>2.67</v>
       </c>
       <c r="BI308">
-        <v>1.69</v>
+        <v>1.85</v>
       </c>
       <c r="BJ308">
-        <v>2.15</v>
+        <v>1.95</v>
       </c>
       <c r="BK308">
-        <v>2.13</v>
+        <v>2.11</v>
       </c>
       <c r="BL308">
         <v>1.7</v>
       </c>
       <c r="BM308">
-        <v>2.78</v>
+        <v>2.98</v>
       </c>
       <c r="BN308">
-        <v>1.36</v>
+        <v>1.32</v>
       </c>
       <c r="BO308">
-        <v>3.94</v>
+        <v>4.34</v>
       </c>
       <c r="BP308">
-        <v>1.21</v>
+        <v>1.18</v>
       </c>
     </row>
     <row r="309" spans="1:68">
@@ -65052,7 +65055,7 @@
         <v>308</v>
       </c>
       <c r="B309">
-        <v>7383795</v>
+        <v>7383794</v>
       </c>
       <c r="C309" t="s">
         <v>68</v>
@@ -65067,10 +65070,10 @@
         <v>9</v>
       </c>
       <c r="G309" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="H309" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I309">
         <v>0</v>
@@ -65082,175 +65085,175 @@
         <v>0</v>
       </c>
       <c r="L309">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M309">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N309">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O309" t="s">
         <v>276</v>
       </c>
       <c r="P309" t="s">
-        <v>401</v>
+        <v>87</v>
       </c>
       <c r="Q309">
-        <v>2.6</v>
+        <v>2.22</v>
       </c>
       <c r="R309">
-        <v>2.14</v>
+        <v>2.21</v>
       </c>
       <c r="S309">
-        <v>4.38</v>
+        <v>5.64</v>
       </c>
       <c r="T309">
+        <v>1.39</v>
+      </c>
+      <c r="U309">
+        <v>2.86</v>
+      </c>
+      <c r="V309">
+        <v>2.78</v>
+      </c>
+      <c r="W309">
         <v>1.41</v>
       </c>
-      <c r="U309">
-        <v>2.78</v>
-      </c>
-      <c r="V309">
-        <v>2.9</v>
-      </c>
-      <c r="W309">
-        <v>1.38</v>
-      </c>
       <c r="X309">
-        <v>7.31</v>
+        <v>6.92</v>
       </c>
       <c r="Y309">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="Z309">
-        <v>2.1</v>
+        <v>1.6</v>
       </c>
       <c r="AA309">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="AB309">
-        <v>3.4</v>
+        <v>5</v>
       </c>
       <c r="AC309">
         <v>1.02</v>
       </c>
       <c r="AD309">
-        <v>8.800000000000001</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AE309">
+        <v>1.27</v>
+      </c>
+      <c r="AF309">
+        <v>3.28</v>
+      </c>
+      <c r="AG309">
+        <v>2.2</v>
+      </c>
+      <c r="AH309">
+        <v>1.62</v>
+      </c>
+      <c r="AI309">
+        <v>1.87</v>
+      </c>
+      <c r="AJ309">
+        <v>1.83</v>
+      </c>
+      <c r="AK309">
+        <v>1.15</v>
+      </c>
+      <c r="AL309">
+        <v>1.24</v>
+      </c>
+      <c r="AM309">
+        <v>2.18</v>
+      </c>
+      <c r="AN309">
         <v>1.28</v>
       </c>
-      <c r="AF309">
-        <v>3.18</v>
-      </c>
-      <c r="AG309">
-        <v>2.25</v>
-      </c>
-      <c r="AH309">
-        <v>1.57</v>
-      </c>
-      <c r="AI309">
-        <v>1.79</v>
-      </c>
-      <c r="AJ309">
-        <v>1.98</v>
-      </c>
-      <c r="AK309">
-        <v>1.27</v>
-      </c>
-      <c r="AL309">
-        <v>1.28</v>
-      </c>
-      <c r="AM309">
-        <v>1.77</v>
-      </c>
-      <c r="AN309">
-        <v>1.33</v>
-      </c>
       <c r="AO309">
-        <v>0.72</v>
+        <v>1</v>
       </c>
       <c r="AP309">
-        <v>1.26</v>
+        <v>1.37</v>
       </c>
       <c r="AQ309">
-        <v>0.84</v>
+        <v>0.95</v>
       </c>
       <c r="AR309">
-        <v>1.56</v>
+        <v>1.61</v>
       </c>
       <c r="AS309">
         <v>1.29</v>
       </c>
       <c r="AT309">
-        <v>2.85</v>
+        <v>2.9</v>
       </c>
       <c r="AU309">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AV309">
+        <v>2</v>
+      </c>
+      <c r="AW309">
+        <v>7</v>
+      </c>
+      <c r="AX309">
         <v>4</v>
       </c>
-      <c r="AW309">
-        <v>5</v>
-      </c>
-      <c r="AX309">
-        <v>3</v>
-      </c>
       <c r="AY309">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AZ309">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BA309">
         <v>6</v>
       </c>
       <c r="BB309">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BC309">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="BD309">
-        <v>2.02</v>
+        <v>1.49</v>
       </c>
       <c r="BE309">
-        <v>7.75</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="BF309">
-        <v>2.18</v>
+        <v>3.38</v>
       </c>
       <c r="BG309">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="BH309">
-        <v>2.88</v>
+        <v>2.84</v>
       </c>
       <c r="BI309">
         <v>1.68</v>
       </c>
       <c r="BJ309">
-        <v>2.16</v>
+        <v>2.13</v>
       </c>
       <c r="BK309">
-        <v>2.11</v>
+        <v>2.13</v>
       </c>
       <c r="BL309">
-        <v>1.71</v>
+        <v>1.69</v>
       </c>
       <c r="BM309">
-        <v>2.75</v>
+        <v>2.79</v>
       </c>
       <c r="BN309">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="BO309">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="BP309">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="310" spans="1:68">
@@ -65258,7 +65261,7 @@
         <v>309</v>
       </c>
       <c r="B310">
-        <v>7383794</v>
+        <v>7383796</v>
       </c>
       <c r="C310" t="s">
         <v>68</v>
@@ -65273,19 +65276,19 @@
         <v>9</v>
       </c>
       <c r="G310" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="H310" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="I310">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J310">
         <v>0</v>
       </c>
       <c r="K310">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L310">
         <v>2</v>
@@ -65303,13 +65306,13 @@
         <v>87</v>
       </c>
       <c r="Q310">
-        <v>2.22</v>
+        <v>2.43</v>
       </c>
       <c r="R310">
-        <v>2.21</v>
+        <v>2.18</v>
       </c>
       <c r="S310">
-        <v>5.64</v>
+        <v>4.74</v>
       </c>
       <c r="T310">
         <v>1.39</v>
@@ -65330,133 +65333,133 @@
         <v>1.07</v>
       </c>
       <c r="Z310">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AA310">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="AB310">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="AC310">
-        <v>1.02</v>
+        <v>1.04</v>
       </c>
       <c r="AD310">
-        <v>9.199999999999999</v>
+        <v>12</v>
       </c>
       <c r="AE310">
         <v>1.27</v>
       </c>
       <c r="AF310">
-        <v>3.28</v>
+        <v>3.4</v>
       </c>
       <c r="AG310">
-        <v>2.2</v>
+        <v>1.9</v>
       </c>
       <c r="AH310">
-        <v>1.62</v>
+        <v>1.9</v>
       </c>
       <c r="AI310">
-        <v>1.87</v>
+        <v>1.78</v>
       </c>
       <c r="AJ310">
-        <v>1.83</v>
+        <v>1.99</v>
       </c>
       <c r="AK310">
-        <v>1.15</v>
+        <v>1.22</v>
       </c>
       <c r="AL310">
-        <v>1.24</v>
+        <v>1.27</v>
       </c>
       <c r="AM310">
-        <v>2.18</v>
+        <v>1.92</v>
       </c>
       <c r="AN310">
         <v>1.28</v>
       </c>
       <c r="AO310">
-        <v>1</v>
+        <v>1.06</v>
       </c>
       <c r="AP310">
         <v>1.37</v>
       </c>
       <c r="AQ310">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="AR310">
-        <v>1.61</v>
+        <v>1.43</v>
       </c>
       <c r="AS310">
         <v>1.29</v>
       </c>
       <c r="AT310">
-        <v>2.9</v>
+        <v>2.72</v>
       </c>
       <c r="AU310">
+        <v>4</v>
+      </c>
+      <c r="AV310">
+        <v>2</v>
+      </c>
+      <c r="AW310">
+        <v>1</v>
+      </c>
+      <c r="AX310">
+        <v>6</v>
+      </c>
+      <c r="AY310">
+        <v>5</v>
+      </c>
+      <c r="AZ310">
+        <v>8</v>
+      </c>
+      <c r="BA310">
+        <v>3</v>
+      </c>
+      <c r="BB310">
+        <v>4</v>
+      </c>
+      <c r="BC310">
         <v>7</v>
       </c>
-      <c r="AV310">
-        <v>2</v>
-      </c>
-      <c r="AW310">
-        <v>7</v>
-      </c>
-      <c r="AX310">
-        <v>4</v>
-      </c>
-      <c r="AY310">
-        <v>14</v>
-      </c>
-      <c r="AZ310">
-        <v>6</v>
-      </c>
-      <c r="BA310">
-        <v>6</v>
-      </c>
-      <c r="BB310">
-        <v>8</v>
-      </c>
-      <c r="BC310">
-        <v>14</v>
-      </c>
       <c r="BD310">
-        <v>1.49</v>
+        <v>1.66</v>
       </c>
       <c r="BE310">
-        <v>8.699999999999999</v>
+        <v>8.1</v>
       </c>
       <c r="BF310">
-        <v>3.38</v>
+        <v>2.81</v>
       </c>
       <c r="BG310">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="BH310">
-        <v>2.84</v>
+        <v>2.88</v>
       </c>
       <c r="BI310">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
       <c r="BJ310">
-        <v>2.13</v>
+        <v>2.15</v>
       </c>
       <c r="BK310">
         <v>2.13</v>
       </c>
       <c r="BL310">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="BM310">
-        <v>2.79</v>
+        <v>2.78</v>
       </c>
       <c r="BN310">
         <v>1.36</v>
       </c>
       <c r="BO310">
-        <v>3.8</v>
+        <v>3.94</v>
       </c>
       <c r="BP310">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
     </row>
     <row r="311" spans="1:68">
@@ -65464,7 +65467,7 @@
         <v>310</v>
       </c>
       <c r="B311">
-        <v>7383793</v>
+        <v>7383795</v>
       </c>
       <c r="C311" t="s">
         <v>68</v>
@@ -65479,190 +65482,190 @@
         <v>9</v>
       </c>
       <c r="G311" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="H311" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="I311">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J311">
         <v>0</v>
       </c>
       <c r="K311">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L311">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M311">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N311">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O311" t="s">
         <v>278</v>
       </c>
       <c r="P311" t="s">
-        <v>87</v>
+        <v>402</v>
       </c>
       <c r="Q311">
-        <v>3.25</v>
+        <v>2.6</v>
       </c>
       <c r="R311">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="S311">
-        <v>3.2</v>
+        <v>4.38</v>
       </c>
       <c r="T311">
+        <v>1.41</v>
+      </c>
+      <c r="U311">
+        <v>2.78</v>
+      </c>
+      <c r="V311">
+        <v>2.9</v>
+      </c>
+      <c r="W311">
         <v>1.38</v>
       </c>
-      <c r="U311">
-        <v>2.8</v>
-      </c>
-      <c r="V311">
-        <v>3.15</v>
-      </c>
-      <c r="W311">
-        <v>1.3</v>
-      </c>
       <c r="X311">
-        <v>9</v>
+        <v>7.31</v>
       </c>
       <c r="Y311">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="Z311">
-        <v>2.45</v>
+        <v>2.1</v>
       </c>
       <c r="AA311">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="AB311">
-        <v>2.9</v>
+        <v>3.4</v>
       </c>
       <c r="AC311">
         <v>1.02</v>
       </c>
       <c r="AD311">
-        <v>8.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AE311">
+        <v>1.28</v>
+      </c>
+      <c r="AF311">
+        <v>3.18</v>
+      </c>
+      <c r="AG311">
+        <v>2.25</v>
+      </c>
+      <c r="AH311">
+        <v>1.57</v>
+      </c>
+      <c r="AI311">
+        <v>1.79</v>
+      </c>
+      <c r="AJ311">
+        <v>1.98</v>
+      </c>
+      <c r="AK311">
+        <v>1.27</v>
+      </c>
+      <c r="AL311">
+        <v>1.28</v>
+      </c>
+      <c r="AM311">
+        <v>1.77</v>
+      </c>
+      <c r="AN311">
+        <v>1.33</v>
+      </c>
+      <c r="AO311">
+        <v>0.72</v>
+      </c>
+      <c r="AP311">
+        <v>1.26</v>
+      </c>
+      <c r="AQ311">
+        <v>0.84</v>
+      </c>
+      <c r="AR311">
+        <v>1.56</v>
+      </c>
+      <c r="AS311">
         <v>1.29</v>
       </c>
-      <c r="AF311">
-        <v>3.14</v>
-      </c>
-      <c r="AG311">
-        <v>2.1</v>
-      </c>
-      <c r="AH311">
-        <v>1.65</v>
-      </c>
-      <c r="AI311">
-        <v>1.9</v>
-      </c>
-      <c r="AJ311">
-        <v>1.86</v>
-      </c>
-      <c r="AK311">
-        <v>1.5</v>
-      </c>
-      <c r="AL311">
-        <v>1.29</v>
-      </c>
-      <c r="AM311">
-        <v>1.46</v>
-      </c>
-      <c r="AN311">
-        <v>1.37</v>
-      </c>
-      <c r="AO311">
-        <v>0.58</v>
-      </c>
-      <c r="AP311">
-        <v>1.38</v>
-      </c>
-      <c r="AQ311">
-        <v>0.55</v>
-      </c>
-      <c r="AR311">
-        <v>1.42</v>
-      </c>
-      <c r="AS311">
-        <v>1.22</v>
-      </c>
       <c r="AT311">
-        <v>2.64</v>
+        <v>2.85</v>
       </c>
       <c r="AU311">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AV311">
         <v>4</v>
       </c>
       <c r="AW311">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AX311">
+        <v>3</v>
+      </c>
+      <c r="AY311">
+        <v>13</v>
+      </c>
+      <c r="AZ311">
+        <v>7</v>
+      </c>
+      <c r="BA311">
         <v>6</v>
       </c>
-      <c r="AY311">
-        <v>11</v>
-      </c>
-      <c r="AZ311">
-        <v>10</v>
-      </c>
-      <c r="BA311">
-        <v>4</v>
-      </c>
       <c r="BB311">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BC311">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="BD311">
-        <v>2.07</v>
+        <v>2.02</v>
       </c>
       <c r="BE311">
         <v>7.75</v>
       </c>
       <c r="BF311">
-        <v>2.13</v>
+        <v>2.18</v>
       </c>
       <c r="BG311">
-        <v>1.39</v>
+        <v>1.34</v>
       </c>
       <c r="BH311">
-        <v>2.67</v>
+        <v>2.88</v>
       </c>
       <c r="BI311">
-        <v>1.85</v>
+        <v>1.68</v>
       </c>
       <c r="BJ311">
-        <v>1.95</v>
+        <v>2.16</v>
       </c>
       <c r="BK311">
         <v>2.11</v>
       </c>
       <c r="BL311">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="BM311">
-        <v>2.98</v>
+        <v>2.75</v>
       </c>
       <c r="BN311">
-        <v>1.32</v>
+        <v>1.37</v>
       </c>
       <c r="BO311">
-        <v>4.34</v>
+        <v>3.9</v>
       </c>
       <c r="BP311">
-        <v>1.18</v>
+        <v>1.21</v>
       </c>
     </row>
     <row r="312" spans="1:68">
@@ -65712,7 +65715,7 @@
         <v>87</v>
       </c>
       <c r="P312" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="Q312">
         <v>3.85</v>
@@ -65918,7 +65921,7 @@
         <v>279</v>
       </c>
       <c r="P313" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="Q313">
         <v>2.91</v>
@@ -66082,7 +66085,7 @@
         <v>313</v>
       </c>
       <c r="B314">
-        <v>7383667</v>
+        <v>7383668</v>
       </c>
       <c r="C314" t="s">
         <v>68</v>
@@ -66097,70 +66100,70 @@
         <v>10</v>
       </c>
       <c r="G314" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="H314" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="I314">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J314">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K314">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L314">
+        <v>3</v>
+      </c>
+      <c r="M314">
+        <v>2</v>
+      </c>
+      <c r="N314">
         <v>5</v>
-      </c>
-      <c r="M314">
-        <v>1</v>
-      </c>
-      <c r="N314">
-        <v>6</v>
       </c>
       <c r="O314" t="s">
         <v>280</v>
       </c>
       <c r="P314" t="s">
-        <v>234</v>
+        <v>405</v>
       </c>
       <c r="Q314">
-        <v>2.12</v>
+        <v>2.15</v>
       </c>
       <c r="R314">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="S314">
-        <v>5.3</v>
+        <v>5.1</v>
       </c>
       <c r="T314">
-        <v>1.3</v>
+        <v>1.32</v>
       </c>
       <c r="U314">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="V314">
-        <v>2.65</v>
+        <v>2.75</v>
       </c>
       <c r="W314">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="X314">
-        <v>6.75</v>
+        <v>7</v>
       </c>
       <c r="Y314">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="Z314">
-        <v>1.78</v>
+        <v>1.82</v>
       </c>
       <c r="AA314">
         <v>3.5</v>
       </c>
       <c r="AB314">
-        <v>4.3</v>
+        <v>4.1</v>
       </c>
       <c r="AC314">
         <v>1.04</v>
@@ -66169,118 +66172,118 @@
         <v>9</v>
       </c>
       <c r="AE314">
-        <v>1.25</v>
+        <v>1.28</v>
       </c>
       <c r="AF314">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="AG314">
-        <v>1.73</v>
+        <v>1.94</v>
       </c>
       <c r="AH314">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AI314">
-        <v>1.8</v>
+        <v>1.87</v>
       </c>
       <c r="AJ314">
-        <v>1.96</v>
+        <v>1.88</v>
       </c>
       <c r="AK314">
-        <v>1.12</v>
+        <v>1.14</v>
       </c>
       <c r="AL314">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="AM314">
-        <v>2.32</v>
+        <v>2.28</v>
       </c>
       <c r="AN314">
-        <v>2.11</v>
+        <v>1.68</v>
       </c>
       <c r="AO314">
-        <v>1.47</v>
+        <v>1.21</v>
       </c>
       <c r="AP314">
-        <v>2.15</v>
+        <v>1.75</v>
       </c>
       <c r="AQ314">
+        <v>1.15</v>
+      </c>
+      <c r="AR314">
+        <v>1.67</v>
+      </c>
+      <c r="AS314">
+        <v>1.27</v>
+      </c>
+      <c r="AT314">
+        <v>2.94</v>
+      </c>
+      <c r="AU314">
+        <v>9</v>
+      </c>
+      <c r="AV314">
+        <v>5</v>
+      </c>
+      <c r="AW314">
+        <v>11</v>
+      </c>
+      <c r="AX314">
+        <v>9</v>
+      </c>
+      <c r="AY314">
+        <v>20</v>
+      </c>
+      <c r="AZ314">
+        <v>14</v>
+      </c>
+      <c r="BA314">
+        <v>10</v>
+      </c>
+      <c r="BB314">
+        <v>8</v>
+      </c>
+      <c r="BC314">
+        <v>18</v>
+      </c>
+      <c r="BD314">
         <v>1.4</v>
       </c>
-      <c r="AR314">
+      <c r="BE314">
+        <v>8</v>
+      </c>
+      <c r="BF314">
+        <v>3.75</v>
+      </c>
+      <c r="BG314">
+        <v>1.26</v>
+      </c>
+      <c r="BH314">
+        <v>3.35</v>
+      </c>
+      <c r="BI314">
+        <v>1.49</v>
+      </c>
+      <c r="BJ314">
+        <v>2.38</v>
+      </c>
+      <c r="BK314">
         <v>1.92</v>
       </c>
-      <c r="AS314">
-        <v>1.41</v>
-      </c>
-      <c r="AT314">
-        <v>3.33</v>
-      </c>
-      <c r="AU314">
-        <v>14</v>
-      </c>
-      <c r="AV314">
-        <v>4</v>
-      </c>
-      <c r="AW314">
-        <v>4</v>
-      </c>
-      <c r="AX314">
-        <v>2</v>
-      </c>
-      <c r="AY314">
-        <v>18</v>
-      </c>
-      <c r="AZ314">
-        <v>6</v>
-      </c>
-      <c r="BA314">
-        <v>7</v>
-      </c>
-      <c r="BB314">
-        <v>1</v>
-      </c>
-      <c r="BC314">
-        <v>8</v>
-      </c>
-      <c r="BD314">
-        <v>1.38</v>
-      </c>
-      <c r="BE314">
-        <v>8.5</v>
-      </c>
-      <c r="BF314">
-        <v>3.8</v>
-      </c>
-      <c r="BG314">
-        <v>1.19</v>
-      </c>
-      <c r="BH314">
-        <v>3.95</v>
-      </c>
-      <c r="BI314">
-        <v>1.37</v>
-      </c>
-      <c r="BJ314">
-        <v>2.75</v>
-      </c>
-      <c r="BK314">
-        <v>1.65</v>
-      </c>
       <c r="BL314">
-        <v>2.06</v>
+        <v>1.88</v>
       </c>
       <c r="BM314">
-        <v>2.07</v>
+        <v>2.35</v>
       </c>
       <c r="BN314">
-        <v>1.64</v>
+        <v>1.49</v>
       </c>
       <c r="BO314">
-        <v>2.7</v>
+        <v>3.2</v>
       </c>
       <c r="BP314">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
     </row>
     <row r="315" spans="1:68">
@@ -66288,7 +66291,7 @@
         <v>314</v>
       </c>
       <c r="B315">
-        <v>7383668</v>
+        <v>7383667</v>
       </c>
       <c r="C315" t="s">
         <v>68</v>
@@ -66303,70 +66306,70 @@
         <v>10</v>
       </c>
       <c r="G315" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="H315" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="I315">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J315">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K315">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L315">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M315">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N315">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O315" t="s">
         <v>281</v>
       </c>
       <c r="P315" t="s">
-        <v>404</v>
+        <v>234</v>
       </c>
       <c r="Q315">
-        <v>2.15</v>
+        <v>2.12</v>
       </c>
       <c r="R315">
-        <v>2.3</v>
+        <v>2.28</v>
       </c>
       <c r="S315">
-        <v>5.1</v>
+        <v>5.3</v>
       </c>
       <c r="T315">
-        <v>1.32</v>
+        <v>1.3</v>
       </c>
       <c r="U315">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="V315">
-        <v>2.75</v>
+        <v>2.65</v>
       </c>
       <c r="W315">
-        <v>1.38</v>
+        <v>1.42</v>
       </c>
       <c r="X315">
-        <v>7</v>
+        <v>6.75</v>
       </c>
       <c r="Y315">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="Z315">
-        <v>1.82</v>
+        <v>1.78</v>
       </c>
       <c r="AA315">
         <v>3.5</v>
       </c>
       <c r="AB315">
-        <v>4.1</v>
+        <v>4.3</v>
       </c>
       <c r="AC315">
         <v>1.04</v>
@@ -66375,118 +66378,118 @@
         <v>9</v>
       </c>
       <c r="AE315">
-        <v>1.28</v>
+        <v>1.25</v>
       </c>
       <c r="AF315">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="AG315">
-        <v>1.94</v>
+        <v>1.73</v>
       </c>
       <c r="AH315">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AI315">
-        <v>1.87</v>
+        <v>1.8</v>
       </c>
       <c r="AJ315">
-        <v>1.88</v>
+        <v>1.96</v>
       </c>
       <c r="AK315">
-        <v>1.14</v>
+        <v>1.12</v>
       </c>
       <c r="AL315">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="AM315">
-        <v>2.28</v>
+        <v>2.32</v>
       </c>
       <c r="AN315">
-        <v>1.68</v>
+        <v>2.11</v>
       </c>
       <c r="AO315">
-        <v>1.21</v>
+        <v>1.47</v>
       </c>
       <c r="AP315">
-        <v>1.75</v>
+        <v>2.15</v>
       </c>
       <c r="AQ315">
-        <v>1.15</v>
+        <v>1.4</v>
       </c>
       <c r="AR315">
-        <v>1.67</v>
+        <v>1.92</v>
       </c>
       <c r="AS315">
-        <v>1.27</v>
+        <v>1.41</v>
       </c>
       <c r="AT315">
-        <v>2.94</v>
+        <v>3.33</v>
       </c>
       <c r="AU315">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="AV315">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AW315">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="AX315">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="AY315">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AZ315">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="BA315">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="BB315">
+        <v>1</v>
+      </c>
+      <c r="BC315">
         <v>8</v>
       </c>
-      <c r="BC315">
-        <v>18</v>
-      </c>
       <c r="BD315">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="BE315">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="BF315">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="BG315">
-        <v>1.26</v>
+        <v>1.19</v>
       </c>
       <c r="BH315">
-        <v>3.35</v>
+        <v>3.95</v>
       </c>
       <c r="BI315">
-        <v>1.49</v>
+        <v>1.37</v>
       </c>
       <c r="BJ315">
-        <v>2.38</v>
+        <v>2.75</v>
       </c>
       <c r="BK315">
-        <v>1.92</v>
+        <v>1.65</v>
       </c>
       <c r="BL315">
-        <v>1.88</v>
+        <v>2.06</v>
       </c>
       <c r="BM315">
-        <v>2.35</v>
+        <v>2.07</v>
       </c>
       <c r="BN315">
-        <v>1.49</v>
+        <v>1.64</v>
       </c>
       <c r="BO315">
-        <v>3.2</v>
+        <v>2.7</v>
       </c>
       <c r="BP315">
-        <v>1.29</v>
+        <v>1.38</v>
       </c>
     </row>
     <row r="316" spans="1:68">
@@ -66536,7 +66539,7 @@
         <v>87</v>
       </c>
       <c r="P316" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="Q316">
         <v>3.3</v>
@@ -66665,10 +66668,10 @@
         <v>2.02</v>
       </c>
       <c r="BG316">
-        <v>0</v>
+        <v>1.49</v>
       </c>
       <c r="BH316">
-        <v>0</v>
+        <v>2.38</v>
       </c>
       <c r="BI316">
         <v>1.95</v>
@@ -66677,22 +66680,228 @@
         <v>1.85</v>
       </c>
       <c r="BK316">
-        <v>0</v>
+        <v>2.51</v>
       </c>
       <c r="BL316">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="BM316">
-        <v>0</v>
+        <v>3.48</v>
       </c>
       <c r="BN316">
-        <v>0</v>
+        <v>1.24</v>
       </c>
       <c r="BO316">
-        <v>0</v>
+        <v>5.1</v>
       </c>
       <c r="BP316">
-        <v>0</v>
+        <v>1.15</v>
+      </c>
+    </row>
+    <row r="317" spans="1:68">
+      <c r="A317" s="1">
+        <v>316</v>
+      </c>
+      <c r="B317">
+        <v>7383666</v>
+      </c>
+      <c r="C317" t="s">
+        <v>68</v>
+      </c>
+      <c r="D317" t="s">
+        <v>69</v>
+      </c>
+      <c r="E317" s="2">
+        <v>45431.625</v>
+      </c>
+      <c r="F317">
+        <v>10</v>
+      </c>
+      <c r="G317" t="s">
+        <v>71</v>
+      </c>
+      <c r="H317" t="s">
+        <v>81</v>
+      </c>
+      <c r="I317">
+        <v>2</v>
+      </c>
+      <c r="J317">
+        <v>0</v>
+      </c>
+      <c r="K317">
+        <v>2</v>
+      </c>
+      <c r="L317">
+        <v>2</v>
+      </c>
+      <c r="M317">
+        <v>0</v>
+      </c>
+      <c r="N317">
+        <v>2</v>
+      </c>
+      <c r="O317" t="s">
+        <v>282</v>
+      </c>
+      <c r="P317" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q317">
+        <v>3.25</v>
+      </c>
+      <c r="R317">
+        <v>2.2</v>
+      </c>
+      <c r="S317">
+        <v>2.8</v>
+      </c>
+      <c r="T317">
+        <v>1.33</v>
+      </c>
+      <c r="U317">
+        <v>3.1</v>
+      </c>
+      <c r="V317">
+        <v>2.5</v>
+      </c>
+      <c r="W317">
+        <v>1.48</v>
+      </c>
+      <c r="X317">
+        <v>6.5</v>
+      </c>
+      <c r="Y317">
+        <v>1.1</v>
+      </c>
+      <c r="Z317">
+        <v>2.8</v>
+      </c>
+      <c r="AA317">
+        <v>3.7</v>
+      </c>
+      <c r="AB317">
+        <v>2.1</v>
+      </c>
+      <c r="AC317">
+        <v>1.04</v>
+      </c>
+      <c r="AD317">
+        <v>9</v>
+      </c>
+      <c r="AE317">
+        <v>1.22</v>
+      </c>
+      <c r="AF317">
+        <v>4</v>
+      </c>
+      <c r="AG317">
+        <v>1.65</v>
+      </c>
+      <c r="AH317">
+        <v>2.05</v>
+      </c>
+      <c r="AI317">
+        <v>1.55</v>
+      </c>
+      <c r="AJ317">
+        <v>2.35</v>
+      </c>
+      <c r="AK317">
+        <v>1.57</v>
+      </c>
+      <c r="AL317">
+        <v>1.22</v>
+      </c>
+      <c r="AM317">
+        <v>1.4</v>
+      </c>
+      <c r="AN317">
+        <v>1.68</v>
+      </c>
+      <c r="AO317">
+        <v>2</v>
+      </c>
+      <c r="AP317">
+        <v>1.75</v>
+      </c>
+      <c r="AQ317">
+        <v>1.9</v>
+      </c>
+      <c r="AR317">
+        <v>1.79</v>
+      </c>
+      <c r="AS317">
+        <v>1.52</v>
+      </c>
+      <c r="AT317">
+        <v>3.31</v>
+      </c>
+      <c r="AU317">
+        <v>7</v>
+      </c>
+      <c r="AV317">
+        <v>3</v>
+      </c>
+      <c r="AW317">
+        <v>6</v>
+      </c>
+      <c r="AX317">
+        <v>8</v>
+      </c>
+      <c r="AY317">
+        <v>13</v>
+      </c>
+      <c r="AZ317">
+        <v>11</v>
+      </c>
+      <c r="BA317">
+        <v>2</v>
+      </c>
+      <c r="BB317">
+        <v>11</v>
+      </c>
+      <c r="BC317">
+        <v>13</v>
+      </c>
+      <c r="BD317">
+        <v>1.91</v>
+      </c>
+      <c r="BE317">
+        <v>7</v>
+      </c>
+      <c r="BF317">
+        <v>2.32</v>
+      </c>
+      <c r="BG317">
+        <v>1.35</v>
+      </c>
+      <c r="BH317">
+        <v>2.85</v>
+      </c>
+      <c r="BI317">
+        <v>1.63</v>
+      </c>
+      <c r="BJ317">
+        <v>2.08</v>
+      </c>
+      <c r="BK317">
+        <v>2.07</v>
+      </c>
+      <c r="BL317">
+        <v>1.64</v>
+      </c>
+      <c r="BM317">
+        <v>2.75</v>
+      </c>
+      <c r="BN317">
+        <v>1.37</v>
+      </c>
+      <c r="BO317">
+        <v>3.8</v>
+      </c>
+      <c r="BP317">
+        <v>1.2</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Romania Liga I_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Romania Liga I_20232024.xlsx
@@ -66632,31 +66632,31 @@
         <v>2.73</v>
       </c>
       <c r="AU316">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="AV316">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="AW316">
-        <v>-1</v>
+        <v>11</v>
       </c>
       <c r="AX316">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="AY316">
-        <v>-1</v>
+        <v>17</v>
       </c>
       <c r="AZ316">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="BA316">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="BB316">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="BC316">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="BD316">
         <v>2.18</v>
@@ -66838,22 +66838,22 @@
         <v>3.31</v>
       </c>
       <c r="AU317">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="AV317">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AW317">
         <v>6</v>
       </c>
       <c r="AX317">
+        <v>4</v>
+      </c>
+      <c r="AY317">
+        <v>9</v>
+      </c>
+      <c r="AZ317">
         <v>8</v>
-      </c>
-      <c r="AY317">
-        <v>13</v>
-      </c>
-      <c r="AZ317">
-        <v>11</v>
       </c>
       <c r="BA317">
         <v>2</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Romania Liga I_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Romania Liga I_20232024.xlsx
@@ -66838,22 +66838,22 @@
         <v>3.31</v>
       </c>
       <c r="AU317">
+        <v>7</v>
+      </c>
+      <c r="AV317">
         <v>3</v>
-      </c>
-      <c r="AV317">
-        <v>4</v>
       </c>
       <c r="AW317">
         <v>6</v>
       </c>
       <c r="AX317">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="AY317">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="AZ317">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="BA317">
         <v>2</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Romania Liga I_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Romania Liga I_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1964" uniqueCount="407">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1970" uniqueCount="409">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -865,6 +865,9 @@
     <t>['12', '42']</t>
   </si>
   <si>
+    <t>['120']</t>
+  </si>
+  <si>
     <t>['45+5']</t>
   </si>
   <si>
@@ -1236,6 +1239,9 @@
   <si>
     <t>['62', '73']</t>
   </si>
+  <si>
+    <t>['120+10']</t>
+  </si>
 </sst>
 </file>
 
@@ -1596,7 +1602,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP317"/>
+  <dimension ref="A1:BP318"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1855,7 +1861,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q2">
         <v>4</v>
@@ -2267,7 +2273,7 @@
         <v>87</v>
       </c>
       <c r="P4" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q4">
         <v>3.75</v>
@@ -2679,7 +2685,7 @@
         <v>89</v>
       </c>
       <c r="P6" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q6">
         <v>3.5</v>
@@ -2760,7 +2766,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ6">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2885,7 +2891,7 @@
         <v>90</v>
       </c>
       <c r="P7" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q7">
         <v>5</v>
@@ -3297,7 +3303,7 @@
         <v>87</v>
       </c>
       <c r="P9" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q9">
         <v>5.5</v>
@@ -3709,7 +3715,7 @@
         <v>93</v>
       </c>
       <c r="P11" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q11">
         <v>4.33</v>
@@ -4121,7 +4127,7 @@
         <v>95</v>
       </c>
       <c r="P13" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q13">
         <v>1.95</v>
@@ -4327,7 +4333,7 @@
         <v>96</v>
       </c>
       <c r="P14" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q14">
         <v>3.6</v>
@@ -4533,7 +4539,7 @@
         <v>87</v>
       </c>
       <c r="P15" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q15">
         <v>3.2</v>
@@ -4739,7 +4745,7 @@
         <v>97</v>
       </c>
       <c r="P16" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q16">
         <v>2.88</v>
@@ -5023,7 +5029,7 @@
         <v>0</v>
       </c>
       <c r="AP17">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="AQ17">
         <v>1.26</v>
@@ -5151,7 +5157,7 @@
         <v>98</v>
       </c>
       <c r="P18" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q18">
         <v>3</v>
@@ -5232,7 +5238,7 @@
         <v>1.26</v>
       </c>
       <c r="AQ18">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="AR18">
         <v>1.24</v>
@@ -5357,7 +5363,7 @@
         <v>99</v>
       </c>
       <c r="P19" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q19">
         <v>2</v>
@@ -5769,7 +5775,7 @@
         <v>87</v>
       </c>
       <c r="P21" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q21">
         <v>4.75</v>
@@ -5975,7 +5981,7 @@
         <v>101</v>
       </c>
       <c r="P22" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Q22">
         <v>2.15</v>
@@ -6387,7 +6393,7 @@
         <v>87</v>
       </c>
       <c r="P24" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Q24">
         <v>3.25</v>
@@ -6593,7 +6599,7 @@
         <v>87</v>
       </c>
       <c r="P25" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Q25">
         <v>4.33</v>
@@ -7083,7 +7089,7 @@
         <v>3</v>
       </c>
       <c r="AP27">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="AQ27">
         <v>0.84</v>
@@ -7211,7 +7217,7 @@
         <v>87</v>
       </c>
       <c r="P28" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q28">
         <v>3</v>
@@ -7417,7 +7423,7 @@
         <v>105</v>
       </c>
       <c r="P29" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Q29">
         <v>2.55</v>
@@ -7623,7 +7629,7 @@
         <v>106</v>
       </c>
       <c r="P30" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Q30">
         <v>3.5</v>
@@ -8734,7 +8740,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ35">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="AR35">
         <v>1.34</v>
@@ -8859,7 +8865,7 @@
         <v>112</v>
       </c>
       <c r="P36" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Q36">
         <v>4.9</v>
@@ -9065,7 +9071,7 @@
         <v>87</v>
       </c>
       <c r="P37" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Q37">
         <v>2.3</v>
@@ -9477,7 +9483,7 @@
         <v>114</v>
       </c>
       <c r="P39" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Q39">
         <v>3.05</v>
@@ -9761,7 +9767,7 @@
         <v>0.5</v>
       </c>
       <c r="AP40">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="AQ40">
         <v>1</v>
@@ -10095,7 +10101,7 @@
         <v>116</v>
       </c>
       <c r="P42" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Q42">
         <v>2.6</v>
@@ -10301,7 +10307,7 @@
         <v>117</v>
       </c>
       <c r="P43" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="Q43">
         <v>2.55</v>
@@ -10507,7 +10513,7 @@
         <v>118</v>
       </c>
       <c r="P44" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="Q44">
         <v>1.83</v>
@@ -10919,7 +10925,7 @@
         <v>119</v>
       </c>
       <c r="P46" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Q46">
         <v>4.85</v>
@@ -11125,7 +11131,7 @@
         <v>120</v>
       </c>
       <c r="P47" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Q47">
         <v>3.66</v>
@@ -11331,7 +11337,7 @@
         <v>121</v>
       </c>
       <c r="P48" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Q48">
         <v>3.4</v>
@@ -12155,7 +12161,7 @@
         <v>125</v>
       </c>
       <c r="P52" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="Q52">
         <v>3.1</v>
@@ -12236,7 +12242,7 @@
         <v>1.9</v>
       </c>
       <c r="AQ52">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="AR52">
         <v>2.04</v>
@@ -12567,7 +12573,7 @@
         <v>127</v>
       </c>
       <c r="P54" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Q54">
         <v>2.75</v>
@@ -12979,7 +12985,7 @@
         <v>93</v>
       </c>
       <c r="P56" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Q56">
         <v>4.7</v>
@@ -13597,7 +13603,7 @@
         <v>87</v>
       </c>
       <c r="P59" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="Q59">
         <v>2.6</v>
@@ -13803,7 +13809,7 @@
         <v>131</v>
       </c>
       <c r="P60" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="Q60">
         <v>3.5</v>
@@ -14296,7 +14302,7 @@
         <v>1.9</v>
       </c>
       <c r="AQ62">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="AR62">
         <v>1.12</v>
@@ -14627,7 +14633,7 @@
         <v>133</v>
       </c>
       <c r="P64" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="Q64">
         <v>2.5</v>
@@ -14705,7 +14711,7 @@
         <v>2</v>
       </c>
       <c r="AP64">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="AQ64">
         <v>1.15</v>
@@ -15245,7 +15251,7 @@
         <v>87</v>
       </c>
       <c r="P67" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="Q67">
         <v>3</v>
@@ -15863,7 +15869,7 @@
         <v>137</v>
       </c>
       <c r="P70" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="Q70">
         <v>4.33</v>
@@ -16069,7 +16075,7 @@
         <v>87</v>
       </c>
       <c r="P71" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="Q71">
         <v>2.57</v>
@@ -16275,7 +16281,7 @@
         <v>87</v>
       </c>
       <c r="P72" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="Q72">
         <v>4.1</v>
@@ -16481,7 +16487,7 @@
         <v>138</v>
       </c>
       <c r="P73" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="Q73">
         <v>2.7</v>
@@ -16687,7 +16693,7 @@
         <v>139</v>
       </c>
       <c r="P74" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="Q74">
         <v>3.4</v>
@@ -17305,7 +17311,7 @@
         <v>141</v>
       </c>
       <c r="P77" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="Q77">
         <v>3.4</v>
@@ -18129,7 +18135,7 @@
         <v>144</v>
       </c>
       <c r="P81" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="Q81">
         <v>2.86</v>
@@ -18413,7 +18419,7 @@
         <v>0.4</v>
       </c>
       <c r="AP82">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="AQ82">
         <v>0.55</v>
@@ -19159,7 +19165,7 @@
         <v>148</v>
       </c>
       <c r="P86" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="Q86">
         <v>2.05</v>
@@ -19240,7 +19246,7 @@
         <v>2.15</v>
       </c>
       <c r="AQ86">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="AR86">
         <v>1.72</v>
@@ -19777,7 +19783,7 @@
         <v>150</v>
       </c>
       <c r="P89" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="Q89">
         <v>2</v>
@@ -20601,7 +20607,7 @@
         <v>87</v>
       </c>
       <c r="P93" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="Q93">
         <v>3.5</v>
@@ -20807,7 +20813,7 @@
         <v>151</v>
       </c>
       <c r="P94" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="Q94">
         <v>4.4</v>
@@ -21918,7 +21924,7 @@
         <v>1.45</v>
       </c>
       <c r="AQ99">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="AR99">
         <v>1.97</v>
@@ -22249,7 +22255,7 @@
         <v>90</v>
       </c>
       <c r="P101" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="Q101">
         <v>1.98</v>
@@ -22327,7 +22333,7 @@
         <v>1.2</v>
       </c>
       <c r="AP101">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="AQ101">
         <v>0.95</v>
@@ -22661,7 +22667,7 @@
         <v>157</v>
       </c>
       <c r="P103" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="Q103">
         <v>2.15</v>
@@ -23073,7 +23079,7 @@
         <v>158</v>
       </c>
       <c r="P105" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="Q105">
         <v>2.15</v>
@@ -23279,7 +23285,7 @@
         <v>87</v>
       </c>
       <c r="P106" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="Q106">
         <v>3.85</v>
@@ -23897,7 +23903,7 @@
         <v>160</v>
       </c>
       <c r="P109" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="Q109">
         <v>4.1</v>
@@ -24103,7 +24109,7 @@
         <v>161</v>
       </c>
       <c r="P110" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="Q110">
         <v>2.6</v>
@@ -24515,7 +24521,7 @@
         <v>87</v>
       </c>
       <c r="P112" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="Q112">
         <v>3.6</v>
@@ -24596,7 +24602,7 @@
         <v>1.26</v>
       </c>
       <c r="AQ112">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="AR112">
         <v>1.54</v>
@@ -24721,7 +24727,7 @@
         <v>163</v>
       </c>
       <c r="P113" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="Q113">
         <v>2.5</v>
@@ -24927,7 +24933,7 @@
         <v>164</v>
       </c>
       <c r="P114" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="Q114">
         <v>3.25</v>
@@ -25417,7 +25423,7 @@
         <v>1.17</v>
       </c>
       <c r="AP116">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="AQ116">
         <v>0.65</v>
@@ -25545,7 +25551,7 @@
         <v>136</v>
       </c>
       <c r="P117" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="Q117">
         <v>2.68</v>
@@ -25957,7 +25963,7 @@
         <v>156</v>
       </c>
       <c r="P119" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="Q119">
         <v>5</v>
@@ -26987,7 +26993,7 @@
         <v>168</v>
       </c>
       <c r="P124" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="Q124">
         <v>5.15</v>
@@ -27399,7 +27405,7 @@
         <v>169</v>
       </c>
       <c r="P126" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="Q126">
         <v>3.25</v>
@@ -27683,7 +27689,7 @@
         <v>0.57</v>
       </c>
       <c r="AP127">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="AQ127">
         <v>0.65</v>
@@ -28017,7 +28023,7 @@
         <v>172</v>
       </c>
       <c r="P129" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="Q129">
         <v>3.1</v>
@@ -28635,7 +28641,7 @@
         <v>174</v>
       </c>
       <c r="P132" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="Q132">
         <v>3.98</v>
@@ -29047,7 +29053,7 @@
         <v>175</v>
       </c>
       <c r="P134" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="Q134">
         <v>4</v>
@@ -29253,7 +29259,7 @@
         <v>87</v>
       </c>
       <c r="P135" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="Q135">
         <v>7</v>
@@ -29665,7 +29671,7 @@
         <v>177</v>
       </c>
       <c r="P137" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="Q137">
         <v>2.39</v>
@@ -29746,7 +29752,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ137">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="AR137">
         <v>1.86</v>
@@ -30077,7 +30083,7 @@
         <v>178</v>
       </c>
       <c r="P139" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="Q139">
         <v>3.94</v>
@@ -30773,7 +30779,7 @@
         <v>1.38</v>
       </c>
       <c r="AP142">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="AQ142">
         <v>1.45</v>
@@ -31107,7 +31113,7 @@
         <v>87</v>
       </c>
       <c r="P144" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="Q144">
         <v>1.98</v>
@@ -31725,7 +31731,7 @@
         <v>152</v>
       </c>
       <c r="P147" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="Q147">
         <v>2.27</v>
@@ -31931,7 +31937,7 @@
         <v>184</v>
       </c>
       <c r="P148" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="Q148">
         <v>3.5</v>
@@ -32836,7 +32842,7 @@
         <v>1.37</v>
       </c>
       <c r="AQ152">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="AR152">
         <v>1.41</v>
@@ -32961,7 +32967,7 @@
         <v>188</v>
       </c>
       <c r="P153" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="Q153">
         <v>3.25</v>
@@ -33785,7 +33791,7 @@
         <v>189</v>
       </c>
       <c r="P157" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="Q157">
         <v>1.95</v>
@@ -33863,7 +33869,7 @@
         <v>1.22</v>
       </c>
       <c r="AP157">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="AQ157">
         <v>0.85</v>
@@ -34609,7 +34615,7 @@
         <v>87</v>
       </c>
       <c r="P161" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="Q161">
         <v>3.25</v>
@@ -35021,7 +35027,7 @@
         <v>138</v>
       </c>
       <c r="P163" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="Q163">
         <v>4.7</v>
@@ -35227,7 +35233,7 @@
         <v>193</v>
       </c>
       <c r="P164" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="Q164">
         <v>3.75</v>
@@ -35926,7 +35932,7 @@
         <v>2.15</v>
       </c>
       <c r="AQ167">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="AR167">
         <v>1.8</v>
@@ -36051,7 +36057,7 @@
         <v>87</v>
       </c>
       <c r="P168" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="Q168">
         <v>2.55</v>
@@ -36669,7 +36675,7 @@
         <v>197</v>
       </c>
       <c r="P171" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="Q171">
         <v>2.4</v>
@@ -37493,7 +37499,7 @@
         <v>201</v>
       </c>
       <c r="P175" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="Q175">
         <v>2.48</v>
@@ -37571,7 +37577,7 @@
         <v>1.3</v>
       </c>
       <c r="AP175">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="AQ175">
         <v>1.4</v>
@@ -38317,7 +38323,7 @@
         <v>204</v>
       </c>
       <c r="P179" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="Q179">
         <v>3.6</v>
@@ -38729,7 +38735,7 @@
         <v>205</v>
       </c>
       <c r="P181" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="Q181">
         <v>4</v>
@@ -39222,7 +39228,7 @@
         <v>1.37</v>
       </c>
       <c r="AQ183">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="AR183">
         <v>1.67</v>
@@ -39347,7 +39353,7 @@
         <v>87</v>
       </c>
       <c r="P184" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="Q184">
         <v>3.2</v>
@@ -39425,7 +39431,7 @@
         <v>2.18</v>
       </c>
       <c r="AP184">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="AQ184">
         <v>1.9</v>
@@ -39553,7 +39559,7 @@
         <v>208</v>
       </c>
       <c r="P185" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="Q185">
         <v>1.95</v>
@@ -39759,7 +39765,7 @@
         <v>209</v>
       </c>
       <c r="P186" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="Q186">
         <v>3.15</v>
@@ -40171,7 +40177,7 @@
         <v>211</v>
       </c>
       <c r="P188" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="Q188">
         <v>3.8</v>
@@ -40583,7 +40589,7 @@
         <v>213</v>
       </c>
       <c r="P190" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="Q190">
         <v>2.5</v>
@@ -40789,7 +40795,7 @@
         <v>214</v>
       </c>
       <c r="P191" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="Q191">
         <v>3.2</v>
@@ -41613,7 +41619,7 @@
         <v>216</v>
       </c>
       <c r="P195" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="Q195">
         <v>2.4</v>
@@ -41691,10 +41697,10 @@
         <v>1.67</v>
       </c>
       <c r="AP195">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="AQ195">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="AR195">
         <v>1.72</v>
@@ -42643,7 +42649,7 @@
         <v>217</v>
       </c>
       <c r="P200" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="Q200">
         <v>2.7</v>
@@ -42849,7 +42855,7 @@
         <v>87</v>
       </c>
       <c r="P201" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="Q201">
         <v>2.09</v>
@@ -43673,7 +43679,7 @@
         <v>220</v>
       </c>
       <c r="P205" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="Q205">
         <v>3.5</v>
@@ -43879,7 +43885,7 @@
         <v>221</v>
       </c>
       <c r="P206" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="Q206">
         <v>4.2</v>
@@ -44085,7 +44091,7 @@
         <v>222</v>
       </c>
       <c r="P207" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="Q207">
         <v>3.6</v>
@@ -45527,7 +45533,7 @@
         <v>224</v>
       </c>
       <c r="P214" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="Q214">
         <v>4.55</v>
@@ -45814,7 +45820,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ215">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="AR215">
         <v>1.62</v>
@@ -45939,7 +45945,7 @@
         <v>225</v>
       </c>
       <c r="P216" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="Q216">
         <v>1.75</v>
@@ -46145,7 +46151,7 @@
         <v>226</v>
       </c>
       <c r="P217" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="Q217">
         <v>2.05</v>
@@ -46223,7 +46229,7 @@
         <v>1.08</v>
       </c>
       <c r="AP217">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="AQ217">
         <v>0.95</v>
@@ -46763,7 +46769,7 @@
         <v>229</v>
       </c>
       <c r="P220" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="Q220">
         <v>5.25</v>
@@ -47381,7 +47387,7 @@
         <v>183</v>
       </c>
       <c r="P223" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="Q223">
         <v>4.5</v>
@@ -47587,7 +47593,7 @@
         <v>231</v>
       </c>
       <c r="P224" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="Q224">
         <v>3.75</v>
@@ -47793,7 +47799,7 @@
         <v>104</v>
       </c>
       <c r="P225" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="Q225">
         <v>4.75</v>
@@ -48205,7 +48211,7 @@
         <v>232</v>
       </c>
       <c r="P227" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="Q227">
         <v>2.99</v>
@@ -49441,7 +49447,7 @@
         <v>89</v>
       </c>
       <c r="P233" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="Q233">
         <v>3</v>
@@ -49519,7 +49525,7 @@
         <v>1.57</v>
       </c>
       <c r="AP233">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="AQ233">
         <v>1.2</v>
@@ -49934,7 +49940,7 @@
         <v>1</v>
       </c>
       <c r="AQ235">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="AR235">
         <v>1.37</v>
@@ -50471,7 +50477,7 @@
         <v>237</v>
       </c>
       <c r="P238" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="Q238">
         <v>3.5</v>
@@ -50883,7 +50889,7 @@
         <v>213</v>
       </c>
       <c r="P240" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="Q240">
         <v>3.6</v>
@@ -51501,7 +51507,7 @@
         <v>108</v>
       </c>
       <c r="P243" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="Q243">
         <v>2.3</v>
@@ -51913,7 +51919,7 @@
         <v>156</v>
       </c>
       <c r="P245" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="Q245">
         <v>2.65</v>
@@ -52531,7 +52537,7 @@
         <v>243</v>
       </c>
       <c r="P248" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="Q248">
         <v>2.53</v>
@@ -53845,7 +53851,7 @@
         <v>1.53</v>
       </c>
       <c r="AP254">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="AQ254">
         <v>1.2</v>
@@ -53973,7 +53979,7 @@
         <v>102</v>
       </c>
       <c r="P255" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="Q255">
         <v>2.95</v>
@@ -54385,7 +54391,7 @@
         <v>102</v>
       </c>
       <c r="P257" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="Q257">
         <v>3.1</v>
@@ -55003,7 +55009,7 @@
         <v>87</v>
       </c>
       <c r="P260" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="Q260">
         <v>2.9</v>
@@ -55209,7 +55215,7 @@
         <v>247</v>
       </c>
       <c r="P261" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="Q261">
         <v>2.8</v>
@@ -55415,7 +55421,7 @@
         <v>164</v>
       </c>
       <c r="P262" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="Q262">
         <v>3.12</v>
@@ -55496,7 +55502,7 @@
         <v>1.9</v>
       </c>
       <c r="AQ262">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="AR262">
         <v>1.59</v>
@@ -56239,7 +56245,7 @@
         <v>249</v>
       </c>
       <c r="P266" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="Q266">
         <v>3.05</v>
@@ -56445,7 +56451,7 @@
         <v>250</v>
       </c>
       <c r="P267" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="Q267">
         <v>2.5</v>
@@ -56523,7 +56529,7 @@
         <v>1.47</v>
       </c>
       <c r="AP267">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="AQ267">
         <v>1.4</v>
@@ -56651,7 +56657,7 @@
         <v>175</v>
       </c>
       <c r="P268" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="Q268">
         <v>3.55</v>
@@ -56857,7 +56863,7 @@
         <v>146</v>
       </c>
       <c r="P269" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="Q269">
         <v>2.49</v>
@@ -58093,7 +58099,7 @@
         <v>253</v>
       </c>
       <c r="P275" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="Q275">
         <v>3.8</v>
@@ -58299,7 +58305,7 @@
         <v>254</v>
       </c>
       <c r="P276" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="Q276">
         <v>3</v>
@@ -58505,7 +58511,7 @@
         <v>180</v>
       </c>
       <c r="P277" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="Q277">
         <v>2.85</v>
@@ -58711,7 +58717,7 @@
         <v>255</v>
       </c>
       <c r="P278" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="Q278">
         <v>2.5</v>
@@ -58998,7 +59004,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ279">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="AR279">
         <v>1.47</v>
@@ -59123,7 +59129,7 @@
         <v>220</v>
       </c>
       <c r="P280" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="Q280">
         <v>3.1</v>
@@ -59329,7 +59335,7 @@
         <v>256</v>
       </c>
       <c r="P281" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q281">
         <v>3</v>
@@ -59741,7 +59747,7 @@
         <v>257</v>
       </c>
       <c r="P283" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="Q283">
         <v>3.35</v>
@@ -60359,7 +60365,7 @@
         <v>260</v>
       </c>
       <c r="P286" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="Q286">
         <v>4.1</v>
@@ -60565,7 +60571,7 @@
         <v>261</v>
       </c>
       <c r="P287" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="Q287">
         <v>3.1</v>
@@ -61055,7 +61061,7 @@
         <v>1.28</v>
       </c>
       <c r="AP289">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="AQ289">
         <v>1.45</v>
@@ -61389,7 +61395,7 @@
         <v>264</v>
       </c>
       <c r="P291" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="Q291">
         <v>3</v>
@@ -61470,7 +61476,7 @@
         <v>1.26</v>
       </c>
       <c r="AQ291">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="AR291">
         <v>1.56</v>
@@ -61595,7 +61601,7 @@
         <v>265</v>
       </c>
       <c r="P292" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="Q292">
         <v>2.55</v>
@@ -62007,7 +62013,7 @@
         <v>87</v>
       </c>
       <c r="P294" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="Q294">
         <v>3.2</v>
@@ -62419,7 +62425,7 @@
         <v>136</v>
       </c>
       <c r="P296" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="Q296">
         <v>2.58</v>
@@ -62625,7 +62631,7 @@
         <v>268</v>
       </c>
       <c r="P297" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="Q297">
         <v>2.75</v>
@@ -62831,7 +62837,7 @@
         <v>132</v>
       </c>
       <c r="P298" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="Q298">
         <v>2.38</v>
@@ -63243,7 +63249,7 @@
         <v>269</v>
       </c>
       <c r="P300" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="Q300">
         <v>3.39</v>
@@ -63655,7 +63661,7 @@
         <v>271</v>
       </c>
       <c r="P302" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="Q302">
         <v>1.84</v>
@@ -64351,7 +64357,7 @@
         <v>2.11</v>
       </c>
       <c r="AP305">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="AQ305">
         <v>1.9</v>
@@ -64479,7 +64485,7 @@
         <v>274</v>
       </c>
       <c r="P306" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="Q306">
         <v>3</v>
@@ -64685,7 +64691,7 @@
         <v>87</v>
       </c>
       <c r="P307" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="Q307">
         <v>3.55</v>
@@ -65509,7 +65515,7 @@
         <v>278</v>
       </c>
       <c r="P311" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="Q311">
         <v>2.6</v>
@@ -65715,7 +65721,7 @@
         <v>87</v>
       </c>
       <c r="P312" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="Q312">
         <v>3.85</v>
@@ -65796,7 +65802,7 @@
         <v>1</v>
       </c>
       <c r="AQ312">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="AR312">
         <v>1.27</v>
@@ -65921,7 +65927,7 @@
         <v>279</v>
       </c>
       <c r="P313" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="Q313">
         <v>2.91</v>
@@ -66127,7 +66133,7 @@
         <v>280</v>
       </c>
       <c r="P314" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="Q314">
         <v>2.15</v>
@@ -66205,7 +66211,7 @@
         <v>1.21</v>
       </c>
       <c r="AP314">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="AQ314">
         <v>1.15</v>
@@ -66539,7 +66545,7 @@
         <v>87</v>
       </c>
       <c r="P316" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="Q316">
         <v>3.3</v>
@@ -66620,7 +66626,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ316">
-        <v>1.43</v>
+        <v>1.41</v>
       </c>
       <c r="AR316">
         <v>1.45</v>
@@ -66902,6 +66908,212 @@
       </c>
       <c r="BP317">
         <v>1.2</v>
+      </c>
+    </row>
+    <row r="318" spans="1:68">
+      <c r="A318" s="1">
+        <v>317</v>
+      </c>
+      <c r="B318">
+        <v>7436665</v>
+      </c>
+      <c r="C318" t="s">
+        <v>68</v>
+      </c>
+      <c r="D318" t="s">
+        <v>69</v>
+      </c>
+      <c r="E318" s="2">
+        <v>45438.58333333334</v>
+      </c>
+      <c r="F318">
+        <v>0</v>
+      </c>
+      <c r="G318" t="s">
+        <v>85</v>
+      </c>
+      <c r="H318" t="s">
+        <v>83</v>
+      </c>
+      <c r="I318">
+        <v>0</v>
+      </c>
+      <c r="J318">
+        <v>0</v>
+      </c>
+      <c r="K318">
+        <v>0</v>
+      </c>
+      <c r="L318">
+        <v>1</v>
+      </c>
+      <c r="M318">
+        <v>1</v>
+      </c>
+      <c r="N318">
+        <v>2</v>
+      </c>
+      <c r="O318" t="s">
+        <v>283</v>
+      </c>
+      <c r="P318" t="s">
+        <v>408</v>
+      </c>
+      <c r="Q318">
+        <v>2.55</v>
+      </c>
+      <c r="R318">
+        <v>2.12</v>
+      </c>
+      <c r="S318">
+        <v>4.5</v>
+      </c>
+      <c r="T318">
+        <v>1.37</v>
+      </c>
+      <c r="U318">
+        <v>2.85</v>
+      </c>
+      <c r="V318">
+        <v>3</v>
+      </c>
+      <c r="W318">
+        <v>1.33</v>
+      </c>
+      <c r="X318">
+        <v>8.5</v>
+      </c>
+      <c r="Y318">
+        <v>1.06</v>
+      </c>
+      <c r="Z318">
+        <v>1.78</v>
+      </c>
+      <c r="AA318">
+        <v>3.4</v>
+      </c>
+      <c r="AB318">
+        <v>4.18</v>
+      </c>
+      <c r="AC318">
+        <v>1.05</v>
+      </c>
+      <c r="AD318">
+        <v>10.5</v>
+      </c>
+      <c r="AE318">
+        <v>1.28</v>
+      </c>
+      <c r="AF318">
+        <v>3.4</v>
+      </c>
+      <c r="AG318">
+        <v>1.9</v>
+      </c>
+      <c r="AH318">
+        <v>1.8</v>
+      </c>
+      <c r="AI318">
+        <v>1.84</v>
+      </c>
+      <c r="AJ318">
+        <v>1.91</v>
+      </c>
+      <c r="AK318">
+        <v>1.21</v>
+      </c>
+      <c r="AL318">
+        <v>1.3</v>
+      </c>
+      <c r="AM318">
+        <v>1.87</v>
+      </c>
+      <c r="AN318">
+        <v>1.7</v>
+      </c>
+      <c r="AO318">
+        <v>1.43</v>
+      </c>
+      <c r="AP318">
+        <v>1.68</v>
+      </c>
+      <c r="AQ318">
+        <v>1.41</v>
+      </c>
+      <c r="AR318">
+        <v>1.7</v>
+      </c>
+      <c r="AS318">
+        <v>1.25</v>
+      </c>
+      <c r="AT318">
+        <v>2.95</v>
+      </c>
+      <c r="AU318">
+        <v>5</v>
+      </c>
+      <c r="AV318">
+        <v>5</v>
+      </c>
+      <c r="AW318">
+        <v>8</v>
+      </c>
+      <c r="AX318">
+        <v>10</v>
+      </c>
+      <c r="AY318">
+        <v>13</v>
+      </c>
+      <c r="AZ318">
+        <v>15</v>
+      </c>
+      <c r="BA318">
+        <v>9</v>
+      </c>
+      <c r="BB318">
+        <v>5</v>
+      </c>
+      <c r="BC318">
+        <v>14</v>
+      </c>
+      <c r="BD318">
+        <v>1.41</v>
+      </c>
+      <c r="BE318">
+        <v>8</v>
+      </c>
+      <c r="BF318">
+        <v>3.75</v>
+      </c>
+      <c r="BG318">
+        <v>1.32</v>
+      </c>
+      <c r="BH318">
+        <v>3.2</v>
+      </c>
+      <c r="BI318">
+        <v>1.58</v>
+      </c>
+      <c r="BJ318">
+        <v>2.3</v>
+      </c>
+      <c r="BK318">
+        <v>1.99</v>
+      </c>
+      <c r="BL318">
+        <v>1.81</v>
+      </c>
+      <c r="BM318">
+        <v>2.54</v>
+      </c>
+      <c r="BN318">
+        <v>1.49</v>
+      </c>
+      <c r="BO318">
+        <v>3.75</v>
+      </c>
+      <c r="BP318">
+        <v>1.24</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Romania Liga I_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Romania Liga I_20232024.xlsx
@@ -67050,22 +67050,22 @@
         <v>2.95</v>
       </c>
       <c r="AU318">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AV318">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="AW318">
+        <v>7</v>
+      </c>
+      <c r="AX318">
         <v>8</v>
       </c>
-      <c r="AX318">
-        <v>10</v>
-      </c>
       <c r="AY318">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AZ318">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="BA318">
         <v>9</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Romania Liga I_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Romania Liga I_20232024.xlsx
@@ -67050,31 +67050,31 @@
         <v>2.95</v>
       </c>
       <c r="AU318">
+        <v>5</v>
+      </c>
+      <c r="AV318">
+        <v>5</v>
+      </c>
+      <c r="AW318">
+        <v>8</v>
+      </c>
+      <c r="AX318">
+        <v>10</v>
+      </c>
+      <c r="AY318">
+        <v>13</v>
+      </c>
+      <c r="AZ318">
+        <v>15</v>
+      </c>
+      <c r="BA318">
+        <v>6</v>
+      </c>
+      <c r="BB318">
         <v>4</v>
       </c>
-      <c r="AV318">
+      <c r="BC318">
         <v>10</v>
-      </c>
-      <c r="AW318">
-        <v>7</v>
-      </c>
-      <c r="AX318">
-        <v>8</v>
-      </c>
-      <c r="AY318">
-        <v>11</v>
-      </c>
-      <c r="AZ318">
-        <v>18</v>
-      </c>
-      <c r="BA318">
-        <v>9</v>
-      </c>
-      <c r="BB318">
-        <v>5</v>
-      </c>
-      <c r="BC318">
-        <v>14</v>
       </c>
       <c r="BD318">
         <v>1.41</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Romania Liga I_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Romania Liga I_20232024.xlsx
@@ -66629,13 +66629,13 @@
         <v>1.41</v>
       </c>
       <c r="AR316">
-        <v>1.45</v>
+        <v>1.39</v>
       </c>
       <c r="AS316">
-        <v>1.28</v>
+        <v>1.42</v>
       </c>
       <c r="AT316">
-        <v>2.73</v>
+        <v>2.81</v>
       </c>
       <c r="AU316">
         <v>6</v>
@@ -67041,13 +67041,13 @@
         <v>1.41</v>
       </c>
       <c r="AR318">
-        <v>1.7</v>
+        <v>1.63</v>
       </c>
       <c r="AS318">
-        <v>1.25</v>
+        <v>1.41</v>
       </c>
       <c r="AT318">
-        <v>2.95</v>
+        <v>3.04</v>
       </c>
       <c r="AU318">
         <v>5</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Romania Liga I_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Romania Liga I_20232024.xlsx
@@ -51373,25 +51373,25 @@
         <v>2.2</v>
       </c>
       <c r="AN242">
-        <v>1.27</v>
+        <v>1.4</v>
       </c>
       <c r="AO242">
-        <v>0.47</v>
+        <v>0.7</v>
       </c>
       <c r="AP242">
-        <v>1.35</v>
+        <v>1.41</v>
       </c>
       <c r="AQ242">
-        <v>0.55</v>
+        <v>0.9</v>
       </c>
       <c r="AR242">
-        <v>1.56</v>
+        <v>1.42</v>
       </c>
       <c r="AS242">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="AT242">
-        <v>2.76</v>
+        <v>2.72</v>
       </c>
       <c r="AU242">
         <v>5</v>
@@ -51785,25 +51785,25 @@
         <v>1.67</v>
       </c>
       <c r="AN244">
-        <v>0.93</v>
+        <v>1.13</v>
       </c>
       <c r="AO244">
-        <v>0.93</v>
+        <v>1.1</v>
       </c>
       <c r="AP244">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AQ244">
-        <v>0.85</v>
+        <v>1.1</v>
       </c>
       <c r="AR244">
-        <v>1.44</v>
+        <v>1.36</v>
       </c>
       <c r="AS244">
-        <v>1.38</v>
+        <v>1.48</v>
       </c>
       <c r="AT244">
-        <v>2.82</v>
+        <v>2.84</v>
       </c>
       <c r="AU244">
         <v>9</v>
@@ -52197,25 +52197,25 @@
         <v>1.78</v>
       </c>
       <c r="AN246">
-        <v>2</v>
+        <v>1.33</v>
       </c>
       <c r="AO246">
-        <v>0.73</v>
+        <v>0.97</v>
       </c>
       <c r="AP246">
-        <v>1.9</v>
+        <v>1.38</v>
       </c>
       <c r="AQ246">
-        <v>0.65</v>
+        <v>1</v>
       </c>
       <c r="AR246">
-        <v>1.58</v>
+        <v>1.43</v>
       </c>
       <c r="AS246">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AT246">
-        <v>2.72</v>
+        <v>2.7</v>
       </c>
       <c r="AU246">
         <v>8</v>
@@ -52609,25 +52609,25 @@
         <v>1.85</v>
       </c>
       <c r="AN248">
-        <v>1.73</v>
+        <v>1.33</v>
       </c>
       <c r="AO248">
         <v>0.93</v>
       </c>
       <c r="AP248">
-        <v>1.9</v>
+        <v>1.46</v>
       </c>
       <c r="AQ248">
-        <v>0.95</v>
+        <v>0.97</v>
       </c>
       <c r="AR248">
-        <v>1.48</v>
+        <v>1.39</v>
       </c>
       <c r="AS248">
-        <v>1.18</v>
+        <v>1.26</v>
       </c>
       <c r="AT248">
-        <v>2.66</v>
+        <v>2.65</v>
       </c>
       <c r="AU248">
         <v>7</v>
@@ -52815,25 +52815,25 @@
         <v>1.64</v>
       </c>
       <c r="AN249">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AO249">
-        <v>0.73</v>
+        <v>1.03</v>
       </c>
       <c r="AP249">
-        <v>1.4</v>
+        <v>1.18</v>
       </c>
       <c r="AQ249">
-        <v>0.65</v>
+        <v>0.95</v>
       </c>
       <c r="AR249">
-        <v>1.55</v>
+        <v>1.43</v>
       </c>
       <c r="AS249">
-        <v>1.32</v>
+        <v>1.47</v>
       </c>
       <c r="AT249">
-        <v>2.87</v>
+        <v>2.9</v>
       </c>
       <c r="AU249">
         <v>4</v>
@@ -53021,25 +53021,25 @@
         <v>1.3</v>
       </c>
       <c r="AN250">
-        <v>0.93</v>
+        <v>0.9</v>
       </c>
       <c r="AO250">
-        <v>0.67</v>
+        <v>1.39</v>
       </c>
       <c r="AP250">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="AQ250">
-        <v>0.84</v>
+        <v>1.38</v>
       </c>
       <c r="AR250">
-        <v>1.34</v>
+        <v>1.3</v>
       </c>
       <c r="AS250">
-        <v>1.27</v>
+        <v>1.44</v>
       </c>
       <c r="AT250">
-        <v>2.61</v>
+        <v>2.74</v>
       </c>
       <c r="AU250">
         <v>6</v>
@@ -53433,25 +53433,25 @@
         <v>1.45</v>
       </c>
       <c r="AN252">
-        <v>0.93</v>
+        <v>0.68</v>
       </c>
       <c r="AO252">
-        <v>0.88</v>
+        <v>1.06</v>
       </c>
       <c r="AP252">
-        <v>1.26</v>
+        <v>0.9</v>
       </c>
       <c r="AQ252">
-        <v>0.85</v>
+        <v>1.1</v>
       </c>
       <c r="AR252">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="AS252">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AT252">
-        <v>2.76</v>
+        <v>2.77</v>
       </c>
       <c r="AU252">
         <v>7</v>
@@ -53639,25 +53639,25 @@
         <v>1.72</v>
       </c>
       <c r="AN253">
-        <v>1.38</v>
+        <v>1.45</v>
       </c>
       <c r="AO253">
-        <v>0.93</v>
+        <v>1.39</v>
       </c>
       <c r="AP253">
-        <v>1.35</v>
+        <v>1.41</v>
       </c>
       <c r="AQ253">
-        <v>1</v>
+        <v>1.46</v>
       </c>
       <c r="AR253">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AS253">
-        <v>1.31</v>
+        <v>1.4</v>
       </c>
       <c r="AT253">
-        <v>2.86</v>
+        <v>2.82</v>
       </c>
       <c r="AU253">
         <v>3</v>
@@ -54051,25 +54051,25 @@
         <v>1.53</v>
       </c>
       <c r="AN255">
+        <v>1</v>
+      </c>
+      <c r="AO255">
+        <v>1.19</v>
+      </c>
+      <c r="AP255">
+        <v>0.95</v>
+      </c>
+      <c r="AQ255">
         <v>1.33</v>
       </c>
-      <c r="AO255">
-        <v>1.33</v>
-      </c>
-      <c r="AP255">
-        <v>1.26</v>
-      </c>
-      <c r="AQ255">
-        <v>1.26</v>
-      </c>
       <c r="AR255">
-        <v>1.62</v>
+        <v>1.46</v>
       </c>
       <c r="AS255">
-        <v>1.29</v>
+        <v>1.38</v>
       </c>
       <c r="AT255">
-        <v>2.91</v>
+        <v>2.84</v>
       </c>
       <c r="AU255">
         <v>5</v>
@@ -54463,25 +54463,25 @@
         <v>1.6</v>
       </c>
       <c r="AN257">
-        <v>1.2</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AO257">
-        <v>0.93</v>
+        <v>1.23</v>
       </c>
       <c r="AP257">
-        <v>1.37</v>
+        <v>1</v>
       </c>
       <c r="AQ257">
-        <v>0.95</v>
+        <v>1.18</v>
       </c>
       <c r="AR257">
-        <v>1.41</v>
+        <v>1.27</v>
       </c>
       <c r="AS257">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AT257">
-        <v>2.72</v>
+        <v>2.7</v>
       </c>
       <c r="AU257">
         <v>3</v>
@@ -54669,22 +54669,22 @@
         <v>1.76</v>
       </c>
       <c r="AN258">
-        <v>1.81</v>
+        <v>1.38</v>
       </c>
       <c r="AO258">
-        <v>0.44</v>
+        <v>0.75</v>
       </c>
       <c r="AP258">
-        <v>1.9</v>
+        <v>1.46</v>
       </c>
       <c r="AQ258">
-        <v>0.55</v>
+        <v>0.9</v>
       </c>
       <c r="AR258">
-        <v>1.48</v>
+        <v>1.38</v>
       </c>
       <c r="AS258">
-        <v>1.21</v>
+        <v>1.31</v>
       </c>
       <c r="AT258">
         <v>2.69</v>
@@ -55081,25 +55081,25 @@
         <v>1.65</v>
       </c>
       <c r="AN260">
-        <v>1.5</v>
+        <v>1.22</v>
       </c>
       <c r="AO260">
-        <v>0.88</v>
+        <v>0.97</v>
       </c>
       <c r="AP260">
-        <v>1.4</v>
+        <v>1.18</v>
       </c>
       <c r="AQ260">
-        <v>0.95</v>
+        <v>0.97</v>
       </c>
       <c r="AR260">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="AS260">
-        <v>1.26</v>
+        <v>1.3</v>
       </c>
       <c r="AT260">
-        <v>2.8</v>
+        <v>2.73</v>
       </c>
       <c r="AU260">
         <v>4</v>
@@ -55493,25 +55493,25 @@
         <v>1.54</v>
       </c>
       <c r="AN262">
-        <v>2.06</v>
+        <v>1.34</v>
       </c>
       <c r="AO262">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AP262">
-        <v>1.9</v>
+        <v>1.38</v>
       </c>
       <c r="AQ262">
-        <v>1.48</v>
+        <v>1.41</v>
       </c>
       <c r="AR262">
-        <v>1.59</v>
+        <v>1.44</v>
       </c>
       <c r="AS262">
-        <v>1.28</v>
+        <v>1.41</v>
       </c>
       <c r="AT262">
-        <v>2.87</v>
+        <v>2.85</v>
       </c>
       <c r="AU262">
         <v>2</v>
@@ -55905,25 +55905,25 @@
         <v>1.57</v>
       </c>
       <c r="AN264">
-        <v>1.27</v>
+        <v>1.03</v>
       </c>
       <c r="AO264">
-        <v>0.6899999999999999</v>
+        <v>0.97</v>
       </c>
       <c r="AP264">
-        <v>1.37</v>
+        <v>1.1</v>
       </c>
       <c r="AQ264">
-        <v>0.65</v>
+        <v>0.95</v>
       </c>
       <c r="AR264">
-        <v>1.58</v>
+        <v>1.45</v>
       </c>
       <c r="AS264">
-        <v>1.31</v>
+        <v>1.46</v>
       </c>
       <c r="AT264">
-        <v>2.89</v>
+        <v>2.91</v>
       </c>
       <c r="AU264">
         <v>5</v>
@@ -56111,25 +56111,25 @@
         <v>1.7</v>
       </c>
       <c r="AN265">
-        <v>1.06</v>
+        <v>1.25</v>
       </c>
       <c r="AO265">
-        <v>0.6899999999999999</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AP265">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AQ265">
-        <v>0.65</v>
+        <v>1</v>
       </c>
       <c r="AR265">
-        <v>1.47</v>
+        <v>1.4</v>
       </c>
       <c r="AS265">
-        <v>1.14</v>
+        <v>1.26</v>
       </c>
       <c r="AT265">
-        <v>2.61</v>
+        <v>2.66</v>
       </c>
       <c r="AU265">
         <v>6</v>
@@ -56317,25 +56317,25 @@
         <v>1.55</v>
       </c>
       <c r="AN266">
-        <v>1.88</v>
+        <v>1.42</v>
       </c>
       <c r="AO266">
-        <v>0.63</v>
+        <v>1.33</v>
       </c>
       <c r="AP266">
-        <v>1.9</v>
+        <v>1.46</v>
       </c>
       <c r="AQ266">
-        <v>0.84</v>
+        <v>1.38</v>
       </c>
       <c r="AR266">
-        <v>1.49</v>
+        <v>1.38</v>
       </c>
       <c r="AS266">
-        <v>1.3</v>
+        <v>1.42</v>
       </c>
       <c r="AT266">
-        <v>2.79</v>
+        <v>2.8</v>
       </c>
       <c r="AU266">
         <v>8</v>
@@ -56729,25 +56729,25 @@
         <v>1.44</v>
       </c>
       <c r="AN268">
-        <v>1.06</v>
+        <v>1.03</v>
       </c>
       <c r="AO268">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AP268">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="AQ268">
-        <v>1.26</v>
+        <v>1.33</v>
       </c>
       <c r="AR268">
-        <v>1.34</v>
+        <v>1.31</v>
       </c>
       <c r="AS268">
-        <v>1.33</v>
+        <v>1.4</v>
       </c>
       <c r="AT268">
-        <v>2.67</v>
+        <v>2.71</v>
       </c>
       <c r="AU268">
         <v>4</v>
@@ -56935,22 +56935,22 @@
         <v>1.82</v>
       </c>
       <c r="AN269">
-        <v>1.35</v>
+        <v>1.42</v>
       </c>
       <c r="AO269">
-        <v>0.9399999999999999</v>
+        <v>1.18</v>
       </c>
       <c r="AP269">
-        <v>1.35</v>
+        <v>1.41</v>
       </c>
       <c r="AQ269">
-        <v>0.95</v>
+        <v>1.18</v>
       </c>
       <c r="AR269">
-        <v>1.52</v>
+        <v>1.41</v>
       </c>
       <c r="AS269">
-        <v>1.32</v>
+        <v>1.43</v>
       </c>
       <c r="AT269">
         <v>2.84</v>
@@ -57141,25 +57141,25 @@
         <v>1.52</v>
       </c>
       <c r="AN270">
-        <v>1.06</v>
+        <v>0.73</v>
       </c>
       <c r="AO270">
-        <v>0.71</v>
+        <v>0.97</v>
       </c>
       <c r="AP270">
-        <v>1.26</v>
+        <v>0.9</v>
       </c>
       <c r="AQ270">
-        <v>0.65</v>
+        <v>0.95</v>
       </c>
       <c r="AR270">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AS270">
-        <v>1.31</v>
+        <v>1.45</v>
       </c>
       <c r="AT270">
-        <v>2.73</v>
+        <v>2.76</v>
       </c>
       <c r="AU270">
         <v>5</v>
@@ -57347,25 +57347,25 @@
         <v>1.61</v>
       </c>
       <c r="AN271">
-        <v>1.19</v>
+        <v>0.91</v>
       </c>
       <c r="AO271">
-        <v>0.82</v>
+        <v>1.03</v>
       </c>
       <c r="AP271">
-        <v>1.37</v>
+        <v>1</v>
       </c>
       <c r="AQ271">
-        <v>0.85</v>
+        <v>1.1</v>
       </c>
       <c r="AR271">
-        <v>1.39</v>
+        <v>1.24</v>
       </c>
       <c r="AS271">
-        <v>1.33</v>
+        <v>1.45</v>
       </c>
       <c r="AT271">
-        <v>2.72</v>
+        <v>2.69</v>
       </c>
       <c r="AU271">
         <v>6</v>
@@ -57965,25 +57965,25 @@
         <v>1.9</v>
       </c>
       <c r="AN274">
-        <v>2</v>
+        <v>1.38</v>
       </c>
       <c r="AO274">
-        <v>0.41</v>
+        <v>0.79</v>
       </c>
       <c r="AP274">
-        <v>1.9</v>
+        <v>1.38</v>
       </c>
       <c r="AQ274">
-        <v>0.55</v>
+        <v>0.9</v>
       </c>
       <c r="AR274">
-        <v>1.54</v>
+        <v>1.42</v>
       </c>
       <c r="AS274">
-        <v>1.22</v>
+        <v>1.31</v>
       </c>
       <c r="AT274">
-        <v>2.76</v>
+        <v>2.73</v>
       </c>
       <c r="AU274">
         <v>3</v>
@@ -58377,25 +58377,25 @@
         <v>1.6</v>
       </c>
       <c r="AN276">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AO276">
-        <v>1</v>
+        <v>1.03</v>
       </c>
       <c r="AP276">
-        <v>1.37</v>
+        <v>1.1</v>
       </c>
       <c r="AQ276">
-        <v>0.95</v>
+        <v>0.97</v>
       </c>
       <c r="AR276">
-        <v>1.58</v>
+        <v>1.44</v>
       </c>
       <c r="AS276">
-        <v>1.28</v>
+        <v>1.3</v>
       </c>
       <c r="AT276">
-        <v>2.86</v>
+        <v>2.74</v>
       </c>
       <c r="AU276">
         <v>9</v>
@@ -58583,25 +58583,25 @@
         <v>1.62</v>
       </c>
       <c r="AN277">
-        <v>1.25</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AO277">
-        <v>0.65</v>
+        <v>0.97</v>
       </c>
       <c r="AP277">
+        <v>0.95</v>
+      </c>
+      <c r="AQ277">
+        <v>1</v>
+      </c>
+      <c r="AR277">
+        <v>1.43</v>
+      </c>
+      <c r="AS277">
         <v>1.26</v>
       </c>
-      <c r="AQ277">
-        <v>0.65</v>
-      </c>
-      <c r="AR277">
-        <v>1.6</v>
-      </c>
-      <c r="AS277">
-        <v>1.1</v>
-      </c>
       <c r="AT277">
-        <v>2.7</v>
+        <v>2.69</v>
       </c>
       <c r="AU277">
         <v>3</v>
@@ -58995,25 +58995,25 @@
         <v>1.4</v>
       </c>
       <c r="AN279">
-        <v>1.18</v>
+        <v>1.29</v>
       </c>
       <c r="AO279">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AP279">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AQ279">
-        <v>1.48</v>
+        <v>1.41</v>
       </c>
       <c r="AR279">
-        <v>1.47</v>
+        <v>1.4</v>
       </c>
       <c r="AS279">
-        <v>1.3</v>
+        <v>1.43</v>
       </c>
       <c r="AT279">
-        <v>2.77</v>
+        <v>2.83</v>
       </c>
       <c r="AU279">
         <v>3</v>
@@ -59407,25 +59407,25 @@
         <v>1.6</v>
       </c>
       <c r="AN281">
-        <v>1.41</v>
+        <v>1.24</v>
       </c>
       <c r="AO281">
-        <v>0.9399999999999999</v>
+        <v>1.38</v>
       </c>
       <c r="AP281">
+        <v>1.18</v>
+      </c>
+      <c r="AQ281">
+        <v>1.46</v>
+      </c>
+      <c r="AR281">
+        <v>1.42</v>
+      </c>
+      <c r="AS281">
         <v>1.4</v>
       </c>
-      <c r="AQ281">
-        <v>1</v>
-      </c>
-      <c r="AR281">
-        <v>1.54</v>
-      </c>
-      <c r="AS281">
-        <v>1.27</v>
-      </c>
       <c r="AT281">
-        <v>2.81</v>
+        <v>2.82</v>
       </c>
       <c r="AU281">
         <v>3</v>
@@ -59613,25 +59613,25 @@
         <v>1.61</v>
       </c>
       <c r="AN282">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AO282">
-        <v>0.67</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AP282">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="AQ282">
-        <v>0.65</v>
+        <v>0.95</v>
       </c>
       <c r="AR282">
-        <v>1.32</v>
+        <v>1.29</v>
       </c>
       <c r="AS282">
-        <v>1.28</v>
+        <v>1.42</v>
       </c>
       <c r="AT282">
-        <v>2.6</v>
+        <v>2.71</v>
       </c>
       <c r="AU282">
         <v>0</v>
@@ -59819,25 +59819,25 @@
         <v>1.46</v>
       </c>
       <c r="AN283">
-        <v>1.18</v>
+        <v>0.8</v>
       </c>
       <c r="AO283">
-        <v>0.67</v>
+        <v>0.97</v>
       </c>
       <c r="AP283">
+        <v>0.9</v>
+      </c>
+      <c r="AQ283">
+        <v>1</v>
+      </c>
+      <c r="AR283">
+        <v>1.31</v>
+      </c>
+      <c r="AS283">
         <v>1.26</v>
       </c>
-      <c r="AQ283">
-        <v>0.65</v>
-      </c>
-      <c r="AR283">
-        <v>1.4</v>
-      </c>
-      <c r="AS283">
-        <v>1.12</v>
-      </c>
       <c r="AT283">
-        <v>2.52</v>
+        <v>2.57</v>
       </c>
       <c r="AU283">
         <v>5</v>
@@ -60025,25 +60025,25 @@
         <v>1.87</v>
       </c>
       <c r="AN284">
-        <v>1.28</v>
+        <v>1.34</v>
       </c>
       <c r="AO284">
-        <v>0.78</v>
+        <v>1.06</v>
       </c>
       <c r="AP284">
-        <v>1.35</v>
+        <v>1.41</v>
       </c>
       <c r="AQ284">
-        <v>0.85</v>
+        <v>1.1</v>
       </c>
       <c r="AR284">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AS284">
-        <v>1.32</v>
+        <v>1.46</v>
       </c>
       <c r="AT284">
-        <v>2.87</v>
+        <v>2.88</v>
       </c>
       <c r="AU284">
         <v>5</v>
@@ -60643,25 +60643,25 @@
         <v>1.57</v>
       </c>
       <c r="AN287">
-        <v>1.78</v>
+        <v>1.37</v>
       </c>
       <c r="AO287">
+        <v>1.34</v>
+      </c>
+      <c r="AP287">
+        <v>1.46</v>
+      </c>
+      <c r="AQ287">
+        <v>1.33</v>
+      </c>
+      <c r="AR287">
         <v>1.41</v>
       </c>
-      <c r="AP287">
-        <v>1.9</v>
-      </c>
-      <c r="AQ287">
-        <v>1.26</v>
-      </c>
-      <c r="AR287">
-        <v>1.52</v>
-      </c>
       <c r="AS287">
-        <v>1.33</v>
+        <v>1.39</v>
       </c>
       <c r="AT287">
-        <v>2.85</v>
+        <v>2.8</v>
       </c>
       <c r="AU287">
         <v>6</v>
@@ -60849,25 +60849,25 @@
         <v>1.68</v>
       </c>
       <c r="AN288">
-        <v>1.94</v>
+        <v>1.37</v>
       </c>
       <c r="AO288">
-        <v>1.06</v>
+        <v>1.23</v>
       </c>
       <c r="AP288">
-        <v>1.9</v>
+        <v>1.38</v>
       </c>
       <c r="AQ288">
-        <v>0.95</v>
+        <v>1.18</v>
       </c>
       <c r="AR288">
-        <v>1.52</v>
+        <v>1.41</v>
       </c>
       <c r="AS288">
-        <v>1.3</v>
+        <v>1.42</v>
       </c>
       <c r="AT288">
-        <v>2.82</v>
+        <v>2.83</v>
       </c>
       <c r="AU288">
         <v>6</v>
@@ -61261,25 +61261,25 @@
         <v>1.62</v>
       </c>
       <c r="AN290">
-        <v>1.29</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AO290">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="AP290">
-        <v>1.37</v>
+        <v>1</v>
       </c>
       <c r="AQ290">
-        <v>0.95</v>
+        <v>0.97</v>
       </c>
       <c r="AR290">
-        <v>1.41</v>
+        <v>1.26</v>
       </c>
       <c r="AS290">
         <v>1.27</v>
       </c>
       <c r="AT290">
-        <v>2.68</v>
+        <v>2.53</v>
       </c>
       <c r="AU290">
         <v>4</v>
@@ -61467,25 +61467,25 @@
         <v>1.53</v>
       </c>
       <c r="AN291">
-        <v>1.24</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AO291">
+        <v>1.39</v>
+      </c>
+      <c r="AP291">
+        <v>0.95</v>
+      </c>
+      <c r="AQ291">
         <v>1.41</v>
       </c>
-      <c r="AP291">
-        <v>1.26</v>
-      </c>
-      <c r="AQ291">
-        <v>1.48</v>
-      </c>
       <c r="AR291">
-        <v>1.56</v>
+        <v>1.44</v>
       </c>
       <c r="AS291">
-        <v>1.28</v>
+        <v>1.42</v>
       </c>
       <c r="AT291">
-        <v>2.84</v>
+        <v>2.86</v>
       </c>
       <c r="AU291">
         <v>8</v>
@@ -61879,25 +61879,25 @@
         <v>1.5</v>
       </c>
       <c r="AN293">
-        <v>1.28</v>
+        <v>1.31</v>
       </c>
       <c r="AO293">
-        <v>0.76</v>
+        <v>1.42</v>
       </c>
       <c r="AP293">
+        <v>1.33</v>
+      </c>
+      <c r="AQ293">
         <v>1.38</v>
       </c>
-      <c r="AQ293">
-        <v>0.84</v>
-      </c>
       <c r="AR293">
-        <v>1.44</v>
+        <v>1.39</v>
       </c>
       <c r="AS293">
-        <v>1.29</v>
+        <v>1.41</v>
       </c>
       <c r="AT293">
-        <v>2.73</v>
+        <v>2.8</v>
       </c>
       <c r="AU293">
         <v>3</v>
@@ -62085,25 +62085,25 @@
         <v>1.49</v>
       </c>
       <c r="AN294">
-        <v>1.35</v>
+        <v>1.03</v>
       </c>
       <c r="AO294">
-        <v>0.9399999999999999</v>
+        <v>1.42</v>
       </c>
       <c r="AP294">
-        <v>1.37</v>
+        <v>1.1</v>
       </c>
       <c r="AQ294">
-        <v>1</v>
+        <v>1.46</v>
       </c>
       <c r="AR294">
-        <v>1.6</v>
+        <v>1.44</v>
       </c>
       <c r="AS294">
-        <v>1.3</v>
+        <v>1.41</v>
       </c>
       <c r="AT294">
-        <v>2.9</v>
+        <v>2.85</v>
       </c>
       <c r="AU294">
         <v>5</v>
@@ -62497,25 +62497,25 @@
         <v>1.79</v>
       </c>
       <c r="AN296">
-        <v>1.39</v>
+        <v>1.19</v>
       </c>
       <c r="AO296">
-        <v>0.44</v>
+        <v>0.86</v>
       </c>
       <c r="AP296">
-        <v>1.4</v>
+        <v>1.18</v>
       </c>
       <c r="AQ296">
-        <v>0.55</v>
+        <v>0.9</v>
       </c>
       <c r="AR296">
-        <v>1.52</v>
+        <v>1.41</v>
       </c>
       <c r="AS296">
-        <v>1.22</v>
+        <v>1.31</v>
       </c>
       <c r="AT296">
-        <v>2.74</v>
+        <v>2.72</v>
       </c>
       <c r="AU296">
         <v>5</v>
@@ -63115,25 +63115,25 @@
         <v>1.58</v>
       </c>
       <c r="AN299">
-        <v>1.28</v>
+        <v>0.92</v>
       </c>
       <c r="AO299">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="AP299">
-        <v>1.26</v>
+        <v>0.9</v>
       </c>
       <c r="AQ299">
-        <v>0.95</v>
+        <v>0.97</v>
       </c>
       <c r="AR299">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AS299">
         <v>1.26</v>
       </c>
       <c r="AT299">
-        <v>2.66</v>
+        <v>2.57</v>
       </c>
       <c r="AU299">
         <v>7</v>
@@ -63321,25 +63321,25 @@
         <v>1.43</v>
       </c>
       <c r="AN300">
-        <v>1.37</v>
+        <v>1.35</v>
       </c>
       <c r="AO300">
-        <v>0.63</v>
+        <v>0.95</v>
       </c>
       <c r="AP300">
-        <v>1.35</v>
+        <v>1.41</v>
       </c>
       <c r="AQ300">
-        <v>0.65</v>
+        <v>1</v>
       </c>
       <c r="AR300">
-        <v>1.54</v>
+        <v>1.41</v>
       </c>
       <c r="AS300">
-        <v>1.11</v>
+        <v>1.27</v>
       </c>
       <c r="AT300">
-        <v>2.65</v>
+        <v>2.68</v>
       </c>
       <c r="AU300">
         <v>9</v>
@@ -63527,25 +63527,25 @@
         <v>1.66</v>
       </c>
       <c r="AN301">
-        <v>1.32</v>
+        <v>1.16</v>
       </c>
       <c r="AO301">
+        <v>1.35</v>
+      </c>
+      <c r="AP301">
+        <v>1.18</v>
+      </c>
+      <c r="AQ301">
         <v>1.33</v>
       </c>
-      <c r="AP301">
+      <c r="AR301">
         <v>1.4</v>
       </c>
-      <c r="AQ301">
-        <v>1.26</v>
-      </c>
-      <c r="AR301">
-        <v>1.51</v>
-      </c>
       <c r="AS301">
-        <v>1.34</v>
+        <v>1.38</v>
       </c>
       <c r="AT301">
-        <v>2.85</v>
+        <v>2.78</v>
       </c>
       <c r="AU301">
         <v>5</v>
@@ -63939,25 +63939,25 @@
         <v>1.85</v>
       </c>
       <c r="AN303">
-        <v>2</v>
+        <v>1.38</v>
       </c>
       <c r="AO303">
-        <v>0.74</v>
+        <v>1</v>
       </c>
       <c r="AP303">
-        <v>1.9</v>
+        <v>1.38</v>
       </c>
       <c r="AQ303">
-        <v>0.85</v>
+        <v>1.1</v>
       </c>
       <c r="AR303">
-        <v>1.52</v>
+        <v>1.41</v>
       </c>
       <c r="AS303">
-        <v>1.29</v>
+        <v>1.45</v>
       </c>
       <c r="AT303">
-        <v>2.81</v>
+        <v>2.86</v>
       </c>
       <c r="AU303">
         <v>4</v>
@@ -64145,25 +64145,25 @@
         <v>1.62</v>
       </c>
       <c r="AN304">
-        <v>1.84</v>
+        <v>1.46</v>
       </c>
       <c r="AO304">
-        <v>0.68</v>
+        <v>1</v>
       </c>
       <c r="AP304">
-        <v>1.9</v>
+        <v>1.46</v>
       </c>
       <c r="AQ304">
-        <v>0.65</v>
+        <v>0.95</v>
       </c>
       <c r="AR304">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AS304">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="AT304">
-        <v>2.83</v>
+        <v>2.84</v>
       </c>
       <c r="AU304">
         <v>11</v>
@@ -64969,25 +64969,25 @@
         <v>1.46</v>
       </c>
       <c r="AN308">
+        <v>1.32</v>
+      </c>
+      <c r="AO308">
+        <v>0.92</v>
+      </c>
+      <c r="AP308">
+        <v>1.33</v>
+      </c>
+      <c r="AQ308">
+        <v>0.9</v>
+      </c>
+      <c r="AR308">
         <v>1.37</v>
       </c>
-      <c r="AO308">
-        <v>0.58</v>
-      </c>
-      <c r="AP308">
-        <v>1.38</v>
-      </c>
-      <c r="AQ308">
-        <v>0.55</v>
-      </c>
-      <c r="AR308">
-        <v>1.42</v>
-      </c>
       <c r="AS308">
-        <v>1.22</v>
+        <v>1.32</v>
       </c>
       <c r="AT308">
-        <v>2.64</v>
+        <v>2.69</v>
       </c>
       <c r="AU308">
         <v>7</v>
@@ -65175,25 +65175,25 @@
         <v>2.18</v>
       </c>
       <c r="AN309">
-        <v>1.28</v>
+        <v>1.05</v>
       </c>
       <c r="AO309">
-        <v>1</v>
+        <v>1.21</v>
       </c>
       <c r="AP309">
-        <v>1.37</v>
+        <v>1.1</v>
       </c>
       <c r="AQ309">
-        <v>0.95</v>
+        <v>1.18</v>
       </c>
       <c r="AR309">
-        <v>1.61</v>
+        <v>1.45</v>
       </c>
       <c r="AS309">
-        <v>1.29</v>
+        <v>1.41</v>
       </c>
       <c r="AT309">
-        <v>2.9</v>
+        <v>2.86</v>
       </c>
       <c r="AU309">
         <v>7</v>
@@ -65381,25 +65381,25 @@
         <v>1.92</v>
       </c>
       <c r="AN310">
+        <v>0.95</v>
+      </c>
+      <c r="AO310">
+        <v>1.5</v>
+      </c>
+      <c r="AP310">
+        <v>1</v>
+      </c>
+      <c r="AQ310">
+        <v>1.46</v>
+      </c>
+      <c r="AR310">
         <v>1.28</v>
       </c>
-      <c r="AO310">
-        <v>1.06</v>
-      </c>
-      <c r="AP310">
-        <v>1.37</v>
-      </c>
-      <c r="AQ310">
-        <v>1</v>
-      </c>
-      <c r="AR310">
+      <c r="AS310">
         <v>1.43</v>
       </c>
-      <c r="AS310">
-        <v>1.29</v>
-      </c>
       <c r="AT310">
-        <v>2.72</v>
+        <v>2.71</v>
       </c>
       <c r="AU310">
         <v>4</v>
@@ -65587,22 +65587,22 @@
         <v>1.77</v>
       </c>
       <c r="AN311">
-        <v>1.33</v>
+        <v>0.97</v>
       </c>
       <c r="AO311">
-        <v>0.72</v>
+        <v>1.34</v>
       </c>
       <c r="AP311">
-        <v>1.26</v>
+        <v>0.95</v>
       </c>
       <c r="AQ311">
-        <v>0.84</v>
+        <v>1.38</v>
       </c>
       <c r="AR311">
-        <v>1.56</v>
+        <v>1.45</v>
       </c>
       <c r="AS311">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AT311">
         <v>2.85</v>
@@ -65793,25 +65793,25 @@
         <v>1.44</v>
       </c>
       <c r="AN312">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AO312">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="AP312">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="AQ312">
-        <v>1.48</v>
+        <v>1.41</v>
       </c>
       <c r="AR312">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AS312">
-        <v>1.28</v>
+        <v>1.42</v>
       </c>
       <c r="AT312">
-        <v>2.55</v>
+        <v>2.67</v>
       </c>
       <c r="AU312">
         <v>3</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Romania Liga I_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Romania Liga I_20232024.xlsx
@@ -51373,25 +51373,25 @@
         <v>2.2</v>
       </c>
       <c r="AN242">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AO242">
-        <v>0.7</v>
+        <v>0.47</v>
       </c>
       <c r="AP242">
-        <v>1.41</v>
+        <v>1.35</v>
       </c>
       <c r="AQ242">
-        <v>0.9</v>
+        <v>0.55</v>
       </c>
       <c r="AR242">
-        <v>1.42</v>
+        <v>1.56</v>
       </c>
       <c r="AS242">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="AT242">
-        <v>2.72</v>
+        <v>2.76</v>
       </c>
       <c r="AU242">
         <v>5</v>
@@ -51785,25 +51785,25 @@
         <v>1.67</v>
       </c>
       <c r="AN244">
-        <v>1.13</v>
+        <v>0.93</v>
       </c>
       <c r="AO244">
-        <v>1.1</v>
+        <v>0.93</v>
       </c>
       <c r="AP244">
-        <v>1.33</v>
+        <v>1.38</v>
       </c>
       <c r="AQ244">
-        <v>1.1</v>
+        <v>0.85</v>
       </c>
       <c r="AR244">
-        <v>1.36</v>
+        <v>1.44</v>
       </c>
       <c r="AS244">
-        <v>1.48</v>
+        <v>1.38</v>
       </c>
       <c r="AT244">
-        <v>2.84</v>
+        <v>2.82</v>
       </c>
       <c r="AU244">
         <v>9</v>
@@ -52197,25 +52197,25 @@
         <v>1.78</v>
       </c>
       <c r="AN246">
-        <v>1.33</v>
+        <v>2</v>
       </c>
       <c r="AO246">
-        <v>0.97</v>
+        <v>0.73</v>
       </c>
       <c r="AP246">
-        <v>1.38</v>
+        <v>1.9</v>
       </c>
       <c r="AQ246">
-        <v>1</v>
+        <v>0.65</v>
       </c>
       <c r="AR246">
-        <v>1.43</v>
+        <v>1.58</v>
       </c>
       <c r="AS246">
-        <v>1.27</v>
+        <v>1.14</v>
       </c>
       <c r="AT246">
-        <v>2.7</v>
+        <v>2.72</v>
       </c>
       <c r="AU246">
         <v>8</v>
@@ -52609,25 +52609,25 @@
         <v>1.85</v>
       </c>
       <c r="AN248">
-        <v>1.33</v>
+        <v>1.73</v>
       </c>
       <c r="AO248">
         <v>0.93</v>
       </c>
       <c r="AP248">
-        <v>1.46</v>
+        <v>1.9</v>
       </c>
       <c r="AQ248">
-        <v>0.97</v>
+        <v>0.95</v>
       </c>
       <c r="AR248">
-        <v>1.39</v>
+        <v>1.48</v>
       </c>
       <c r="AS248">
-        <v>1.26</v>
+        <v>1.18</v>
       </c>
       <c r="AT248">
-        <v>2.65</v>
+        <v>2.66</v>
       </c>
       <c r="AU248">
         <v>7</v>
@@ -52815,25 +52815,25 @@
         <v>1.64</v>
       </c>
       <c r="AN249">
-        <v>1.17</v>
+        <v>1.4</v>
       </c>
       <c r="AO249">
-        <v>1.03</v>
+        <v>0.73</v>
       </c>
       <c r="AP249">
-        <v>1.18</v>
+        <v>1.4</v>
       </c>
       <c r="AQ249">
-        <v>0.95</v>
+        <v>0.65</v>
       </c>
       <c r="AR249">
-        <v>1.43</v>
+        <v>1.55</v>
       </c>
       <c r="AS249">
-        <v>1.47</v>
+        <v>1.32</v>
       </c>
       <c r="AT249">
-        <v>2.9</v>
+        <v>2.87</v>
       </c>
       <c r="AU249">
         <v>4</v>
@@ -53021,25 +53021,25 @@
         <v>1.3</v>
       </c>
       <c r="AN250">
-        <v>0.9</v>
+        <v>0.93</v>
       </c>
       <c r="AO250">
-        <v>1.39</v>
+        <v>0.67</v>
       </c>
       <c r="AP250">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="AQ250">
-        <v>1.38</v>
+        <v>0.84</v>
       </c>
       <c r="AR250">
-        <v>1.3</v>
+        <v>1.34</v>
       </c>
       <c r="AS250">
-        <v>1.44</v>
+        <v>1.27</v>
       </c>
       <c r="AT250">
-        <v>2.74</v>
+        <v>2.61</v>
       </c>
       <c r="AU250">
         <v>6</v>
@@ -53433,25 +53433,25 @@
         <v>1.45</v>
       </c>
       <c r="AN252">
-        <v>0.68</v>
+        <v>0.93</v>
       </c>
       <c r="AO252">
-        <v>1.06</v>
+        <v>0.88</v>
       </c>
       <c r="AP252">
-        <v>0.9</v>
+        <v>1.26</v>
       </c>
       <c r="AQ252">
-        <v>1.1</v>
+        <v>0.85</v>
       </c>
       <c r="AR252">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="AS252">
-        <v>1.47</v>
+        <v>1.36</v>
       </c>
       <c r="AT252">
-        <v>2.77</v>
+        <v>2.76</v>
       </c>
       <c r="AU252">
         <v>7</v>
@@ -53639,25 +53639,25 @@
         <v>1.72</v>
       </c>
       <c r="AN253">
-        <v>1.45</v>
+        <v>1.38</v>
       </c>
       <c r="AO253">
-        <v>1.39</v>
+        <v>0.93</v>
       </c>
       <c r="AP253">
-        <v>1.41</v>
+        <v>1.35</v>
       </c>
       <c r="AQ253">
-        <v>1.46</v>
+        <v>1</v>
       </c>
       <c r="AR253">
-        <v>1.42</v>
+        <v>1.55</v>
       </c>
       <c r="AS253">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AT253">
-        <v>2.82</v>
+        <v>2.86</v>
       </c>
       <c r="AU253">
         <v>3</v>
@@ -54051,25 +54051,25 @@
         <v>1.53</v>
       </c>
       <c r="AN255">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AO255">
-        <v>1.19</v>
+        <v>1.33</v>
       </c>
       <c r="AP255">
-        <v>0.95</v>
+        <v>1.26</v>
       </c>
       <c r="AQ255">
-        <v>1.33</v>
+        <v>1.26</v>
       </c>
       <c r="AR255">
-        <v>1.46</v>
+        <v>1.62</v>
       </c>
       <c r="AS255">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AT255">
-        <v>2.84</v>
+        <v>2.91</v>
       </c>
       <c r="AU255">
         <v>5</v>
@@ -54463,25 +54463,25 @@
         <v>1.6</v>
       </c>
       <c r="AN257">
-        <v>0.9399999999999999</v>
+        <v>1.2</v>
       </c>
       <c r="AO257">
-        <v>1.23</v>
+        <v>0.93</v>
       </c>
       <c r="AP257">
-        <v>1</v>
+        <v>1.37</v>
       </c>
       <c r="AQ257">
-        <v>1.18</v>
+        <v>0.95</v>
       </c>
       <c r="AR257">
-        <v>1.27</v>
+        <v>1.41</v>
       </c>
       <c r="AS257">
-        <v>1.43</v>
+        <v>1.31</v>
       </c>
       <c r="AT257">
-        <v>2.7</v>
+        <v>2.72</v>
       </c>
       <c r="AU257">
         <v>3</v>
@@ -54669,22 +54669,22 @@
         <v>1.76</v>
       </c>
       <c r="AN258">
-        <v>1.38</v>
+        <v>1.81</v>
       </c>
       <c r="AO258">
-        <v>0.75</v>
+        <v>0.44</v>
       </c>
       <c r="AP258">
-        <v>1.46</v>
+        <v>1.9</v>
       </c>
       <c r="AQ258">
-        <v>0.9</v>
+        <v>0.55</v>
       </c>
       <c r="AR258">
-        <v>1.38</v>
+        <v>1.48</v>
       </c>
       <c r="AS258">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AT258">
         <v>2.69</v>
@@ -55081,25 +55081,25 @@
         <v>1.65</v>
       </c>
       <c r="AN260">
-        <v>1.22</v>
+        <v>1.5</v>
       </c>
       <c r="AO260">
-        <v>0.97</v>
+        <v>0.88</v>
       </c>
       <c r="AP260">
-        <v>1.18</v>
+        <v>1.4</v>
       </c>
       <c r="AQ260">
-        <v>0.97</v>
+        <v>0.95</v>
       </c>
       <c r="AR260">
-        <v>1.43</v>
+        <v>1.54</v>
       </c>
       <c r="AS260">
-        <v>1.3</v>
+        <v>1.26</v>
       </c>
       <c r="AT260">
-        <v>2.73</v>
+        <v>2.8</v>
       </c>
       <c r="AU260">
         <v>4</v>
@@ -55493,25 +55493,25 @@
         <v>1.54</v>
       </c>
       <c r="AN262">
-        <v>1.34</v>
+        <v>2.06</v>
       </c>
       <c r="AO262">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AP262">
-        <v>1.38</v>
+        <v>1.9</v>
       </c>
       <c r="AQ262">
-        <v>1.41</v>
+        <v>1.48</v>
       </c>
       <c r="AR262">
-        <v>1.44</v>
+        <v>1.59</v>
       </c>
       <c r="AS262">
-        <v>1.41</v>
+        <v>1.28</v>
       </c>
       <c r="AT262">
-        <v>2.85</v>
+        <v>2.87</v>
       </c>
       <c r="AU262">
         <v>2</v>
@@ -55905,25 +55905,25 @@
         <v>1.57</v>
       </c>
       <c r="AN264">
-        <v>1.03</v>
+        <v>1.27</v>
       </c>
       <c r="AO264">
-        <v>0.97</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AP264">
-        <v>1.1</v>
+        <v>1.37</v>
       </c>
       <c r="AQ264">
-        <v>0.95</v>
+        <v>0.65</v>
       </c>
       <c r="AR264">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AS264">
-        <v>1.46</v>
+        <v>1.31</v>
       </c>
       <c r="AT264">
-        <v>2.91</v>
+        <v>2.89</v>
       </c>
       <c r="AU264">
         <v>5</v>
@@ -56111,25 +56111,25 @@
         <v>1.7</v>
       </c>
       <c r="AN265">
-        <v>1.25</v>
+        <v>1.06</v>
       </c>
       <c r="AO265">
-        <v>0.9399999999999999</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AP265">
-        <v>1.33</v>
+        <v>1.38</v>
       </c>
       <c r="AQ265">
-        <v>1</v>
+        <v>0.65</v>
       </c>
       <c r="AR265">
-        <v>1.4</v>
+        <v>1.47</v>
       </c>
       <c r="AS265">
-        <v>1.26</v>
+        <v>1.14</v>
       </c>
       <c r="AT265">
-        <v>2.66</v>
+        <v>2.61</v>
       </c>
       <c r="AU265">
         <v>6</v>
@@ -56317,25 +56317,25 @@
         <v>1.55</v>
       </c>
       <c r="AN266">
-        <v>1.42</v>
+        <v>1.88</v>
       </c>
       <c r="AO266">
-        <v>1.33</v>
+        <v>0.63</v>
       </c>
       <c r="AP266">
-        <v>1.46</v>
+        <v>1.9</v>
       </c>
       <c r="AQ266">
-        <v>1.38</v>
+        <v>0.84</v>
       </c>
       <c r="AR266">
-        <v>1.38</v>
+        <v>1.49</v>
       </c>
       <c r="AS266">
-        <v>1.42</v>
+        <v>1.3</v>
       </c>
       <c r="AT266">
-        <v>2.8</v>
+        <v>2.79</v>
       </c>
       <c r="AU266">
         <v>8</v>
@@ -56729,25 +56729,25 @@
         <v>1.44</v>
       </c>
       <c r="AN268">
-        <v>1.03</v>
+        <v>1.06</v>
       </c>
       <c r="AO268">
-        <v>1.3</v>
+        <v>1.44</v>
       </c>
       <c r="AP268">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="AQ268">
+        <v>1.26</v>
+      </c>
+      <c r="AR268">
+        <v>1.34</v>
+      </c>
+      <c r="AS268">
         <v>1.33</v>
       </c>
-      <c r="AR268">
-        <v>1.31</v>
-      </c>
-      <c r="AS268">
-        <v>1.4</v>
-      </c>
       <c r="AT268">
-        <v>2.71</v>
+        <v>2.67</v>
       </c>
       <c r="AU268">
         <v>4</v>
@@ -56935,22 +56935,22 @@
         <v>1.82</v>
       </c>
       <c r="AN269">
-        <v>1.42</v>
+        <v>1.35</v>
       </c>
       <c r="AO269">
-        <v>1.18</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AP269">
-        <v>1.41</v>
+        <v>1.35</v>
       </c>
       <c r="AQ269">
-        <v>1.18</v>
+        <v>0.95</v>
       </c>
       <c r="AR269">
-        <v>1.41</v>
+        <v>1.52</v>
       </c>
       <c r="AS269">
-        <v>1.43</v>
+        <v>1.32</v>
       </c>
       <c r="AT269">
         <v>2.84</v>
@@ -57141,25 +57141,25 @@
         <v>1.52</v>
       </c>
       <c r="AN270">
-        <v>0.73</v>
+        <v>1.06</v>
       </c>
       <c r="AO270">
-        <v>0.97</v>
+        <v>0.71</v>
       </c>
       <c r="AP270">
-        <v>0.9</v>
+        <v>1.26</v>
       </c>
       <c r="AQ270">
-        <v>0.95</v>
+        <v>0.65</v>
       </c>
       <c r="AR270">
+        <v>1.42</v>
+      </c>
+      <c r="AS270">
         <v>1.31</v>
       </c>
-      <c r="AS270">
-        <v>1.45</v>
-      </c>
       <c r="AT270">
-        <v>2.76</v>
+        <v>2.73</v>
       </c>
       <c r="AU270">
         <v>5</v>
@@ -57347,25 +57347,25 @@
         <v>1.61</v>
       </c>
       <c r="AN271">
-        <v>0.91</v>
+        <v>1.19</v>
       </c>
       <c r="AO271">
-        <v>1.03</v>
+        <v>0.82</v>
       </c>
       <c r="AP271">
-        <v>1</v>
+        <v>1.37</v>
       </c>
       <c r="AQ271">
-        <v>1.1</v>
+        <v>0.85</v>
       </c>
       <c r="AR271">
-        <v>1.24</v>
+        <v>1.39</v>
       </c>
       <c r="AS271">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AT271">
-        <v>2.69</v>
+        <v>2.72</v>
       </c>
       <c r="AU271">
         <v>6</v>
@@ -57965,25 +57965,25 @@
         <v>1.9</v>
       </c>
       <c r="AN274">
-        <v>1.38</v>
+        <v>2</v>
       </c>
       <c r="AO274">
-        <v>0.79</v>
+        <v>0.41</v>
       </c>
       <c r="AP274">
-        <v>1.38</v>
+        <v>1.9</v>
       </c>
       <c r="AQ274">
-        <v>0.9</v>
+        <v>0.55</v>
       </c>
       <c r="AR274">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AS274">
-        <v>1.31</v>
+        <v>1.22</v>
       </c>
       <c r="AT274">
-        <v>2.73</v>
+        <v>2.76</v>
       </c>
       <c r="AU274">
         <v>3</v>
@@ -58377,25 +58377,25 @@
         <v>1.6</v>
       </c>
       <c r="AN276">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AO276">
-        <v>1.03</v>
+        <v>1</v>
       </c>
       <c r="AP276">
-        <v>1.1</v>
+        <v>1.37</v>
       </c>
       <c r="AQ276">
-        <v>0.97</v>
+        <v>0.95</v>
       </c>
       <c r="AR276">
-        <v>1.44</v>
+        <v>1.58</v>
       </c>
       <c r="AS276">
-        <v>1.3</v>
+        <v>1.28</v>
       </c>
       <c r="AT276">
-        <v>2.74</v>
+        <v>2.86</v>
       </c>
       <c r="AU276">
         <v>9</v>
@@ -58583,25 +58583,25 @@
         <v>1.62</v>
       </c>
       <c r="AN277">
-        <v>0.9399999999999999</v>
+        <v>1.25</v>
       </c>
       <c r="AO277">
-        <v>0.97</v>
+        <v>0.65</v>
       </c>
       <c r="AP277">
-        <v>0.95</v>
+        <v>1.26</v>
       </c>
       <c r="AQ277">
-        <v>1</v>
+        <v>0.65</v>
       </c>
       <c r="AR277">
-        <v>1.43</v>
+        <v>1.6</v>
       </c>
       <c r="AS277">
-        <v>1.26</v>
+        <v>1.1</v>
       </c>
       <c r="AT277">
-        <v>2.69</v>
+        <v>2.7</v>
       </c>
       <c r="AU277">
         <v>3</v>
@@ -58995,25 +58995,25 @@
         <v>1.4</v>
       </c>
       <c r="AN279">
-        <v>1.29</v>
+        <v>1.18</v>
       </c>
       <c r="AO279">
+        <v>1.5</v>
+      </c>
+      <c r="AP279">
         <v>1.38</v>
       </c>
-      <c r="AP279">
-        <v>1.33</v>
-      </c>
       <c r="AQ279">
-        <v>1.41</v>
+        <v>1.48</v>
       </c>
       <c r="AR279">
-        <v>1.4</v>
+        <v>1.47</v>
       </c>
       <c r="AS279">
-        <v>1.43</v>
+        <v>1.3</v>
       </c>
       <c r="AT279">
-        <v>2.83</v>
+        <v>2.77</v>
       </c>
       <c r="AU279">
         <v>3</v>
@@ -59407,25 +59407,25 @@
         <v>1.6</v>
       </c>
       <c r="AN281">
-        <v>1.24</v>
+        <v>1.41</v>
       </c>
       <c r="AO281">
-        <v>1.38</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AP281">
-        <v>1.18</v>
+        <v>1.4</v>
       </c>
       <c r="AQ281">
-        <v>1.46</v>
+        <v>1</v>
       </c>
       <c r="AR281">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AS281">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AT281">
-        <v>2.82</v>
+        <v>2.81</v>
       </c>
       <c r="AU281">
         <v>3</v>
@@ -59613,25 +59613,25 @@
         <v>1.61</v>
       </c>
       <c r="AN282">
-        <v>1</v>
+        <v>1.06</v>
       </c>
       <c r="AO282">
-        <v>0.9399999999999999</v>
+        <v>0.67</v>
       </c>
       <c r="AP282">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="AQ282">
-        <v>0.95</v>
+        <v>0.65</v>
       </c>
       <c r="AR282">
-        <v>1.29</v>
+        <v>1.32</v>
       </c>
       <c r="AS282">
-        <v>1.42</v>
+        <v>1.28</v>
       </c>
       <c r="AT282">
-        <v>2.71</v>
+        <v>2.6</v>
       </c>
       <c r="AU282">
         <v>0</v>
@@ -59819,25 +59819,25 @@
         <v>1.46</v>
       </c>
       <c r="AN283">
-        <v>0.8</v>
+        <v>1.18</v>
       </c>
       <c r="AO283">
-        <v>0.97</v>
+        <v>0.67</v>
       </c>
       <c r="AP283">
-        <v>0.9</v>
+        <v>1.26</v>
       </c>
       <c r="AQ283">
-        <v>1</v>
+        <v>0.65</v>
       </c>
       <c r="AR283">
-        <v>1.31</v>
+        <v>1.4</v>
       </c>
       <c r="AS283">
-        <v>1.26</v>
+        <v>1.12</v>
       </c>
       <c r="AT283">
-        <v>2.57</v>
+        <v>2.52</v>
       </c>
       <c r="AU283">
         <v>5</v>
@@ -60025,25 +60025,25 @@
         <v>1.87</v>
       </c>
       <c r="AN284">
-        <v>1.34</v>
+        <v>1.28</v>
       </c>
       <c r="AO284">
-        <v>1.06</v>
+        <v>0.78</v>
       </c>
       <c r="AP284">
-        <v>1.41</v>
+        <v>1.35</v>
       </c>
       <c r="AQ284">
-        <v>1.1</v>
+        <v>0.85</v>
       </c>
       <c r="AR284">
-        <v>1.42</v>
+        <v>1.55</v>
       </c>
       <c r="AS284">
-        <v>1.46</v>
+        <v>1.32</v>
       </c>
       <c r="AT284">
-        <v>2.88</v>
+        <v>2.87</v>
       </c>
       <c r="AU284">
         <v>5</v>
@@ -60643,25 +60643,25 @@
         <v>1.57</v>
       </c>
       <c r="AN287">
-        <v>1.37</v>
+        <v>1.78</v>
       </c>
       <c r="AO287">
-        <v>1.34</v>
+        <v>1.41</v>
       </c>
       <c r="AP287">
-        <v>1.46</v>
+        <v>1.9</v>
       </c>
       <c r="AQ287">
+        <v>1.26</v>
+      </c>
+      <c r="AR287">
+        <v>1.52</v>
+      </c>
+      <c r="AS287">
         <v>1.33</v>
       </c>
-      <c r="AR287">
-        <v>1.41</v>
-      </c>
-      <c r="AS287">
-        <v>1.39</v>
-      </c>
       <c r="AT287">
-        <v>2.8</v>
+        <v>2.85</v>
       </c>
       <c r="AU287">
         <v>6</v>
@@ -60849,25 +60849,25 @@
         <v>1.68</v>
       </c>
       <c r="AN288">
-        <v>1.37</v>
+        <v>1.94</v>
       </c>
       <c r="AO288">
-        <v>1.23</v>
+        <v>1.06</v>
       </c>
       <c r="AP288">
-        <v>1.38</v>
+        <v>1.9</v>
       </c>
       <c r="AQ288">
-        <v>1.18</v>
+        <v>0.95</v>
       </c>
       <c r="AR288">
-        <v>1.41</v>
+        <v>1.52</v>
       </c>
       <c r="AS288">
-        <v>1.42</v>
+        <v>1.3</v>
       </c>
       <c r="AT288">
-        <v>2.83</v>
+        <v>2.82</v>
       </c>
       <c r="AU288">
         <v>6</v>
@@ -61261,25 +61261,25 @@
         <v>1.62</v>
       </c>
       <c r="AN290">
+        <v>1.29</v>
+      </c>
+      <c r="AO290">
         <v>0.9399999999999999</v>
       </c>
-      <c r="AO290">
-        <v>1</v>
-      </c>
       <c r="AP290">
-        <v>1</v>
+        <v>1.37</v>
       </c>
       <c r="AQ290">
-        <v>0.97</v>
+        <v>0.95</v>
       </c>
       <c r="AR290">
-        <v>1.26</v>
+        <v>1.41</v>
       </c>
       <c r="AS290">
         <v>1.27</v>
       </c>
       <c r="AT290">
-        <v>2.53</v>
+        <v>2.68</v>
       </c>
       <c r="AU290">
         <v>4</v>
@@ -61467,25 +61467,25 @@
         <v>1.53</v>
       </c>
       <c r="AN291">
-        <v>0.9399999999999999</v>
+        <v>1.24</v>
       </c>
       <c r="AO291">
-        <v>1.39</v>
+        <v>1.41</v>
       </c>
       <c r="AP291">
-        <v>0.95</v>
+        <v>1.26</v>
       </c>
       <c r="AQ291">
-        <v>1.41</v>
+        <v>1.48</v>
       </c>
       <c r="AR291">
-        <v>1.44</v>
+        <v>1.56</v>
       </c>
       <c r="AS291">
-        <v>1.42</v>
+        <v>1.28</v>
       </c>
       <c r="AT291">
-        <v>2.86</v>
+        <v>2.84</v>
       </c>
       <c r="AU291">
         <v>8</v>
@@ -61879,25 +61879,25 @@
         <v>1.5</v>
       </c>
       <c r="AN293">
-        <v>1.31</v>
+        <v>1.28</v>
       </c>
       <c r="AO293">
-        <v>1.42</v>
+        <v>0.76</v>
       </c>
       <c r="AP293">
-        <v>1.33</v>
+        <v>1.38</v>
       </c>
       <c r="AQ293">
-        <v>1.38</v>
+        <v>0.84</v>
       </c>
       <c r="AR293">
-        <v>1.39</v>
+        <v>1.44</v>
       </c>
       <c r="AS293">
-        <v>1.41</v>
+        <v>1.29</v>
       </c>
       <c r="AT293">
-        <v>2.8</v>
+        <v>2.73</v>
       </c>
       <c r="AU293">
         <v>3</v>
@@ -62085,25 +62085,25 @@
         <v>1.49</v>
       </c>
       <c r="AN294">
-        <v>1.03</v>
+        <v>1.35</v>
       </c>
       <c r="AO294">
-        <v>1.42</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AP294">
-        <v>1.1</v>
+        <v>1.37</v>
       </c>
       <c r="AQ294">
-        <v>1.46</v>
+        <v>1</v>
       </c>
       <c r="AR294">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AS294">
-        <v>1.41</v>
+        <v>1.3</v>
       </c>
       <c r="AT294">
-        <v>2.85</v>
+        <v>2.9</v>
       </c>
       <c r="AU294">
         <v>5</v>
@@ -62497,25 +62497,25 @@
         <v>1.79</v>
       </c>
       <c r="AN296">
-        <v>1.19</v>
+        <v>1.39</v>
       </c>
       <c r="AO296">
-        <v>0.86</v>
+        <v>0.44</v>
       </c>
       <c r="AP296">
-        <v>1.18</v>
+        <v>1.4</v>
       </c>
       <c r="AQ296">
-        <v>0.9</v>
+        <v>0.55</v>
       </c>
       <c r="AR296">
-        <v>1.41</v>
+        <v>1.52</v>
       </c>
       <c r="AS296">
-        <v>1.31</v>
+        <v>1.22</v>
       </c>
       <c r="AT296">
-        <v>2.72</v>
+        <v>2.74</v>
       </c>
       <c r="AU296">
         <v>5</v>
@@ -63115,25 +63115,25 @@
         <v>1.58</v>
       </c>
       <c r="AN299">
-        <v>0.92</v>
+        <v>1.28</v>
       </c>
       <c r="AO299">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AP299">
-        <v>0.9</v>
+        <v>1.26</v>
       </c>
       <c r="AQ299">
-        <v>0.97</v>
+        <v>0.95</v>
       </c>
       <c r="AR299">
-        <v>1.31</v>
+        <v>1.4</v>
       </c>
       <c r="AS299">
         <v>1.26</v>
       </c>
       <c r="AT299">
-        <v>2.57</v>
+        <v>2.66</v>
       </c>
       <c r="AU299">
         <v>7</v>
@@ -63321,25 +63321,25 @@
         <v>1.43</v>
       </c>
       <c r="AN300">
+        <v>1.37</v>
+      </c>
+      <c r="AO300">
+        <v>0.63</v>
+      </c>
+      <c r="AP300">
         <v>1.35</v>
       </c>
-      <c r="AO300">
-        <v>0.95</v>
-      </c>
-      <c r="AP300">
-        <v>1.41</v>
-      </c>
       <c r="AQ300">
-        <v>1</v>
+        <v>0.65</v>
       </c>
       <c r="AR300">
-        <v>1.41</v>
+        <v>1.54</v>
       </c>
       <c r="AS300">
-        <v>1.27</v>
+        <v>1.11</v>
       </c>
       <c r="AT300">
-        <v>2.68</v>
+        <v>2.65</v>
       </c>
       <c r="AU300">
         <v>9</v>
@@ -63527,25 +63527,25 @@
         <v>1.66</v>
       </c>
       <c r="AN301">
-        <v>1.16</v>
+        <v>1.32</v>
       </c>
       <c r="AO301">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="AP301">
-        <v>1.18</v>
+        <v>1.4</v>
       </c>
       <c r="AQ301">
-        <v>1.33</v>
+        <v>1.26</v>
       </c>
       <c r="AR301">
-        <v>1.4</v>
+        <v>1.51</v>
       </c>
       <c r="AS301">
-        <v>1.38</v>
+        <v>1.34</v>
       </c>
       <c r="AT301">
-        <v>2.78</v>
+        <v>2.85</v>
       </c>
       <c r="AU301">
         <v>5</v>
@@ -63939,25 +63939,25 @@
         <v>1.85</v>
       </c>
       <c r="AN303">
-        <v>1.38</v>
+        <v>2</v>
       </c>
       <c r="AO303">
-        <v>1</v>
+        <v>0.74</v>
       </c>
       <c r="AP303">
-        <v>1.38</v>
+        <v>1.9</v>
       </c>
       <c r="AQ303">
-        <v>1.1</v>
+        <v>0.85</v>
       </c>
       <c r="AR303">
-        <v>1.41</v>
+        <v>1.52</v>
       </c>
       <c r="AS303">
-        <v>1.45</v>
+        <v>1.29</v>
       </c>
       <c r="AT303">
-        <v>2.86</v>
+        <v>2.81</v>
       </c>
       <c r="AU303">
         <v>4</v>
@@ -64145,25 +64145,25 @@
         <v>1.62</v>
       </c>
       <c r="AN304">
-        <v>1.46</v>
+        <v>1.84</v>
       </c>
       <c r="AO304">
-        <v>1</v>
+        <v>0.68</v>
       </c>
       <c r="AP304">
-        <v>1.46</v>
+        <v>1.9</v>
       </c>
       <c r="AQ304">
-        <v>0.95</v>
+        <v>0.65</v>
       </c>
       <c r="AR304">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AS304">
-        <v>1.44</v>
+        <v>1.33</v>
       </c>
       <c r="AT304">
-        <v>2.84</v>
+        <v>2.83</v>
       </c>
       <c r="AU304">
         <v>11</v>
@@ -64969,25 +64969,25 @@
         <v>1.46</v>
       </c>
       <c r="AN308">
-        <v>1.32</v>
+        <v>1.37</v>
       </c>
       <c r="AO308">
-        <v>0.92</v>
+        <v>0.58</v>
       </c>
       <c r="AP308">
-        <v>1.33</v>
+        <v>1.38</v>
       </c>
       <c r="AQ308">
-        <v>0.9</v>
+        <v>0.55</v>
       </c>
       <c r="AR308">
-        <v>1.37</v>
+        <v>1.42</v>
       </c>
       <c r="AS308">
-        <v>1.32</v>
+        <v>1.22</v>
       </c>
       <c r="AT308">
-        <v>2.69</v>
+        <v>2.64</v>
       </c>
       <c r="AU308">
         <v>7</v>
@@ -65175,25 +65175,25 @@
         <v>2.18</v>
       </c>
       <c r="AN309">
-        <v>1.05</v>
+        <v>1.28</v>
       </c>
       <c r="AO309">
-        <v>1.21</v>
+        <v>1</v>
       </c>
       <c r="AP309">
-        <v>1.1</v>
+        <v>1.37</v>
       </c>
       <c r="AQ309">
-        <v>1.18</v>
+        <v>0.95</v>
       </c>
       <c r="AR309">
-        <v>1.45</v>
+        <v>1.61</v>
       </c>
       <c r="AS309">
-        <v>1.41</v>
+        <v>1.29</v>
       </c>
       <c r="AT309">
-        <v>2.86</v>
+        <v>2.9</v>
       </c>
       <c r="AU309">
         <v>7</v>
@@ -65381,25 +65381,25 @@
         <v>1.92</v>
       </c>
       <c r="AN310">
-        <v>0.95</v>
+        <v>1.28</v>
       </c>
       <c r="AO310">
-        <v>1.5</v>
+        <v>1.06</v>
       </c>
       <c r="AP310">
-        <v>1</v>
+        <v>1.37</v>
       </c>
       <c r="AQ310">
-        <v>1.46</v>
+        <v>1</v>
       </c>
       <c r="AR310">
-        <v>1.28</v>
+        <v>1.43</v>
       </c>
       <c r="AS310">
-        <v>1.43</v>
+        <v>1.29</v>
       </c>
       <c r="AT310">
-        <v>2.71</v>
+        <v>2.72</v>
       </c>
       <c r="AU310">
         <v>4</v>
@@ -65587,22 +65587,22 @@
         <v>1.77</v>
       </c>
       <c r="AN311">
-        <v>0.97</v>
+        <v>1.33</v>
       </c>
       <c r="AO311">
-        <v>1.34</v>
+        <v>0.72</v>
       </c>
       <c r="AP311">
-        <v>0.95</v>
+        <v>1.26</v>
       </c>
       <c r="AQ311">
-        <v>1.38</v>
+        <v>0.84</v>
       </c>
       <c r="AR311">
-        <v>1.45</v>
+        <v>1.56</v>
       </c>
       <c r="AS311">
-        <v>1.4</v>
+        <v>1.29</v>
       </c>
       <c r="AT311">
         <v>2.85</v>
@@ -65793,25 +65793,25 @@
         <v>1.44</v>
       </c>
       <c r="AN312">
-        <v>1</v>
+        <v>1.06</v>
       </c>
       <c r="AO312">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="AP312">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="AQ312">
-        <v>1.41</v>
+        <v>1.48</v>
       </c>
       <c r="AR312">
-        <v>1.25</v>
+        <v>1.27</v>
       </c>
       <c r="AS312">
-        <v>1.42</v>
+        <v>1.28</v>
       </c>
       <c r="AT312">
-        <v>2.67</v>
+        <v>2.55</v>
       </c>
       <c r="AU312">
         <v>3</v>
